--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\suji\SourceCode\SAP_Buildsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eyindia-my.sharepoint.com/personal/suraj_acharya_in_ey_com/Documents/Desktop/Unilever/SAP_Buildsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FBA0FB-E923-45D2-9233-2329FD358A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{38202DA4-C953-4025-91E7-766F3A774A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9E22C21-6580-4CA8-B57A-7E7A9AA2F990}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E86B7F64-D4B2-42B2-BB21-CEFB44C19956}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E86B7F64-D4B2-42B2-BB21-CEFB44C19956}"/>
   </bookViews>
   <sheets>
     <sheet name="SAP" sheetId="3" r:id="rId1"/>
@@ -139,10 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="114">
-  <si>
-    <t>op1x002a/op1x051a</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="113">
   <si>
     <t>Allocation in GB</t>
   </si>
@@ -174,10 +171,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve">P1Xsaplocal
-</t>
-  </si>
-  <si>
     <t>usrsap</t>
   </si>
   <si>
@@ -190,34 +183,12 @@
     <t>No</t>
   </si>
   <si>
-    <t>P1Xsap</t>
-  </si>
-  <si>
-    <t>/usr/sap/P1X</t>
-  </si>
-  <si>
     <t>DAAsap</t>
   </si>
   <si>
     <t>/usr/sap/DAA</t>
   </si>
   <si>
-    <t>P1Xascs</t>
-  </si>
-  <si>
-    <t>/usr/sap/P1X/ASCS01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1XNFS
-</t>
-  </si>
-  <si>
-    <t>/srv/nfs/op1x</t>
-  </si>
-  <si>
-    <t>op1X002</t>
-  </si>
-  <si>
     <t>interface</t>
   </si>
   <si>
@@ -227,39 +198,9 @@
     <t>trans</t>
   </si>
   <si>
-    <t>&lt;NFS Server&gt;:/srv/nfs/op1x/interface</t>
-  </si>
-  <si>
-    <t>/interface/sapp1x</t>
-  </si>
-  <si>
-    <t>&lt;NFS Server&gt;:/srv/nfs/op1x/sapmnt</t>
-  </si>
-  <si>
-    <t>/sapmnt/P1X</t>
-  </si>
-  <si>
-    <t>&lt;NFS Server&gt;:/srv/nfs/op1x/op1x002</t>
-  </si>
-  <si>
-    <t>/app/op1x002</t>
-  </si>
-  <si>
-    <t>&lt;NFS Server&gt;:/srv/nfs/op1x/trans</t>
-  </si>
-  <si>
     <t>/usr/sap/trans</t>
   </si>
   <si>
-    <t>P1X Hana Standalone on Azure</t>
-  </si>
-  <si>
-    <t>P1X - System DB</t>
-  </si>
-  <si>
-    <t>P1X - Tenant DB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Node 1 </t>
   </si>
   <si>
@@ -281,34 +222,13 @@
     <t>Category</t>
   </si>
   <si>
-    <t>P1Xsaplocal</t>
-  </si>
-  <si>
     <t>/usr/sap/</t>
   </si>
   <si>
-    <t>P1Xhanashared</t>
-  </si>
-  <si>
-    <t>P1Xshared</t>
-  </si>
-  <si>
     <t>/hana/shared/</t>
   </si>
   <si>
-    <t>P1Xhanalog</t>
-  </si>
-  <si>
-    <t>P1Xlog</t>
-  </si>
-  <si>
     <t>/hana/log/</t>
-  </si>
-  <si>
-    <t>P1Xhanadata</t>
-  </si>
-  <si>
-    <t>P1Xdata</t>
   </si>
   <si>
     <t>/hana/data/</t>
@@ -523,8 +443,84 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">P1XNFS
+    <t xml:space="preserve">SIDsaplocal
 </t>
+  </si>
+  <si>
+    <t>SIDsap</t>
+  </si>
+  <si>
+    <t>/usr/sap/SID</t>
+  </si>
+  <si>
+    <t>SIDascs</t>
+  </si>
+  <si>
+    <t>/usr/sap/SID/ASCS01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIDNFS
+</t>
+  </si>
+  <si>
+    <t>/srv/nfs/oSID</t>
+  </si>
+  <si>
+    <t>oSID002</t>
+  </si>
+  <si>
+    <t>&lt;NFS Server&gt;:/srv/nfs/oSID/interface</t>
+  </si>
+  <si>
+    <t>/interface/sapSID</t>
+  </si>
+  <si>
+    <t>&lt;NFS Server&gt;:/srv/nfs/oSID/sapmnt</t>
+  </si>
+  <si>
+    <t>/sapmnt/SID</t>
+  </si>
+  <si>
+    <t>&lt;NFS Server&gt;:/srv/nfs/oSID/oSID002</t>
+  </si>
+  <si>
+    <t>/app/oSID002</t>
+  </si>
+  <si>
+    <t>&lt;NFS Server&gt;:/srv/nfs/oSID/trans</t>
+  </si>
+  <si>
+    <t>oSID002a/oSID051a</t>
+  </si>
+  <si>
+    <t>SID Hana Standalone on Azure</t>
+  </si>
+  <si>
+    <t>SID - System DB</t>
+  </si>
+  <si>
+    <t>SID - Tenant DB</t>
+  </si>
+  <si>
+    <t>SIDsaplocal</t>
+  </si>
+  <si>
+    <t>SIDhanashared</t>
+  </si>
+  <si>
+    <t>SIDshared</t>
+  </si>
+  <si>
+    <t>SIDhanalog</t>
+  </si>
+  <si>
+    <t>SIDlog</t>
+  </si>
+  <si>
+    <t>SIDhanadata</t>
+  </si>
+  <si>
+    <t>SIDdata</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1053,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1234,6 +1230,19 @@
     <xf numFmtId="0" fontId="22" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1261,17 +1270,50 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1291,64 +1333,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2503,8 +2487,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AX22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2597,10 +2581,10 @@
     <row r="2" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52"/>
       <c r="B2" s="52" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
@@ -2626,7 +2610,7 @@
       <c r="Y2" s="52"/>
       <c r="Z2" s="52"/>
       <c r="AA2" s="52" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="AB2" s="52"/>
       <c r="AC2" s="52"/>
@@ -2708,7 +2692,7 @@
       <c r="A4" s="52"/>
       <c r="B4" s="52"/>
       <c r="C4" s="52" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D4" s="52"/>
       <c r="E4" s="52"/>
@@ -2786,7 +2770,7 @@
       <c r="Y5" s="52"/>
       <c r="Z5" s="52"/>
       <c r="AA5" s="52" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="AB5" s="52"/>
       <c r="AC5" s="52"/>
@@ -2918,7 +2902,7 @@
     </row>
     <row r="8" spans="1:50" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="65" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B8" s="65"/>
       <c r="C8" s="65"/>
@@ -3001,184 +2985,184 @@
       <c r="AB9" s="53"/>
       <c r="AC9" s="53"/>
       <c r="AD9" s="68" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AE9" s="69"/>
       <c r="AF9" s="68" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="AG9" s="69"/>
       <c r="AH9" s="68" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="AI9" s="69"/>
       <c r="AJ9" s="68" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="AK9" s="69"/>
       <c r="AL9" s="68" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="AM9" s="69"/>
       <c r="AN9" s="68" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="AO9" s="69"/>
       <c r="AP9" s="68" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="AQ9" s="69"/>
       <c r="AR9" s="63" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="AS9" s="63" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="AT9" s="63" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="AU9" s="63" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="AV9" s="63" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="AW9" s="66" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="AX9" s="63" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:50" ht="87" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="R10" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="S10" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="T10" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="U10" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="V10" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="W10" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="X10" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y10" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z10" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA10" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB10" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC10" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD10" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="AE10" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="M10" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="N10" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="O10" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="P10" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q10" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="R10" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="S10" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="T10" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="U10" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="V10" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="W10" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="X10" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y10" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z10" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA10" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB10" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC10" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD10" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE10" s="57" t="s">
-        <v>108</v>
-      </c>
       <c r="AF10" s="60" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AG10" s="57" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="AH10" s="60" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AI10" s="57" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="AJ10" s="60" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AK10" s="57" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="AL10" s="60" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM10" s="57" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="AN10" s="60" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AO10" s="57" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="AP10" s="60" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AQ10" s="57" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="AR10" s="64"/>
       <c r="AS10" s="64"/>
@@ -3187,7 +3171,7 @@
       <c r="AV10" s="64"/>
       <c r="AW10" s="67"/>
       <c r="AX10" s="64" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
@@ -3844,14 +3828,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="36.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="9" customWidth="1"/>
@@ -3869,54 +3853,54 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="A2" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="75"/>
     </row>
     <row r="3" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="73"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3926,33 +3910,33 @@
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>5</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="E5" s="80"/>
+      <c r="F5" s="70">
+        <v>1</v>
+      </c>
+      <c r="G5" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="H5" s="78">
+        <v>128</v>
+      </c>
+      <c r="I5" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="79">
-        <v>1</v>
-      </c>
-      <c r="G5" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="74">
-        <v>128</v>
-      </c>
-      <c r="I5" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="74">
+      <c r="J5" s="78">
         <v>128</v>
       </c>
     </row>
@@ -3960,55 +3944,55 @@
       <c r="A6" s="17">
         <v>70</v>
       </c>
-      <c r="B6" s="103"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="18" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
+        <v>89</v>
+      </c>
+      <c r="E6" s="81"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>20</v>
       </c>
-      <c r="B7" s="103"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
+        <v>15</v>
+      </c>
+      <c r="E7" s="81"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>20</v>
       </c>
-      <c r="B8" s="103"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="18" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
+        <v>91</v>
+      </c>
+      <c r="E8" s="82"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
@@ -4022,77 +4006,79 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="82">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="71">
         <v>128</v>
       </c>
-      <c r="B10" s="102" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="105" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="106" t="s">
-        <v>23</v>
+      <c r="B10" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>93</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="79">
+        <v>94</v>
+      </c>
+      <c r="F10" s="70">
         <v>1</v>
       </c>
-      <c r="G10" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="79">
+      <c r="G10" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="70">
         <v>128</v>
       </c>
-      <c r="I10" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="79">
+      <c r="I10" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="70">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="23"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="71"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="73"/>
       <c r="E11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+        <v>16</v>
+      </c>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="71"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
+        <v>17</v>
+      </c>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="71"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
+        <v>18</v>
+      </c>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
@@ -4108,12 +4094,12 @@
     </row>
     <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="29"/>
       <c r="D15" s="28" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -4124,12 +4110,12 @@
     </row>
     <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="29"/>
       <c r="D16" s="28" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -4140,12 +4126,12 @@
     </row>
     <row r="17" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -4156,12 +4142,12 @@
     </row>
     <row r="18" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -4171,21 +4157,25 @@
       <c r="J18" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
+  <mergeCells count="18">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B8"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="F5:F8"/>
     <mergeCell ref="G5:G8"/>
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="I5:I8"/>
     <mergeCell ref="J5:J8"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -4197,13 +4187,13 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
@@ -4213,12 +4203,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
+      <c r="A1" s="98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -4230,7 +4220,7 @@
     </row>
     <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -4246,7 +4236,7 @@
     </row>
     <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -4261,74 +4251,74 @@
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="86"/>
+      <c r="A4" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="E5" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="87" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="87" t="s">
+      <c r="F5" s="102" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="72" t="s">
+      <c r="I5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="89" t="s">
-        <v>10</v>
+      <c r="J5" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="85" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="88"/>
+      <c r="A6" s="103"/>
       <c r="B6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
+        <v>25</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
       <c r="G6" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="90"/>
+        <v>26</v>
+      </c>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="86"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
@@ -4347,73 +4337,73 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="40"/>
-      <c r="C8" s="99" t="s">
-        <v>46</v>
+      <c r="C8" s="87" t="s">
+        <v>106</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="96"/>
+        <v>27</v>
+      </c>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="95"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="40"/>
-      <c r="C9" s="100"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="38" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="97"/>
+        <v>89</v>
+      </c>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="96"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="41"/>
       <c r="B10" s="40"/>
-      <c r="C10" s="101"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="38" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="98"/>
+        <v>15</v>
+      </c>
+      <c r="F10" s="92"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="97"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="40"/>
       <c r="C11" s="42" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F11" s="43"/>
-      <c r="G11" s="94"/>
+      <c r="G11" s="93"/>
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
       <c r="J11" s="43"/>
@@ -4424,16 +4414,16 @@
       <c r="A12" s="41"/>
       <c r="B12" s="40"/>
       <c r="C12" s="45" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F12" s="43"/>
-      <c r="G12" s="94"/>
+      <c r="G12" s="93"/>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
       <c r="J12" s="43"/>
@@ -4444,16 +4434,16 @@
       <c r="A13" s="41"/>
       <c r="B13" s="40"/>
       <c r="C13" s="45" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F13" s="43"/>
-      <c r="G13" s="95"/>
+      <c r="G13" s="94"/>
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
@@ -4467,7 +4457,7 @@
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
       <c r="F14" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -4482,7 +4472,7 @@
       <c r="C15" s="32"/>
       <c r="D15" s="1"/>
       <c r="E15" s="48" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="F15" s="32">
         <f>SUM(F8:F14)</f>
@@ -4493,7 +4483,7 @@
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
       <c r="K15" s="32" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="L15" s="32">
         <f>SUM(L8:L14)</f>
@@ -4519,13 +4509,13 @@
       <c r="B17" s="49"/>
       <c r="C17" s="49"/>
       <c r="D17" s="50" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="49"/>
@@ -4535,14 +4525,7 @@
       <c r="L17" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
+  <mergeCells count="20">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A5:A6"/>
@@ -4555,6 +4538,14 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -5,18 +5,152 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eyindia-my.sharepoint.com/personal/suraj_acharya_in_ey_com/Documents/Desktop/Unilever/SAP_Buildsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\suji\SourceCode\Local\buildsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{38202DA4-C953-4025-91E7-766F3A774A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9E22C21-6580-4CA8-B57A-7E7A9AA2F990}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8900FB-F4B4-4ECD-981F-68067FF06A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E86B7F64-D4B2-42B2-BB21-CEFB44C19956}"/>
   </bookViews>
   <sheets>
     <sheet name="SAP" sheetId="3" r:id="rId1"/>
     <sheet name="SID_FS" sheetId="1" r:id="rId2"/>
-    <sheet name="SID_DB" sheetId="2" r:id="rId3"/>
+    <sheet name="SID_FS layout HANA" sheetId="2" r:id="rId3"/>
+    <sheet name="SID_FS Layout DB2" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="AvailabilityGroup">#REF!</definedName>
+    <definedName name="AWS_Ded_Region_Fee" hidden="1">#REF!</definedName>
+    <definedName name="AWS_EC2_Data_Eur" hidden="1">#REF!</definedName>
+    <definedName name="AWS_EC2_Data_Supp_Eur" hidden="1">#REF!</definedName>
+    <definedName name="AWS_EC2SQL_Data_Eur" hidden="1">#REF!</definedName>
+    <definedName name="AWS_EC2SQL_Data_Supp_Eur" hidden="1">#REF!</definedName>
+    <definedName name="AWS_LoadBal_Eur" hidden="1">#REF!</definedName>
+    <definedName name="AWS_LoadBal_Supp_Eur" hidden="1">#REF!</definedName>
+    <definedName name="AWS_NONDed_Region_Fee" hidden="1">#REF!</definedName>
+    <definedName name="AWS_SQLEC2_Compute_Eur" hidden="1">#REF!</definedName>
+    <definedName name="AWS_SQLEC2_Store_Eur" hidden="1">#REF!</definedName>
+    <definedName name="AWS_SQLEC2_Sup_Eur" hidden="1">#REF!</definedName>
+    <definedName name="AWS_SQLRDS_Compute_Eur" hidden="1">#REF!</definedName>
+    <definedName name="AWS_SQLRDS_Data_Eur" hidden="1">#REF!</definedName>
+    <definedName name="AWS_SQLRDS_Data_Supp_Eur" hidden="1">#REF!</definedName>
+    <definedName name="AWS_SQLRDS_Store_Eur" hidden="1">#REF!</definedName>
+    <definedName name="AWS_SQLRDS_Sup_Eur" hidden="1">#REF!</definedName>
+    <definedName name="AWS_Support_RATE" hidden="1">#REF!</definedName>
+    <definedName name="AWS_Win_Compute_Eur" hidden="1">#REF!</definedName>
+    <definedName name="AWS_Win_Store_Eur" hidden="1">#REF!</definedName>
+    <definedName name="AWS_Win_Sup_Eur" hidden="1">#REF!</definedName>
+    <definedName name="AWSNEW1" hidden="1">#REF!</definedName>
+    <definedName name="AWSNEW2" hidden="1">#REF!</definedName>
+    <definedName name="BLpar_Licences" hidden="1">#REF!</definedName>
+    <definedName name="Cost_per_BGb" hidden="1">#REF!</definedName>
+    <definedName name="Cost_per_BPU" hidden="1">#REF!</definedName>
+    <definedName name="Cost_per_Gb" hidden="1">#REF!</definedName>
+    <definedName name="Cost_per_GB_NEW_AWS" hidden="1">#REF!</definedName>
+    <definedName name="Cost_per_PU" hidden="1">#REF!</definedName>
+    <definedName name="Cost_per_Vcpu" hidden="1">#REF!</definedName>
+    <definedName name="Cost_per_Vcpu_AWSnew" hidden="1">#REF!</definedName>
+    <definedName name="CPU_higher_Cost_per_Vcpu" hidden="1">#REF!</definedName>
+    <definedName name="CPU_higher_Cost_per_VCPU_AWSnew" hidden="1">#REF!</definedName>
+    <definedName name="CPU_higher_Per_GB_of_Vram" hidden="1">#REF!</definedName>
+    <definedName name="CPU_higher_Per_GB_of_Vram_AWSnew" hidden="1">#REF!</definedName>
+    <definedName name="CSP">#REF!</definedName>
+    <definedName name="Decom_resource_cost_dedicatedsql" hidden="1">#REF!</definedName>
+    <definedName name="Decom_resource_cost_dedicatedsql_AWSnew" hidden="1">#REF!</definedName>
+    <definedName name="Decom_Resource_Cost_Linux" hidden="1">#REF!</definedName>
+    <definedName name="Decom_Resource_Cost_Lpar" hidden="1">#REF!</definedName>
+    <definedName name="Decom_Resource_Cost_Lpar_AWSnew" hidden="1">#REF!</definedName>
+    <definedName name="Decom_Resource_Cost_Phyical_Linux" hidden="1">#REF!</definedName>
+    <definedName name="Decom_Resource_Cost_Physical_Wintel" hidden="1">#REF!</definedName>
+    <definedName name="Decom_Resource_Cost_RDBMS_DB" hidden="1">#REF!</definedName>
+    <definedName name="Decom_Resource_Cost_RDBMS_Inst" hidden="1">#REF!</definedName>
+    <definedName name="Decom_resource_cost_SQL" hidden="1">#REF!</definedName>
+    <definedName name="Decom_Resource_Cost_SSAS_DB" hidden="1">#REF!</definedName>
+    <definedName name="Decom_Resource_Cost_SSAS_Inst" hidden="1">#REF!</definedName>
+    <definedName name="Decom_Resource_Cost_SSRS_Inst" hidden="1">#REF!</definedName>
+    <definedName name="Decom_Resource_Cost_Vm" hidden="1">#REF!</definedName>
+    <definedName name="decomms_saving" hidden="1">#REF!</definedName>
+    <definedName name="Deconm" hidden="1">#REF!</definedName>
+    <definedName name="DedAWS_YN" hidden="1">#REF!</definedName>
+    <definedName name="disk_cache">#REF!</definedName>
+    <definedName name="first_year_ongoing_run_costs">#REF!</definedName>
+    <definedName name="FRSTY_Activation" hidden="1">#REF!</definedName>
+    <definedName name="HCL_Comm_Run_Costs" hidden="1">#REF!</definedName>
+    <definedName name="HCL_LoadBal_Eur" hidden="1">#REF!</definedName>
+    <definedName name="HCL_SQLEC2_Comm_Sup" hidden="1">#REF!</definedName>
+    <definedName name="HCL_SQLEC2_Storage_Sup" hidden="1">#REF!</definedName>
+    <definedName name="HCL_SQLRDS_Comm_Sup" hidden="1">#REF!</definedName>
+    <definedName name="HCL_SQLRDS_Storage_Sup" hidden="1">#REF!</definedName>
+    <definedName name="HCL_Win_Comm_Sup" hidden="1">#REF!</definedName>
+    <definedName name="HCL_Win_Storage_Sup" hidden="1">#REF!</definedName>
+    <definedName name="HighLevel_Detailed">#REF!</definedName>
+    <definedName name="Licence_SQLEC2_Capex" hidden="1">#REF!</definedName>
+    <definedName name="Licence_SQLRDS_Capex" hidden="1">#REF!</definedName>
+    <definedName name="Licence_WIN_Capex" hidden="1">#REF!</definedName>
+    <definedName name="Licences" hidden="1">#REF!</definedName>
+    <definedName name="Linux_Licences_VM" hidden="1">#REF!</definedName>
+    <definedName name="Linux_run_costs" hidden="1">#REF!</definedName>
+    <definedName name="Linux_VM_run_costs" hidden="1">#REF!</definedName>
+    <definedName name="Load_balance_cost" hidden="1">#REF!</definedName>
+    <definedName name="Lpar_Licences" hidden="1">#REF!</definedName>
+    <definedName name="LPAR_run_costs" hidden="1">#REF!</definedName>
+    <definedName name="NetApp_cost_per_TB" hidden="1">#REF!</definedName>
+    <definedName name="Oracle_run_costs" hidden="1">#REF!</definedName>
+    <definedName name="OracleOSLookup">#REF!</definedName>
+    <definedName name="OracleOSSAPLookup">#REF!</definedName>
+    <definedName name="Per_GB_of_Vram" hidden="1">#REF!</definedName>
+    <definedName name="probability">#REF!</definedName>
+    <definedName name="Project_Type">#REF!</definedName>
+    <definedName name="RDBMS_database_capex" hidden="1">#REF!</definedName>
+    <definedName name="RDBMS_Database_Opex" hidden="1">#REF!</definedName>
+    <definedName name="RDBMS_instance_capex" hidden="1">#REF!</definedName>
+    <definedName name="RDBMS_instance_opex" hidden="1">#REF!</definedName>
+    <definedName name="RDSLookup">#REF!</definedName>
+    <definedName name="RegionLookup">#REF!</definedName>
+    <definedName name="ROE_USDtoEUR" hidden="1">#REF!</definedName>
+    <definedName name="run_costs" hidden="1">#REF!</definedName>
+    <definedName name="s" hidden="1">#REF!</definedName>
+    <definedName name="SAP_run_costs" hidden="1">#REF!</definedName>
+    <definedName name="SAPBEXdnldView" hidden="1">"3YAYRZMNLFAO9AL881FHB9WRK"</definedName>
+    <definedName name="SAPBEXrevision" hidden="1">1</definedName>
+    <definedName name="SAPBEXsysID" hidden="1">"BW1"</definedName>
+    <definedName name="SAPBEXwbID" hidden="1">"3REE9SCU5JQ790ESPQ0EB5GZI"</definedName>
+    <definedName name="SASS_database_capex" hidden="1">#REF!</definedName>
+    <definedName name="SASS_Database_Opex" hidden="1">#REF!</definedName>
+    <definedName name="SASS_instance_capex" hidden="1">#REF!</definedName>
+    <definedName name="SASS_instance_opex" hidden="1">#REF!</definedName>
+    <definedName name="service_segmentation">#REF!</definedName>
+    <definedName name="ServiceProviderLookup">#REF!</definedName>
+    <definedName name="SQL_run_costs" hidden="1">#REF!</definedName>
+    <definedName name="SQL_run_costs_final" hidden="1">#REF!</definedName>
+    <definedName name="SQLEC2_Mths_EOY" hidden="1">#REF!</definedName>
+    <definedName name="SQLRDS_Mths_EOY" hidden="1">#REF!</definedName>
+    <definedName name="SQLVersions">#REF!</definedName>
+    <definedName name="SSRS_instance_capex" hidden="1">#REF!</definedName>
+    <definedName name="SSRS_instance_opex" hidden="1">#REF!</definedName>
+    <definedName name="standardbuilds">#REF!</definedName>
+    <definedName name="Storage_run_costs" hidden="1">#REF!</definedName>
+    <definedName name="Tier_1_cost_per_TB" hidden="1">#REF!</definedName>
+    <definedName name="Tier_2_cost_per_TB" hidden="1">#REF!</definedName>
+    <definedName name="TOT_Lic_SQLEC2_Capex" hidden="1">#REF!</definedName>
+    <definedName name="TOT_Lic_SQLEC2_Opex" hidden="1">#REF!</definedName>
+    <definedName name="TOT_Lic_SQLRDS_Capex" hidden="1">#REF!</definedName>
+    <definedName name="TOT_Lic_SQLRDS_Opex" hidden="1">#REF!</definedName>
+    <definedName name="TOT_Lic_Win_Capex" hidden="1">#REF!</definedName>
+    <definedName name="TOT_Lic_Win_Opex" hidden="1">#REF!</definedName>
+    <definedName name="Total_SQL_Instances" hidden="1">#REF!</definedName>
+    <definedName name="Total_Win_Instances" hidden="1">#REF!</definedName>
+    <definedName name="Total_WINEC2_Instances" hidden="1">#REF!</definedName>
+    <definedName name="type">#REF!</definedName>
+    <definedName name="VIP_run_costs" hidden="1">#REF!</definedName>
+    <definedName name="VM_run_costs" hidden="1">#REF!</definedName>
+    <definedName name="WIN_Mths_EOY" hidden="1">#REF!</definedName>
+    <definedName name="Wintel_run_costs" hidden="1">#REF!</definedName>
+    <definedName name="WinVM_Large" hidden="1">#REF!</definedName>
+    <definedName name="WinVM_Med" hidden="1">#REF!</definedName>
+    <definedName name="WinVM_Small" hidden="1">#REF!</definedName>
+    <definedName name="WinVM_XL" hidden="1">#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +173,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Tony Wish</author>
-    <author>tc={D1AE9663-6187-48FC-AD29-B8CCBAB1971F}</author>
   </authors>
   <commentList>
     <comment ref="AR9" authorId="0" shapeId="0" xr:uid="{59B586DE-5746-44ED-8639-D5B6E4DF7CD8}">
@@ -89,15 +222,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="1" shapeId="0" xr:uid="{D1AE9663-6187-48FC-AD29-B8CCBAB1971F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    SLES 12 for SAP SP3,4,5
-SLES 15 for SAP SP 1,2</t>
-      </text>
-    </comment>
     <comment ref="S10" authorId="0" shapeId="0" xr:uid="{B74BE078-3EC2-473C-8A59-9F87BB412CB9}">
       <text>
         <r>
@@ -139,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="183">
   <si>
     <t>Allocation in GB</t>
   </si>
@@ -522,12 +646,229 @@
   <si>
     <t>SIDdata</t>
   </si>
+  <si>
+    <t>Standard SSD</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Summary LUN's</t>
+  </si>
+  <si>
+    <t>Node 1 - DB2 Primary</t>
+  </si>
+  <si>
+    <t>Allocation
+in GB</t>
+  </si>
+  <si>
+    <t>Storage
+Category</t>
+  </si>
+  <si>
+    <t>IOPS</t>
+  </si>
+  <si>
+    <t>Throughput
+(MB /Sec.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total
+</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>E30</t>
+  </si>
+  <si>
+    <t>/db2</t>
+  </si>
+  <si>
+    <t>E50</t>
+  </si>
+  <si>
+    <t>Read-Only</t>
+  </si>
+  <si>
+    <t>SID DB2 Filesystem Layout</t>
+  </si>
+  <si>
+    <t>Template SID SAP DB2 Database Linux Standalone on Azure</t>
+  </si>
+  <si>
+    <t>SIDdb2log</t>
+  </si>
+  <si>
+    <t>/db2/SID/log_dir</t>
+  </si>
+  <si>
+    <t>SIDdb2cntl</t>
+  </si>
+  <si>
+    <t>/db2/SID/db2SID</t>
+  </si>
+  <si>
+    <t>SIDdb2base</t>
+  </si>
+  <si>
+    <t>SIDdb2logarch</t>
+  </si>
+  <si>
+    <t>/db2/SID/logarch</t>
+  </si>
+  <si>
+    <t>SIDdb2logarch2</t>
+  </si>
+  <si>
+    <t>/db2/SID/logarch2</t>
+  </si>
+  <si>
+    <t>SIDdb2install</t>
+  </si>
+  <si>
+    <t>SIDdb2inst</t>
+  </si>
+  <si>
+    <t>/db2/db2SID</t>
+  </si>
+  <si>
+    <t>SIDdb2dump</t>
+  </si>
+  <si>
+    <t>/db2/SID/db2dump</t>
+  </si>
+  <si>
+    <t>SIDdb2data Stripe Size 256KB</t>
+  </si>
+  <si>
+    <t>SIDdb2data1</t>
+  </si>
+  <si>
+    <t>/db2/SID/sapdata1</t>
+  </si>
+  <si>
+    <t>SIDdb2data2</t>
+  </si>
+  <si>
+    <t>/db2/SID/sapdata2</t>
+  </si>
+  <si>
+    <t>SIDdb2data3</t>
+  </si>
+  <si>
+    <t>/db2/SID/sapdata3</t>
+  </si>
+  <si>
+    <t>SIDdb2data4</t>
+  </si>
+  <si>
+    <t>/db2/SID/sapdata4</t>
+  </si>
+  <si>
+    <t>SIDdb2data5</t>
+  </si>
+  <si>
+    <t>/db2/SID/sapdata5</t>
+  </si>
+  <si>
+    <t>SIDdb2data6</t>
+  </si>
+  <si>
+    <t>/db2/SID/sapdata6</t>
+  </si>
+  <si>
+    <t>SIDdb2data7</t>
+  </si>
+  <si>
+    <t>/db2/SID/sapdata7</t>
+  </si>
+  <si>
+    <t>SIDdb2data8</t>
+  </si>
+  <si>
+    <t>/db2/SID/sapdata8</t>
+  </si>
+  <si>
+    <t>SIDdb2data9</t>
+  </si>
+  <si>
+    <t>/db2/SID/sapdata9</t>
+  </si>
+  <si>
+    <t>SIDdb2data10</t>
+  </si>
+  <si>
+    <t>/db2/SID/sapdata10</t>
+  </si>
+  <si>
+    <t>SIDdb2data11</t>
+  </si>
+  <si>
+    <t>/db2/SID/sapdata11</t>
+  </si>
+  <si>
+    <t>SIDdb2data12</t>
+  </si>
+  <si>
+    <t>/db2/SID/sapdata12</t>
+  </si>
+  <si>
+    <t>SIDdb2data13</t>
+  </si>
+  <si>
+    <t>/db2/SID/sapdata13</t>
+  </si>
+  <si>
+    <t>SIDdb2data14</t>
+  </si>
+  <si>
+    <t>/db2/SID/sapdata14</t>
+  </si>
+  <si>
+    <t>SIDdb2data15</t>
+  </si>
+  <si>
+    <t>/db2/SID/sapdata15</t>
+  </si>
+  <si>
+    <t>SIDdb2data16</t>
+  </si>
+  <si>
+    <t>/db2/SID/sapdata16</t>
+  </si>
+  <si>
+    <t>tSID000a:/srv/nfs/tSID/sapmnt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,8 +1043,68 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="EYInterstate Light"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="EYInterstate Light"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="10"/>
+      <name val="EYInterstate Light"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,8 +1153,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1048,12 +1467,170 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1209,6 +1786,265 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1230,9 +2066,42 @@
     <xf numFmtId="0" fontId="22" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1243,38 +2112,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1283,6 +2137,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1291,54 +2163,210 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1 2" xfId="1" xr:uid="{A3D45083-618E-470E-920A-0ABBF7F5BC0B}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2146,9 +3174,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Rai, Harshit" id="{79E891A7-5688-48AE-8B7C-5E57CBF858A4}" userId="S::Harshit.Rai@unilever.com::4d44dce4-f9b6-4cc9-a28c-75ccfc912c0c" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2473,22 +3499,13 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H10" dT="2020-08-04T05:16:00.58" personId="{79E891A7-5688-48AE-8B7C-5E57CBF858A4}" id="{D1AE9663-6187-48FC-AD29-B8CCBAB1971F}">
-    <text>SLES 12 for SAP SP3,4,5
-SLES 15 for SAP SP 1,2</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241206E5-BF63-410A-8F59-4B4DF860CDAE}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AX22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2901,58 +3918,58 @@
       <c r="AX7" s="52"/>
     </row>
     <row r="8" spans="1:50" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="65"/>
-      <c r="AG8" s="65"/>
-      <c r="AH8" s="65"/>
-      <c r="AI8" s="65"/>
-      <c r="AJ8" s="65"/>
-      <c r="AK8" s="65"/>
-      <c r="AL8" s="65"/>
-      <c r="AM8" s="65"/>
-      <c r="AN8" s="65"/>
-      <c r="AO8" s="65"/>
-      <c r="AP8" s="65"/>
-      <c r="AQ8" s="65"/>
-      <c r="AR8" s="65"/>
-      <c r="AS8" s="65"/>
-      <c r="AT8" s="65"/>
-      <c r="AU8" s="65"/>
-      <c r="AV8" s="65"/>
-      <c r="AW8" s="65"/>
-      <c r="AX8" s="65"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="138"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="138"/>
+      <c r="Q8" s="138"/>
+      <c r="R8" s="138"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="138"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="138"/>
+      <c r="W8" s="138"/>
+      <c r="X8" s="138"/>
+      <c r="Y8" s="138"/>
+      <c r="Z8" s="138"/>
+      <c r="AA8" s="138"/>
+      <c r="AB8" s="138"/>
+      <c r="AC8" s="138"/>
+      <c r="AD8" s="138"/>
+      <c r="AE8" s="138"/>
+      <c r="AF8" s="138"/>
+      <c r="AG8" s="138"/>
+      <c r="AH8" s="138"/>
+      <c r="AI8" s="138"/>
+      <c r="AJ8" s="138"/>
+      <c r="AK8" s="138"/>
+      <c r="AL8" s="138"/>
+      <c r="AM8" s="138"/>
+      <c r="AN8" s="138"/>
+      <c r="AO8" s="138"/>
+      <c r="AP8" s="138"/>
+      <c r="AQ8" s="138"/>
+      <c r="AR8" s="138"/>
+      <c r="AS8" s="138"/>
+      <c r="AT8" s="138"/>
+      <c r="AU8" s="138"/>
+      <c r="AV8" s="138"/>
+      <c r="AW8" s="138"/>
+      <c r="AX8" s="138"/>
     </row>
     <row r="9" spans="1:50" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="53"/>
@@ -2984,53 +4001,53 @@
       <c r="AA9" s="53"/>
       <c r="AB9" s="53"/>
       <c r="AC9" s="53"/>
-      <c r="AD9" s="68" t="s">
+      <c r="AD9" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="AE9" s="69"/>
-      <c r="AF9" s="68" t="s">
+      <c r="AE9" s="142"/>
+      <c r="AF9" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="AG9" s="69"/>
-      <c r="AH9" s="68" t="s">
+      <c r="AG9" s="142"/>
+      <c r="AH9" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="AI9" s="69"/>
-      <c r="AJ9" s="68" t="s">
+      <c r="AI9" s="142"/>
+      <c r="AJ9" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="AK9" s="69"/>
-      <c r="AL9" s="68" t="s">
+      <c r="AK9" s="142"/>
+      <c r="AL9" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="AM9" s="69"/>
-      <c r="AN9" s="68" t="s">
+      <c r="AM9" s="142"/>
+      <c r="AN9" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="AO9" s="69"/>
-      <c r="AP9" s="68" t="s">
+      <c r="AO9" s="142"/>
+      <c r="AP9" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="AQ9" s="69"/>
-      <c r="AR9" s="63" t="s">
+      <c r="AQ9" s="142"/>
+      <c r="AR9" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="AS9" s="63" t="s">
+      <c r="AS9" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="AT9" s="63" t="s">
+      <c r="AT9" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="AU9" s="63" t="s">
+      <c r="AU9" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="AV9" s="63" t="s">
+      <c r="AV9" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="AW9" s="66" t="s">
+      <c r="AW9" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="AX9" s="63" t="s">
+      <c r="AX9" s="136" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3164,13 +4181,13 @@
       <c r="AQ10" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="AR10" s="64"/>
-      <c r="AS10" s="64"/>
-      <c r="AT10" s="64"/>
-      <c r="AU10" s="64"/>
-      <c r="AV10" s="64"/>
-      <c r="AW10" s="67"/>
-      <c r="AX10" s="64" t="s">
+      <c r="AR10" s="137"/>
+      <c r="AS10" s="137"/>
+      <c r="AT10" s="137"/>
+      <c r="AU10" s="137"/>
+      <c r="AV10" s="137"/>
+      <c r="AW10" s="140"/>
+      <c r="AX10" s="137" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3853,24 +4870,24 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="143" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="144"/>
     </row>
     <row r="3" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="145" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -3900,7 +4917,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="77"/>
+      <c r="B4" s="146"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3914,7 +4931,7 @@
       <c r="A5" s="17">
         <v>5</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="147" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -3923,20 +4940,20 @@
       <c r="D5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="70">
+      <c r="E5" s="149"/>
+      <c r="F5" s="152">
         <v>1</v>
       </c>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="78">
+      <c r="H5" s="147">
         <v>128</v>
       </c>
-      <c r="I5" s="78" t="s">
+      <c r="I5" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="78">
+      <c r="J5" s="147">
         <v>128</v>
       </c>
     </row>
@@ -3944,55 +4961,55 @@
       <c r="A6" s="17">
         <v>70</v>
       </c>
-      <c r="B6" s="79"/>
+      <c r="B6" s="148"/>
       <c r="C6" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="148"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>20</v>
       </c>
-      <c r="B7" s="79"/>
+      <c r="B7" s="148"/>
       <c r="C7" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>20</v>
       </c>
-      <c r="B8" s="79"/>
+      <c r="B8" s="148"/>
       <c r="C8" s="18" t="s">
         <v>90</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
@@ -4007,78 +5024,78 @@
       <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="71">
+      <c r="A10" s="155">
         <v>128</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="157" t="s">
         <v>93</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="152">
         <v>1</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="70">
+      <c r="H10" s="152">
         <v>128</v>
       </c>
-      <c r="I10" s="70" t="s">
+      <c r="I10" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="70">
+      <c r="J10" s="152">
         <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="73"/>
+      <c r="A11" s="155"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="157"/>
       <c r="E11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="152"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73"/>
+      <c r="A12" s="155"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="157"/>
       <c r="E12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="152"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
+      <c r="A13" s="155"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="157"/>
       <c r="E13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
@@ -4158,6 +5175,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B8"/>
@@ -4167,15 +5193,6 @@
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="I5:I8"/>
     <mergeCell ref="J5:J8"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -4187,8 +5204,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4203,12 +5220,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="158" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -4251,74 +5268,74 @@
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="101"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="161"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
+      <c r="A5" s="162"/>
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="102" t="s">
+      <c r="E5" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="102" t="s">
+      <c r="F5" s="162" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="76" t="s">
+      <c r="H5" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="76" t="s">
+      <c r="I5" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="76" t="s">
+      <c r="J5" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="76" t="s">
+      <c r="K5" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="85" t="s">
+      <c r="L5" s="164" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="103"/>
+      <c r="A6" s="163"/>
       <c r="B6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
       <c r="G6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="86"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="165"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
@@ -4337,7 +5354,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="40"/>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="172" t="s">
         <v>106</v>
       </c>
       <c r="D8" s="38" t="s">
@@ -4346,49 +5363,63 @@
       <c r="E8" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="95"/>
+      <c r="F8" s="166">
+        <v>1</v>
+      </c>
+      <c r="G8" s="166" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="166" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="166">
+        <v>64</v>
+      </c>
+      <c r="J8" s="166" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="169">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="40"/>
-      <c r="C9" s="88"/>
+      <c r="C9" s="173"/>
       <c r="D9" s="38" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="96"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="170"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="41"/>
       <c r="B10" s="40"/>
-      <c r="C10" s="89"/>
+      <c r="C10" s="174"/>
       <c r="D10" s="38" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="92"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="97"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="171"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
@@ -4402,13 +5433,25 @@
       <c r="E11" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="43"/>
+      <c r="F11" s="43">
+        <v>1</v>
+      </c>
+      <c r="G11" s="175"/>
+      <c r="H11" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="43">
+        <v>256</v>
+      </c>
+      <c r="J11" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" s="43">
+        <v>256</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
@@ -4422,13 +5465,25 @@
       <c r="E12" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
+      <c r="F12" s="43">
+        <v>1</v>
+      </c>
+      <c r="G12" s="175"/>
+      <c r="H12" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="43">
+        <v>128</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="43">
+        <v>128</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
@@ -4442,13 +5497,25 @@
       <c r="E13" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="43"/>
+      <c r="F13" s="43">
+        <v>1</v>
+      </c>
+      <c r="G13" s="176"/>
+      <c r="H13" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="43">
+        <v>256</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="43">
+        <v>256</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
@@ -4476,7 +5543,7 @@
       </c>
       <c r="F15" s="32">
         <f>SUM(F8:F14)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -4487,7 +5554,7 @@
       </c>
       <c r="L15" s="32">
         <f>SUM(L8:L14)</f>
-        <v>0</v>
+        <v>704</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -4526,6 +5593,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A5:A6"/>
@@ -4538,15 +5613,1488 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="L8:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AA1110-C737-425D-9585-DABC7B4C00D8}">
+  <dimension ref="A1:Q53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="63"/>
+      <c r="B1" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+    </row>
+    <row r="2" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="63"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="72"/>
+      <c r="G3" s="73">
+        <v>11</v>
+      </c>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="74">
+        <v>24096</v>
+      </c>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="75"/>
+    </row>
+    <row r="4" spans="1:17" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="76"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+    </row>
+    <row r="5" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+    </row>
+    <row r="6" spans="1:17" ht="51" x14ac:dyDescent="0.25">
+      <c r="A6" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="82"/>
+      <c r="C6" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="90"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="63"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="94"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="63"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="100"/>
+      <c r="C9" s="101">
+        <v>1</v>
+      </c>
+      <c r="D9" s="185" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="187">
+        <v>1</v>
+      </c>
+      <c r="H9" s="177" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="177" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="177">
+        <v>120</v>
+      </c>
+      <c r="K9" s="177">
+        <v>25</v>
+      </c>
+      <c r="L9" s="177">
+        <v>32</v>
+      </c>
+      <c r="M9" s="179" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="179"/>
+      <c r="O9" s="181">
+        <v>32</v>
+      </c>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="100"/>
+      <c r="C10" s="101">
+        <v>10</v>
+      </c>
+      <c r="D10" s="186"/>
+      <c r="E10" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="188"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="178"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="182"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="104">
+        <v>11</v>
+      </c>
+      <c r="D11" s="105"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="94"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="63"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="100"/>
+      <c r="C13" s="101">
+        <v>2045</v>
+      </c>
+      <c r="D13" s="183" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="102" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="177">
+        <v>2</v>
+      </c>
+      <c r="H13" s="177" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="177" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="177">
+        <v>5000</v>
+      </c>
+      <c r="K13" s="177">
+        <v>200</v>
+      </c>
+      <c r="L13" s="177">
+        <v>1024</v>
+      </c>
+      <c r="M13" s="179" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="179"/>
+      <c r="O13" s="189">
+        <v>2048</v>
+      </c>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="100"/>
+      <c r="C14" s="101">
+        <v>2</v>
+      </c>
+      <c r="D14" s="184"/>
+      <c r="E14" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="102" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="178"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="180"/>
+      <c r="O14" s="190"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="109">
+        <v>2047</v>
+      </c>
+      <c r="D15" s="105"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="94"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="63"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="94"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="63"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="100"/>
+      <c r="C18" s="101">
+        <v>267</v>
+      </c>
+      <c r="D18" s="185" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="102" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="102" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="177">
+        <v>1</v>
+      </c>
+      <c r="H18" s="177" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="177" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" s="177">
+        <v>5000</v>
+      </c>
+      <c r="K18" s="177">
+        <v>200</v>
+      </c>
+      <c r="L18" s="177">
+        <v>1024</v>
+      </c>
+      <c r="M18" s="179" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="177"/>
+      <c r="O18" s="189">
+        <v>1024</v>
+      </c>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="100"/>
+      <c r="C19" s="101">
+        <v>267</v>
+      </c>
+      <c r="D19" s="191"/>
+      <c r="E19" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="102" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="192"/>
+      <c r="H19" s="192"/>
+      <c r="I19" s="192"/>
+      <c r="J19" s="192"/>
+      <c r="K19" s="192"/>
+      <c r="L19" s="192"/>
+      <c r="M19" s="193"/>
+      <c r="N19" s="192"/>
+      <c r="O19" s="194"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="100"/>
+      <c r="C20" s="101">
+        <v>50</v>
+      </c>
+      <c r="D20" s="191"/>
+      <c r="E20" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="102" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="192"/>
+      <c r="H20" s="192"/>
+      <c r="I20" s="192"/>
+      <c r="J20" s="192"/>
+      <c r="K20" s="192"/>
+      <c r="L20" s="192"/>
+      <c r="M20" s="193"/>
+      <c r="N20" s="192"/>
+      <c r="O20" s="194"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="100"/>
+      <c r="C21" s="101">
+        <v>50</v>
+      </c>
+      <c r="D21" s="191"/>
+      <c r="E21" s="102" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="192"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="192"/>
+      <c r="J21" s="192"/>
+      <c r="K21" s="192"/>
+      <c r="L21" s="192"/>
+      <c r="M21" s="193"/>
+      <c r="N21" s="192"/>
+      <c r="O21" s="194"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="100"/>
+      <c r="C22" s="101">
+        <v>50</v>
+      </c>
+      <c r="D22" s="186"/>
+      <c r="E22" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="102" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="178"/>
+      <c r="K22" s="178"/>
+      <c r="L22" s="178"/>
+      <c r="M22" s="180"/>
+      <c r="N22" s="178"/>
+      <c r="O22" s="190"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="104">
+        <v>684</v>
+      </c>
+      <c r="D23" s="105"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="94"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="63"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="110">
+        <v>1</v>
+      </c>
+      <c r="C25" s="111">
+        <v>2560</v>
+      </c>
+      <c r="D25" s="195" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="102" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="102" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="177">
+        <v>10</v>
+      </c>
+      <c r="H25" s="177" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="187" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" s="177">
+        <v>60000</v>
+      </c>
+      <c r="K25" s="177">
+        <v>2000</v>
+      </c>
+      <c r="L25" s="177">
+        <v>4096</v>
+      </c>
+      <c r="M25" s="179" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="177" t="s">
+        <v>132</v>
+      </c>
+      <c r="O25" s="199">
+        <f>G25*L25</f>
+        <v>40960</v>
+      </c>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="110">
+        <v>2</v>
+      </c>
+      <c r="C26" s="111">
+        <v>2560</v>
+      </c>
+      <c r="D26" s="196"/>
+      <c r="E26" s="102" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="192"/>
+      <c r="H26" s="192"/>
+      <c r="I26" s="198"/>
+      <c r="J26" s="192"/>
+      <c r="K26" s="192"/>
+      <c r="L26" s="192"/>
+      <c r="M26" s="193"/>
+      <c r="N26" s="192"/>
+      <c r="O26" s="200"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="110">
+        <v>3</v>
+      </c>
+      <c r="C27" s="111">
+        <v>2560</v>
+      </c>
+      <c r="D27" s="196"/>
+      <c r="E27" s="102" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="192"/>
+      <c r="H27" s="192"/>
+      <c r="I27" s="198"/>
+      <c r="J27" s="192"/>
+      <c r="K27" s="192"/>
+      <c r="L27" s="192"/>
+      <c r="M27" s="193"/>
+      <c r="N27" s="192"/>
+      <c r="O27" s="200"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="110">
+        <v>4</v>
+      </c>
+      <c r="C28" s="111">
+        <v>2560</v>
+      </c>
+      <c r="D28" s="196"/>
+      <c r="E28" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" s="192"/>
+      <c r="H28" s="192"/>
+      <c r="I28" s="198"/>
+      <c r="J28" s="192"/>
+      <c r="K28" s="192"/>
+      <c r="L28" s="192"/>
+      <c r="M28" s="193"/>
+      <c r="N28" s="192"/>
+      <c r="O28" s="200"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="110">
+        <v>5</v>
+      </c>
+      <c r="C29" s="111">
+        <v>2560</v>
+      </c>
+      <c r="D29" s="196"/>
+      <c r="E29" s="102" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="102" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="192"/>
+      <c r="H29" s="192"/>
+      <c r="I29" s="198"/>
+      <c r="J29" s="192"/>
+      <c r="K29" s="192"/>
+      <c r="L29" s="192"/>
+      <c r="M29" s="193"/>
+      <c r="N29" s="192"/>
+      <c r="O29" s="200"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="110">
+        <v>6</v>
+      </c>
+      <c r="C30" s="111">
+        <v>2560</v>
+      </c>
+      <c r="D30" s="196"/>
+      <c r="E30" s="102" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="102" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" s="192"/>
+      <c r="H30" s="192"/>
+      <c r="I30" s="198"/>
+      <c r="J30" s="192"/>
+      <c r="K30" s="192"/>
+      <c r="L30" s="192"/>
+      <c r="M30" s="193"/>
+      <c r="N30" s="192"/>
+      <c r="O30" s="200"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="110">
+        <v>7</v>
+      </c>
+      <c r="C31" s="111">
+        <v>2560</v>
+      </c>
+      <c r="D31" s="196"/>
+      <c r="E31" s="102" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="102" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="192"/>
+      <c r="H31" s="192"/>
+      <c r="I31" s="198"/>
+      <c r="J31" s="192"/>
+      <c r="K31" s="192"/>
+      <c r="L31" s="192"/>
+      <c r="M31" s="193"/>
+      <c r="N31" s="192"/>
+      <c r="O31" s="200"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="110">
+        <v>8</v>
+      </c>
+      <c r="C32" s="111">
+        <v>2560</v>
+      </c>
+      <c r="D32" s="196"/>
+      <c r="E32" s="102" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" s="102" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" s="192"/>
+      <c r="H32" s="192"/>
+      <c r="I32" s="198"/>
+      <c r="J32" s="192"/>
+      <c r="K32" s="192"/>
+      <c r="L32" s="192"/>
+      <c r="M32" s="193"/>
+      <c r="N32" s="192"/>
+      <c r="O32" s="200"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="110">
+        <v>9</v>
+      </c>
+      <c r="C33" s="111">
+        <v>2560</v>
+      </c>
+      <c r="D33" s="196"/>
+      <c r="E33" s="102" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="102" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" s="192"/>
+      <c r="H33" s="192"/>
+      <c r="I33" s="198"/>
+      <c r="J33" s="192"/>
+      <c r="K33" s="192"/>
+      <c r="L33" s="192"/>
+      <c r="M33" s="193"/>
+      <c r="N33" s="192"/>
+      <c r="O33" s="200"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="110">
+        <v>10</v>
+      </c>
+      <c r="C34" s="111">
+        <v>2560</v>
+      </c>
+      <c r="D34" s="196"/>
+      <c r="E34" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="102" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="192"/>
+      <c r="H34" s="192"/>
+      <c r="I34" s="198"/>
+      <c r="J34" s="192"/>
+      <c r="K34" s="192"/>
+      <c r="L34" s="192"/>
+      <c r="M34" s="193"/>
+      <c r="N34" s="192"/>
+      <c r="O34" s="200"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="110">
+        <v>11</v>
+      </c>
+      <c r="C35" s="111">
+        <v>2560</v>
+      </c>
+      <c r="D35" s="196"/>
+      <c r="E35" s="102" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="102" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" s="192"/>
+      <c r="H35" s="192"/>
+      <c r="I35" s="198"/>
+      <c r="J35" s="192"/>
+      <c r="K35" s="192"/>
+      <c r="L35" s="192"/>
+      <c r="M35" s="193"/>
+      <c r="N35" s="192"/>
+      <c r="O35" s="200"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="110">
+        <v>12</v>
+      </c>
+      <c r="C36" s="111">
+        <v>2560</v>
+      </c>
+      <c r="D36" s="196"/>
+      <c r="E36" s="102" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" s="102" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" s="192"/>
+      <c r="H36" s="192"/>
+      <c r="I36" s="198"/>
+      <c r="J36" s="192"/>
+      <c r="K36" s="192"/>
+      <c r="L36" s="192"/>
+      <c r="M36" s="193"/>
+      <c r="N36" s="192"/>
+      <c r="O36" s="200"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="110">
+        <v>13</v>
+      </c>
+      <c r="C37" s="111">
+        <v>2560</v>
+      </c>
+      <c r="D37" s="196"/>
+      <c r="E37" s="102" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" s="102" t="s">
+        <v>175</v>
+      </c>
+      <c r="G37" s="192"/>
+      <c r="H37" s="192"/>
+      <c r="I37" s="198"/>
+      <c r="J37" s="192"/>
+      <c r="K37" s="192"/>
+      <c r="L37" s="192"/>
+      <c r="M37" s="193"/>
+      <c r="N37" s="192"/>
+      <c r="O37" s="200"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="110">
+        <v>14</v>
+      </c>
+      <c r="C38" s="111">
+        <v>2560</v>
+      </c>
+      <c r="D38" s="196"/>
+      <c r="E38" s="102" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="102" t="s">
+        <v>177</v>
+      </c>
+      <c r="G38" s="192"/>
+      <c r="H38" s="192"/>
+      <c r="I38" s="198"/>
+      <c r="J38" s="192"/>
+      <c r="K38" s="192"/>
+      <c r="L38" s="192"/>
+      <c r="M38" s="193"/>
+      <c r="N38" s="192"/>
+      <c r="O38" s="200"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="110">
+        <v>15</v>
+      </c>
+      <c r="C39" s="111">
+        <v>2560</v>
+      </c>
+      <c r="D39" s="196"/>
+      <c r="E39" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="G39" s="192"/>
+      <c r="H39" s="192"/>
+      <c r="I39" s="198"/>
+      <c r="J39" s="192"/>
+      <c r="K39" s="192"/>
+      <c r="L39" s="192"/>
+      <c r="M39" s="193"/>
+      <c r="N39" s="192"/>
+      <c r="O39" s="200"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="110">
+        <v>16</v>
+      </c>
+      <c r="C40" s="111">
+        <v>2560</v>
+      </c>
+      <c r="D40" s="197"/>
+      <c r="E40" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" s="102" t="s">
+        <v>181</v>
+      </c>
+      <c r="G40" s="178"/>
+      <c r="H40" s="178"/>
+      <c r="I40" s="188"/>
+      <c r="J40" s="178"/>
+      <c r="K40" s="178"/>
+      <c r="L40" s="178"/>
+      <c r="M40" s="180"/>
+      <c r="N40" s="178"/>
+      <c r="O40" s="201"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="104">
+        <f>SUM(C25:C40)</f>
+        <v>40960</v>
+      </c>
+      <c r="D41" s="105"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="108"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="103"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="108"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="63"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="100"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="177"/>
+      <c r="I43" s="115"/>
+      <c r="J43" s="115"/>
+      <c r="K43" s="115"/>
+      <c r="L43" s="115"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="116"/>
+      <c r="O43" s="117"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="104"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="178"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="107"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="108"/>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="63"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="103"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="107"/>
+      <c r="K45" s="107"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="108"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="63"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="103"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="107"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="107"/>
+      <c r="K46" s="107"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="108"/>
+      <c r="P46" s="63"/>
+      <c r="Q46" s="63"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="68"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="107"/>
+      <c r="J47" s="107"/>
+      <c r="K47" s="107"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="108"/>
+      <c r="P47" s="63"/>
+      <c r="Q47" s="63"/>
+    </row>
+    <row r="48" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="119"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="121"/>
+      <c r="H48" s="122"/>
+      <c r="I48" s="122"/>
+      <c r="J48" s="122"/>
+      <c r="K48" s="122"/>
+      <c r="L48" s="123"/>
+      <c r="M48" s="123"/>
+      <c r="N48" s="123"/>
+      <c r="O48" s="124"/>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="63"/>
+    </row>
+    <row r="49" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="125"/>
+      <c r="B49" s="126"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="130"/>
+      <c r="K49" s="130"/>
+      <c r="L49" s="125"/>
+      <c r="M49" s="125"/>
+      <c r="N49" s="125"/>
+      <c r="O49" s="125"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+    </row>
+    <row r="50" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B50" s="63"/>
+      <c r="C50" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="131"/>
+      <c r="E50" s="131"/>
+      <c r="F50" s="132"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="81"/>
+      <c r="P50" s="71"/>
+      <c r="Q50" s="71"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B51" s="63"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="133" t="s">
+        <v>182</v>
+      </c>
+      <c r="E51" s="134"/>
+      <c r="F51" s="133" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B52" s="63"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="133"/>
+      <c r="E52" s="134"/>
+      <c r="F52" s="133"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="63"/>
+      <c r="C53" s="135"/>
+      <c r="D53" s="133"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="133"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="K25:K40"/>
+    <mergeCell ref="L25:L40"/>
+    <mergeCell ref="M25:M40"/>
+    <mergeCell ref="N25:N40"/>
+    <mergeCell ref="O25:O40"/>
+    <mergeCell ref="D25:D40"/>
+    <mergeCell ref="G25:G40"/>
+    <mergeCell ref="H25:H40"/>
+    <mergeCell ref="I25:I40"/>
+    <mergeCell ref="J25:J40"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="I18:I22"/>
+    <mergeCell ref="J18:J22"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="L18:L22"/>
+    <mergeCell ref="M18:M22"/>
+    <mergeCell ref="N18:N22"/>
+    <mergeCell ref="O18:O22"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:O49">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$A3="hide"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:C52 D51:F52">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$B51="hide"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:F50">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$B50="hide"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53:F53">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$B63="hide"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50:O50">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>#REF!="hide"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9:N10 N13:N14 N25:N40 N43" xr:uid="{FE7E7E9D-0B3E-491A-A4AC-40C742F6E58F}">
+      <formula1>disk_cache</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\suji\SourceCode\Local\buildsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8900FB-F4B4-4ECD-981F-68067FF06A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C34433-78AA-48BD-8745-6CFE74744F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E86B7F64-D4B2-42B2-BB21-CEFB44C19956}"/>
   </bookViews>
   <sheets>
     <sheet name="SAP" sheetId="3" r:id="rId1"/>
-    <sheet name="SID_FS" sheetId="1" r:id="rId2"/>
-    <sheet name="SID_FS layout HANA" sheetId="2" r:id="rId3"/>
-    <sheet name="SID_FS Layout DB2" sheetId="4" r:id="rId4"/>
+    <sheet name="SID_FS NFS" sheetId="1" r:id="rId2"/>
+    <sheet name="SID_FS ASCS DR" sheetId="6" r:id="rId3"/>
+    <sheet name="SID_FS ASCS" sheetId="5" r:id="rId4"/>
+    <sheet name="SID_FS PAS DR" sheetId="7" r:id="rId5"/>
+    <sheet name="SID_FS layout HANA" sheetId="2" r:id="rId6"/>
+    <sheet name="SID_FS Layout DB2" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="AvailabilityGroup" localSheetId="3">#REF!</definedName>
+    <definedName name="AvailabilityGroup" localSheetId="2">#REF!</definedName>
+    <definedName name="AvailabilityGroup" localSheetId="4">#REF!</definedName>
     <definedName name="AvailabilityGroup">#REF!</definedName>
     <definedName name="AWS_Ded_Region_Fee" hidden="1">#REF!</definedName>
     <definedName name="AWS_EC2_Data_Eur" hidden="1">#REF!</definedName>
@@ -54,6 +60,9 @@
     <definedName name="CPU_higher_Cost_per_VCPU_AWSnew" hidden="1">#REF!</definedName>
     <definedName name="CPU_higher_Per_GB_of_Vram" hidden="1">#REF!</definedName>
     <definedName name="CPU_higher_Per_GB_of_Vram_AWSnew" hidden="1">#REF!</definedName>
+    <definedName name="CSP" localSheetId="3">#REF!</definedName>
+    <definedName name="CSP" localSheetId="2">#REF!</definedName>
+    <definedName name="CSP" localSheetId="4">#REF!</definedName>
     <definedName name="CSP">#REF!</definedName>
     <definedName name="Decom_resource_cost_dedicatedsql" hidden="1">#REF!</definedName>
     <definedName name="Decom_resource_cost_dedicatedsql_AWSnew" hidden="1">#REF!</definedName>
@@ -73,8 +82,15 @@
     <definedName name="Deconm" hidden="1">#REF!</definedName>
     <definedName name="DedAWS_YN" hidden="1">#REF!</definedName>
     <definedName name="disk_cache">#REF!</definedName>
+    <definedName name="fff">#REF!</definedName>
+    <definedName name="first_year_ongoing_run_costs" localSheetId="3">#REF!</definedName>
+    <definedName name="first_year_ongoing_run_costs" localSheetId="2">#REF!</definedName>
+    <definedName name="first_year_ongoing_run_costs" localSheetId="4">#REF!</definedName>
     <definedName name="first_year_ongoing_run_costs">#REF!</definedName>
     <definedName name="FRSTY_Activation" hidden="1">#REF!</definedName>
+    <definedName name="HCL_Comm_Run_Costs" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="HCL_Comm_Run_Costs" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="HCL_Comm_Run_Costs" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="HCL_Comm_Run_Costs" hidden="1">#REF!</definedName>
     <definedName name="HCL_LoadBal_Eur" hidden="1">#REF!</definedName>
     <definedName name="HCL_SQLEC2_Comm_Sup" hidden="1">#REF!</definedName>
@@ -83,9 +99,21 @@
     <definedName name="HCL_SQLRDS_Storage_Sup" hidden="1">#REF!</definedName>
     <definedName name="HCL_Win_Comm_Sup" hidden="1">#REF!</definedName>
     <definedName name="HCL_Win_Storage_Sup" hidden="1">#REF!</definedName>
+    <definedName name="HighLevel_Detailed" localSheetId="3">#REF!</definedName>
+    <definedName name="HighLevel_Detailed" localSheetId="2">#REF!</definedName>
+    <definedName name="HighLevel_Detailed" localSheetId="4">#REF!</definedName>
     <definedName name="HighLevel_Detailed">#REF!</definedName>
+    <definedName name="Licence_SQLEC2_Capex" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="Licence_SQLEC2_Capex" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="Licence_SQLEC2_Capex" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="Licence_SQLEC2_Capex" hidden="1">#REF!</definedName>
+    <definedName name="Licence_SQLRDS_Capex" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="Licence_SQLRDS_Capex" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="Licence_SQLRDS_Capex" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="Licence_SQLRDS_Capex" hidden="1">#REF!</definedName>
+    <definedName name="Licence_WIN_Capex" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="Licence_WIN_Capex" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="Licence_WIN_Capex" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="Licence_WIN_Capex" hidden="1">#REF!</definedName>
     <definedName name="Licences" hidden="1">#REF!</definedName>
     <definedName name="Linux_Licences_VM" hidden="1">#REF!</definedName>
@@ -96,7 +124,13 @@
     <definedName name="LPAR_run_costs" hidden="1">#REF!</definedName>
     <definedName name="NetApp_cost_per_TB" hidden="1">#REF!</definedName>
     <definedName name="Oracle_run_costs" hidden="1">#REF!</definedName>
+    <definedName name="OracleOSLookup" localSheetId="3">#REF!</definedName>
+    <definedName name="OracleOSLookup" localSheetId="2">#REF!</definedName>
+    <definedName name="OracleOSLookup" localSheetId="4">#REF!</definedName>
     <definedName name="OracleOSLookup">#REF!</definedName>
+    <definedName name="OracleOSSAPLookup" localSheetId="3">#REF!</definedName>
+    <definedName name="OracleOSSAPLookup" localSheetId="2">#REF!</definedName>
+    <definedName name="OracleOSSAPLookup" localSheetId="4">#REF!</definedName>
     <definedName name="OracleOSSAPLookup">#REF!</definedName>
     <definedName name="Per_GB_of_Vram" hidden="1">#REF!</definedName>
     <definedName name="probability">#REF!</definedName>
@@ -105,12 +139,25 @@
     <definedName name="RDBMS_Database_Opex" hidden="1">#REF!</definedName>
     <definedName name="RDBMS_instance_capex" hidden="1">#REF!</definedName>
     <definedName name="RDBMS_instance_opex" hidden="1">#REF!</definedName>
+    <definedName name="RDSLookup" localSheetId="3">#REF!</definedName>
+    <definedName name="RDSLookup" localSheetId="2">#REF!</definedName>
+    <definedName name="RDSLookup" localSheetId="4">#REF!</definedName>
     <definedName name="RDSLookup">#REF!</definedName>
+    <definedName name="RegionLookup" localSheetId="3">#REF!</definedName>
+    <definedName name="RegionLookup" localSheetId="2">#REF!</definedName>
+    <definedName name="RegionLookup" localSheetId="4">#REF!</definedName>
     <definedName name="RegionLookup">#REF!</definedName>
+    <definedName name="ROE_USDtoEUR" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="ROE_USDtoEUR" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="ROE_USDtoEUR" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="ROE_USDtoEUR" hidden="1">#REF!</definedName>
     <definedName name="run_costs" hidden="1">#REF!</definedName>
+    <definedName name="s" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="s" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="s" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="s" hidden="1">#REF!</definedName>
     <definedName name="SAP_run_costs" hidden="1">#REF!</definedName>
+    <definedName name="SAPAzureInstances1">#REF!</definedName>
     <definedName name="SAPBEXdnldView" hidden="1">"3YAYRZMNLFAO9AL881FHB9WRK"</definedName>
     <definedName name="SAPBEXrevision" hidden="1">1</definedName>
     <definedName name="SAPBEXsysID" hidden="1">"BW1"</definedName>
@@ -120,35 +167,83 @@
     <definedName name="SASS_instance_capex" hidden="1">#REF!</definedName>
     <definedName name="SASS_instance_opex" hidden="1">#REF!</definedName>
     <definedName name="service_segmentation">#REF!</definedName>
+    <definedName name="ServiceProviderLookup" localSheetId="3">#REF!</definedName>
+    <definedName name="ServiceProviderLookup" localSheetId="2">#REF!</definedName>
+    <definedName name="ServiceProviderLookup" localSheetId="4">#REF!</definedName>
     <definedName name="ServiceProviderLookup">#REF!</definedName>
     <definedName name="SQL_run_costs" hidden="1">#REF!</definedName>
     <definedName name="SQL_run_costs_final" hidden="1">#REF!</definedName>
     <definedName name="SQLEC2_Mths_EOY" hidden="1">#REF!</definedName>
     <definedName name="SQLRDS_Mths_EOY" hidden="1">#REF!</definedName>
+    <definedName name="SQLVersions" localSheetId="3">#REF!</definedName>
+    <definedName name="SQLVersions" localSheetId="2">#REF!</definedName>
+    <definedName name="SQLVersions" localSheetId="4">#REF!</definedName>
     <definedName name="SQLVersions">#REF!</definedName>
     <definedName name="SSRS_instance_capex" hidden="1">#REF!</definedName>
     <definedName name="SSRS_instance_opex" hidden="1">#REF!</definedName>
+    <definedName name="standardbuilds" localSheetId="3">#REF!</definedName>
+    <definedName name="standardbuilds" localSheetId="2">#REF!</definedName>
+    <definedName name="standardbuilds" localSheetId="4">#REF!</definedName>
     <definedName name="standardbuilds">#REF!</definedName>
     <definedName name="Storage_run_costs" hidden="1">#REF!</definedName>
     <definedName name="Tier_1_cost_per_TB" hidden="1">#REF!</definedName>
     <definedName name="Tier_2_cost_per_TB" hidden="1">#REF!</definedName>
+    <definedName name="TOT_Lic_SQLEC2_Capex" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="TOT_Lic_SQLEC2_Capex" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="TOT_Lic_SQLEC2_Capex" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="TOT_Lic_SQLEC2_Capex" hidden="1">#REF!</definedName>
+    <definedName name="TOT_Lic_SQLEC2_Opex" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="TOT_Lic_SQLEC2_Opex" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="TOT_Lic_SQLEC2_Opex" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="TOT_Lic_SQLEC2_Opex" hidden="1">#REF!</definedName>
+    <definedName name="TOT_Lic_SQLRDS_Capex" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="TOT_Lic_SQLRDS_Capex" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="TOT_Lic_SQLRDS_Capex" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="TOT_Lic_SQLRDS_Capex" hidden="1">#REF!</definedName>
+    <definedName name="TOT_Lic_SQLRDS_Opex" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="TOT_Lic_SQLRDS_Opex" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="TOT_Lic_SQLRDS_Opex" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="TOT_Lic_SQLRDS_Opex" hidden="1">#REF!</definedName>
+    <definedName name="TOT_Lic_Win_Capex" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="TOT_Lic_Win_Capex" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="TOT_Lic_Win_Capex" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="TOT_Lic_Win_Capex" hidden="1">#REF!</definedName>
+    <definedName name="TOT_Lic_Win_Opex" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="TOT_Lic_Win_Opex" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="TOT_Lic_Win_Opex" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="TOT_Lic_Win_Opex" hidden="1">#REF!</definedName>
+    <definedName name="Total_SQL_Instances" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="Total_SQL_Instances" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="Total_SQL_Instances" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="Total_SQL_Instances" hidden="1">#REF!</definedName>
+    <definedName name="Total_Win_Instances" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="Total_Win_Instances" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="Total_Win_Instances" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="Total_Win_Instances" hidden="1">#REF!</definedName>
     <definedName name="Total_WINEC2_Instances" hidden="1">#REF!</definedName>
+    <definedName name="type" localSheetId="3">#REF!</definedName>
+    <definedName name="type" localSheetId="2">#REF!</definedName>
+    <definedName name="type" localSheetId="4">#REF!</definedName>
     <definedName name="type">#REF!</definedName>
     <definedName name="VIP_run_costs" hidden="1">#REF!</definedName>
     <definedName name="VM_run_costs" hidden="1">#REF!</definedName>
     <definedName name="WIN_Mths_EOY" hidden="1">#REF!</definedName>
     <definedName name="Wintel_run_costs" hidden="1">#REF!</definedName>
+    <definedName name="WinVM_Large" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="WinVM_Large" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="WinVM_Large" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="WinVM_Large" hidden="1">#REF!</definedName>
+    <definedName name="WinVM_Med" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="WinVM_Med" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="WinVM_Med" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="WinVM_Med" hidden="1">#REF!</definedName>
+    <definedName name="WinVM_Small" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="WinVM_Small" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="WinVM_Small" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="WinVM_Small" hidden="1">#REF!</definedName>
+    <definedName name="WinVM_XL" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="WinVM_XL" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="WinVM_XL" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="WinVM_XL" hidden="1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -263,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="194">
   <si>
     <t>Allocation in GB</t>
   </si>
@@ -860,6 +955,40 @@
   <si>
     <t>tSID000a:/srv/nfs/tSID/sapmnt</t>
   </si>
+  <si>
+    <t xml:space="preserve">Primary 
+</t>
+  </si>
+  <si>
+    <t>ASCS</t>
+  </si>
+  <si>
+    <t>Resource Group</t>
+  </si>
+  <si>
+    <t>sap</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>P-SSD-M</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>ASCS - DR</t>
+  </si>
+  <si>
+    <t>PAS/AAS (including DR)</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>SID  SAP Filesystem Layout</t>
+  </si>
 </sst>
 </file>
 
@@ -868,7 +997,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1103,6 +1232,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1172,7 +1313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1624,13 +1765,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1785,7 +2015,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -2045,6 +2274,9 @@
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2066,44 +2298,14 @@
     <xf numFmtId="0" fontId="22" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2112,6 +2314,60 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2135,39 +2391,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2177,14 +2400,82 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -2201,73 +2492,183 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3173,10 +3574,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="EY">
   <a:themeElements>
@@ -3502,7 +3899,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241206E5-BF63-410A-8F59-4B4DF860CDAE}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AX22"/>
+  <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -4244,576 +4641,2032 @@
       <c r="AX11" s="61"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="62"/>
-      <c r="AD12" s="62"/>
-      <c r="AE12" s="62"/>
-      <c r="AF12" s="62"/>
-      <c r="AG12" s="62"/>
-      <c r="AH12" s="62"/>
-      <c r="AI12" s="62"/>
-      <c r="AJ12" s="62"/>
-      <c r="AK12" s="62"/>
-      <c r="AL12" s="62"/>
-      <c r="AM12" s="62"/>
-      <c r="AN12" s="62"/>
-      <c r="AO12" s="62"/>
-      <c r="AP12" s="62"/>
-      <c r="AQ12" s="62"/>
-      <c r="AR12" s="62"/>
-      <c r="AS12" s="62"/>
-      <c r="AT12" s="62"/>
-      <c r="AU12" s="62"/>
-      <c r="AV12" s="62"/>
-      <c r="AW12" s="62"/>
-      <c r="AX12" s="62"/>
+      <c r="A12" s="199"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="199"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="199"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="199"/>
+      <c r="K12" s="199"/>
+      <c r="L12" s="199"/>
+      <c r="M12" s="199"/>
+      <c r="N12" s="199"/>
+      <c r="O12" s="199"/>
+      <c r="P12" s="199"/>
+      <c r="Q12" s="199"/>
+      <c r="R12" s="199"/>
+      <c r="S12" s="199"/>
+      <c r="T12" s="199"/>
+      <c r="U12" s="199"/>
+      <c r="V12" s="199"/>
+      <c r="W12" s="199"/>
+      <c r="X12" s="199"/>
+      <c r="Y12" s="199"/>
+      <c r="Z12" s="199"/>
+      <c r="AA12" s="199"/>
+      <c r="AB12" s="199"/>
+      <c r="AC12" s="199"/>
+      <c r="AD12" s="199"/>
+      <c r="AE12" s="199"/>
+      <c r="AF12" s="199"/>
+      <c r="AG12" s="199"/>
+      <c r="AH12" s="199"/>
+      <c r="AI12" s="199"/>
+      <c r="AJ12" s="199"/>
+      <c r="AK12" s="199"/>
+      <c r="AL12" s="199"/>
+      <c r="AM12" s="199"/>
+      <c r="AN12" s="199"/>
+      <c r="AO12" s="199"/>
+      <c r="AP12" s="199"/>
+      <c r="AQ12" s="199"/>
+      <c r="AR12" s="199"/>
+      <c r="AS12" s="199"/>
+      <c r="AT12" s="199"/>
+      <c r="AU12" s="199"/>
+      <c r="AV12" s="199"/>
+      <c r="AW12" s="199"/>
+      <c r="AX12" s="199"/>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
-      <c r="AD13" s="62"/>
-      <c r="AE13" s="62"/>
-      <c r="AF13" s="62"/>
-      <c r="AG13" s="62"/>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="62"/>
-      <c r="AJ13" s="62"/>
-      <c r="AK13" s="62"/>
-      <c r="AL13" s="62"/>
-      <c r="AM13" s="62"/>
-      <c r="AN13" s="62"/>
-      <c r="AO13" s="62"/>
-      <c r="AP13" s="62"/>
-      <c r="AQ13" s="62"/>
-      <c r="AR13" s="62"/>
-      <c r="AS13" s="62"/>
-      <c r="AT13" s="62"/>
-      <c r="AU13" s="62"/>
-      <c r="AV13" s="62"/>
-      <c r="AW13" s="62"/>
-      <c r="AX13" s="62"/>
+      <c r="A13" s="199"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="199"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="199"/>
+      <c r="J13" s="199"/>
+      <c r="K13" s="199"/>
+      <c r="L13" s="199"/>
+      <c r="M13" s="199"/>
+      <c r="N13" s="199"/>
+      <c r="O13" s="199"/>
+      <c r="P13" s="199"/>
+      <c r="Q13" s="199"/>
+      <c r="R13" s="199"/>
+      <c r="S13" s="199"/>
+      <c r="T13" s="199"/>
+      <c r="U13" s="199"/>
+      <c r="V13" s="199"/>
+      <c r="W13" s="199"/>
+      <c r="X13" s="199"/>
+      <c r="Y13" s="199"/>
+      <c r="Z13" s="199"/>
+      <c r="AA13" s="199"/>
+      <c r="AB13" s="199"/>
+      <c r="AC13" s="199"/>
+      <c r="AD13" s="199"/>
+      <c r="AE13" s="199"/>
+      <c r="AF13" s="199"/>
+      <c r="AG13" s="199"/>
+      <c r="AH13" s="199"/>
+      <c r="AI13" s="199"/>
+      <c r="AJ13" s="199"/>
+      <c r="AK13" s="199"/>
+      <c r="AL13" s="199"/>
+      <c r="AM13" s="199"/>
+      <c r="AN13" s="199"/>
+      <c r="AO13" s="199"/>
+      <c r="AP13" s="199"/>
+      <c r="AQ13" s="199"/>
+      <c r="AR13" s="199"/>
+      <c r="AS13" s="199"/>
+      <c r="AT13" s="199"/>
+      <c r="AU13" s="199"/>
+      <c r="AV13" s="199"/>
+      <c r="AW13" s="199"/>
+      <c r="AX13" s="199"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
-      <c r="AD14" s="62"/>
-      <c r="AE14" s="62"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="62"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="62"/>
-      <c r="AK14" s="62"/>
-      <c r="AL14" s="62"/>
-      <c r="AM14" s="62"/>
-      <c r="AN14" s="62"/>
-      <c r="AO14" s="62"/>
-      <c r="AP14" s="62"/>
-      <c r="AQ14" s="62"/>
-      <c r="AR14" s="62"/>
-      <c r="AS14" s="62"/>
-      <c r="AT14" s="62"/>
-      <c r="AU14" s="62"/>
-      <c r="AV14" s="62"/>
-      <c r="AW14" s="62"/>
-      <c r="AX14" s="62"/>
+      <c r="A14" s="199"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="199"/>
+      <c r="D14" s="199"/>
+      <c r="E14" s="199"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="199"/>
+      <c r="H14" s="199"/>
+      <c r="I14" s="199"/>
+      <c r="J14" s="199"/>
+      <c r="K14" s="199"/>
+      <c r="L14" s="199"/>
+      <c r="M14" s="199"/>
+      <c r="N14" s="199"/>
+      <c r="O14" s="199"/>
+      <c r="P14" s="199"/>
+      <c r="Q14" s="199"/>
+      <c r="R14" s="199"/>
+      <c r="S14" s="199"/>
+      <c r="T14" s="199"/>
+      <c r="U14" s="199"/>
+      <c r="V14" s="199"/>
+      <c r="W14" s="199"/>
+      <c r="X14" s="199"/>
+      <c r="Y14" s="199"/>
+      <c r="Z14" s="199"/>
+      <c r="AA14" s="199"/>
+      <c r="AB14" s="199"/>
+      <c r="AC14" s="199"/>
+      <c r="AD14" s="199"/>
+      <c r="AE14" s="199"/>
+      <c r="AF14" s="199"/>
+      <c r="AG14" s="199"/>
+      <c r="AH14" s="199"/>
+      <c r="AI14" s="199"/>
+      <c r="AJ14" s="199"/>
+      <c r="AK14" s="199"/>
+      <c r="AL14" s="199"/>
+      <c r="AM14" s="199"/>
+      <c r="AN14" s="199"/>
+      <c r="AO14" s="199"/>
+      <c r="AP14" s="199"/>
+      <c r="AQ14" s="199"/>
+      <c r="AR14" s="199"/>
+      <c r="AS14" s="199"/>
+      <c r="AT14" s="199"/>
+      <c r="AU14" s="199"/>
+      <c r="AV14" s="199"/>
+      <c r="AW14" s="199"/>
+      <c r="AX14" s="199"/>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
-      <c r="AD15" s="62"/>
-      <c r="AE15" s="62"/>
-      <c r="AF15" s="62"/>
-      <c r="AG15" s="62"/>
-      <c r="AH15" s="62"/>
-      <c r="AI15" s="62"/>
-      <c r="AJ15" s="62"/>
-      <c r="AK15" s="62"/>
-      <c r="AL15" s="62"/>
-      <c r="AM15" s="62"/>
-      <c r="AN15" s="62"/>
-      <c r="AO15" s="62"/>
-      <c r="AP15" s="62"/>
-      <c r="AQ15" s="62"/>
-      <c r="AR15" s="62"/>
-      <c r="AS15" s="62"/>
-      <c r="AT15" s="62"/>
-      <c r="AU15" s="62"/>
-      <c r="AV15" s="62"/>
-      <c r="AW15" s="62"/>
-      <c r="AX15" s="62"/>
+      <c r="A15" s="199"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="199"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="199"/>
+      <c r="H15" s="199"/>
+      <c r="I15" s="199"/>
+      <c r="J15" s="199"/>
+      <c r="K15" s="199"/>
+      <c r="L15" s="199"/>
+      <c r="M15" s="199"/>
+      <c r="N15" s="199"/>
+      <c r="O15" s="199"/>
+      <c r="P15" s="199"/>
+      <c r="Q15" s="199"/>
+      <c r="R15" s="199"/>
+      <c r="S15" s="199"/>
+      <c r="T15" s="199"/>
+      <c r="U15" s="199"/>
+      <c r="V15" s="199"/>
+      <c r="W15" s="199"/>
+      <c r="X15" s="199"/>
+      <c r="Y15" s="199"/>
+      <c r="Z15" s="199"/>
+      <c r="AA15" s="199"/>
+      <c r="AB15" s="199"/>
+      <c r="AC15" s="199"/>
+      <c r="AD15" s="199"/>
+      <c r="AE15" s="199"/>
+      <c r="AF15" s="199"/>
+      <c r="AG15" s="199"/>
+      <c r="AH15" s="199"/>
+      <c r="AI15" s="199"/>
+      <c r="AJ15" s="199"/>
+      <c r="AK15" s="199"/>
+      <c r="AL15" s="199"/>
+      <c r="AM15" s="199"/>
+      <c r="AN15" s="199"/>
+      <c r="AO15" s="199"/>
+      <c r="AP15" s="199"/>
+      <c r="AQ15" s="199"/>
+      <c r="AR15" s="199"/>
+      <c r="AS15" s="199"/>
+      <c r="AT15" s="199"/>
+      <c r="AU15" s="199"/>
+      <c r="AV15" s="199"/>
+      <c r="AW15" s="199"/>
+      <c r="AX15" s="199"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
-      <c r="AD16" s="62"/>
-      <c r="AE16" s="62"/>
-      <c r="AF16" s="62"/>
-      <c r="AG16" s="62"/>
-      <c r="AH16" s="62"/>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="62"/>
-      <c r="AK16" s="62"/>
-      <c r="AL16" s="62"/>
-      <c r="AM16" s="62"/>
-      <c r="AN16" s="62"/>
-      <c r="AO16" s="62"/>
-      <c r="AP16" s="62"/>
-      <c r="AQ16" s="62"/>
-      <c r="AR16" s="62"/>
-      <c r="AS16" s="62"/>
-      <c r="AT16" s="62"/>
-      <c r="AU16" s="62"/>
-      <c r="AV16" s="62"/>
-      <c r="AW16" s="62"/>
-      <c r="AX16" s="62"/>
+      <c r="A16" s="199"/>
+      <c r="B16" s="199"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="199"/>
+      <c r="J16" s="199"/>
+      <c r="K16" s="199"/>
+      <c r="L16" s="199"/>
+      <c r="M16" s="199"/>
+      <c r="N16" s="199"/>
+      <c r="O16" s="199"/>
+      <c r="P16" s="199"/>
+      <c r="Q16" s="199"/>
+      <c r="R16" s="199"/>
+      <c r="S16" s="199"/>
+      <c r="T16" s="199"/>
+      <c r="U16" s="199"/>
+      <c r="V16" s="199"/>
+      <c r="W16" s="199"/>
+      <c r="X16" s="199"/>
+      <c r="Y16" s="199"/>
+      <c r="Z16" s="199"/>
+      <c r="AA16" s="199"/>
+      <c r="AB16" s="199"/>
+      <c r="AC16" s="199"/>
+      <c r="AD16" s="199"/>
+      <c r="AE16" s="199"/>
+      <c r="AF16" s="199"/>
+      <c r="AG16" s="199"/>
+      <c r="AH16" s="199"/>
+      <c r="AI16" s="199"/>
+      <c r="AJ16" s="199"/>
+      <c r="AK16" s="199"/>
+      <c r="AL16" s="199"/>
+      <c r="AM16" s="199"/>
+      <c r="AN16" s="199"/>
+      <c r="AO16" s="199"/>
+      <c r="AP16" s="199"/>
+      <c r="AQ16" s="199"/>
+      <c r="AR16" s="199"/>
+      <c r="AS16" s="199"/>
+      <c r="AT16" s="199"/>
+      <c r="AU16" s="199"/>
+      <c r="AV16" s="199"/>
+      <c r="AW16" s="199"/>
+      <c r="AX16" s="199"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="62"/>
-      <c r="AB17" s="62"/>
-      <c r="AC17" s="62"/>
-      <c r="AD17" s="62"/>
-      <c r="AE17" s="62"/>
-      <c r="AF17" s="62"/>
-      <c r="AG17" s="62"/>
-      <c r="AH17" s="62"/>
-      <c r="AI17" s="62"/>
-      <c r="AJ17" s="62"/>
-      <c r="AK17" s="62"/>
-      <c r="AL17" s="62"/>
-      <c r="AM17" s="62"/>
-      <c r="AN17" s="62"/>
-      <c r="AO17" s="62"/>
-      <c r="AP17" s="62"/>
-      <c r="AQ17" s="62"/>
-      <c r="AR17" s="62"/>
-      <c r="AS17" s="62"/>
-      <c r="AT17" s="62"/>
-      <c r="AU17" s="62"/>
-      <c r="AV17" s="62"/>
-      <c r="AW17" s="62"/>
-      <c r="AX17" s="62"/>
+      <c r="A17" s="199"/>
+      <c r="B17" s="199"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="199"/>
+      <c r="K17" s="199"/>
+      <c r="L17" s="199"/>
+      <c r="M17" s="199"/>
+      <c r="N17" s="199"/>
+      <c r="O17" s="199"/>
+      <c r="P17" s="199"/>
+      <c r="Q17" s="199"/>
+      <c r="R17" s="199"/>
+      <c r="S17" s="199"/>
+      <c r="T17" s="199"/>
+      <c r="U17" s="199"/>
+      <c r="V17" s="199"/>
+      <c r="W17" s="199"/>
+      <c r="X17" s="199"/>
+      <c r="Y17" s="199"/>
+      <c r="Z17" s="199"/>
+      <c r="AA17" s="199"/>
+      <c r="AB17" s="199"/>
+      <c r="AC17" s="199"/>
+      <c r="AD17" s="199"/>
+      <c r="AE17" s="199"/>
+      <c r="AF17" s="199"/>
+      <c r="AG17" s="199"/>
+      <c r="AH17" s="199"/>
+      <c r="AI17" s="199"/>
+      <c r="AJ17" s="199"/>
+      <c r="AK17" s="199"/>
+      <c r="AL17" s="199"/>
+      <c r="AM17" s="199"/>
+      <c r="AN17" s="199"/>
+      <c r="AO17" s="199"/>
+      <c r="AP17" s="199"/>
+      <c r="AQ17" s="199"/>
+      <c r="AR17" s="199"/>
+      <c r="AS17" s="199"/>
+      <c r="AT17" s="199"/>
+      <c r="AU17" s="199"/>
+      <c r="AV17" s="199"/>
+      <c r="AW17" s="199"/>
+      <c r="AX17" s="199"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="62"/>
-      <c r="AB18" s="62"/>
-      <c r="AC18" s="62"/>
-      <c r="AD18" s="62"/>
-      <c r="AE18" s="62"/>
-      <c r="AF18" s="62"/>
-      <c r="AG18" s="62"/>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="62"/>
-      <c r="AJ18" s="62"/>
-      <c r="AK18" s="62"/>
-      <c r="AL18" s="62"/>
-      <c r="AM18" s="62"/>
-      <c r="AN18" s="62"/>
-      <c r="AO18" s="62"/>
-      <c r="AP18" s="62"/>
-      <c r="AQ18" s="62"/>
-      <c r="AR18" s="62"/>
-      <c r="AS18" s="62"/>
-      <c r="AT18" s="62"/>
-      <c r="AU18" s="62"/>
-      <c r="AV18" s="62"/>
-      <c r="AW18" s="62"/>
-      <c r="AX18" s="62"/>
+      <c r="A18" s="199"/>
+      <c r="B18" s="199"/>
+      <c r="C18" s="199"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="199"/>
+      <c r="K18" s="199"/>
+      <c r="L18" s="199"/>
+      <c r="M18" s="199"/>
+      <c r="N18" s="199"/>
+      <c r="O18" s="199"/>
+      <c r="P18" s="199"/>
+      <c r="Q18" s="199"/>
+      <c r="R18" s="199"/>
+      <c r="S18" s="199"/>
+      <c r="T18" s="199"/>
+      <c r="U18" s="199"/>
+      <c r="V18" s="199"/>
+      <c r="W18" s="199"/>
+      <c r="X18" s="199"/>
+      <c r="Y18" s="199"/>
+      <c r="Z18" s="199"/>
+      <c r="AA18" s="199"/>
+      <c r="AB18" s="199"/>
+      <c r="AC18" s="199"/>
+      <c r="AD18" s="199"/>
+      <c r="AE18" s="199"/>
+      <c r="AF18" s="199"/>
+      <c r="AG18" s="199"/>
+      <c r="AH18" s="199"/>
+      <c r="AI18" s="199"/>
+      <c r="AJ18" s="199"/>
+      <c r="AK18" s="199"/>
+      <c r="AL18" s="199"/>
+      <c r="AM18" s="199"/>
+      <c r="AN18" s="199"/>
+      <c r="AO18" s="199"/>
+      <c r="AP18" s="199"/>
+      <c r="AQ18" s="199"/>
+      <c r="AR18" s="199"/>
+      <c r="AS18" s="199"/>
+      <c r="AT18" s="199"/>
+      <c r="AU18" s="199"/>
+      <c r="AV18" s="199"/>
+      <c r="AW18" s="199"/>
+      <c r="AX18" s="199"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="62"/>
-      <c r="AH19" s="62"/>
-      <c r="AI19" s="62"/>
-      <c r="AJ19" s="62"/>
-      <c r="AK19" s="62"/>
-      <c r="AL19" s="62"/>
-      <c r="AM19" s="62"/>
-      <c r="AN19" s="62"/>
-      <c r="AO19" s="62"/>
-      <c r="AP19" s="62"/>
-      <c r="AQ19" s="62"/>
-      <c r="AR19" s="62"/>
-      <c r="AS19" s="62"/>
-      <c r="AT19" s="62"/>
-      <c r="AU19" s="62"/>
-      <c r="AV19" s="62"/>
-      <c r="AW19" s="62"/>
-      <c r="AX19" s="62"/>
+      <c r="A19" s="199"/>
+      <c r="B19" s="199"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="199"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="199"/>
+      <c r="K19" s="199"/>
+      <c r="L19" s="199"/>
+      <c r="M19" s="199"/>
+      <c r="N19" s="199"/>
+      <c r="O19" s="199"/>
+      <c r="P19" s="199"/>
+      <c r="Q19" s="199"/>
+      <c r="R19" s="199"/>
+      <c r="S19" s="199"/>
+      <c r="T19" s="199"/>
+      <c r="U19" s="199"/>
+      <c r="V19" s="199"/>
+      <c r="W19" s="199"/>
+      <c r="X19" s="199"/>
+      <c r="Y19" s="199"/>
+      <c r="Z19" s="199"/>
+      <c r="AA19" s="199"/>
+      <c r="AB19" s="199"/>
+      <c r="AC19" s="199"/>
+      <c r="AD19" s="199"/>
+      <c r="AE19" s="199"/>
+      <c r="AF19" s="199"/>
+      <c r="AG19" s="199"/>
+      <c r="AH19" s="199"/>
+      <c r="AI19" s="199"/>
+      <c r="AJ19" s="199"/>
+      <c r="AK19" s="199"/>
+      <c r="AL19" s="199"/>
+      <c r="AM19" s="199"/>
+      <c r="AN19" s="199"/>
+      <c r="AO19" s="199"/>
+      <c r="AP19" s="199"/>
+      <c r="AQ19" s="199"/>
+      <c r="AR19" s="199"/>
+      <c r="AS19" s="199"/>
+      <c r="AT19" s="199"/>
+      <c r="AU19" s="199"/>
+      <c r="AV19" s="199"/>
+      <c r="AW19" s="199"/>
+      <c r="AX19" s="199"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="62"/>
-      <c r="AK20" s="62"/>
-      <c r="AL20" s="62"/>
-      <c r="AM20" s="62"/>
-      <c r="AN20" s="62"/>
-      <c r="AO20" s="62"/>
-      <c r="AP20" s="62"/>
-      <c r="AQ20" s="62"/>
-      <c r="AR20" s="62"/>
-      <c r="AS20" s="62"/>
-      <c r="AT20" s="62"/>
-      <c r="AU20" s="62"/>
-      <c r="AV20" s="62"/>
-      <c r="AW20" s="62"/>
-      <c r="AX20" s="62"/>
+      <c r="A20" s="199"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="199"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="199"/>
+      <c r="G20" s="199"/>
+      <c r="H20" s="199"/>
+      <c r="I20" s="199"/>
+      <c r="J20" s="199"/>
+      <c r="K20" s="199"/>
+      <c r="L20" s="199"/>
+      <c r="M20" s="199"/>
+      <c r="N20" s="199"/>
+      <c r="O20" s="199"/>
+      <c r="P20" s="199"/>
+      <c r="Q20" s="199"/>
+      <c r="R20" s="199"/>
+      <c r="S20" s="199"/>
+      <c r="T20" s="199"/>
+      <c r="U20" s="199"/>
+      <c r="V20" s="199"/>
+      <c r="W20" s="199"/>
+      <c r="X20" s="199"/>
+      <c r="Y20" s="199"/>
+      <c r="Z20" s="199"/>
+      <c r="AA20" s="199"/>
+      <c r="AB20" s="199"/>
+      <c r="AC20" s="199"/>
+      <c r="AD20" s="199"/>
+      <c r="AE20" s="199"/>
+      <c r="AF20" s="199"/>
+      <c r="AG20" s="199"/>
+      <c r="AH20" s="199"/>
+      <c r="AI20" s="199"/>
+      <c r="AJ20" s="199"/>
+      <c r="AK20" s="199"/>
+      <c r="AL20" s="199"/>
+      <c r="AM20" s="199"/>
+      <c r="AN20" s="199"/>
+      <c r="AO20" s="199"/>
+      <c r="AP20" s="199"/>
+      <c r="AQ20" s="199"/>
+      <c r="AR20" s="199"/>
+      <c r="AS20" s="199"/>
+      <c r="AT20" s="199"/>
+      <c r="AU20" s="199"/>
+      <c r="AV20" s="199"/>
+      <c r="AW20" s="199"/>
+      <c r="AX20" s="199"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="62"/>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="62"/>
-      <c r="AD21" s="62"/>
-      <c r="AE21" s="62"/>
-      <c r="AF21" s="62"/>
-      <c r="AG21" s="62"/>
-      <c r="AH21" s="62"/>
-      <c r="AI21" s="62"/>
-      <c r="AJ21" s="62"/>
-      <c r="AK21" s="62"/>
-      <c r="AL21" s="62"/>
-      <c r="AM21" s="62"/>
-      <c r="AN21" s="62"/>
-      <c r="AO21" s="62"/>
-      <c r="AP21" s="62"/>
-      <c r="AQ21" s="62"/>
-      <c r="AR21" s="62"/>
-      <c r="AS21" s="62"/>
-      <c r="AT21" s="62"/>
-      <c r="AU21" s="62"/>
-      <c r="AV21" s="62"/>
-      <c r="AW21" s="62"/>
-      <c r="AX21" s="62"/>
+      <c r="A21" s="199"/>
+      <c r="B21" s="199"/>
+      <c r="C21" s="199"/>
+      <c r="D21" s="199"/>
+      <c r="E21" s="199"/>
+      <c r="F21" s="199"/>
+      <c r="G21" s="199"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="199"/>
+      <c r="K21" s="199"/>
+      <c r="L21" s="199"/>
+      <c r="M21" s="199"/>
+      <c r="N21" s="199"/>
+      <c r="O21" s="199"/>
+      <c r="P21" s="199"/>
+      <c r="Q21" s="199"/>
+      <c r="R21" s="199"/>
+      <c r="S21" s="199"/>
+      <c r="T21" s="199"/>
+      <c r="U21" s="199"/>
+      <c r="V21" s="199"/>
+      <c r="W21" s="199"/>
+      <c r="X21" s="199"/>
+      <c r="Y21" s="199"/>
+      <c r="Z21" s="199"/>
+      <c r="AA21" s="199"/>
+      <c r="AB21" s="199"/>
+      <c r="AC21" s="199"/>
+      <c r="AD21" s="199"/>
+      <c r="AE21" s="199"/>
+      <c r="AF21" s="199"/>
+      <c r="AG21" s="199"/>
+      <c r="AH21" s="199"/>
+      <c r="AI21" s="199"/>
+      <c r="AJ21" s="199"/>
+      <c r="AK21" s="199"/>
+      <c r="AL21" s="199"/>
+      <c r="AM21" s="199"/>
+      <c r="AN21" s="199"/>
+      <c r="AO21" s="199"/>
+      <c r="AP21" s="199"/>
+      <c r="AQ21" s="199"/>
+      <c r="AR21" s="199"/>
+      <c r="AS21" s="199"/>
+      <c r="AT21" s="199"/>
+      <c r="AU21" s="199"/>
+      <c r="AV21" s="199"/>
+      <c r="AW21" s="199"/>
+      <c r="AX21" s="199"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="62"/>
-      <c r="AB22" s="62"/>
-      <c r="AC22" s="62"/>
-      <c r="AD22" s="62"/>
-      <c r="AE22" s="62"/>
-      <c r="AF22" s="62"/>
-      <c r="AG22" s="62"/>
-      <c r="AH22" s="62"/>
-      <c r="AI22" s="62"/>
-      <c r="AJ22" s="62"/>
-      <c r="AK22" s="62"/>
-      <c r="AL22" s="62"/>
-      <c r="AM22" s="62"/>
-      <c r="AN22" s="62"/>
-      <c r="AO22" s="62"/>
-      <c r="AP22" s="62"/>
-      <c r="AQ22" s="62"/>
-      <c r="AR22" s="62"/>
-      <c r="AS22" s="62"/>
-      <c r="AT22" s="62"/>
-      <c r="AU22" s="62"/>
-      <c r="AV22" s="62"/>
-      <c r="AW22" s="62"/>
-      <c r="AX22" s="62"/>
+      <c r="A22" s="199"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="199"/>
+      <c r="D22" s="199"/>
+      <c r="E22" s="199"/>
+      <c r="F22" s="199"/>
+      <c r="G22" s="199"/>
+      <c r="H22" s="199"/>
+      <c r="I22" s="199"/>
+      <c r="J22" s="199"/>
+      <c r="K22" s="199"/>
+      <c r="L22" s="199"/>
+      <c r="M22" s="199"/>
+      <c r="N22" s="199"/>
+      <c r="O22" s="199"/>
+      <c r="P22" s="199"/>
+      <c r="Q22" s="199"/>
+      <c r="R22" s="199"/>
+      <c r="S22" s="199"/>
+      <c r="T22" s="199"/>
+      <c r="U22" s="199"/>
+      <c r="V22" s="199"/>
+      <c r="W22" s="199"/>
+      <c r="X22" s="199"/>
+      <c r="Y22" s="199"/>
+      <c r="Z22" s="199"/>
+      <c r="AA22" s="199"/>
+      <c r="AB22" s="199"/>
+      <c r="AC22" s="199"/>
+      <c r="AD22" s="199"/>
+      <c r="AE22" s="199"/>
+      <c r="AF22" s="199"/>
+      <c r="AG22" s="199"/>
+      <c r="AH22" s="199"/>
+      <c r="AI22" s="199"/>
+      <c r="AJ22" s="199"/>
+      <c r="AK22" s="199"/>
+      <c r="AL22" s="199"/>
+      <c r="AM22" s="199"/>
+      <c r="AN22" s="199"/>
+      <c r="AO22" s="199"/>
+      <c r="AP22" s="199"/>
+      <c r="AQ22" s="199"/>
+      <c r="AR22" s="199"/>
+      <c r="AS22" s="199"/>
+      <c r="AT22" s="199"/>
+      <c r="AU22" s="199"/>
+      <c r="AV22" s="199"/>
+      <c r="AW22" s="199"/>
+      <c r="AX22" s="199"/>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A23" s="199"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="199"/>
+      <c r="D23" s="199"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="199"/>
+      <c r="H23" s="199"/>
+      <c r="I23" s="199"/>
+      <c r="J23" s="199"/>
+      <c r="K23" s="199"/>
+      <c r="L23" s="199"/>
+      <c r="M23" s="199"/>
+      <c r="N23" s="199"/>
+      <c r="O23" s="199"/>
+      <c r="P23" s="199"/>
+      <c r="Q23" s="199"/>
+      <c r="R23" s="199"/>
+      <c r="S23" s="199"/>
+      <c r="T23" s="199"/>
+      <c r="U23" s="199"/>
+      <c r="V23" s="199"/>
+      <c r="W23" s="199"/>
+      <c r="X23" s="199"/>
+      <c r="Y23" s="199"/>
+      <c r="Z23" s="199"/>
+      <c r="AA23" s="199"/>
+      <c r="AB23" s="199"/>
+      <c r="AC23" s="199"/>
+      <c r="AD23" s="199"/>
+      <c r="AE23" s="199"/>
+      <c r="AF23" s="199"/>
+      <c r="AG23" s="199"/>
+      <c r="AH23" s="199"/>
+      <c r="AI23" s="199"/>
+      <c r="AJ23" s="199"/>
+      <c r="AK23" s="199"/>
+      <c r="AL23" s="199"/>
+      <c r="AM23" s="199"/>
+      <c r="AN23" s="199"/>
+      <c r="AO23" s="199"/>
+      <c r="AP23" s="199"/>
+      <c r="AQ23" s="199"/>
+      <c r="AR23" s="199"/>
+      <c r="AS23" s="199"/>
+      <c r="AT23" s="199"/>
+      <c r="AU23" s="199"/>
+      <c r="AV23" s="199"/>
+      <c r="AW23" s="199"/>
+      <c r="AX23" s="199"/>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A24" s="199"/>
+      <c r="B24" s="199"/>
+      <c r="C24" s="199"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="199"/>
+      <c r="F24" s="199"/>
+      <c r="G24" s="199"/>
+      <c r="H24" s="199"/>
+      <c r="I24" s="199"/>
+      <c r="J24" s="199"/>
+      <c r="K24" s="199"/>
+      <c r="L24" s="199"/>
+      <c r="M24" s="199"/>
+      <c r="N24" s="199"/>
+      <c r="O24" s="199"/>
+      <c r="P24" s="199"/>
+      <c r="Q24" s="199"/>
+      <c r="R24" s="199"/>
+      <c r="S24" s="199"/>
+      <c r="T24" s="199"/>
+      <c r="U24" s="199"/>
+      <c r="V24" s="199"/>
+      <c r="W24" s="199"/>
+      <c r="X24" s="199"/>
+      <c r="Y24" s="199"/>
+      <c r="Z24" s="199"/>
+      <c r="AA24" s="199"/>
+      <c r="AB24" s="199"/>
+      <c r="AC24" s="199"/>
+      <c r="AD24" s="199"/>
+      <c r="AE24" s="199"/>
+      <c r="AF24" s="199"/>
+      <c r="AG24" s="199"/>
+      <c r="AH24" s="199"/>
+      <c r="AI24" s="199"/>
+      <c r="AJ24" s="199"/>
+      <c r="AK24" s="199"/>
+      <c r="AL24" s="199"/>
+      <c r="AM24" s="199"/>
+      <c r="AN24" s="199"/>
+      <c r="AO24" s="199"/>
+      <c r="AP24" s="199"/>
+      <c r="AQ24" s="199"/>
+      <c r="AR24" s="199"/>
+      <c r="AS24" s="199"/>
+      <c r="AT24" s="199"/>
+      <c r="AU24" s="199"/>
+      <c r="AV24" s="199"/>
+      <c r="AW24" s="199"/>
+      <c r="AX24" s="199"/>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A25" s="199"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="199"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="199"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="199"/>
+      <c r="H25" s="199"/>
+      <c r="I25" s="199"/>
+      <c r="J25" s="199"/>
+      <c r="K25" s="199"/>
+      <c r="L25" s="199"/>
+      <c r="M25" s="199"/>
+      <c r="N25" s="199"/>
+      <c r="O25" s="199"/>
+      <c r="P25" s="199"/>
+      <c r="Q25" s="199"/>
+      <c r="R25" s="199"/>
+      <c r="S25" s="199"/>
+      <c r="T25" s="199"/>
+      <c r="U25" s="199"/>
+      <c r="V25" s="199"/>
+      <c r="W25" s="199"/>
+      <c r="X25" s="199"/>
+      <c r="Y25" s="199"/>
+      <c r="Z25" s="199"/>
+      <c r="AA25" s="199"/>
+      <c r="AB25" s="199"/>
+      <c r="AC25" s="199"/>
+      <c r="AD25" s="199"/>
+      <c r="AE25" s="199"/>
+      <c r="AF25" s="199"/>
+      <c r="AG25" s="199"/>
+      <c r="AH25" s="199"/>
+      <c r="AI25" s="199"/>
+      <c r="AJ25" s="199"/>
+      <c r="AK25" s="199"/>
+      <c r="AL25" s="199"/>
+      <c r="AM25" s="199"/>
+      <c r="AN25" s="199"/>
+      <c r="AO25" s="199"/>
+      <c r="AP25" s="199"/>
+      <c r="AQ25" s="199"/>
+      <c r="AR25" s="199"/>
+      <c r="AS25" s="199"/>
+      <c r="AT25" s="199"/>
+      <c r="AU25" s="199"/>
+      <c r="AV25" s="199"/>
+      <c r="AW25" s="199"/>
+      <c r="AX25" s="199"/>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A26" s="199"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="199"/>
+      <c r="D26" s="199"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="199"/>
+      <c r="H26" s="199"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="199"/>
+      <c r="K26" s="199"/>
+      <c r="L26" s="199"/>
+      <c r="M26" s="199"/>
+      <c r="N26" s="199"/>
+      <c r="O26" s="199"/>
+      <c r="P26" s="199"/>
+      <c r="Q26" s="199"/>
+      <c r="R26" s="199"/>
+      <c r="S26" s="199"/>
+      <c r="T26" s="199"/>
+      <c r="U26" s="199"/>
+      <c r="V26" s="199"/>
+      <c r="W26" s="199"/>
+      <c r="X26" s="199"/>
+      <c r="Y26" s="199"/>
+      <c r="Z26" s="199"/>
+      <c r="AA26" s="199"/>
+      <c r="AB26" s="199"/>
+      <c r="AC26" s="199"/>
+      <c r="AD26" s="199"/>
+      <c r="AE26" s="199"/>
+      <c r="AF26" s="199"/>
+      <c r="AG26" s="199"/>
+      <c r="AH26" s="199"/>
+      <c r="AI26" s="199"/>
+      <c r="AJ26" s="199"/>
+      <c r="AK26" s="199"/>
+      <c r="AL26" s="199"/>
+      <c r="AM26" s="199"/>
+      <c r="AN26" s="199"/>
+      <c r="AO26" s="199"/>
+      <c r="AP26" s="199"/>
+      <c r="AQ26" s="199"/>
+      <c r="AR26" s="199"/>
+      <c r="AS26" s="199"/>
+      <c r="AT26" s="199"/>
+      <c r="AU26" s="199"/>
+      <c r="AV26" s="199"/>
+      <c r="AW26" s="199"/>
+      <c r="AX26" s="199"/>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A27" s="199"/>
+      <c r="B27" s="199"/>
+      <c r="C27" s="199"/>
+      <c r="D27" s="199"/>
+      <c r="E27" s="199"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="199"/>
+      <c r="H27" s="199"/>
+      <c r="I27" s="199"/>
+      <c r="J27" s="199"/>
+      <c r="K27" s="199"/>
+      <c r="L27" s="199"/>
+      <c r="M27" s="199"/>
+      <c r="N27" s="199"/>
+      <c r="O27" s="199"/>
+      <c r="P27" s="199"/>
+      <c r="Q27" s="199"/>
+      <c r="R27" s="199"/>
+      <c r="S27" s="199"/>
+      <c r="T27" s="199"/>
+      <c r="U27" s="199"/>
+      <c r="V27" s="199"/>
+      <c r="W27" s="199"/>
+      <c r="X27" s="199"/>
+      <c r="Y27" s="199"/>
+      <c r="Z27" s="199"/>
+      <c r="AA27" s="199"/>
+      <c r="AB27" s="199"/>
+      <c r="AC27" s="199"/>
+      <c r="AD27" s="199"/>
+      <c r="AE27" s="199"/>
+      <c r="AF27" s="199"/>
+      <c r="AG27" s="199"/>
+      <c r="AH27" s="199"/>
+      <c r="AI27" s="199"/>
+      <c r="AJ27" s="199"/>
+      <c r="AK27" s="199"/>
+      <c r="AL27" s="199"/>
+      <c r="AM27" s="199"/>
+      <c r="AN27" s="199"/>
+      <c r="AO27" s="199"/>
+      <c r="AP27" s="199"/>
+      <c r="AQ27" s="199"/>
+      <c r="AR27" s="199"/>
+      <c r="AS27" s="199"/>
+      <c r="AT27" s="199"/>
+      <c r="AU27" s="199"/>
+      <c r="AV27" s="199"/>
+      <c r="AW27" s="199"/>
+      <c r="AX27" s="199"/>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A28" s="199"/>
+      <c r="B28" s="199"/>
+      <c r="C28" s="199"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="199"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="199"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="199"/>
+      <c r="J28" s="199"/>
+      <c r="K28" s="199"/>
+      <c r="L28" s="199"/>
+      <c r="M28" s="199"/>
+      <c r="N28" s="199"/>
+      <c r="O28" s="199"/>
+      <c r="P28" s="199"/>
+      <c r="Q28" s="199"/>
+      <c r="R28" s="199"/>
+      <c r="S28" s="199"/>
+      <c r="T28" s="199"/>
+      <c r="U28" s="199"/>
+      <c r="V28" s="199"/>
+      <c r="W28" s="199"/>
+      <c r="X28" s="199"/>
+      <c r="Y28" s="199"/>
+      <c r="Z28" s="199"/>
+      <c r="AA28" s="199"/>
+      <c r="AB28" s="199"/>
+      <c r="AC28" s="199"/>
+      <c r="AD28" s="199"/>
+      <c r="AE28" s="199"/>
+      <c r="AF28" s="199"/>
+      <c r="AG28" s="199"/>
+      <c r="AH28" s="199"/>
+      <c r="AI28" s="199"/>
+      <c r="AJ28" s="199"/>
+      <c r="AK28" s="199"/>
+      <c r="AL28" s="199"/>
+      <c r="AM28" s="199"/>
+      <c r="AN28" s="199"/>
+      <c r="AO28" s="199"/>
+      <c r="AP28" s="199"/>
+      <c r="AQ28" s="199"/>
+      <c r="AR28" s="199"/>
+      <c r="AS28" s="199"/>
+      <c r="AT28" s="199"/>
+      <c r="AU28" s="199"/>
+      <c r="AV28" s="199"/>
+      <c r="AW28" s="199"/>
+      <c r="AX28" s="199"/>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A29" s="199"/>
+      <c r="B29" s="199"/>
+      <c r="C29" s="199"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="199"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="199"/>
+      <c r="H29" s="199"/>
+      <c r="I29" s="199"/>
+      <c r="J29" s="199"/>
+      <c r="K29" s="199"/>
+      <c r="L29" s="199"/>
+      <c r="M29" s="199"/>
+      <c r="N29" s="199"/>
+      <c r="O29" s="199"/>
+      <c r="P29" s="199"/>
+      <c r="Q29" s="199"/>
+      <c r="R29" s="199"/>
+      <c r="S29" s="199"/>
+      <c r="T29" s="199"/>
+      <c r="U29" s="199"/>
+      <c r="V29" s="199"/>
+      <c r="W29" s="199"/>
+      <c r="X29" s="199"/>
+      <c r="Y29" s="199"/>
+      <c r="Z29" s="199"/>
+      <c r="AA29" s="199"/>
+      <c r="AB29" s="199"/>
+      <c r="AC29" s="199"/>
+      <c r="AD29" s="199"/>
+      <c r="AE29" s="199"/>
+      <c r="AF29" s="199"/>
+      <c r="AG29" s="199"/>
+      <c r="AH29" s="199"/>
+      <c r="AI29" s="199"/>
+      <c r="AJ29" s="199"/>
+      <c r="AK29" s="199"/>
+      <c r="AL29" s="199"/>
+      <c r="AM29" s="199"/>
+      <c r="AN29" s="199"/>
+      <c r="AO29" s="199"/>
+      <c r="AP29" s="199"/>
+      <c r="AQ29" s="199"/>
+      <c r="AR29" s="199"/>
+      <c r="AS29" s="199"/>
+      <c r="AT29" s="199"/>
+      <c r="AU29" s="199"/>
+      <c r="AV29" s="199"/>
+      <c r="AW29" s="199"/>
+      <c r="AX29" s="199"/>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A30" s="199"/>
+      <c r="B30" s="199"/>
+      <c r="C30" s="199"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="199"/>
+      <c r="K30" s="199"/>
+      <c r="L30" s="199"/>
+      <c r="M30" s="199"/>
+      <c r="N30" s="199"/>
+      <c r="O30" s="199"/>
+      <c r="P30" s="199"/>
+      <c r="Q30" s="199"/>
+      <c r="R30" s="199"/>
+      <c r="S30" s="199"/>
+      <c r="T30" s="199"/>
+      <c r="U30" s="199"/>
+      <c r="V30" s="199"/>
+      <c r="W30" s="199"/>
+      <c r="X30" s="199"/>
+      <c r="Y30" s="199"/>
+      <c r="Z30" s="199"/>
+      <c r="AA30" s="199"/>
+      <c r="AB30" s="199"/>
+      <c r="AC30" s="199"/>
+      <c r="AD30" s="199"/>
+      <c r="AE30" s="199"/>
+      <c r="AF30" s="199"/>
+      <c r="AG30" s="199"/>
+      <c r="AH30" s="199"/>
+      <c r="AI30" s="199"/>
+      <c r="AJ30" s="199"/>
+      <c r="AK30" s="199"/>
+      <c r="AL30" s="199"/>
+      <c r="AM30" s="199"/>
+      <c r="AN30" s="199"/>
+      <c r="AO30" s="199"/>
+      <c r="AP30" s="199"/>
+      <c r="AQ30" s="199"/>
+      <c r="AR30" s="199"/>
+      <c r="AS30" s="199"/>
+      <c r="AT30" s="199"/>
+      <c r="AU30" s="199"/>
+      <c r="AV30" s="199"/>
+      <c r="AW30" s="199"/>
+      <c r="AX30" s="199"/>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A31" s="199"/>
+      <c r="B31" s="199"/>
+      <c r="C31" s="199"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="199"/>
+      <c r="F31" s="199"/>
+      <c r="G31" s="199"/>
+      <c r="H31" s="199"/>
+      <c r="I31" s="199"/>
+      <c r="J31" s="199"/>
+      <c r="K31" s="199"/>
+      <c r="L31" s="199"/>
+      <c r="M31" s="199"/>
+      <c r="N31" s="199"/>
+      <c r="O31" s="199"/>
+      <c r="P31" s="199"/>
+      <c r="Q31" s="199"/>
+      <c r="R31" s="199"/>
+      <c r="S31" s="199"/>
+      <c r="T31" s="199"/>
+      <c r="U31" s="199"/>
+      <c r="V31" s="199"/>
+      <c r="W31" s="199"/>
+      <c r="X31" s="199"/>
+      <c r="Y31" s="199"/>
+      <c r="Z31" s="199"/>
+      <c r="AA31" s="199"/>
+      <c r="AB31" s="199"/>
+      <c r="AC31" s="199"/>
+      <c r="AD31" s="199"/>
+      <c r="AE31" s="199"/>
+      <c r="AF31" s="199"/>
+      <c r="AG31" s="199"/>
+      <c r="AH31" s="199"/>
+      <c r="AI31" s="199"/>
+      <c r="AJ31" s="199"/>
+      <c r="AK31" s="199"/>
+      <c r="AL31" s="199"/>
+      <c r="AM31" s="199"/>
+      <c r="AN31" s="199"/>
+      <c r="AO31" s="199"/>
+      <c r="AP31" s="199"/>
+      <c r="AQ31" s="199"/>
+      <c r="AR31" s="199"/>
+      <c r="AS31" s="199"/>
+      <c r="AT31" s="199"/>
+      <c r="AU31" s="199"/>
+      <c r="AV31" s="199"/>
+      <c r="AW31" s="199"/>
+      <c r="AX31" s="199"/>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A32" s="199"/>
+      <c r="B32" s="199"/>
+      <c r="C32" s="199"/>
+      <c r="D32" s="199"/>
+      <c r="E32" s="199"/>
+      <c r="F32" s="199"/>
+      <c r="G32" s="199"/>
+      <c r="H32" s="199"/>
+      <c r="I32" s="199"/>
+      <c r="J32" s="199"/>
+      <c r="K32" s="199"/>
+      <c r="L32" s="199"/>
+      <c r="M32" s="199"/>
+      <c r="N32" s="199"/>
+      <c r="O32" s="199"/>
+      <c r="P32" s="199"/>
+      <c r="Q32" s="199"/>
+      <c r="R32" s="199"/>
+      <c r="S32" s="199"/>
+      <c r="T32" s="199"/>
+      <c r="U32" s="199"/>
+      <c r="V32" s="199"/>
+      <c r="W32" s="199"/>
+      <c r="X32" s="199"/>
+      <c r="Y32" s="199"/>
+      <c r="Z32" s="199"/>
+      <c r="AA32" s="199"/>
+      <c r="AB32" s="199"/>
+      <c r="AC32" s="199"/>
+      <c r="AD32" s="199"/>
+      <c r="AE32" s="199"/>
+      <c r="AF32" s="199"/>
+      <c r="AG32" s="199"/>
+      <c r="AH32" s="199"/>
+      <c r="AI32" s="199"/>
+      <c r="AJ32" s="199"/>
+      <c r="AK32" s="199"/>
+      <c r="AL32" s="199"/>
+      <c r="AM32" s="199"/>
+      <c r="AN32" s="199"/>
+      <c r="AO32" s="199"/>
+      <c r="AP32" s="199"/>
+      <c r="AQ32" s="199"/>
+      <c r="AR32" s="199"/>
+      <c r="AS32" s="199"/>
+      <c r="AT32" s="199"/>
+      <c r="AU32" s="199"/>
+      <c r="AV32" s="199"/>
+      <c r="AW32" s="199"/>
+      <c r="AX32" s="199"/>
+    </row>
+    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A33" s="199"/>
+      <c r="B33" s="199"/>
+      <c r="C33" s="199"/>
+      <c r="D33" s="199"/>
+      <c r="E33" s="199"/>
+      <c r="F33" s="199"/>
+      <c r="G33" s="199"/>
+      <c r="H33" s="199"/>
+      <c r="I33" s="199"/>
+      <c r="J33" s="199"/>
+      <c r="K33" s="199"/>
+      <c r="L33" s="199"/>
+      <c r="M33" s="199"/>
+      <c r="N33" s="199"/>
+      <c r="O33" s="199"/>
+      <c r="P33" s="199"/>
+      <c r="Q33" s="199"/>
+      <c r="R33" s="199"/>
+      <c r="S33" s="199"/>
+      <c r="T33" s="199"/>
+      <c r="U33" s="199"/>
+      <c r="V33" s="199"/>
+      <c r="W33" s="199"/>
+      <c r="X33" s="199"/>
+      <c r="Y33" s="199"/>
+      <c r="Z33" s="199"/>
+      <c r="AA33" s="199"/>
+      <c r="AB33" s="199"/>
+      <c r="AC33" s="199"/>
+      <c r="AD33" s="199"/>
+      <c r="AE33" s="199"/>
+      <c r="AF33" s="199"/>
+      <c r="AG33" s="199"/>
+      <c r="AH33" s="199"/>
+      <c r="AI33" s="199"/>
+      <c r="AJ33" s="199"/>
+      <c r="AK33" s="199"/>
+      <c r="AL33" s="199"/>
+      <c r="AM33" s="199"/>
+      <c r="AN33" s="199"/>
+      <c r="AO33" s="199"/>
+      <c r="AP33" s="199"/>
+      <c r="AQ33" s="199"/>
+      <c r="AR33" s="199"/>
+      <c r="AS33" s="199"/>
+      <c r="AT33" s="199"/>
+      <c r="AU33" s="199"/>
+      <c r="AV33" s="199"/>
+      <c r="AW33" s="199"/>
+      <c r="AX33" s="199"/>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A34" s="199"/>
+      <c r="B34" s="199"/>
+      <c r="C34" s="199"/>
+      <c r="D34" s="199"/>
+      <c r="E34" s="199"/>
+      <c r="F34" s="199"/>
+      <c r="G34" s="199"/>
+      <c r="H34" s="199"/>
+      <c r="I34" s="199"/>
+      <c r="J34" s="199"/>
+      <c r="K34" s="199"/>
+      <c r="L34" s="199"/>
+      <c r="M34" s="199"/>
+      <c r="N34" s="199"/>
+      <c r="O34" s="199"/>
+      <c r="P34" s="199"/>
+      <c r="Q34" s="199"/>
+      <c r="R34" s="199"/>
+      <c r="S34" s="199"/>
+      <c r="T34" s="199"/>
+      <c r="U34" s="199"/>
+      <c r="V34" s="199"/>
+      <c r="W34" s="199"/>
+      <c r="X34" s="199"/>
+      <c r="Y34" s="199"/>
+      <c r="Z34" s="199"/>
+      <c r="AA34" s="199"/>
+      <c r="AB34" s="199"/>
+      <c r="AC34" s="199"/>
+      <c r="AD34" s="199"/>
+      <c r="AE34" s="199"/>
+      <c r="AF34" s="199"/>
+      <c r="AG34" s="199"/>
+      <c r="AH34" s="199"/>
+      <c r="AI34" s="199"/>
+      <c r="AJ34" s="199"/>
+      <c r="AK34" s="199"/>
+      <c r="AL34" s="199"/>
+      <c r="AM34" s="199"/>
+      <c r="AN34" s="199"/>
+      <c r="AO34" s="199"/>
+      <c r="AP34" s="199"/>
+      <c r="AQ34" s="199"/>
+      <c r="AR34" s="199"/>
+      <c r="AS34" s="199"/>
+      <c r="AT34" s="199"/>
+      <c r="AU34" s="199"/>
+      <c r="AV34" s="199"/>
+      <c r="AW34" s="199"/>
+      <c r="AX34" s="199"/>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A35" s="199"/>
+      <c r="B35" s="199"/>
+      <c r="C35" s="199"/>
+      <c r="D35" s="199"/>
+      <c r="E35" s="199"/>
+      <c r="F35" s="199"/>
+      <c r="G35" s="199"/>
+      <c r="H35" s="199"/>
+      <c r="I35" s="199"/>
+      <c r="J35" s="199"/>
+      <c r="K35" s="199"/>
+      <c r="L35" s="199"/>
+      <c r="M35" s="199"/>
+      <c r="N35" s="199"/>
+      <c r="O35" s="199"/>
+      <c r="P35" s="199"/>
+      <c r="Q35" s="199"/>
+      <c r="R35" s="199"/>
+      <c r="S35" s="199"/>
+      <c r="T35" s="199"/>
+      <c r="U35" s="199"/>
+      <c r="V35" s="199"/>
+      <c r="W35" s="199"/>
+      <c r="X35" s="199"/>
+      <c r="Y35" s="199"/>
+      <c r="Z35" s="199"/>
+      <c r="AA35" s="199"/>
+      <c r="AB35" s="199"/>
+      <c r="AC35" s="199"/>
+      <c r="AD35" s="199"/>
+      <c r="AE35" s="199"/>
+      <c r="AF35" s="199"/>
+      <c r="AG35" s="199"/>
+      <c r="AH35" s="199"/>
+      <c r="AI35" s="199"/>
+      <c r="AJ35" s="199"/>
+      <c r="AK35" s="199"/>
+      <c r="AL35" s="199"/>
+      <c r="AM35" s="199"/>
+      <c r="AN35" s="199"/>
+      <c r="AO35" s="199"/>
+      <c r="AP35" s="199"/>
+      <c r="AQ35" s="199"/>
+      <c r="AR35" s="199"/>
+      <c r="AS35" s="199"/>
+      <c r="AT35" s="199"/>
+      <c r="AU35" s="199"/>
+      <c r="AV35" s="199"/>
+      <c r="AW35" s="199"/>
+      <c r="AX35" s="199"/>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A36" s="199"/>
+      <c r="B36" s="199"/>
+      <c r="C36" s="199"/>
+      <c r="D36" s="199"/>
+      <c r="E36" s="199"/>
+      <c r="F36" s="199"/>
+      <c r="G36" s="199"/>
+      <c r="H36" s="199"/>
+      <c r="I36" s="199"/>
+      <c r="J36" s="199"/>
+      <c r="K36" s="199"/>
+      <c r="L36" s="199"/>
+      <c r="M36" s="199"/>
+      <c r="N36" s="199"/>
+      <c r="O36" s="199"/>
+      <c r="P36" s="199"/>
+      <c r="Q36" s="199"/>
+      <c r="R36" s="199"/>
+      <c r="S36" s="199"/>
+      <c r="T36" s="199"/>
+      <c r="U36" s="199"/>
+      <c r="V36" s="199"/>
+      <c r="W36" s="199"/>
+      <c r="X36" s="199"/>
+      <c r="Y36" s="199"/>
+      <c r="Z36" s="199"/>
+      <c r="AA36" s="199"/>
+      <c r="AB36" s="199"/>
+      <c r="AC36" s="199"/>
+      <c r="AD36" s="199"/>
+      <c r="AE36" s="199"/>
+      <c r="AF36" s="199"/>
+      <c r="AG36" s="199"/>
+      <c r="AH36" s="199"/>
+      <c r="AI36" s="199"/>
+      <c r="AJ36" s="199"/>
+      <c r="AK36" s="199"/>
+      <c r="AL36" s="199"/>
+      <c r="AM36" s="199"/>
+      <c r="AN36" s="199"/>
+      <c r="AO36" s="199"/>
+      <c r="AP36" s="199"/>
+      <c r="AQ36" s="199"/>
+      <c r="AR36" s="199"/>
+      <c r="AS36" s="199"/>
+      <c r="AT36" s="199"/>
+      <c r="AU36" s="199"/>
+      <c r="AV36" s="199"/>
+      <c r="AW36" s="199"/>
+      <c r="AX36" s="199"/>
+    </row>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A37" s="199"/>
+      <c r="B37" s="199"/>
+      <c r="C37" s="199"/>
+      <c r="D37" s="199"/>
+      <c r="E37" s="199"/>
+      <c r="F37" s="199"/>
+      <c r="G37" s="199"/>
+      <c r="H37" s="199"/>
+      <c r="I37" s="199"/>
+      <c r="J37" s="199"/>
+      <c r="K37" s="199"/>
+      <c r="L37" s="199"/>
+      <c r="M37" s="199"/>
+      <c r="N37" s="199"/>
+      <c r="O37" s="199"/>
+      <c r="P37" s="199"/>
+      <c r="Q37" s="199"/>
+      <c r="R37" s="199"/>
+      <c r="S37" s="199"/>
+      <c r="T37" s="199"/>
+      <c r="U37" s="199"/>
+      <c r="V37" s="199"/>
+      <c r="W37" s="199"/>
+      <c r="X37" s="199"/>
+      <c r="Y37" s="199"/>
+      <c r="Z37" s="199"/>
+      <c r="AA37" s="199"/>
+      <c r="AB37" s="199"/>
+      <c r="AC37" s="199"/>
+      <c r="AD37" s="199"/>
+      <c r="AE37" s="199"/>
+      <c r="AF37" s="199"/>
+      <c r="AG37" s="199"/>
+      <c r="AH37" s="199"/>
+      <c r="AI37" s="199"/>
+      <c r="AJ37" s="199"/>
+      <c r="AK37" s="199"/>
+      <c r="AL37" s="199"/>
+      <c r="AM37" s="199"/>
+      <c r="AN37" s="199"/>
+      <c r="AO37" s="199"/>
+      <c r="AP37" s="199"/>
+      <c r="AQ37" s="199"/>
+      <c r="AR37" s="199"/>
+      <c r="AS37" s="199"/>
+      <c r="AT37" s="199"/>
+      <c r="AU37" s="199"/>
+      <c r="AV37" s="199"/>
+      <c r="AW37" s="199"/>
+      <c r="AX37" s="199"/>
+    </row>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A38" s="199"/>
+      <c r="B38" s="199"/>
+      <c r="C38" s="199"/>
+      <c r="D38" s="199"/>
+      <c r="E38" s="199"/>
+      <c r="F38" s="199"/>
+      <c r="G38" s="199"/>
+      <c r="H38" s="199"/>
+      <c r="I38" s="199"/>
+      <c r="J38" s="199"/>
+      <c r="K38" s="199"/>
+      <c r="L38" s="199"/>
+      <c r="M38" s="199"/>
+      <c r="N38" s="199"/>
+      <c r="O38" s="199"/>
+      <c r="P38" s="199"/>
+      <c r="Q38" s="199"/>
+      <c r="R38" s="199"/>
+      <c r="S38" s="199"/>
+      <c r="T38" s="199"/>
+      <c r="U38" s="199"/>
+      <c r="V38" s="199"/>
+      <c r="W38" s="199"/>
+      <c r="X38" s="199"/>
+      <c r="Y38" s="199"/>
+      <c r="Z38" s="199"/>
+      <c r="AA38" s="199"/>
+      <c r="AB38" s="199"/>
+      <c r="AC38" s="199"/>
+      <c r="AD38" s="199"/>
+      <c r="AE38" s="199"/>
+      <c r="AF38" s="199"/>
+      <c r="AG38" s="199"/>
+      <c r="AH38" s="199"/>
+      <c r="AI38" s="199"/>
+      <c r="AJ38" s="199"/>
+      <c r="AK38" s="199"/>
+      <c r="AL38" s="199"/>
+      <c r="AM38" s="199"/>
+      <c r="AN38" s="199"/>
+      <c r="AO38" s="199"/>
+      <c r="AP38" s="199"/>
+      <c r="AQ38" s="199"/>
+      <c r="AR38" s="199"/>
+      <c r="AS38" s="199"/>
+      <c r="AT38" s="199"/>
+      <c r="AU38" s="199"/>
+      <c r="AV38" s="199"/>
+      <c r="AW38" s="199"/>
+      <c r="AX38" s="199"/>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A39" s="199"/>
+      <c r="B39" s="199"/>
+      <c r="C39" s="199"/>
+      <c r="D39" s="199"/>
+      <c r="E39" s="199"/>
+      <c r="F39" s="199"/>
+      <c r="G39" s="199"/>
+      <c r="H39" s="199"/>
+      <c r="I39" s="199"/>
+      <c r="J39" s="199"/>
+      <c r="K39" s="199"/>
+      <c r="L39" s="199"/>
+      <c r="M39" s="199"/>
+      <c r="N39" s="199"/>
+      <c r="O39" s="199"/>
+      <c r="P39" s="199"/>
+      <c r="Q39" s="199"/>
+      <c r="R39" s="199"/>
+      <c r="S39" s="199"/>
+      <c r="T39" s="199"/>
+      <c r="U39" s="199"/>
+      <c r="V39" s="199"/>
+      <c r="W39" s="199"/>
+      <c r="X39" s="199"/>
+      <c r="Y39" s="199"/>
+      <c r="Z39" s="199"/>
+      <c r="AA39" s="199"/>
+      <c r="AB39" s="199"/>
+      <c r="AC39" s="199"/>
+      <c r="AD39" s="199"/>
+      <c r="AE39" s="199"/>
+      <c r="AF39" s="199"/>
+      <c r="AG39" s="199"/>
+      <c r="AH39" s="199"/>
+      <c r="AI39" s="199"/>
+      <c r="AJ39" s="199"/>
+      <c r="AK39" s="199"/>
+      <c r="AL39" s="199"/>
+      <c r="AM39" s="199"/>
+      <c r="AN39" s="199"/>
+      <c r="AO39" s="199"/>
+      <c r="AP39" s="199"/>
+      <c r="AQ39" s="199"/>
+      <c r="AR39" s="199"/>
+      <c r="AS39" s="199"/>
+      <c r="AT39" s="199"/>
+      <c r="AU39" s="199"/>
+      <c r="AV39" s="199"/>
+      <c r="AW39" s="199"/>
+      <c r="AX39" s="199"/>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A40" s="199"/>
+      <c r="B40" s="199"/>
+      <c r="C40" s="199"/>
+      <c r="D40" s="199"/>
+      <c r="E40" s="199"/>
+      <c r="F40" s="199"/>
+      <c r="G40" s="199"/>
+      <c r="H40" s="199"/>
+      <c r="I40" s="199"/>
+      <c r="J40" s="199"/>
+      <c r="K40" s="199"/>
+      <c r="L40" s="199"/>
+      <c r="M40" s="199"/>
+      <c r="N40" s="199"/>
+      <c r="O40" s="199"/>
+      <c r="P40" s="199"/>
+      <c r="Q40" s="199"/>
+      <c r="R40" s="199"/>
+      <c r="S40" s="199"/>
+      <c r="T40" s="199"/>
+      <c r="U40" s="199"/>
+      <c r="V40" s="199"/>
+      <c r="W40" s="199"/>
+      <c r="X40" s="199"/>
+      <c r="Y40" s="199"/>
+      <c r="Z40" s="199"/>
+      <c r="AA40" s="199"/>
+      <c r="AB40" s="199"/>
+      <c r="AC40" s="199"/>
+      <c r="AD40" s="199"/>
+      <c r="AE40" s="199"/>
+      <c r="AF40" s="199"/>
+      <c r="AG40" s="199"/>
+      <c r="AH40" s="199"/>
+      <c r="AI40" s="199"/>
+      <c r="AJ40" s="199"/>
+      <c r="AK40" s="199"/>
+      <c r="AL40" s="199"/>
+      <c r="AM40" s="199"/>
+      <c r="AN40" s="199"/>
+      <c r="AO40" s="199"/>
+      <c r="AP40" s="199"/>
+      <c r="AQ40" s="199"/>
+      <c r="AR40" s="199"/>
+      <c r="AS40" s="199"/>
+      <c r="AT40" s="199"/>
+      <c r="AU40" s="199"/>
+      <c r="AV40" s="199"/>
+      <c r="AW40" s="199"/>
+      <c r="AX40" s="199"/>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A41" s="199"/>
+      <c r="B41" s="199"/>
+      <c r="C41" s="199"/>
+      <c r="D41" s="199"/>
+      <c r="E41" s="199"/>
+      <c r="F41" s="199"/>
+      <c r="G41" s="199"/>
+      <c r="H41" s="199"/>
+      <c r="I41" s="199"/>
+      <c r="J41" s="199"/>
+      <c r="K41" s="199"/>
+      <c r="L41" s="199"/>
+      <c r="M41" s="199"/>
+      <c r="N41" s="199"/>
+      <c r="O41" s="199"/>
+      <c r="P41" s="199"/>
+      <c r="Q41" s="199"/>
+      <c r="R41" s="199"/>
+      <c r="S41" s="199"/>
+      <c r="T41" s="199"/>
+      <c r="U41" s="199"/>
+      <c r="V41" s="199"/>
+      <c r="W41" s="199"/>
+      <c r="X41" s="199"/>
+      <c r="Y41" s="199"/>
+      <c r="Z41" s="199"/>
+      <c r="AA41" s="199"/>
+      <c r="AB41" s="199"/>
+      <c r="AC41" s="199"/>
+      <c r="AD41" s="199"/>
+      <c r="AE41" s="199"/>
+      <c r="AF41" s="199"/>
+      <c r="AG41" s="199"/>
+      <c r="AH41" s="199"/>
+      <c r="AI41" s="199"/>
+      <c r="AJ41" s="199"/>
+      <c r="AK41" s="199"/>
+      <c r="AL41" s="199"/>
+      <c r="AM41" s="199"/>
+      <c r="AN41" s="199"/>
+      <c r="AO41" s="199"/>
+      <c r="AP41" s="199"/>
+      <c r="AQ41" s="199"/>
+      <c r="AR41" s="199"/>
+      <c r="AS41" s="199"/>
+      <c r="AT41" s="199"/>
+      <c r="AU41" s="199"/>
+      <c r="AV41" s="199"/>
+      <c r="AW41" s="199"/>
+      <c r="AX41" s="199"/>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A42" s="199"/>
+      <c r="B42" s="199"/>
+      <c r="C42" s="199"/>
+      <c r="D42" s="199"/>
+      <c r="E42" s="199"/>
+      <c r="F42" s="199"/>
+      <c r="G42" s="199"/>
+      <c r="H42" s="199"/>
+      <c r="I42" s="199"/>
+      <c r="J42" s="199"/>
+      <c r="K42" s="199"/>
+      <c r="L42" s="199"/>
+      <c r="M42" s="199"/>
+      <c r="N42" s="199"/>
+      <c r="O42" s="199"/>
+      <c r="P42" s="199"/>
+      <c r="Q42" s="199"/>
+      <c r="R42" s="199"/>
+      <c r="S42" s="199"/>
+      <c r="T42" s="199"/>
+      <c r="U42" s="199"/>
+      <c r="V42" s="199"/>
+      <c r="W42" s="199"/>
+      <c r="X42" s="199"/>
+      <c r="Y42" s="199"/>
+      <c r="Z42" s="199"/>
+      <c r="AA42" s="199"/>
+      <c r="AB42" s="199"/>
+      <c r="AC42" s="199"/>
+      <c r="AD42" s="199"/>
+      <c r="AE42" s="199"/>
+      <c r="AF42" s="199"/>
+      <c r="AG42" s="199"/>
+      <c r="AH42" s="199"/>
+      <c r="AI42" s="199"/>
+      <c r="AJ42" s="199"/>
+      <c r="AK42" s="199"/>
+      <c r="AL42" s="199"/>
+      <c r="AM42" s="199"/>
+      <c r="AN42" s="199"/>
+      <c r="AO42" s="199"/>
+      <c r="AP42" s="199"/>
+      <c r="AQ42" s="199"/>
+      <c r="AR42" s="199"/>
+      <c r="AS42" s="199"/>
+      <c r="AT42" s="199"/>
+      <c r="AU42" s="199"/>
+      <c r="AV42" s="199"/>
+      <c r="AW42" s="199"/>
+      <c r="AX42" s="199"/>
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A43" s="199"/>
+      <c r="B43" s="199"/>
+      <c r="C43" s="199"/>
+      <c r="D43" s="199"/>
+      <c r="E43" s="199"/>
+      <c r="F43" s="199"/>
+      <c r="G43" s="199"/>
+      <c r="H43" s="199"/>
+      <c r="I43" s="199"/>
+      <c r="J43" s="199"/>
+      <c r="K43" s="199"/>
+      <c r="L43" s="199"/>
+      <c r="M43" s="199"/>
+      <c r="N43" s="199"/>
+      <c r="O43" s="199"/>
+      <c r="P43" s="199"/>
+      <c r="Q43" s="199"/>
+      <c r="R43" s="199"/>
+      <c r="S43" s="199"/>
+      <c r="T43" s="199"/>
+      <c r="U43" s="199"/>
+      <c r="V43" s="199"/>
+      <c r="W43" s="199"/>
+      <c r="X43" s="199"/>
+      <c r="Y43" s="199"/>
+      <c r="Z43" s="199"/>
+      <c r="AA43" s="199"/>
+      <c r="AB43" s="199"/>
+      <c r="AC43" s="199"/>
+      <c r="AD43" s="199"/>
+      <c r="AE43" s="199"/>
+      <c r="AF43" s="199"/>
+      <c r="AG43" s="199"/>
+      <c r="AH43" s="199"/>
+      <c r="AI43" s="199"/>
+      <c r="AJ43" s="199"/>
+      <c r="AK43" s="199"/>
+      <c r="AL43" s="199"/>
+      <c r="AM43" s="199"/>
+      <c r="AN43" s="199"/>
+      <c r="AO43" s="199"/>
+      <c r="AP43" s="199"/>
+      <c r="AQ43" s="199"/>
+      <c r="AR43" s="199"/>
+      <c r="AS43" s="199"/>
+      <c r="AT43" s="199"/>
+      <c r="AU43" s="199"/>
+      <c r="AV43" s="199"/>
+      <c r="AW43" s="199"/>
+      <c r="AX43" s="199"/>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A44" s="199"/>
+      <c r="B44" s="199"/>
+      <c r="C44" s="199"/>
+      <c r="D44" s="199"/>
+      <c r="E44" s="199"/>
+      <c r="F44" s="199"/>
+      <c r="G44" s="199"/>
+      <c r="H44" s="199"/>
+      <c r="I44" s="199"/>
+      <c r="J44" s="199"/>
+      <c r="K44" s="199"/>
+      <c r="L44" s="199"/>
+      <c r="M44" s="199"/>
+      <c r="N44" s="199"/>
+      <c r="O44" s="199"/>
+      <c r="P44" s="199"/>
+      <c r="Q44" s="199"/>
+      <c r="R44" s="199"/>
+      <c r="S44" s="199"/>
+      <c r="T44" s="199"/>
+      <c r="U44" s="199"/>
+      <c r="V44" s="199"/>
+      <c r="W44" s="199"/>
+      <c r="X44" s="199"/>
+      <c r="Y44" s="199"/>
+      <c r="Z44" s="199"/>
+      <c r="AA44" s="199"/>
+      <c r="AB44" s="199"/>
+      <c r="AC44" s="199"/>
+      <c r="AD44" s="199"/>
+      <c r="AE44" s="199"/>
+      <c r="AF44" s="199"/>
+      <c r="AG44" s="199"/>
+      <c r="AH44" s="199"/>
+      <c r="AI44" s="199"/>
+      <c r="AJ44" s="199"/>
+      <c r="AK44" s="199"/>
+      <c r="AL44" s="199"/>
+      <c r="AM44" s="199"/>
+      <c r="AN44" s="199"/>
+      <c r="AO44" s="199"/>
+      <c r="AP44" s="199"/>
+      <c r="AQ44" s="199"/>
+      <c r="AR44" s="199"/>
+      <c r="AS44" s="199"/>
+      <c r="AT44" s="199"/>
+      <c r="AU44" s="199"/>
+      <c r="AV44" s="199"/>
+      <c r="AW44" s="199"/>
+      <c r="AX44" s="199"/>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A45" s="199"/>
+      <c r="B45" s="199"/>
+      <c r="C45" s="199"/>
+      <c r="D45" s="199"/>
+      <c r="E45" s="199"/>
+      <c r="F45" s="199"/>
+      <c r="G45" s="199"/>
+      <c r="H45" s="199"/>
+      <c r="I45" s="199"/>
+      <c r="J45" s="199"/>
+      <c r="K45" s="199"/>
+      <c r="L45" s="199"/>
+      <c r="M45" s="199"/>
+      <c r="N45" s="199"/>
+      <c r="O45" s="199"/>
+      <c r="P45" s="199"/>
+      <c r="Q45" s="199"/>
+      <c r="R45" s="199"/>
+      <c r="S45" s="199"/>
+      <c r="T45" s="199"/>
+      <c r="U45" s="199"/>
+      <c r="V45" s="199"/>
+      <c r="W45" s="199"/>
+      <c r="X45" s="199"/>
+      <c r="Y45" s="199"/>
+      <c r="Z45" s="199"/>
+      <c r="AA45" s="199"/>
+      <c r="AB45" s="199"/>
+      <c r="AC45" s="199"/>
+      <c r="AD45" s="199"/>
+      <c r="AE45" s="199"/>
+      <c r="AF45" s="199"/>
+      <c r="AG45" s="199"/>
+      <c r="AH45" s="199"/>
+      <c r="AI45" s="199"/>
+      <c r="AJ45" s="199"/>
+      <c r="AK45" s="199"/>
+      <c r="AL45" s="199"/>
+      <c r="AM45" s="199"/>
+      <c r="AN45" s="199"/>
+      <c r="AO45" s="199"/>
+      <c r="AP45" s="199"/>
+      <c r="AQ45" s="199"/>
+      <c r="AR45" s="199"/>
+      <c r="AS45" s="199"/>
+      <c r="AT45" s="199"/>
+      <c r="AU45" s="199"/>
+      <c r="AV45" s="199"/>
+      <c r="AW45" s="199"/>
+      <c r="AX45" s="199"/>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A46" s="199"/>
+      <c r="B46" s="199"/>
+      <c r="C46" s="199"/>
+      <c r="D46" s="199"/>
+      <c r="E46" s="199"/>
+      <c r="F46" s="199"/>
+      <c r="G46" s="199"/>
+      <c r="H46" s="199"/>
+      <c r="I46" s="199"/>
+      <c r="J46" s="199"/>
+      <c r="K46" s="199"/>
+      <c r="L46" s="199"/>
+      <c r="M46" s="199"/>
+      <c r="N46" s="199"/>
+      <c r="O46" s="199"/>
+      <c r="P46" s="199"/>
+      <c r="Q46" s="199"/>
+      <c r="R46" s="199"/>
+      <c r="S46" s="199"/>
+      <c r="T46" s="199"/>
+      <c r="U46" s="199"/>
+      <c r="V46" s="199"/>
+      <c r="W46" s="199"/>
+      <c r="X46" s="199"/>
+      <c r="Y46" s="199"/>
+      <c r="Z46" s="199"/>
+      <c r="AA46" s="199"/>
+      <c r="AB46" s="199"/>
+      <c r="AC46" s="199"/>
+      <c r="AD46" s="199"/>
+      <c r="AE46" s="199"/>
+      <c r="AF46" s="199"/>
+      <c r="AG46" s="199"/>
+      <c r="AH46" s="199"/>
+      <c r="AI46" s="199"/>
+      <c r="AJ46" s="199"/>
+      <c r="AK46" s="199"/>
+      <c r="AL46" s="199"/>
+      <c r="AM46" s="199"/>
+      <c r="AN46" s="199"/>
+      <c r="AO46" s="199"/>
+      <c r="AP46" s="199"/>
+      <c r="AQ46" s="199"/>
+      <c r="AR46" s="199"/>
+      <c r="AS46" s="199"/>
+      <c r="AT46" s="199"/>
+      <c r="AU46" s="199"/>
+      <c r="AV46" s="199"/>
+      <c r="AW46" s="199"/>
+      <c r="AX46" s="199"/>
+    </row>
+    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A47" s="199"/>
+      <c r="B47" s="199"/>
+      <c r="C47" s="199"/>
+      <c r="D47" s="199"/>
+      <c r="E47" s="199"/>
+      <c r="F47" s="199"/>
+      <c r="G47" s="199"/>
+      <c r="H47" s="199"/>
+      <c r="I47" s="199"/>
+      <c r="J47" s="199"/>
+      <c r="K47" s="199"/>
+      <c r="L47" s="199"/>
+      <c r="M47" s="199"/>
+      <c r="N47" s="199"/>
+      <c r="O47" s="199"/>
+      <c r="P47" s="199"/>
+      <c r="Q47" s="199"/>
+      <c r="R47" s="199"/>
+      <c r="S47" s="199"/>
+      <c r="T47" s="199"/>
+      <c r="U47" s="199"/>
+      <c r="V47" s="199"/>
+      <c r="W47" s="199"/>
+      <c r="X47" s="199"/>
+      <c r="Y47" s="199"/>
+      <c r="Z47" s="199"/>
+      <c r="AA47" s="199"/>
+      <c r="AB47" s="199"/>
+      <c r="AC47" s="199"/>
+      <c r="AD47" s="199"/>
+      <c r="AE47" s="199"/>
+      <c r="AF47" s="199"/>
+      <c r="AG47" s="199"/>
+      <c r="AH47" s="199"/>
+      <c r="AI47" s="199"/>
+      <c r="AJ47" s="199"/>
+      <c r="AK47" s="199"/>
+      <c r="AL47" s="199"/>
+      <c r="AM47" s="199"/>
+      <c r="AN47" s="199"/>
+      <c r="AO47" s="199"/>
+      <c r="AP47" s="199"/>
+      <c r="AQ47" s="199"/>
+      <c r="AR47" s="199"/>
+      <c r="AS47" s="199"/>
+      <c r="AT47" s="199"/>
+      <c r="AU47" s="199"/>
+      <c r="AV47" s="199"/>
+      <c r="AW47" s="199"/>
+      <c r="AX47" s="199"/>
+    </row>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A48" s="199"/>
+      <c r="B48" s="199"/>
+      <c r="C48" s="199"/>
+      <c r="D48" s="199"/>
+      <c r="E48" s="199"/>
+      <c r="F48" s="199"/>
+      <c r="G48" s="199"/>
+      <c r="H48" s="199"/>
+      <c r="I48" s="199"/>
+      <c r="J48" s="199"/>
+      <c r="K48" s="199"/>
+      <c r="L48" s="199"/>
+      <c r="M48" s="199"/>
+      <c r="N48" s="199"/>
+      <c r="O48" s="199"/>
+      <c r="P48" s="199"/>
+      <c r="Q48" s="199"/>
+      <c r="R48" s="199"/>
+      <c r="S48" s="199"/>
+      <c r="T48" s="199"/>
+      <c r="U48" s="199"/>
+      <c r="V48" s="199"/>
+      <c r="W48" s="199"/>
+      <c r="X48" s="199"/>
+      <c r="Y48" s="199"/>
+      <c r="Z48" s="199"/>
+      <c r="AA48" s="199"/>
+      <c r="AB48" s="199"/>
+      <c r="AC48" s="199"/>
+      <c r="AD48" s="199"/>
+      <c r="AE48" s="199"/>
+      <c r="AF48" s="199"/>
+      <c r="AG48" s="199"/>
+      <c r="AH48" s="199"/>
+      <c r="AI48" s="199"/>
+      <c r="AJ48" s="199"/>
+      <c r="AK48" s="199"/>
+      <c r="AL48" s="199"/>
+      <c r="AM48" s="199"/>
+      <c r="AN48" s="199"/>
+      <c r="AO48" s="199"/>
+      <c r="AP48" s="199"/>
+      <c r="AQ48" s="199"/>
+      <c r="AR48" s="199"/>
+      <c r="AS48" s="199"/>
+      <c r="AT48" s="199"/>
+      <c r="AU48" s="199"/>
+      <c r="AV48" s="199"/>
+      <c r="AW48" s="199"/>
+      <c r="AX48" s="199"/>
+    </row>
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A49" s="199"/>
+      <c r="B49" s="199"/>
+      <c r="C49" s="199"/>
+      <c r="D49" s="199"/>
+      <c r="E49" s="199"/>
+      <c r="F49" s="199"/>
+      <c r="G49" s="199"/>
+      <c r="H49" s="199"/>
+      <c r="I49" s="199"/>
+      <c r="J49" s="199"/>
+      <c r="K49" s="199"/>
+      <c r="L49" s="199"/>
+      <c r="M49" s="199"/>
+      <c r="N49" s="199"/>
+      <c r="O49" s="199"/>
+      <c r="P49" s="199"/>
+      <c r="Q49" s="199"/>
+      <c r="R49" s="199"/>
+      <c r="S49" s="199"/>
+      <c r="T49" s="199"/>
+      <c r="U49" s="199"/>
+      <c r="V49" s="199"/>
+      <c r="W49" s="199"/>
+      <c r="X49" s="199"/>
+      <c r="Y49" s="199"/>
+      <c r="Z49" s="199"/>
+      <c r="AA49" s="199"/>
+      <c r="AB49" s="199"/>
+      <c r="AC49" s="199"/>
+      <c r="AD49" s="199"/>
+      <c r="AE49" s="199"/>
+      <c r="AF49" s="199"/>
+      <c r="AG49" s="199"/>
+      <c r="AH49" s="199"/>
+      <c r="AI49" s="199"/>
+      <c r="AJ49" s="199"/>
+      <c r="AK49" s="199"/>
+      <c r="AL49" s="199"/>
+      <c r="AM49" s="199"/>
+      <c r="AN49" s="199"/>
+      <c r="AO49" s="199"/>
+      <c r="AP49" s="199"/>
+      <c r="AQ49" s="199"/>
+      <c r="AR49" s="199"/>
+      <c r="AS49" s="199"/>
+      <c r="AT49" s="199"/>
+      <c r="AU49" s="199"/>
+      <c r="AV49" s="199"/>
+      <c r="AW49" s="199"/>
+      <c r="AX49" s="199"/>
+    </row>
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A50" s="199"/>
+      <c r="B50" s="199"/>
+      <c r="C50" s="199"/>
+      <c r="D50" s="199"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="199"/>
+      <c r="G50" s="199"/>
+      <c r="H50" s="199"/>
+      <c r="I50" s="199"/>
+      <c r="J50" s="199"/>
+      <c r="K50" s="199"/>
+      <c r="L50" s="199"/>
+      <c r="M50" s="199"/>
+      <c r="N50" s="199"/>
+      <c r="O50" s="199"/>
+      <c r="P50" s="199"/>
+      <c r="Q50" s="199"/>
+      <c r="R50" s="199"/>
+      <c r="S50" s="199"/>
+      <c r="T50" s="199"/>
+      <c r="U50" s="199"/>
+      <c r="V50" s="199"/>
+      <c r="W50" s="199"/>
+      <c r="X50" s="199"/>
+      <c r="Y50" s="199"/>
+      <c r="Z50" s="199"/>
+      <c r="AA50" s="199"/>
+      <c r="AB50" s="199"/>
+      <c r="AC50" s="199"/>
+      <c r="AD50" s="199"/>
+      <c r="AE50" s="199"/>
+      <c r="AF50" s="199"/>
+      <c r="AG50" s="199"/>
+      <c r="AH50" s="199"/>
+      <c r="AI50" s="199"/>
+      <c r="AJ50" s="199"/>
+      <c r="AK50" s="199"/>
+      <c r="AL50" s="199"/>
+      <c r="AM50" s="199"/>
+      <c r="AN50" s="199"/>
+      <c r="AO50" s="199"/>
+      <c r="AP50" s="199"/>
+      <c r="AQ50" s="199"/>
+      <c r="AR50" s="199"/>
+      <c r="AS50" s="199"/>
+      <c r="AT50" s="199"/>
+      <c r="AU50" s="199"/>
+      <c r="AV50" s="199"/>
+      <c r="AW50" s="199"/>
+      <c r="AX50" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4846,7 +6699,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4870,24 +6723,24 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="148" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="144"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="149"/>
     </row>
     <row r="3" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="150" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -4917,7 +6770,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="146"/>
+      <c r="B4" s="151"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -4931,7 +6784,7 @@
       <c r="A5" s="17">
         <v>5</v>
       </c>
-      <c r="B5" s="147" t="s">
+      <c r="B5" s="152" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -4940,20 +6793,20 @@
       <c r="D5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="149"/>
-      <c r="F5" s="152">
+      <c r="E5" s="154"/>
+      <c r="F5" s="143">
         <v>1</v>
       </c>
-      <c r="G5" s="147" t="s">
+      <c r="G5" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="147">
+      <c r="H5" s="152">
         <v>128</v>
       </c>
-      <c r="I5" s="147" t="s">
+      <c r="I5" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="147">
+      <c r="J5" s="152">
         <v>128</v>
       </c>
     </row>
@@ -4961,55 +6814,55 @@
       <c r="A6" s="17">
         <v>70</v>
       </c>
-      <c r="B6" s="148"/>
+      <c r="B6" s="153"/>
       <c r="C6" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="150"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="148"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="153"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>20</v>
       </c>
-      <c r="B7" s="148"/>
+      <c r="B7" s="153"/>
       <c r="C7" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="150"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="157"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="157"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>20</v>
       </c>
-      <c r="B8" s="148"/>
+      <c r="B8" s="153"/>
       <c r="C8" s="18" t="s">
         <v>90</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="151"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="157"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
@@ -5024,78 +6877,78 @@
       <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="155">
+      <c r="A10" s="144">
         <v>128</v>
       </c>
-      <c r="B10" s="152" t="s">
+      <c r="B10" s="143" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="153" t="s">
+      <c r="C10" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="157" t="s">
+      <c r="D10" s="147" t="s">
         <v>93</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="152">
+      <c r="F10" s="143">
         <v>1</v>
       </c>
-      <c r="G10" s="152" t="s">
+      <c r="G10" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="152">
+      <c r="H10" s="143">
         <v>128</v>
       </c>
-      <c r="I10" s="152" t="s">
+      <c r="I10" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="152">
+      <c r="J10" s="143">
         <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
-      <c r="B11" s="152"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="157"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="147"/>
       <c r="E11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="152"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="155"/>
-      <c r="B12" s="152"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="157"/>
+      <c r="A12" s="144"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="147"/>
       <c r="E12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="152"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="152"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="143"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="155"/>
-      <c r="B13" s="152"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="157"/>
+      <c r="A13" s="144"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="147"/>
       <c r="E13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
@@ -5175,6 +7028,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="J5:J8"/>
     <mergeCell ref="H10:H13"/>
     <mergeCell ref="I10:I13"/>
     <mergeCell ref="J10:J13"/>
@@ -5184,15 +7046,6 @@
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="G10:G13"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="J5:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -5200,12 +7053,1197 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB18759-5163-44F8-BBC4-77EBDA1B6551}">
+  <dimension ref="A1:W21"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" customWidth="1"/>
+    <col min="16" max="16" width="3.88671875" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" customWidth="1"/>
+    <col min="18" max="18" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5" customWidth="1"/>
+    <col min="21" max="21" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="203" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+    </row>
+    <row r="2" spans="1:23" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="204" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="206"/>
+    </row>
+    <row r="3" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="207" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="210"/>
+      <c r="P3" s="210"/>
+    </row>
+    <row r="4" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="211"/>
+      <c r="B4" s="212" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="135" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="213" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" s="214" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="212" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="212" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="215" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="216" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="217"/>
+      <c r="P4" s="217"/>
+      <c r="Q4" s="217"/>
+      <c r="R4" s="217"/>
+      <c r="S4" s="217"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="218"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="219"/>
+      <c r="P5" s="220"/>
+      <c r="Q5" s="221"/>
+      <c r="R5" s="221"/>
+      <c r="S5" s="221"/>
+      <c r="T5" s="221"/>
+      <c r="U5" s="221"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="222">
+        <v>5</v>
+      </c>
+      <c r="C6" s="223" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="224" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="146">
+        <v>1</v>
+      </c>
+      <c r="H6" s="146" t="s">
+        <v>188</v>
+      </c>
+      <c r="I6" s="146" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" s="225">
+        <v>32</v>
+      </c>
+      <c r="K6" s="225" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="146">
+        <f>G6*J6</f>
+        <v>32</v>
+      </c>
+      <c r="O6" s="32"/>
+      <c r="R6" s="221"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="226">
+        <v>10</v>
+      </c>
+      <c r="C7" s="223"/>
+      <c r="D7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="224"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="225"/>
+      <c r="K7" s="225"/>
+      <c r="L7" s="146"/>
+      <c r="O7" s="32"/>
+      <c r="R7" s="221"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="226">
+        <v>10</v>
+      </c>
+      <c r="C8" s="223"/>
+      <c r="D8" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="224"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="225"/>
+      <c r="K8" s="225"/>
+      <c r="L8" s="146"/>
+      <c r="O8" s="32"/>
+      <c r="R8" s="221"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="227" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="228">
+        <f>SUM(B6:B8)</f>
+        <v>25</v>
+      </c>
+      <c r="C9" s="229"/>
+      <c r="D9" s="230"/>
+      <c r="E9" s="230"/>
+      <c r="F9" s="230"/>
+      <c r="G9" s="231"/>
+      <c r="H9" s="231"/>
+      <c r="I9" s="231"/>
+      <c r="J9" s="231"/>
+      <c r="K9" s="231"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="S9" s="232"/>
+      <c r="T9" s="221"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="233"/>
+      <c r="B10" s="234"/>
+      <c r="C10" s="235"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
+      <c r="G10" s="237"/>
+      <c r="H10" s="237"/>
+      <c r="I10" s="237"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
+      <c r="S10" s="232"/>
+      <c r="T10" s="221"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="239"/>
+      <c r="C11" s="240"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="K11" s="241"/>
+      <c r="L11" s="242"/>
+      <c r="M11" s="242"/>
+      <c r="O11" s="219"/>
+      <c r="R11" s="220"/>
+      <c r="S11" s="221"/>
+      <c r="T11" s="221"/>
+      <c r="U11" s="221"/>
+      <c r="V11" s="221"/>
+      <c r="W11" s="221"/>
+    </row>
+    <row r="12" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="244"/>
+      <c r="B12" s="245"/>
+      <c r="C12" s="246"/>
+      <c r="D12" s="236"/>
+      <c r="E12" s="236"/>
+      <c r="F12" s="236"/>
+      <c r="G12" s="237"/>
+      <c r="H12" s="237"/>
+      <c r="I12" s="237"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237"/>
+      <c r="Q12" s="217"/>
+      <c r="R12" s="217"/>
+      <c r="S12" s="217"/>
+      <c r="T12" s="221"/>
+      <c r="U12" s="217"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="236"/>
+      <c r="B13" s="236"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="210"/>
+      <c r="M13" s="210"/>
+      <c r="P13" s="248"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="248"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+    </row>
+    <row r="14" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="249" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="250"/>
+      <c r="C14" s="250"/>
+      <c r="D14" s="250"/>
+      <c r="E14" s="250"/>
+      <c r="F14" s="250"/>
+      <c r="G14" s="250"/>
+      <c r="H14" s="250"/>
+      <c r="I14" s="250"/>
+      <c r="J14" s="250"/>
+      <c r="K14" s="250"/>
+      <c r="L14" s="250"/>
+      <c r="M14" s="250"/>
+      <c r="N14" s="251"/>
+      <c r="O14" s="210"/>
+      <c r="P14" s="210"/>
+    </row>
+    <row r="15" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="252"/>
+      <c r="B15" s="253" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="253" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="252" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="252" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="254" t="s">
+        <v>185</v>
+      </c>
+      <c r="G15" s="252" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="253" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="253" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="253" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="253" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="255" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="217"/>
+      <c r="P15" s="217"/>
+      <c r="Q15" s="217"/>
+      <c r="R15" s="217"/>
+      <c r="S15" s="217"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="218"/>
+      <c r="K16" s="218"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="219"/>
+      <c r="P16" s="220"/>
+      <c r="Q16" s="221"/>
+      <c r="R16" s="221"/>
+      <c r="S16" s="221"/>
+      <c r="T16" s="221"/>
+      <c r="U16" s="221"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="222">
+        <v>5</v>
+      </c>
+      <c r="C17" s="223" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="224" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="146">
+        <v>1</v>
+      </c>
+      <c r="H17" s="146" t="s">
+        <v>188</v>
+      </c>
+      <c r="I17" s="146" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" s="225">
+        <v>32</v>
+      </c>
+      <c r="K17" s="225" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="146">
+        <f>G17*J17</f>
+        <v>32</v>
+      </c>
+      <c r="O17" s="32"/>
+      <c r="R17" s="221"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="226">
+        <v>10</v>
+      </c>
+      <c r="C18" s="223"/>
+      <c r="D18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="224"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="225"/>
+      <c r="K18" s="225"/>
+      <c r="L18" s="146"/>
+      <c r="O18" s="32"/>
+      <c r="R18" s="221"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="226">
+        <v>10</v>
+      </c>
+      <c r="C19" s="223"/>
+      <c r="D19" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="224"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="225"/>
+      <c r="K19" s="225"/>
+      <c r="L19" s="146"/>
+      <c r="O19" s="32"/>
+      <c r="R19" s="221"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="227" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="228">
+        <f>SUM(B17:B19)</f>
+        <v>25</v>
+      </c>
+      <c r="C20" s="229"/>
+      <c r="D20" s="230"/>
+      <c r="E20" s="230"/>
+      <c r="F20" s="230"/>
+      <c r="G20" s="231"/>
+      <c r="H20" s="231"/>
+      <c r="I20" s="231"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="Q20" s="232"/>
+      <c r="R20" s="221"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="239"/>
+      <c r="C21" s="240"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="K21" s="241"/>
+      <c r="L21" s="242"/>
+      <c r="M21" s="242"/>
+      <c r="R21" s="232"/>
+      <c r="S21" s="221"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C344AA2B-AA16-45F6-9BD9-D596E441BC49}">
+  <dimension ref="A1:W13"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" customWidth="1"/>
+    <col min="16" max="16" width="3.88671875" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" customWidth="1"/>
+    <col min="18" max="18" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5" customWidth="1"/>
+    <col min="21" max="21" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="203" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+    </row>
+    <row r="2" spans="1:23" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="204" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="206"/>
+    </row>
+    <row r="3" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="207" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="210"/>
+      <c r="P3" s="210"/>
+    </row>
+    <row r="4" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="211"/>
+      <c r="B4" s="212" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="135" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="213" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" s="214" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="212" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="212" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="215" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="216" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="217"/>
+      <c r="P4" s="217"/>
+      <c r="Q4" s="217"/>
+      <c r="R4" s="217"/>
+      <c r="S4" s="217"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="218"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="219"/>
+      <c r="P5" s="220"/>
+      <c r="Q5" s="221"/>
+      <c r="R5" s="221"/>
+      <c r="S5" s="221"/>
+      <c r="T5" s="221"/>
+      <c r="U5" s="221"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="222">
+        <v>5</v>
+      </c>
+      <c r="C6" s="223" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="224" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="146">
+        <v>1</v>
+      </c>
+      <c r="H6" s="146" t="s">
+        <v>188</v>
+      </c>
+      <c r="I6" s="146" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" s="225">
+        <v>32</v>
+      </c>
+      <c r="K6" s="225" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="146">
+        <f>G6*J6</f>
+        <v>32</v>
+      </c>
+      <c r="O6" s="32"/>
+      <c r="R6" s="221"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="226">
+        <v>10</v>
+      </c>
+      <c r="C7" s="223"/>
+      <c r="D7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="224"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="225"/>
+      <c r="K7" s="225"/>
+      <c r="L7" s="146"/>
+      <c r="O7" s="32"/>
+      <c r="R7" s="221"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="226">
+        <v>10</v>
+      </c>
+      <c r="C8" s="223"/>
+      <c r="D8" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="224"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="225"/>
+      <c r="K8" s="225"/>
+      <c r="L8" s="146"/>
+      <c r="O8" s="32"/>
+      <c r="R8" s="221"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="227" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="228">
+        <f>SUM(B6:B8)</f>
+        <v>25</v>
+      </c>
+      <c r="C9" s="229"/>
+      <c r="D9" s="230"/>
+      <c r="E9" s="230"/>
+      <c r="F9" s="230"/>
+      <c r="G9" s="231"/>
+      <c r="H9" s="231"/>
+      <c r="I9" s="231"/>
+      <c r="J9" s="231"/>
+      <c r="K9" s="231"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="S9" s="232"/>
+      <c r="T9" s="221"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="233"/>
+      <c r="B10" s="234"/>
+      <c r="C10" s="235"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
+      <c r="G10" s="237"/>
+      <c r="H10" s="237"/>
+      <c r="I10" s="237"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
+      <c r="N10" s="1"/>
+      <c r="S10" s="232"/>
+      <c r="T10" s="221"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="239"/>
+      <c r="C11" s="240"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="K11" s="241"/>
+      <c r="L11" s="242"/>
+      <c r="M11" s="242"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="219"/>
+      <c r="R11" s="220"/>
+      <c r="S11" s="221"/>
+      <c r="T11" s="221"/>
+      <c r="U11" s="221"/>
+      <c r="V11" s="221"/>
+      <c r="W11" s="221"/>
+    </row>
+    <row r="12" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="244"/>
+      <c r="B12" s="245"/>
+      <c r="C12" s="246"/>
+      <c r="D12" s="236"/>
+      <c r="E12" s="236"/>
+      <c r="F12" s="236"/>
+      <c r="G12" s="237"/>
+      <c r="H12" s="237"/>
+      <c r="I12" s="237"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237"/>
+      <c r="N12" s="1"/>
+      <c r="Q12" s="217"/>
+      <c r="R12" s="217"/>
+      <c r="S12" s="217"/>
+      <c r="T12" s="221"/>
+      <c r="U12" s="217"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="236"/>
+      <c r="B13" s="236"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="210"/>
+      <c r="M13" s="210"/>
+      <c r="P13" s="248"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="248"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6326A54D-ADC6-4060-8767-672C9B07B154}">
+  <dimension ref="A1:U12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" customWidth="1"/>
+    <col min="16" max="16" width="3.88671875" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" customWidth="1"/>
+    <col min="18" max="18" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5" customWidth="1"/>
+    <col min="21" max="21" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="203" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+    </row>
+    <row r="2" spans="1:21" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="204" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="206"/>
+    </row>
+    <row r="3" spans="1:21" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="256" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="210"/>
+      <c r="P3" s="210"/>
+    </row>
+    <row r="4" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="257"/>
+      <c r="B4" s="258" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="259" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="260" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="261" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="262" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" s="263" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="258" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="258" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="259" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="264" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="265" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="217"/>
+      <c r="P4" s="217"/>
+      <c r="Q4" s="217"/>
+      <c r="R4" s="217"/>
+      <c r="S4" s="217"/>
+    </row>
+    <row r="5" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="239"/>
+      <c r="B5" s="240"/>
+      <c r="C5" s="240"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="242"/>
+      <c r="L5" s="243"/>
+      <c r="M5" s="219"/>
+      <c r="P5" s="220"/>
+      <c r="Q5" s="221"/>
+      <c r="R5" s="221"/>
+      <c r="S5" s="221"/>
+      <c r="T5" s="221"/>
+      <c r="U5" s="221"/>
+    </row>
+    <row r="6" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="239"/>
+      <c r="C6" s="240"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="J6" s="242"/>
+      <c r="K6" s="242"/>
+      <c r="L6" s="243"/>
+      <c r="M6" s="219"/>
+      <c r="P6" s="220"/>
+      <c r="Q6" s="221"/>
+      <c r="R6" s="221"/>
+      <c r="S6" s="221"/>
+      <c r="T6" s="221"/>
+      <c r="U6" s="221"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="239"/>
+      <c r="C7" s="240"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="243"/>
+      <c r="M7" s="219"/>
+      <c r="P7" s="220"/>
+      <c r="Q7" s="221"/>
+      <c r="R7" s="221"/>
+      <c r="S7" s="221"/>
+      <c r="T7" s="221"/>
+      <c r="U7" s="221"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="226">
+        <v>5</v>
+      </c>
+      <c r="C8" s="223" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="224" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="146">
+        <v>1</v>
+      </c>
+      <c r="H8" s="146" t="s">
+        <v>188</v>
+      </c>
+      <c r="I8" s="146" t="s">
+        <v>192</v>
+      </c>
+      <c r="J8" s="225">
+        <v>64</v>
+      </c>
+      <c r="K8" s="225" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="266">
+        <f>G8*J8</f>
+        <v>64</v>
+      </c>
+      <c r="O8" s="32"/>
+      <c r="R8" s="221"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="226">
+        <v>10</v>
+      </c>
+      <c r="C9" s="223"/>
+      <c r="D9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="224"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="225"/>
+      <c r="K9" s="225"/>
+      <c r="L9" s="267"/>
+      <c r="O9" s="32"/>
+      <c r="R9" s="221"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="226">
+        <v>40</v>
+      </c>
+      <c r="C10" s="223"/>
+      <c r="D10" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="224"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="225"/>
+      <c r="K10" s="225"/>
+      <c r="L10" s="268"/>
+      <c r="O10" s="32"/>
+      <c r="R10" s="221"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="227" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="228">
+        <f>SUM(B8:B10)</f>
+        <v>55</v>
+      </c>
+      <c r="C11" s="229"/>
+      <c r="D11" s="230"/>
+      <c r="E11" s="230"/>
+      <c r="F11" s="230"/>
+      <c r="G11" s="231"/>
+      <c r="H11" s="231"/>
+      <c r="I11" s="231"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="238"/>
+      <c r="Q11" s="232"/>
+      <c r="R11" s="221"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="227"/>
+      <c r="B12" s="228"/>
+      <c r="C12" s="229"/>
+      <c r="D12" s="230"/>
+      <c r="E12" s="230"/>
+      <c r="F12" s="230"/>
+      <c r="G12" s="231"/>
+      <c r="H12" s="231"/>
+      <c r="I12" s="231"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="Q12" s="232"/>
+      <c r="R12" s="221"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="A2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984866CD-2C27-4CD8-AC33-5E8A9125641D}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5220,12 +8258,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="166" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -5268,74 +8306,74 @@
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="161"/>
+      <c r="B4" s="168"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="169"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="162"/>
+      <c r="A5" s="170"/>
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="162" t="s">
+      <c r="D5" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="162" t="s">
+      <c r="E5" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="162" t="s">
+      <c r="F5" s="170" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="145" t="s">
+      <c r="H5" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="145" t="s">
+      <c r="I5" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="145" t="s">
+      <c r="J5" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="145" t="s">
+      <c r="K5" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="164" t="s">
+      <c r="L5" s="172" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
+      <c r="A6" s="171"/>
       <c r="B6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
       <c r="G6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="165"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="173"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
@@ -5354,7 +8392,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="40"/>
-      <c r="C8" s="172" t="s">
+      <c r="C8" s="200" t="s">
         <v>106</v>
       </c>
       <c r="D8" s="38" t="s">
@@ -5363,63 +8401,63 @@
       <c r="E8" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="166">
+      <c r="F8" s="158">
         <v>1</v>
       </c>
-      <c r="G8" s="166" t="s">
+      <c r="G8" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="166" t="s">
+      <c r="H8" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="I8" s="166">
+      <c r="I8" s="158">
         <v>64</v>
       </c>
-      <c r="J8" s="166" t="s">
+      <c r="J8" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="166" t="s">
+      <c r="K8" s="158" t="s">
         <v>115</v>
       </c>
-      <c r="L8" s="169">
+      <c r="L8" s="161">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="40"/>
-      <c r="C9" s="173"/>
+      <c r="C9" s="201"/>
       <c r="D9" s="38" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="170"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="159"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="162"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="41"/>
       <c r="B10" s="40"/>
-      <c r="C10" s="174"/>
+      <c r="C10" s="202"/>
       <c r="D10" s="38" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="168"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="168"/>
-      <c r="K10" s="168"/>
-      <c r="L10" s="171"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="163"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
@@ -5436,7 +8474,7 @@
       <c r="F11" s="43">
         <v>1</v>
       </c>
-      <c r="G11" s="175"/>
+      <c r="G11" s="164"/>
       <c r="H11" s="43" t="s">
         <v>116</v>
       </c>
@@ -5468,7 +8506,7 @@
       <c r="F12" s="43">
         <v>1</v>
       </c>
-      <c r="G12" s="175"/>
+      <c r="G12" s="164"/>
       <c r="H12" s="43" t="s">
         <v>12</v>
       </c>
@@ -5500,7 +8538,7 @@
       <c r="F13" s="43">
         <v>1</v>
       </c>
-      <c r="G13" s="176"/>
+      <c r="G13" s="165"/>
       <c r="H13" s="43" t="s">
         <v>116</v>
       </c>
@@ -5593,14 +8631,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A5:A6"/>
@@ -5613,17 +8643,26 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AA1110-C737-425D-9585-DABC7B4C00D8}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5638,1415 +8677,1390 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="63"/>
-      <c r="B1" s="64" t="s">
+      <c r="A1" s="62"/>
+      <c r="B1" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
     </row>
     <row r="2" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="63"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="65" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="73">
+      <c r="F3" s="71"/>
+      <c r="G3" s="72">
         <v>11</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="71" t="s">
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="74">
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="73">
         <v>24096</v>
       </c>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="75"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="74"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
     </row>
     <row r="6" spans="1:17" ht="51" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="83" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="E6" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="87" t="s">
+      <c r="H6" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="I6" s="87" t="s">
+      <c r="I6" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="87" t="s">
+      <c r="J6" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="K6" s="87" t="s">
+      <c r="K6" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="88" t="s">
+      <c r="M6" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="88" t="s">
+      <c r="N6" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="89" t="s">
+      <c r="O6" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="63"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="62"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="63"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="62"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="101">
+      <c r="B9" s="99"/>
+      <c r="C9" s="100">
         <v>1</v>
       </c>
-      <c r="D9" s="185" t="s">
+      <c r="D9" s="191" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="102" t="s">
+      <c r="F9" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="187">
+      <c r="G9" s="186">
         <v>1</v>
       </c>
-      <c r="H9" s="177" t="s">
+      <c r="H9" s="174" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="177" t="s">
+      <c r="I9" s="174" t="s">
         <v>127</v>
       </c>
-      <c r="J9" s="177">
+      <c r="J9" s="174">
         <v>120</v>
       </c>
-      <c r="K9" s="177">
+      <c r="K9" s="174">
         <v>25</v>
       </c>
-      <c r="L9" s="177">
+      <c r="L9" s="174">
         <v>32</v>
       </c>
-      <c r="M9" s="179" t="s">
+      <c r="M9" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="179"/>
-      <c r="O9" s="181">
+      <c r="N9" s="177"/>
+      <c r="O9" s="195">
         <v>32</v>
       </c>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="101">
+      <c r="B10" s="99"/>
+      <c r="C10" s="100">
         <v>10</v>
       </c>
-      <c r="D10" s="186"/>
-      <c r="E10" s="102" t="s">
+      <c r="D10" s="193"/>
+      <c r="E10" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="102" t="s">
+      <c r="F10" s="101" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="188"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="178"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="182"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="175"/>
+      <c r="L10" s="175"/>
+      <c r="M10" s="179"/>
+      <c r="N10" s="179"/>
+      <c r="O10" s="196"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="104">
+      <c r="C11" s="103">
         <v>11</v>
       </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="63"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="62"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="101">
+      <c r="B13" s="99"/>
+      <c r="C13" s="100">
         <v>2045</v>
       </c>
-      <c r="D13" s="183" t="s">
+      <c r="D13" s="197" t="s">
         <v>135</v>
       </c>
-      <c r="E13" s="102" t="s">
+      <c r="E13" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="102" t="s">
+      <c r="F13" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="G13" s="177">
+      <c r="G13" s="174">
         <v>2</v>
       </c>
-      <c r="H13" s="177" t="s">
+      <c r="H13" s="174" t="s">
         <v>113</v>
       </c>
-      <c r="I13" s="177" t="s">
+      <c r="I13" s="174" t="s">
         <v>129</v>
       </c>
-      <c r="J13" s="177">
+      <c r="J13" s="174">
         <v>5000</v>
       </c>
-      <c r="K13" s="177">
+      <c r="K13" s="174">
         <v>200</v>
       </c>
-      <c r="L13" s="177">
+      <c r="L13" s="174">
         <v>1024</v>
       </c>
-      <c r="M13" s="179" t="s">
+      <c r="M13" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="179"/>
+      <c r="N13" s="177"/>
       <c r="O13" s="189">
         <v>2048</v>
       </c>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B14" s="100"/>
-      <c r="C14" s="101">
+      <c r="B14" s="99"/>
+      <c r="C14" s="100">
         <v>2</v>
       </c>
-      <c r="D14" s="184"/>
-      <c r="E14" s="102" t="s">
+      <c r="D14" s="198"/>
+      <c r="E14" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="F14" s="102" t="s">
+      <c r="F14" s="101" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="178"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="178"/>
-      <c r="L14" s="178"/>
-      <c r="M14" s="180"/>
-      <c r="N14" s="180"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="175"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="175"/>
+      <c r="L14" s="175"/>
+      <c r="M14" s="179"/>
+      <c r="N14" s="179"/>
       <c r="O14" s="190"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="109">
+      <c r="C15" s="108">
         <v>2047</v>
       </c>
-      <c r="D15" s="105"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="63"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="62"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="63"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="62"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="100"/>
-      <c r="C18" s="101">
+      <c r="B18" s="99"/>
+      <c r="C18" s="100">
         <v>267</v>
       </c>
-      <c r="D18" s="185" t="s">
+      <c r="D18" s="191" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="102" t="s">
+      <c r="E18" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="102" t="s">
+      <c r="F18" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="G18" s="177">
+      <c r="G18" s="174">
         <v>1</v>
       </c>
-      <c r="H18" s="177" t="s">
+      <c r="H18" s="174" t="s">
         <v>113</v>
       </c>
-      <c r="I18" s="177" t="s">
+      <c r="I18" s="174" t="s">
         <v>129</v>
       </c>
-      <c r="J18" s="177">
+      <c r="J18" s="174">
         <v>5000</v>
       </c>
-      <c r="K18" s="177">
+      <c r="K18" s="174">
         <v>200</v>
       </c>
-      <c r="L18" s="177">
+      <c r="L18" s="174">
         <v>1024</v>
       </c>
-      <c r="M18" s="179" t="s">
+      <c r="M18" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="N18" s="177"/>
+      <c r="N18" s="174"/>
       <c r="O18" s="189">
         <v>1024</v>
       </c>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="100"/>
-      <c r="C19" s="101">
+      <c r="B19" s="99"/>
+      <c r="C19" s="100">
         <v>267</v>
       </c>
-      <c r="D19" s="191"/>
-      <c r="E19" s="102" t="s">
+      <c r="D19" s="192"/>
+      <c r="E19" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="F19" s="102" t="s">
+      <c r="F19" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="192"/>
-      <c r="H19" s="192"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="192"/>
-      <c r="K19" s="192"/>
-      <c r="L19" s="192"/>
-      <c r="M19" s="193"/>
-      <c r="N19" s="192"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="176"/>
+      <c r="K19" s="176"/>
+      <c r="L19" s="176"/>
+      <c r="M19" s="178"/>
+      <c r="N19" s="176"/>
       <c r="O19" s="194"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="101">
+      <c r="B20" s="99"/>
+      <c r="C20" s="100">
         <v>50</v>
       </c>
-      <c r="D20" s="191"/>
-      <c r="E20" s="102" t="s">
+      <c r="D20" s="192"/>
+      <c r="E20" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="102" t="s">
+      <c r="F20" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="192"/>
-      <c r="H20" s="192"/>
-      <c r="I20" s="192"/>
-      <c r="J20" s="192"/>
-      <c r="K20" s="192"/>
-      <c r="L20" s="192"/>
-      <c r="M20" s="193"/>
-      <c r="N20" s="192"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="176"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="176"/>
+      <c r="K20" s="176"/>
+      <c r="L20" s="176"/>
+      <c r="M20" s="178"/>
+      <c r="N20" s="176"/>
       <c r="O20" s="194"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="101">
+      <c r="B21" s="99"/>
+      <c r="C21" s="100">
         <v>50</v>
       </c>
-      <c r="D21" s="191"/>
-      <c r="E21" s="102" t="s">
+      <c r="D21" s="192"/>
+      <c r="E21" s="101" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="102" t="s">
+      <c r="F21" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="G21" s="192"/>
-      <c r="H21" s="192"/>
-      <c r="I21" s="192"/>
-      <c r="J21" s="192"/>
-      <c r="K21" s="192"/>
-      <c r="L21" s="192"/>
-      <c r="M21" s="193"/>
-      <c r="N21" s="192"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="176"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="176"/>
+      <c r="K21" s="176"/>
+      <c r="L21" s="176"/>
+      <c r="M21" s="178"/>
+      <c r="N21" s="176"/>
       <c r="O21" s="194"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="101">
+      <c r="B22" s="99"/>
+      <c r="C22" s="100">
         <v>50</v>
       </c>
-      <c r="D22" s="186"/>
-      <c r="E22" s="102" t="s">
+      <c r="D22" s="193"/>
+      <c r="E22" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="102" t="s">
+      <c r="F22" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="178"/>
-      <c r="L22" s="178"/>
-      <c r="M22" s="180"/>
-      <c r="N22" s="178"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="175"/>
+      <c r="L22" s="175"/>
+      <c r="M22" s="179"/>
+      <c r="N22" s="175"/>
       <c r="O22" s="190"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="104">
+      <c r="C23" s="103">
         <v>684</v>
       </c>
-      <c r="D23" s="105"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="108"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="107"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="63"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="62"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="110">
+      <c r="B25" s="109">
         <v>1</v>
       </c>
-      <c r="C25" s="111">
+      <c r="C25" s="110">
         <v>2560</v>
       </c>
-      <c r="D25" s="195" t="s">
+      <c r="D25" s="183" t="s">
         <v>149</v>
       </c>
-      <c r="E25" s="102" t="s">
+      <c r="E25" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="F25" s="102" t="s">
+      <c r="F25" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="G25" s="177">
+      <c r="G25" s="174">
         <v>10</v>
       </c>
-      <c r="H25" s="177" t="s">
+      <c r="H25" s="174" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="187" t="s">
+      <c r="I25" s="186" t="s">
         <v>131</v>
       </c>
-      <c r="J25" s="177">
+      <c r="J25" s="174">
         <v>60000</v>
       </c>
-      <c r="K25" s="177">
+      <c r="K25" s="174">
         <v>2000</v>
       </c>
-      <c r="L25" s="177">
+      <c r="L25" s="174">
         <v>4096</v>
       </c>
-      <c r="M25" s="179" t="s">
+      <c r="M25" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="N25" s="177" t="s">
+      <c r="N25" s="174" t="s">
         <v>132</v>
       </c>
-      <c r="O25" s="199">
+      <c r="O25" s="180">
         <f>G25*L25</f>
         <v>40960</v>
       </c>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="110">
+      <c r="B26" s="109">
         <v>2</v>
       </c>
-      <c r="C26" s="111">
+      <c r="C26" s="110">
         <v>2560</v>
       </c>
-      <c r="D26" s="196"/>
-      <c r="E26" s="102" t="s">
+      <c r="D26" s="184"/>
+      <c r="E26" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="102" t="s">
+      <c r="F26" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="G26" s="192"/>
-      <c r="H26" s="192"/>
-      <c r="I26" s="198"/>
-      <c r="J26" s="192"/>
-      <c r="K26" s="192"/>
-      <c r="L26" s="192"/>
-      <c r="M26" s="193"/>
-      <c r="N26" s="192"/>
-      <c r="O26" s="200"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="176"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="176"/>
+      <c r="K26" s="176"/>
+      <c r="L26" s="176"/>
+      <c r="M26" s="178"/>
+      <c r="N26" s="176"/>
+      <c r="O26" s="181"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="110">
+      <c r="B27" s="109">
         <v>3</v>
       </c>
-      <c r="C27" s="111">
+      <c r="C27" s="110">
         <v>2560</v>
       </c>
-      <c r="D27" s="196"/>
-      <c r="E27" s="102" t="s">
+      <c r="D27" s="184"/>
+      <c r="E27" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="F27" s="102" t="s">
+      <c r="F27" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="G27" s="192"/>
-      <c r="H27" s="192"/>
-      <c r="I27" s="198"/>
-      <c r="J27" s="192"/>
-      <c r="K27" s="192"/>
-      <c r="L27" s="192"/>
-      <c r="M27" s="193"/>
-      <c r="N27" s="192"/>
-      <c r="O27" s="200"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
+      <c r="G27" s="176"/>
+      <c r="H27" s="176"/>
+      <c r="I27" s="187"/>
+      <c r="J27" s="176"/>
+      <c r="K27" s="176"/>
+      <c r="L27" s="176"/>
+      <c r="M27" s="178"/>
+      <c r="N27" s="176"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="110">
+      <c r="B28" s="109">
         <v>4</v>
       </c>
-      <c r="C28" s="111">
+      <c r="C28" s="110">
         <v>2560</v>
       </c>
-      <c r="D28" s="196"/>
-      <c r="E28" s="102" t="s">
+      <c r="D28" s="184"/>
+      <c r="E28" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="F28" s="102" t="s">
+      <c r="F28" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="G28" s="192"/>
-      <c r="H28" s="192"/>
-      <c r="I28" s="198"/>
-      <c r="J28" s="192"/>
-      <c r="K28" s="192"/>
-      <c r="L28" s="192"/>
-      <c r="M28" s="193"/>
-      <c r="N28" s="192"/>
-      <c r="O28" s="200"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
+      <c r="G28" s="176"/>
+      <c r="H28" s="176"/>
+      <c r="I28" s="187"/>
+      <c r="J28" s="176"/>
+      <c r="K28" s="176"/>
+      <c r="L28" s="176"/>
+      <c r="M28" s="178"/>
+      <c r="N28" s="176"/>
+      <c r="O28" s="181"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="110">
+      <c r="B29" s="109">
         <v>5</v>
       </c>
-      <c r="C29" s="111">
+      <c r="C29" s="110">
         <v>2560</v>
       </c>
-      <c r="D29" s="196"/>
-      <c r="E29" s="102" t="s">
+      <c r="D29" s="184"/>
+      <c r="E29" s="101" t="s">
         <v>158</v>
       </c>
-      <c r="F29" s="102" t="s">
+      <c r="F29" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="G29" s="192"/>
-      <c r="H29" s="192"/>
-      <c r="I29" s="198"/>
-      <c r="J29" s="192"/>
-      <c r="K29" s="192"/>
-      <c r="L29" s="192"/>
-      <c r="M29" s="193"/>
-      <c r="N29" s="192"/>
-      <c r="O29" s="200"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
+      <c r="G29" s="176"/>
+      <c r="H29" s="176"/>
+      <c r="I29" s="187"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="176"/>
+      <c r="L29" s="176"/>
+      <c r="M29" s="178"/>
+      <c r="N29" s="176"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="110">
+      <c r="B30" s="109">
         <v>6</v>
       </c>
-      <c r="C30" s="111">
+      <c r="C30" s="110">
         <v>2560</v>
       </c>
-      <c r="D30" s="196"/>
-      <c r="E30" s="102" t="s">
+      <c r="D30" s="184"/>
+      <c r="E30" s="101" t="s">
         <v>160</v>
       </c>
-      <c r="F30" s="102" t="s">
+      <c r="F30" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="G30" s="192"/>
-      <c r="H30" s="192"/>
-      <c r="I30" s="198"/>
-      <c r="J30" s="192"/>
-      <c r="K30" s="192"/>
-      <c r="L30" s="192"/>
-      <c r="M30" s="193"/>
-      <c r="N30" s="192"/>
-      <c r="O30" s="200"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
+      <c r="G30" s="176"/>
+      <c r="H30" s="176"/>
+      <c r="I30" s="187"/>
+      <c r="J30" s="176"/>
+      <c r="K30" s="176"/>
+      <c r="L30" s="176"/>
+      <c r="M30" s="178"/>
+      <c r="N30" s="176"/>
+      <c r="O30" s="181"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="110">
+      <c r="B31" s="109">
         <v>7</v>
       </c>
-      <c r="C31" s="111">
+      <c r="C31" s="110">
         <v>2560</v>
       </c>
-      <c r="D31" s="196"/>
-      <c r="E31" s="102" t="s">
+      <c r="D31" s="184"/>
+      <c r="E31" s="101" t="s">
         <v>162</v>
       </c>
-      <c r="F31" s="102" t="s">
+      <c r="F31" s="101" t="s">
         <v>163</v>
       </c>
-      <c r="G31" s="192"/>
-      <c r="H31" s="192"/>
-      <c r="I31" s="198"/>
-      <c r="J31" s="192"/>
-      <c r="K31" s="192"/>
-      <c r="L31" s="192"/>
-      <c r="M31" s="193"/>
-      <c r="N31" s="192"/>
-      <c r="O31" s="200"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
+      <c r="G31" s="176"/>
+      <c r="H31" s="176"/>
+      <c r="I31" s="187"/>
+      <c r="J31" s="176"/>
+      <c r="K31" s="176"/>
+      <c r="L31" s="176"/>
+      <c r="M31" s="178"/>
+      <c r="N31" s="176"/>
+      <c r="O31" s="181"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="110">
+      <c r="B32" s="109">
         <v>8</v>
       </c>
-      <c r="C32" s="111">
+      <c r="C32" s="110">
         <v>2560</v>
       </c>
-      <c r="D32" s="196"/>
-      <c r="E32" s="102" t="s">
+      <c r="D32" s="184"/>
+      <c r="E32" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="F32" s="102" t="s">
+      <c r="F32" s="101" t="s">
         <v>165</v>
       </c>
-      <c r="G32" s="192"/>
-      <c r="H32" s="192"/>
-      <c r="I32" s="198"/>
-      <c r="J32" s="192"/>
-      <c r="K32" s="192"/>
-      <c r="L32" s="192"/>
-      <c r="M32" s="193"/>
-      <c r="N32" s="192"/>
-      <c r="O32" s="200"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="63"/>
+      <c r="G32" s="176"/>
+      <c r="H32" s="176"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="176"/>
+      <c r="K32" s="176"/>
+      <c r="L32" s="176"/>
+      <c r="M32" s="178"/>
+      <c r="N32" s="176"/>
+      <c r="O32" s="181"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="110">
+      <c r="B33" s="109">
         <v>9</v>
       </c>
-      <c r="C33" s="111">
+      <c r="C33" s="110">
         <v>2560</v>
       </c>
-      <c r="D33" s="196"/>
-      <c r="E33" s="102" t="s">
+      <c r="D33" s="184"/>
+      <c r="E33" s="101" t="s">
         <v>166</v>
       </c>
-      <c r="F33" s="102" t="s">
+      <c r="F33" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="G33" s="192"/>
-      <c r="H33" s="192"/>
-      <c r="I33" s="198"/>
-      <c r="J33" s="192"/>
-      <c r="K33" s="192"/>
-      <c r="L33" s="192"/>
-      <c r="M33" s="193"/>
-      <c r="N33" s="192"/>
-      <c r="O33" s="200"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="63"/>
+      <c r="G33" s="176"/>
+      <c r="H33" s="176"/>
+      <c r="I33" s="187"/>
+      <c r="J33" s="176"/>
+      <c r="K33" s="176"/>
+      <c r="L33" s="176"/>
+      <c r="M33" s="178"/>
+      <c r="N33" s="176"/>
+      <c r="O33" s="181"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="110">
+      <c r="B34" s="109">
         <v>10</v>
       </c>
-      <c r="C34" s="111">
+      <c r="C34" s="110">
         <v>2560</v>
       </c>
-      <c r="D34" s="196"/>
-      <c r="E34" s="102" t="s">
+      <c r="D34" s="184"/>
+      <c r="E34" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="F34" s="102" t="s">
+      <c r="F34" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="G34" s="192"/>
-      <c r="H34" s="192"/>
-      <c r="I34" s="198"/>
-      <c r="J34" s="192"/>
-      <c r="K34" s="192"/>
-      <c r="L34" s="192"/>
-      <c r="M34" s="193"/>
-      <c r="N34" s="192"/>
-      <c r="O34" s="200"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="63"/>
+      <c r="G34" s="176"/>
+      <c r="H34" s="176"/>
+      <c r="I34" s="187"/>
+      <c r="J34" s="176"/>
+      <c r="K34" s="176"/>
+      <c r="L34" s="176"/>
+      <c r="M34" s="178"/>
+      <c r="N34" s="176"/>
+      <c r="O34" s="181"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="110">
+      <c r="B35" s="109">
         <v>11</v>
       </c>
-      <c r="C35" s="111">
+      <c r="C35" s="110">
         <v>2560</v>
       </c>
-      <c r="D35" s="196"/>
-      <c r="E35" s="102" t="s">
+      <c r="D35" s="184"/>
+      <c r="E35" s="101" t="s">
         <v>170</v>
       </c>
-      <c r="F35" s="102" t="s">
+      <c r="F35" s="101" t="s">
         <v>171</v>
       </c>
-      <c r="G35" s="192"/>
-      <c r="H35" s="192"/>
-      <c r="I35" s="198"/>
-      <c r="J35" s="192"/>
-      <c r="K35" s="192"/>
-      <c r="L35" s="192"/>
-      <c r="M35" s="193"/>
-      <c r="N35" s="192"/>
-      <c r="O35" s="200"/>
-      <c r="P35" s="63"/>
-      <c r="Q35" s="63"/>
+      <c r="G35" s="176"/>
+      <c r="H35" s="176"/>
+      <c r="I35" s="187"/>
+      <c r="J35" s="176"/>
+      <c r="K35" s="176"/>
+      <c r="L35" s="176"/>
+      <c r="M35" s="178"/>
+      <c r="N35" s="176"/>
+      <c r="O35" s="181"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="110">
+      <c r="B36" s="109">
         <v>12</v>
       </c>
-      <c r="C36" s="111">
+      <c r="C36" s="110">
         <v>2560</v>
       </c>
-      <c r="D36" s="196"/>
-      <c r="E36" s="102" t="s">
+      <c r="D36" s="184"/>
+      <c r="E36" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="F36" s="102" t="s">
+      <c r="F36" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="G36" s="192"/>
-      <c r="H36" s="192"/>
-      <c r="I36" s="198"/>
-      <c r="J36" s="192"/>
-      <c r="K36" s="192"/>
-      <c r="L36" s="192"/>
-      <c r="M36" s="193"/>
-      <c r="N36" s="192"/>
-      <c r="O36" s="200"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="63"/>
+      <c r="G36" s="176"/>
+      <c r="H36" s="176"/>
+      <c r="I36" s="187"/>
+      <c r="J36" s="176"/>
+      <c r="K36" s="176"/>
+      <c r="L36" s="176"/>
+      <c r="M36" s="178"/>
+      <c r="N36" s="176"/>
+      <c r="O36" s="181"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="110">
+      <c r="B37" s="109">
         <v>13</v>
       </c>
-      <c r="C37" s="111">
+      <c r="C37" s="110">
         <v>2560</v>
       </c>
-      <c r="D37" s="196"/>
-      <c r="E37" s="102" t="s">
+      <c r="D37" s="184"/>
+      <c r="E37" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="F37" s="102" t="s">
+      <c r="F37" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="G37" s="192"/>
-      <c r="H37" s="192"/>
-      <c r="I37" s="198"/>
-      <c r="J37" s="192"/>
-      <c r="K37" s="192"/>
-      <c r="L37" s="192"/>
-      <c r="M37" s="193"/>
-      <c r="N37" s="192"/>
-      <c r="O37" s="200"/>
-      <c r="P37" s="63"/>
-      <c r="Q37" s="63"/>
+      <c r="G37" s="176"/>
+      <c r="H37" s="176"/>
+      <c r="I37" s="187"/>
+      <c r="J37" s="176"/>
+      <c r="K37" s="176"/>
+      <c r="L37" s="176"/>
+      <c r="M37" s="178"/>
+      <c r="N37" s="176"/>
+      <c r="O37" s="181"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="110">
+      <c r="B38" s="109">
         <v>14</v>
       </c>
-      <c r="C38" s="111">
+      <c r="C38" s="110">
         <v>2560</v>
       </c>
-      <c r="D38" s="196"/>
-      <c r="E38" s="102" t="s">
+      <c r="D38" s="184"/>
+      <c r="E38" s="101" t="s">
         <v>176</v>
       </c>
-      <c r="F38" s="102" t="s">
+      <c r="F38" s="101" t="s">
         <v>177</v>
       </c>
-      <c r="G38" s="192"/>
-      <c r="H38" s="192"/>
-      <c r="I38" s="198"/>
-      <c r="J38" s="192"/>
-      <c r="K38" s="192"/>
-      <c r="L38" s="192"/>
-      <c r="M38" s="193"/>
-      <c r="N38" s="192"/>
-      <c r="O38" s="200"/>
-      <c r="P38" s="63"/>
-      <c r="Q38" s="63"/>
+      <c r="G38" s="176"/>
+      <c r="H38" s="176"/>
+      <c r="I38" s="187"/>
+      <c r="J38" s="176"/>
+      <c r="K38" s="176"/>
+      <c r="L38" s="176"/>
+      <c r="M38" s="178"/>
+      <c r="N38" s="176"/>
+      <c r="O38" s="181"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="110">
+      <c r="B39" s="109">
         <v>15</v>
       </c>
-      <c r="C39" s="111">
+      <c r="C39" s="110">
         <v>2560</v>
       </c>
-      <c r="D39" s="196"/>
-      <c r="E39" s="102" t="s">
+      <c r="D39" s="184"/>
+      <c r="E39" s="101" t="s">
         <v>178</v>
       </c>
-      <c r="F39" s="102" t="s">
+      <c r="F39" s="101" t="s">
         <v>179</v>
       </c>
-      <c r="G39" s="192"/>
-      <c r="H39" s="192"/>
-      <c r="I39" s="198"/>
-      <c r="J39" s="192"/>
-      <c r="K39" s="192"/>
-      <c r="L39" s="192"/>
-      <c r="M39" s="193"/>
-      <c r="N39" s="192"/>
-      <c r="O39" s="200"/>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="63"/>
+      <c r="G39" s="176"/>
+      <c r="H39" s="176"/>
+      <c r="I39" s="187"/>
+      <c r="J39" s="176"/>
+      <c r="K39" s="176"/>
+      <c r="L39" s="176"/>
+      <c r="M39" s="178"/>
+      <c r="N39" s="176"/>
+      <c r="O39" s="181"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="110">
+      <c r="B40" s="109">
         <v>16</v>
       </c>
-      <c r="C40" s="111">
+      <c r="C40" s="110">
         <v>2560</v>
       </c>
-      <c r="D40" s="197"/>
-      <c r="E40" s="102" t="s">
+      <c r="D40" s="185"/>
+      <c r="E40" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="F40" s="102" t="s">
+      <c r="F40" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="G40" s="178"/>
-      <c r="H40" s="178"/>
+      <c r="G40" s="175"/>
+      <c r="H40" s="175"/>
       <c r="I40" s="188"/>
-      <c r="J40" s="178"/>
-      <c r="K40" s="178"/>
-      <c r="L40" s="178"/>
-      <c r="M40" s="180"/>
-      <c r="N40" s="178"/>
-      <c r="O40" s="201"/>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="63"/>
+      <c r="J40" s="175"/>
+      <c r="K40" s="175"/>
+      <c r="L40" s="175"/>
+      <c r="M40" s="179"/>
+      <c r="N40" s="175"/>
+      <c r="O40" s="182"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="68" t="s">
+      <c r="A41" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="103" t="s">
+      <c r="B41" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="104">
+      <c r="C41" s="103">
         <f>SUM(C25:C40)</f>
         <v>40960</v>
       </c>
-      <c r="D41" s="105"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="108"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="106"/>
+      <c r="K41" s="106"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="107"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="103"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="106"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="107"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="108"/>
-      <c r="P42" s="63"/>
-      <c r="Q42" s="63"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="106"/>
+      <c r="K42" s="106"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="107"/>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="62"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="68" t="s">
+      <c r="A43" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="100"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="177"/>
-      <c r="I43" s="115"/>
-      <c r="J43" s="115"/>
-      <c r="K43" s="115"/>
-      <c r="L43" s="115"/>
-      <c r="M43" s="116"/>
-      <c r="N43" s="116"/>
-      <c r="O43" s="117"/>
-      <c r="P43" s="63"/>
-      <c r="Q43" s="63"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="174"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="115"/>
+      <c r="N43" s="115"/>
+      <c r="O43" s="116"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="68" t="s">
+      <c r="A44" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="103" t="s">
+      <c r="B44" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="104"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="106"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="178"/>
-      <c r="I44" s="107"/>
-      <c r="J44" s="107"/>
-      <c r="K44" s="107"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="74"/>
-      <c r="N44" s="74"/>
-      <c r="O44" s="108"/>
-      <c r="P44" s="63"/>
-      <c r="Q44" s="63"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="175"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="106"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="107"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="68" t="s">
+      <c r="A45" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="103"/>
-      <c r="C45" s="104"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="118"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="107"/>
-      <c r="K45" s="107"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="74"/>
-      <c r="N45" s="74"/>
-      <c r="O45" s="108"/>
-      <c r="P45" s="63"/>
-      <c r="Q45" s="63"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="106"/>
+      <c r="K45" s="106"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="73"/>
+      <c r="O45" s="107"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="68" t="s">
+      <c r="A46" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="103"/>
-      <c r="C46" s="104"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="106"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="107"/>
-      <c r="J46" s="107"/>
-      <c r="K46" s="107"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="108"/>
-      <c r="P46" s="63"/>
-      <c r="Q46" s="63"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="106"/>
+      <c r="K46" s="106"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="107"/>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="62"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="68"/>
-      <c r="B47" s="103"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="107"/>
-      <c r="I47" s="107"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="107"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="108"/>
-      <c r="P47" s="63"/>
-      <c r="Q47" s="63"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="106"/>
+      <c r="J47" s="106"/>
+      <c r="K47" s="106"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="107"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
     </row>
     <row r="48" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="68" t="s">
+      <c r="A48" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B48" s="119"/>
-      <c r="C48" s="120"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="121"/>
-      <c r="F48" s="121"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="122"/>
-      <c r="I48" s="122"/>
-      <c r="J48" s="122"/>
-      <c r="K48" s="122"/>
-      <c r="L48" s="123"/>
-      <c r="M48" s="123"/>
-      <c r="N48" s="123"/>
-      <c r="O48" s="124"/>
-      <c r="P48" s="63"/>
-      <c r="Q48" s="63"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="120"/>
+      <c r="G48" s="120"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="121"/>
+      <c r="K48" s="121"/>
+      <c r="L48" s="122"/>
+      <c r="M48" s="122"/>
+      <c r="N48" s="122"/>
+      <c r="O48" s="123"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="62"/>
     </row>
     <row r="49" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="125"/>
-      <c r="B49" s="126"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="129"/>
-      <c r="F49" s="129"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="130"/>
-      <c r="I49" s="130"/>
-      <c r="J49" s="130"/>
-      <c r="K49" s="130"/>
-      <c r="L49" s="125"/>
-      <c r="M49" s="125"/>
-      <c r="N49" s="125"/>
-      <c r="O49" s="125"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="63"/>
+      <c r="A49" s="124"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
+      <c r="G49" s="129"/>
+      <c r="H49" s="129"/>
+      <c r="I49" s="129"/>
+      <c r="J49" s="129"/>
+      <c r="K49" s="129"/>
+      <c r="L49" s="124"/>
+      <c r="M49" s="124"/>
+      <c r="N49" s="124"/>
+      <c r="O49" s="124"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
     </row>
     <row r="50" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B50" s="63"/>
-      <c r="C50" s="103" t="s">
+      <c r="B50" s="62"/>
+      <c r="C50" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="131"/>
-      <c r="E50" s="131"/>
-      <c r="F50" s="132"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="80"/>
-      <c r="N50" s="80"/>
-      <c r="O50" s="81"/>
-      <c r="P50" s="71"/>
-      <c r="Q50" s="71"/>
+      <c r="D50" s="130"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="131"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="79"/>
+      <c r="L50" s="79"/>
+      <c r="M50" s="79"/>
+      <c r="N50" s="79"/>
+      <c r="O50" s="80"/>
+      <c r="P50" s="70"/>
+      <c r="Q50" s="70"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B51" s="63"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="133" t="s">
+      <c r="B51" s="62"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="132" t="s">
         <v>182</v>
       </c>
-      <c r="E51" s="134"/>
-      <c r="F51" s="133" t="s">
+      <c r="E51" s="133"/>
+      <c r="F51" s="132" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B52" s="63"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="133"/>
-      <c r="E52" s="134"/>
-      <c r="F52" s="133"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="133"/>
+      <c r="F52" s="132"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B53" s="63"/>
-      <c r="C53" s="135"/>
-      <c r="D53" s="133"/>
-      <c r="E53" s="134"/>
-      <c r="F53" s="133"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="133"/>
+      <c r="F53" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="K25:K40"/>
-    <mergeCell ref="L25:L40"/>
-    <mergeCell ref="M25:M40"/>
-    <mergeCell ref="N25:N40"/>
-    <mergeCell ref="O25:O40"/>
-    <mergeCell ref="D25:D40"/>
-    <mergeCell ref="G25:G40"/>
-    <mergeCell ref="H25:H40"/>
-    <mergeCell ref="I25:I40"/>
-    <mergeCell ref="J25:J40"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="H18:H22"/>
-    <mergeCell ref="I18:I22"/>
-    <mergeCell ref="J18:J22"/>
-    <mergeCell ref="K18:K22"/>
-    <mergeCell ref="L18:L22"/>
-    <mergeCell ref="M18:M22"/>
-    <mergeCell ref="N18:N22"/>
-    <mergeCell ref="O18:O22"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="N9:N10"/>
@@ -7063,6 +10077,31 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="I18:I22"/>
+    <mergeCell ref="J18:J22"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="L18:L22"/>
+    <mergeCell ref="M18:M22"/>
+    <mergeCell ref="N18:N22"/>
+    <mergeCell ref="O18:O22"/>
+    <mergeCell ref="O25:O40"/>
+    <mergeCell ref="D25:D40"/>
+    <mergeCell ref="G25:G40"/>
+    <mergeCell ref="H25:H40"/>
+    <mergeCell ref="I25:I40"/>
+    <mergeCell ref="J25:J40"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="K25:K40"/>
+    <mergeCell ref="L25:L40"/>
+    <mergeCell ref="M25:M40"/>
+    <mergeCell ref="N25:N40"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:O49">
     <cfRule type="expression" dxfId="4" priority="1">

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\suji\SourceCode\Local\buildsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C34433-78AA-48BD-8745-6CFE74744F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B65C2C-B9C2-414A-A1B3-D695F054F04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E86B7F64-D4B2-42B2-BB21-CEFB44C19956}"/>
   </bookViews>
   <sheets>
     <sheet name="SAP" sheetId="3" r:id="rId1"/>
-    <sheet name="SID_FS NFS" sheetId="1" r:id="rId2"/>
+    <sheet name="SID_FS ASCS+PAS+NFS" sheetId="1" r:id="rId2"/>
     <sheet name="SID_FS ASCS DR" sheetId="6" r:id="rId3"/>
     <sheet name="SID_FS ASCS" sheetId="5" r:id="rId4"/>
     <sheet name="SID_FS PAS DR" sheetId="7" r:id="rId5"/>
@@ -358,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="213">
   <si>
     <t>Allocation in GB</t>
   </si>
@@ -981,13 +981,70 @@
     <t>ASCS - DR</t>
   </si>
   <si>
-    <t>PAS/AAS (including DR)</t>
-  </si>
-  <si>
     <t>P6</t>
   </si>
   <si>
     <t>SID  SAP Filesystem Layout</t>
+  </si>
+  <si>
+    <t>Azure Fileshare</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Mount Path</t>
+  </si>
+  <si>
+    <t>AFS size</t>
+  </si>
+  <si>
+    <t>AFS throughput</t>
+  </si>
+  <si>
+    <t>AFS IOPS</t>
+  </si>
+  <si>
+    <t>100GB</t>
+  </si>
+  <si>
+    <t>1.86TB</t>
+  </si>
+  <si>
+    <t>sap-SID</t>
+  </si>
+  <si>
+    <t>/usr/sap/SID/trans</t>
+  </si>
+  <si>
+    <t>/app/tSID002</t>
+  </si>
+  <si>
+    <t>/usr/sap/SID/ERS31</t>
+  </si>
+  <si>
+    <t>/usr/sap/SID/ASCS21</t>
+  </si>
+  <si>
+    <t>sap-SID-files</t>
+  </si>
+  <si>
+    <t>Primary - region</t>
+  </si>
+  <si>
+    <t>DR - region (AFS_servername_DR/)</t>
+  </si>
+  <si>
+    <t>PAS/AAS</t>
+  </si>
+  <si>
+    <t>DR - region_DR (AFS_servername_DR/)</t>
+  </si>
+  <si>
+    <t>Primary - region (AFS_servername)</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1370,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1854,13 +1911,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2277,252 +2345,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2558,15 +2387,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2610,6 +2430,175 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2619,48 +2608,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2669,6 +2619,163 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4315,58 +4422,58 @@
       <c r="AX7" s="52"/>
     </row>
     <row r="8" spans="1:50" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="138" t="s">
+      <c r="A8" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="138"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="138"/>
-      <c r="N8" s="138"/>
-      <c r="O8" s="138"/>
-      <c r="P8" s="138"/>
-      <c r="Q8" s="138"/>
-      <c r="R8" s="138"/>
-      <c r="S8" s="138"/>
-      <c r="T8" s="138"/>
-      <c r="U8" s="138"/>
-      <c r="V8" s="138"/>
-      <c r="W8" s="138"/>
-      <c r="X8" s="138"/>
-      <c r="Y8" s="138"/>
-      <c r="Z8" s="138"/>
-      <c r="AA8" s="138"/>
-      <c r="AB8" s="138"/>
-      <c r="AC8" s="138"/>
-      <c r="AD8" s="138"/>
-      <c r="AE8" s="138"/>
-      <c r="AF8" s="138"/>
-      <c r="AG8" s="138"/>
-      <c r="AH8" s="138"/>
-      <c r="AI8" s="138"/>
-      <c r="AJ8" s="138"/>
-      <c r="AK8" s="138"/>
-      <c r="AL8" s="138"/>
-      <c r="AM8" s="138"/>
-      <c r="AN8" s="138"/>
-      <c r="AO8" s="138"/>
-      <c r="AP8" s="138"/>
-      <c r="AQ8" s="138"/>
-      <c r="AR8" s="138"/>
-      <c r="AS8" s="138"/>
-      <c r="AT8" s="138"/>
-      <c r="AU8" s="138"/>
-      <c r="AV8" s="138"/>
-      <c r="AW8" s="138"/>
-      <c r="AX8" s="138"/>
+      <c r="B8" s="193"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="193"/>
+      <c r="K8" s="193"/>
+      <c r="L8" s="193"/>
+      <c r="M8" s="193"/>
+      <c r="N8" s="193"/>
+      <c r="O8" s="193"/>
+      <c r="P8" s="193"/>
+      <c r="Q8" s="193"/>
+      <c r="R8" s="193"/>
+      <c r="S8" s="193"/>
+      <c r="T8" s="193"/>
+      <c r="U8" s="193"/>
+      <c r="V8" s="193"/>
+      <c r="W8" s="193"/>
+      <c r="X8" s="193"/>
+      <c r="Y8" s="193"/>
+      <c r="Z8" s="193"/>
+      <c r="AA8" s="193"/>
+      <c r="AB8" s="193"/>
+      <c r="AC8" s="193"/>
+      <c r="AD8" s="193"/>
+      <c r="AE8" s="193"/>
+      <c r="AF8" s="193"/>
+      <c r="AG8" s="193"/>
+      <c r="AH8" s="193"/>
+      <c r="AI8" s="193"/>
+      <c r="AJ8" s="193"/>
+      <c r="AK8" s="193"/>
+      <c r="AL8" s="193"/>
+      <c r="AM8" s="193"/>
+      <c r="AN8" s="193"/>
+      <c r="AO8" s="193"/>
+      <c r="AP8" s="193"/>
+      <c r="AQ8" s="193"/>
+      <c r="AR8" s="193"/>
+      <c r="AS8" s="193"/>
+      <c r="AT8" s="193"/>
+      <c r="AU8" s="193"/>
+      <c r="AV8" s="193"/>
+      <c r="AW8" s="193"/>
+      <c r="AX8" s="193"/>
     </row>
     <row r="9" spans="1:50" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="53"/>
@@ -4398,53 +4505,53 @@
       <c r="AA9" s="53"/>
       <c r="AB9" s="53"/>
       <c r="AC9" s="53"/>
-      <c r="AD9" s="141" t="s">
+      <c r="AD9" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="AE9" s="142"/>
-      <c r="AF9" s="141" t="s">
+      <c r="AE9" s="197"/>
+      <c r="AF9" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="AG9" s="142"/>
-      <c r="AH9" s="141" t="s">
+      <c r="AG9" s="197"/>
+      <c r="AH9" s="196" t="s">
         <v>43</v>
       </c>
-      <c r="AI9" s="142"/>
-      <c r="AJ9" s="141" t="s">
+      <c r="AI9" s="197"/>
+      <c r="AJ9" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="AK9" s="142"/>
-      <c r="AL9" s="141" t="s">
+      <c r="AK9" s="197"/>
+      <c r="AL9" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="AM9" s="142"/>
-      <c r="AN9" s="141" t="s">
+      <c r="AM9" s="197"/>
+      <c r="AN9" s="196" t="s">
         <v>46</v>
       </c>
-      <c r="AO9" s="142"/>
-      <c r="AP9" s="141" t="s">
+      <c r="AO9" s="197"/>
+      <c r="AP9" s="196" t="s">
         <v>47</v>
       </c>
-      <c r="AQ9" s="142"/>
-      <c r="AR9" s="136" t="s">
+      <c r="AQ9" s="197"/>
+      <c r="AR9" s="191" t="s">
         <v>48</v>
       </c>
-      <c r="AS9" s="136" t="s">
+      <c r="AS9" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="AT9" s="136" t="s">
+      <c r="AT9" s="191" t="s">
         <v>50</v>
       </c>
-      <c r="AU9" s="136" t="s">
+      <c r="AU9" s="191" t="s">
         <v>51</v>
       </c>
-      <c r="AV9" s="136" t="s">
+      <c r="AV9" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="AW9" s="139" t="s">
+      <c r="AW9" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="AX9" s="136" t="s">
+      <c r="AX9" s="191" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4578,13 +4685,13 @@
       <c r="AQ10" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="AR10" s="137"/>
-      <c r="AS10" s="137"/>
-      <c r="AT10" s="137"/>
-      <c r="AU10" s="137"/>
-      <c r="AV10" s="137"/>
-      <c r="AW10" s="140"/>
-      <c r="AX10" s="137" t="s">
+      <c r="AR10" s="192"/>
+      <c r="AS10" s="192"/>
+      <c r="AT10" s="192"/>
+      <c r="AU10" s="192"/>
+      <c r="AV10" s="192"/>
+      <c r="AW10" s="195"/>
+      <c r="AX10" s="192" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4641,2032 +4748,2032 @@
       <c r="AX11" s="61"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A12" s="199"/>
-      <c r="B12" s="199"/>
-      <c r="C12" s="199"/>
-      <c r="D12" s="199"/>
-      <c r="E12" s="199"/>
-      <c r="F12" s="199"/>
-      <c r="G12" s="199"/>
-      <c r="H12" s="199"/>
-      <c r="I12" s="199"/>
-      <c r="J12" s="199"/>
-      <c r="K12" s="199"/>
-      <c r="L12" s="199"/>
-      <c r="M12" s="199"/>
-      <c r="N12" s="199"/>
-      <c r="O12" s="199"/>
-      <c r="P12" s="199"/>
-      <c r="Q12" s="199"/>
-      <c r="R12" s="199"/>
-      <c r="S12" s="199"/>
-      <c r="T12" s="199"/>
-      <c r="U12" s="199"/>
-      <c r="V12" s="199"/>
-      <c r="W12" s="199"/>
-      <c r="X12" s="199"/>
-      <c r="Y12" s="199"/>
-      <c r="Z12" s="199"/>
-      <c r="AA12" s="199"/>
-      <c r="AB12" s="199"/>
-      <c r="AC12" s="199"/>
-      <c r="AD12" s="199"/>
-      <c r="AE12" s="199"/>
-      <c r="AF12" s="199"/>
-      <c r="AG12" s="199"/>
-      <c r="AH12" s="199"/>
-      <c r="AI12" s="199"/>
-      <c r="AJ12" s="199"/>
-      <c r="AK12" s="199"/>
-      <c r="AL12" s="199"/>
-      <c r="AM12" s="199"/>
-      <c r="AN12" s="199"/>
-      <c r="AO12" s="199"/>
-      <c r="AP12" s="199"/>
-      <c r="AQ12" s="199"/>
-      <c r="AR12" s="199"/>
-      <c r="AS12" s="199"/>
-      <c r="AT12" s="199"/>
-      <c r="AU12" s="199"/>
-      <c r="AV12" s="199"/>
-      <c r="AW12" s="199"/>
-      <c r="AX12" s="199"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="137"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="137"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="137"/>
+      <c r="T12" s="137"/>
+      <c r="U12" s="137"/>
+      <c r="V12" s="137"/>
+      <c r="W12" s="137"/>
+      <c r="X12" s="137"/>
+      <c r="Y12" s="137"/>
+      <c r="Z12" s="137"/>
+      <c r="AA12" s="137"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="137"/>
+      <c r="AD12" s="137"/>
+      <c r="AE12" s="137"/>
+      <c r="AF12" s="137"/>
+      <c r="AG12" s="137"/>
+      <c r="AH12" s="137"/>
+      <c r="AI12" s="137"/>
+      <c r="AJ12" s="137"/>
+      <c r="AK12" s="137"/>
+      <c r="AL12" s="137"/>
+      <c r="AM12" s="137"/>
+      <c r="AN12" s="137"/>
+      <c r="AO12" s="137"/>
+      <c r="AP12" s="137"/>
+      <c r="AQ12" s="137"/>
+      <c r="AR12" s="137"/>
+      <c r="AS12" s="137"/>
+      <c r="AT12" s="137"/>
+      <c r="AU12" s="137"/>
+      <c r="AV12" s="137"/>
+      <c r="AW12" s="137"/>
+      <c r="AX12" s="137"/>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A13" s="199"/>
-      <c r="B13" s="199"/>
-      <c r="C13" s="199"/>
-      <c r="D13" s="199"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="199"/>
-      <c r="G13" s="199"/>
-      <c r="H13" s="199"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="199"/>
-      <c r="K13" s="199"/>
-      <c r="L13" s="199"/>
-      <c r="M13" s="199"/>
-      <c r="N13" s="199"/>
-      <c r="O13" s="199"/>
-      <c r="P13" s="199"/>
-      <c r="Q13" s="199"/>
-      <c r="R13" s="199"/>
-      <c r="S13" s="199"/>
-      <c r="T13" s="199"/>
-      <c r="U13" s="199"/>
-      <c r="V13" s="199"/>
-      <c r="W13" s="199"/>
-      <c r="X13" s="199"/>
-      <c r="Y13" s="199"/>
-      <c r="Z13" s="199"/>
-      <c r="AA13" s="199"/>
-      <c r="AB13" s="199"/>
-      <c r="AC13" s="199"/>
-      <c r="AD13" s="199"/>
-      <c r="AE13" s="199"/>
-      <c r="AF13" s="199"/>
-      <c r="AG13" s="199"/>
-      <c r="AH13" s="199"/>
-      <c r="AI13" s="199"/>
-      <c r="AJ13" s="199"/>
-      <c r="AK13" s="199"/>
-      <c r="AL13" s="199"/>
-      <c r="AM13" s="199"/>
-      <c r="AN13" s="199"/>
-      <c r="AO13" s="199"/>
-      <c r="AP13" s="199"/>
-      <c r="AQ13" s="199"/>
-      <c r="AR13" s="199"/>
-      <c r="AS13" s="199"/>
-      <c r="AT13" s="199"/>
-      <c r="AU13" s="199"/>
-      <c r="AV13" s="199"/>
-      <c r="AW13" s="199"/>
-      <c r="AX13" s="199"/>
+      <c r="A13" s="137"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="137"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="137"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="137"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="137"/>
+      <c r="U13" s="137"/>
+      <c r="V13" s="137"/>
+      <c r="W13" s="137"/>
+      <c r="X13" s="137"/>
+      <c r="Y13" s="137"/>
+      <c r="Z13" s="137"/>
+      <c r="AA13" s="137"/>
+      <c r="AB13" s="137"/>
+      <c r="AC13" s="137"/>
+      <c r="AD13" s="137"/>
+      <c r="AE13" s="137"/>
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="137"/>
+      <c r="AH13" s="137"/>
+      <c r="AI13" s="137"/>
+      <c r="AJ13" s="137"/>
+      <c r="AK13" s="137"/>
+      <c r="AL13" s="137"/>
+      <c r="AM13" s="137"/>
+      <c r="AN13" s="137"/>
+      <c r="AO13" s="137"/>
+      <c r="AP13" s="137"/>
+      <c r="AQ13" s="137"/>
+      <c r="AR13" s="137"/>
+      <c r="AS13" s="137"/>
+      <c r="AT13" s="137"/>
+      <c r="AU13" s="137"/>
+      <c r="AV13" s="137"/>
+      <c r="AW13" s="137"/>
+      <c r="AX13" s="137"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A14" s="199"/>
-      <c r="B14" s="199"/>
-      <c r="C14" s="199"/>
-      <c r="D14" s="199"/>
-      <c r="E14" s="199"/>
-      <c r="F14" s="199"/>
-      <c r="G14" s="199"/>
-      <c r="H14" s="199"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="199"/>
-      <c r="K14" s="199"/>
-      <c r="L14" s="199"/>
-      <c r="M14" s="199"/>
-      <c r="N14" s="199"/>
-      <c r="O14" s="199"/>
-      <c r="P14" s="199"/>
-      <c r="Q14" s="199"/>
-      <c r="R14" s="199"/>
-      <c r="S14" s="199"/>
-      <c r="T14" s="199"/>
-      <c r="U14" s="199"/>
-      <c r="V14" s="199"/>
-      <c r="W14" s="199"/>
-      <c r="X14" s="199"/>
-      <c r="Y14" s="199"/>
-      <c r="Z14" s="199"/>
-      <c r="AA14" s="199"/>
-      <c r="AB14" s="199"/>
-      <c r="AC14" s="199"/>
-      <c r="AD14" s="199"/>
-      <c r="AE14" s="199"/>
-      <c r="AF14" s="199"/>
-      <c r="AG14" s="199"/>
-      <c r="AH14" s="199"/>
-      <c r="AI14" s="199"/>
-      <c r="AJ14" s="199"/>
-      <c r="AK14" s="199"/>
-      <c r="AL14" s="199"/>
-      <c r="AM14" s="199"/>
-      <c r="AN14" s="199"/>
-      <c r="AO14" s="199"/>
-      <c r="AP14" s="199"/>
-      <c r="AQ14" s="199"/>
-      <c r="AR14" s="199"/>
-      <c r="AS14" s="199"/>
-      <c r="AT14" s="199"/>
-      <c r="AU14" s="199"/>
-      <c r="AV14" s="199"/>
-      <c r="AW14" s="199"/>
-      <c r="AX14" s="199"/>
+      <c r="A14" s="137"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="137"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="137"/>
+      <c r="V14" s="137"/>
+      <c r="W14" s="137"/>
+      <c r="X14" s="137"/>
+      <c r="Y14" s="137"/>
+      <c r="Z14" s="137"/>
+      <c r="AA14" s="137"/>
+      <c r="AB14" s="137"/>
+      <c r="AC14" s="137"/>
+      <c r="AD14" s="137"/>
+      <c r="AE14" s="137"/>
+      <c r="AF14" s="137"/>
+      <c r="AG14" s="137"/>
+      <c r="AH14" s="137"/>
+      <c r="AI14" s="137"/>
+      <c r="AJ14" s="137"/>
+      <c r="AK14" s="137"/>
+      <c r="AL14" s="137"/>
+      <c r="AM14" s="137"/>
+      <c r="AN14" s="137"/>
+      <c r="AO14" s="137"/>
+      <c r="AP14" s="137"/>
+      <c r="AQ14" s="137"/>
+      <c r="AR14" s="137"/>
+      <c r="AS14" s="137"/>
+      <c r="AT14" s="137"/>
+      <c r="AU14" s="137"/>
+      <c r="AV14" s="137"/>
+      <c r="AW14" s="137"/>
+      <c r="AX14" s="137"/>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A15" s="199"/>
-      <c r="B15" s="199"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="199"/>
-      <c r="E15" s="199"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="199"/>
-      <c r="H15" s="199"/>
-      <c r="I15" s="199"/>
-      <c r="J15" s="199"/>
-      <c r="K15" s="199"/>
-      <c r="L15" s="199"/>
-      <c r="M15" s="199"/>
-      <c r="N15" s="199"/>
-      <c r="O15" s="199"/>
-      <c r="P15" s="199"/>
-      <c r="Q15" s="199"/>
-      <c r="R15" s="199"/>
-      <c r="S15" s="199"/>
-      <c r="T15" s="199"/>
-      <c r="U15" s="199"/>
-      <c r="V15" s="199"/>
-      <c r="W15" s="199"/>
-      <c r="X15" s="199"/>
-      <c r="Y15" s="199"/>
-      <c r="Z15" s="199"/>
-      <c r="AA15" s="199"/>
-      <c r="AB15" s="199"/>
-      <c r="AC15" s="199"/>
-      <c r="AD15" s="199"/>
-      <c r="AE15" s="199"/>
-      <c r="AF15" s="199"/>
-      <c r="AG15" s="199"/>
-      <c r="AH15" s="199"/>
-      <c r="AI15" s="199"/>
-      <c r="AJ15" s="199"/>
-      <c r="AK15" s="199"/>
-      <c r="AL15" s="199"/>
-      <c r="AM15" s="199"/>
-      <c r="AN15" s="199"/>
-      <c r="AO15" s="199"/>
-      <c r="AP15" s="199"/>
-      <c r="AQ15" s="199"/>
-      <c r="AR15" s="199"/>
-      <c r="AS15" s="199"/>
-      <c r="AT15" s="199"/>
-      <c r="AU15" s="199"/>
-      <c r="AV15" s="199"/>
-      <c r="AW15" s="199"/>
-      <c r="AX15" s="199"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="137"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="137"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="137"/>
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="137"/>
+      <c r="AE15" s="137"/>
+      <c r="AF15" s="137"/>
+      <c r="AG15" s="137"/>
+      <c r="AH15" s="137"/>
+      <c r="AI15" s="137"/>
+      <c r="AJ15" s="137"/>
+      <c r="AK15" s="137"/>
+      <c r="AL15" s="137"/>
+      <c r="AM15" s="137"/>
+      <c r="AN15" s="137"/>
+      <c r="AO15" s="137"/>
+      <c r="AP15" s="137"/>
+      <c r="AQ15" s="137"/>
+      <c r="AR15" s="137"/>
+      <c r="AS15" s="137"/>
+      <c r="AT15" s="137"/>
+      <c r="AU15" s="137"/>
+      <c r="AV15" s="137"/>
+      <c r="AW15" s="137"/>
+      <c r="AX15" s="137"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A16" s="199"/>
-      <c r="B16" s="199"/>
-      <c r="C16" s="199"/>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="199"/>
-      <c r="K16" s="199"/>
-      <c r="L16" s="199"/>
-      <c r="M16" s="199"/>
-      <c r="N16" s="199"/>
-      <c r="O16" s="199"/>
-      <c r="P16" s="199"/>
-      <c r="Q16" s="199"/>
-      <c r="R16" s="199"/>
-      <c r="S16" s="199"/>
-      <c r="T16" s="199"/>
-      <c r="U16" s="199"/>
-      <c r="V16" s="199"/>
-      <c r="W16" s="199"/>
-      <c r="X16" s="199"/>
-      <c r="Y16" s="199"/>
-      <c r="Z16" s="199"/>
-      <c r="AA16" s="199"/>
-      <c r="AB16" s="199"/>
-      <c r="AC16" s="199"/>
-      <c r="AD16" s="199"/>
-      <c r="AE16" s="199"/>
-      <c r="AF16" s="199"/>
-      <c r="AG16" s="199"/>
-      <c r="AH16" s="199"/>
-      <c r="AI16" s="199"/>
-      <c r="AJ16" s="199"/>
-      <c r="AK16" s="199"/>
-      <c r="AL16" s="199"/>
-      <c r="AM16" s="199"/>
-      <c r="AN16" s="199"/>
-      <c r="AO16" s="199"/>
-      <c r="AP16" s="199"/>
-      <c r="AQ16" s="199"/>
-      <c r="AR16" s="199"/>
-      <c r="AS16" s="199"/>
-      <c r="AT16" s="199"/>
-      <c r="AU16" s="199"/>
-      <c r="AV16" s="199"/>
-      <c r="AW16" s="199"/>
-      <c r="AX16" s="199"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="137"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="137"/>
+      <c r="AE16" s="137"/>
+      <c r="AF16" s="137"/>
+      <c r="AG16" s="137"/>
+      <c r="AH16" s="137"/>
+      <c r="AI16" s="137"/>
+      <c r="AJ16" s="137"/>
+      <c r="AK16" s="137"/>
+      <c r="AL16" s="137"/>
+      <c r="AM16" s="137"/>
+      <c r="AN16" s="137"/>
+      <c r="AO16" s="137"/>
+      <c r="AP16" s="137"/>
+      <c r="AQ16" s="137"/>
+      <c r="AR16" s="137"/>
+      <c r="AS16" s="137"/>
+      <c r="AT16" s="137"/>
+      <c r="AU16" s="137"/>
+      <c r="AV16" s="137"/>
+      <c r="AW16" s="137"/>
+      <c r="AX16" s="137"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="199"/>
-      <c r="B17" s="199"/>
-      <c r="C17" s="199"/>
-      <c r="D17" s="199"/>
-      <c r="E17" s="199"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="199"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="199"/>
-      <c r="K17" s="199"/>
-      <c r="L17" s="199"/>
-      <c r="M17" s="199"/>
-      <c r="N17" s="199"/>
-      <c r="O17" s="199"/>
-      <c r="P17" s="199"/>
-      <c r="Q17" s="199"/>
-      <c r="R17" s="199"/>
-      <c r="S17" s="199"/>
-      <c r="T17" s="199"/>
-      <c r="U17" s="199"/>
-      <c r="V17" s="199"/>
-      <c r="W17" s="199"/>
-      <c r="X17" s="199"/>
-      <c r="Y17" s="199"/>
-      <c r="Z17" s="199"/>
-      <c r="AA17" s="199"/>
-      <c r="AB17" s="199"/>
-      <c r="AC17" s="199"/>
-      <c r="AD17" s="199"/>
-      <c r="AE17" s="199"/>
-      <c r="AF17" s="199"/>
-      <c r="AG17" s="199"/>
-      <c r="AH17" s="199"/>
-      <c r="AI17" s="199"/>
-      <c r="AJ17" s="199"/>
-      <c r="AK17" s="199"/>
-      <c r="AL17" s="199"/>
-      <c r="AM17" s="199"/>
-      <c r="AN17" s="199"/>
-      <c r="AO17" s="199"/>
-      <c r="AP17" s="199"/>
-      <c r="AQ17" s="199"/>
-      <c r="AR17" s="199"/>
-      <c r="AS17" s="199"/>
-      <c r="AT17" s="199"/>
-      <c r="AU17" s="199"/>
-      <c r="AV17" s="199"/>
-      <c r="AW17" s="199"/>
-      <c r="AX17" s="199"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="137"/>
+      <c r="AC17" s="137"/>
+      <c r="AD17" s="137"/>
+      <c r="AE17" s="137"/>
+      <c r="AF17" s="137"/>
+      <c r="AG17" s="137"/>
+      <c r="AH17" s="137"/>
+      <c r="AI17" s="137"/>
+      <c r="AJ17" s="137"/>
+      <c r="AK17" s="137"/>
+      <c r="AL17" s="137"/>
+      <c r="AM17" s="137"/>
+      <c r="AN17" s="137"/>
+      <c r="AO17" s="137"/>
+      <c r="AP17" s="137"/>
+      <c r="AQ17" s="137"/>
+      <c r="AR17" s="137"/>
+      <c r="AS17" s="137"/>
+      <c r="AT17" s="137"/>
+      <c r="AU17" s="137"/>
+      <c r="AV17" s="137"/>
+      <c r="AW17" s="137"/>
+      <c r="AX17" s="137"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="199"/>
-      <c r="B18" s="199"/>
-      <c r="C18" s="199"/>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="199"/>
-      <c r="L18" s="199"/>
-      <c r="M18" s="199"/>
-      <c r="N18" s="199"/>
-      <c r="O18" s="199"/>
-      <c r="P18" s="199"/>
-      <c r="Q18" s="199"/>
-      <c r="R18" s="199"/>
-      <c r="S18" s="199"/>
-      <c r="T18" s="199"/>
-      <c r="U18" s="199"/>
-      <c r="V18" s="199"/>
-      <c r="W18" s="199"/>
-      <c r="X18" s="199"/>
-      <c r="Y18" s="199"/>
-      <c r="Z18" s="199"/>
-      <c r="AA18" s="199"/>
-      <c r="AB18" s="199"/>
-      <c r="AC18" s="199"/>
-      <c r="AD18" s="199"/>
-      <c r="AE18" s="199"/>
-      <c r="AF18" s="199"/>
-      <c r="AG18" s="199"/>
-      <c r="AH18" s="199"/>
-      <c r="AI18" s="199"/>
-      <c r="AJ18" s="199"/>
-      <c r="AK18" s="199"/>
-      <c r="AL18" s="199"/>
-      <c r="AM18" s="199"/>
-      <c r="AN18" s="199"/>
-      <c r="AO18" s="199"/>
-      <c r="AP18" s="199"/>
-      <c r="AQ18" s="199"/>
-      <c r="AR18" s="199"/>
-      <c r="AS18" s="199"/>
-      <c r="AT18" s="199"/>
-      <c r="AU18" s="199"/>
-      <c r="AV18" s="199"/>
-      <c r="AW18" s="199"/>
-      <c r="AX18" s="199"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="137"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="137"/>
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="137"/>
+      <c r="AC18" s="137"/>
+      <c r="AD18" s="137"/>
+      <c r="AE18" s="137"/>
+      <c r="AF18" s="137"/>
+      <c r="AG18" s="137"/>
+      <c r="AH18" s="137"/>
+      <c r="AI18" s="137"/>
+      <c r="AJ18" s="137"/>
+      <c r="AK18" s="137"/>
+      <c r="AL18" s="137"/>
+      <c r="AM18" s="137"/>
+      <c r="AN18" s="137"/>
+      <c r="AO18" s="137"/>
+      <c r="AP18" s="137"/>
+      <c r="AQ18" s="137"/>
+      <c r="AR18" s="137"/>
+      <c r="AS18" s="137"/>
+      <c r="AT18" s="137"/>
+      <c r="AU18" s="137"/>
+      <c r="AV18" s="137"/>
+      <c r="AW18" s="137"/>
+      <c r="AX18" s="137"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="199"/>
-      <c r="B19" s="199"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="199"/>
-      <c r="E19" s="199"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="199"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="199"/>
-      <c r="J19" s="199"/>
-      <c r="K19" s="199"/>
-      <c r="L19" s="199"/>
-      <c r="M19" s="199"/>
-      <c r="N19" s="199"/>
-      <c r="O19" s="199"/>
-      <c r="P19" s="199"/>
-      <c r="Q19" s="199"/>
-      <c r="R19" s="199"/>
-      <c r="S19" s="199"/>
-      <c r="T19" s="199"/>
-      <c r="U19" s="199"/>
-      <c r="V19" s="199"/>
-      <c r="W19" s="199"/>
-      <c r="X19" s="199"/>
-      <c r="Y19" s="199"/>
-      <c r="Z19" s="199"/>
-      <c r="AA19" s="199"/>
-      <c r="AB19" s="199"/>
-      <c r="AC19" s="199"/>
-      <c r="AD19" s="199"/>
-      <c r="AE19" s="199"/>
-      <c r="AF19" s="199"/>
-      <c r="AG19" s="199"/>
-      <c r="AH19" s="199"/>
-      <c r="AI19" s="199"/>
-      <c r="AJ19" s="199"/>
-      <c r="AK19" s="199"/>
-      <c r="AL19" s="199"/>
-      <c r="AM19" s="199"/>
-      <c r="AN19" s="199"/>
-      <c r="AO19" s="199"/>
-      <c r="AP19" s="199"/>
-      <c r="AQ19" s="199"/>
-      <c r="AR19" s="199"/>
-      <c r="AS19" s="199"/>
-      <c r="AT19" s="199"/>
-      <c r="AU19" s="199"/>
-      <c r="AV19" s="199"/>
-      <c r="AW19" s="199"/>
-      <c r="AX19" s="199"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="137"/>
+      <c r="R19" s="137"/>
+      <c r="S19" s="137"/>
+      <c r="T19" s="137"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="137"/>
+      <c r="W19" s="137"/>
+      <c r="X19" s="137"/>
+      <c r="Y19" s="137"/>
+      <c r="Z19" s="137"/>
+      <c r="AA19" s="137"/>
+      <c r="AB19" s="137"/>
+      <c r="AC19" s="137"/>
+      <c r="AD19" s="137"/>
+      <c r="AE19" s="137"/>
+      <c r="AF19" s="137"/>
+      <c r="AG19" s="137"/>
+      <c r="AH19" s="137"/>
+      <c r="AI19" s="137"/>
+      <c r="AJ19" s="137"/>
+      <c r="AK19" s="137"/>
+      <c r="AL19" s="137"/>
+      <c r="AM19" s="137"/>
+      <c r="AN19" s="137"/>
+      <c r="AO19" s="137"/>
+      <c r="AP19" s="137"/>
+      <c r="AQ19" s="137"/>
+      <c r="AR19" s="137"/>
+      <c r="AS19" s="137"/>
+      <c r="AT19" s="137"/>
+      <c r="AU19" s="137"/>
+      <c r="AV19" s="137"/>
+      <c r="AW19" s="137"/>
+      <c r="AX19" s="137"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="199"/>
-      <c r="B20" s="199"/>
-      <c r="C20" s="199"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="199"/>
-      <c r="G20" s="199"/>
-      <c r="H20" s="199"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="199"/>
-      <c r="K20" s="199"/>
-      <c r="L20" s="199"/>
-      <c r="M20" s="199"/>
-      <c r="N20" s="199"/>
-      <c r="O20" s="199"/>
-      <c r="P20" s="199"/>
-      <c r="Q20" s="199"/>
-      <c r="R20" s="199"/>
-      <c r="S20" s="199"/>
-      <c r="T20" s="199"/>
-      <c r="U20" s="199"/>
-      <c r="V20" s="199"/>
-      <c r="W20" s="199"/>
-      <c r="X20" s="199"/>
-      <c r="Y20" s="199"/>
-      <c r="Z20" s="199"/>
-      <c r="AA20" s="199"/>
-      <c r="AB20" s="199"/>
-      <c r="AC20" s="199"/>
-      <c r="AD20" s="199"/>
-      <c r="AE20" s="199"/>
-      <c r="AF20" s="199"/>
-      <c r="AG20" s="199"/>
-      <c r="AH20" s="199"/>
-      <c r="AI20" s="199"/>
-      <c r="AJ20" s="199"/>
-      <c r="AK20" s="199"/>
-      <c r="AL20" s="199"/>
-      <c r="AM20" s="199"/>
-      <c r="AN20" s="199"/>
-      <c r="AO20" s="199"/>
-      <c r="AP20" s="199"/>
-      <c r="AQ20" s="199"/>
-      <c r="AR20" s="199"/>
-      <c r="AS20" s="199"/>
-      <c r="AT20" s="199"/>
-      <c r="AU20" s="199"/>
-      <c r="AV20" s="199"/>
-      <c r="AW20" s="199"/>
-      <c r="AX20" s="199"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="137"/>
+      <c r="R20" s="137"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
+      <c r="X20" s="137"/>
+      <c r="Y20" s="137"/>
+      <c r="Z20" s="137"/>
+      <c r="AA20" s="137"/>
+      <c r="AB20" s="137"/>
+      <c r="AC20" s="137"/>
+      <c r="AD20" s="137"/>
+      <c r="AE20" s="137"/>
+      <c r="AF20" s="137"/>
+      <c r="AG20" s="137"/>
+      <c r="AH20" s="137"/>
+      <c r="AI20" s="137"/>
+      <c r="AJ20" s="137"/>
+      <c r="AK20" s="137"/>
+      <c r="AL20" s="137"/>
+      <c r="AM20" s="137"/>
+      <c r="AN20" s="137"/>
+      <c r="AO20" s="137"/>
+      <c r="AP20" s="137"/>
+      <c r="AQ20" s="137"/>
+      <c r="AR20" s="137"/>
+      <c r="AS20" s="137"/>
+      <c r="AT20" s="137"/>
+      <c r="AU20" s="137"/>
+      <c r="AV20" s="137"/>
+      <c r="AW20" s="137"/>
+      <c r="AX20" s="137"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="199"/>
-      <c r="B21" s="199"/>
-      <c r="C21" s="199"/>
-      <c r="D21" s="199"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="199"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="199"/>
-      <c r="K21" s="199"/>
-      <c r="L21" s="199"/>
-      <c r="M21" s="199"/>
-      <c r="N21" s="199"/>
-      <c r="O21" s="199"/>
-      <c r="P21" s="199"/>
-      <c r="Q21" s="199"/>
-      <c r="R21" s="199"/>
-      <c r="S21" s="199"/>
-      <c r="T21" s="199"/>
-      <c r="U21" s="199"/>
-      <c r="V21" s="199"/>
-      <c r="W21" s="199"/>
-      <c r="X21" s="199"/>
-      <c r="Y21" s="199"/>
-      <c r="Z21" s="199"/>
-      <c r="AA21" s="199"/>
-      <c r="AB21" s="199"/>
-      <c r="AC21" s="199"/>
-      <c r="AD21" s="199"/>
-      <c r="AE21" s="199"/>
-      <c r="AF21" s="199"/>
-      <c r="AG21" s="199"/>
-      <c r="AH21" s="199"/>
-      <c r="AI21" s="199"/>
-      <c r="AJ21" s="199"/>
-      <c r="AK21" s="199"/>
-      <c r="AL21" s="199"/>
-      <c r="AM21" s="199"/>
-      <c r="AN21" s="199"/>
-      <c r="AO21" s="199"/>
-      <c r="AP21" s="199"/>
-      <c r="AQ21" s="199"/>
-      <c r="AR21" s="199"/>
-      <c r="AS21" s="199"/>
-      <c r="AT21" s="199"/>
-      <c r="AU21" s="199"/>
-      <c r="AV21" s="199"/>
-      <c r="AW21" s="199"/>
-      <c r="AX21" s="199"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="137"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="137"/>
+      <c r="T21" s="137"/>
+      <c r="U21" s="137"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
+      <c r="X21" s="137"/>
+      <c r="Y21" s="137"/>
+      <c r="Z21" s="137"/>
+      <c r="AA21" s="137"/>
+      <c r="AB21" s="137"/>
+      <c r="AC21" s="137"/>
+      <c r="AD21" s="137"/>
+      <c r="AE21" s="137"/>
+      <c r="AF21" s="137"/>
+      <c r="AG21" s="137"/>
+      <c r="AH21" s="137"/>
+      <c r="AI21" s="137"/>
+      <c r="AJ21" s="137"/>
+      <c r="AK21" s="137"/>
+      <c r="AL21" s="137"/>
+      <c r="AM21" s="137"/>
+      <c r="AN21" s="137"/>
+      <c r="AO21" s="137"/>
+      <c r="AP21" s="137"/>
+      <c r="AQ21" s="137"/>
+      <c r="AR21" s="137"/>
+      <c r="AS21" s="137"/>
+      <c r="AT21" s="137"/>
+      <c r="AU21" s="137"/>
+      <c r="AV21" s="137"/>
+      <c r="AW21" s="137"/>
+      <c r="AX21" s="137"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="199"/>
-      <c r="B22" s="199"/>
-      <c r="C22" s="199"/>
-      <c r="D22" s="199"/>
-      <c r="E22" s="199"/>
-      <c r="F22" s="199"/>
-      <c r="G22" s="199"/>
-      <c r="H22" s="199"/>
-      <c r="I22" s="199"/>
-      <c r="J22" s="199"/>
-      <c r="K22" s="199"/>
-      <c r="L22" s="199"/>
-      <c r="M22" s="199"/>
-      <c r="N22" s="199"/>
-      <c r="O22" s="199"/>
-      <c r="P22" s="199"/>
-      <c r="Q22" s="199"/>
-      <c r="R22" s="199"/>
-      <c r="S22" s="199"/>
-      <c r="T22" s="199"/>
-      <c r="U22" s="199"/>
-      <c r="V22" s="199"/>
-      <c r="W22" s="199"/>
-      <c r="X22" s="199"/>
-      <c r="Y22" s="199"/>
-      <c r="Z22" s="199"/>
-      <c r="AA22" s="199"/>
-      <c r="AB22" s="199"/>
-      <c r="AC22" s="199"/>
-      <c r="AD22" s="199"/>
-      <c r="AE22" s="199"/>
-      <c r="AF22" s="199"/>
-      <c r="AG22" s="199"/>
-      <c r="AH22" s="199"/>
-      <c r="AI22" s="199"/>
-      <c r="AJ22" s="199"/>
-      <c r="AK22" s="199"/>
-      <c r="AL22" s="199"/>
-      <c r="AM22" s="199"/>
-      <c r="AN22" s="199"/>
-      <c r="AO22" s="199"/>
-      <c r="AP22" s="199"/>
-      <c r="AQ22" s="199"/>
-      <c r="AR22" s="199"/>
-      <c r="AS22" s="199"/>
-      <c r="AT22" s="199"/>
-      <c r="AU22" s="199"/>
-      <c r="AV22" s="199"/>
-      <c r="AW22" s="199"/>
-      <c r="AX22" s="199"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="137"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="137"/>
+      <c r="R22" s="137"/>
+      <c r="S22" s="137"/>
+      <c r="T22" s="137"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="137"/>
+      <c r="W22" s="137"/>
+      <c r="X22" s="137"/>
+      <c r="Y22" s="137"/>
+      <c r="Z22" s="137"/>
+      <c r="AA22" s="137"/>
+      <c r="AB22" s="137"/>
+      <c r="AC22" s="137"/>
+      <c r="AD22" s="137"/>
+      <c r="AE22" s="137"/>
+      <c r="AF22" s="137"/>
+      <c r="AG22" s="137"/>
+      <c r="AH22" s="137"/>
+      <c r="AI22" s="137"/>
+      <c r="AJ22" s="137"/>
+      <c r="AK22" s="137"/>
+      <c r="AL22" s="137"/>
+      <c r="AM22" s="137"/>
+      <c r="AN22" s="137"/>
+      <c r="AO22" s="137"/>
+      <c r="AP22" s="137"/>
+      <c r="AQ22" s="137"/>
+      <c r="AR22" s="137"/>
+      <c r="AS22" s="137"/>
+      <c r="AT22" s="137"/>
+      <c r="AU22" s="137"/>
+      <c r="AV22" s="137"/>
+      <c r="AW22" s="137"/>
+      <c r="AX22" s="137"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" s="199"/>
-      <c r="B23" s="199"/>
-      <c r="C23" s="199"/>
-      <c r="D23" s="199"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="199"/>
-      <c r="G23" s="199"/>
-      <c r="H23" s="199"/>
-      <c r="I23" s="199"/>
-      <c r="J23" s="199"/>
-      <c r="K23" s="199"/>
-      <c r="L23" s="199"/>
-      <c r="M23" s="199"/>
-      <c r="N23" s="199"/>
-      <c r="O23" s="199"/>
-      <c r="P23" s="199"/>
-      <c r="Q23" s="199"/>
-      <c r="R23" s="199"/>
-      <c r="S23" s="199"/>
-      <c r="T23" s="199"/>
-      <c r="U23" s="199"/>
-      <c r="V23" s="199"/>
-      <c r="W23" s="199"/>
-      <c r="X23" s="199"/>
-      <c r="Y23" s="199"/>
-      <c r="Z23" s="199"/>
-      <c r="AA23" s="199"/>
-      <c r="AB23" s="199"/>
-      <c r="AC23" s="199"/>
-      <c r="AD23" s="199"/>
-      <c r="AE23" s="199"/>
-      <c r="AF23" s="199"/>
-      <c r="AG23" s="199"/>
-      <c r="AH23" s="199"/>
-      <c r="AI23" s="199"/>
-      <c r="AJ23" s="199"/>
-      <c r="AK23" s="199"/>
-      <c r="AL23" s="199"/>
-      <c r="AM23" s="199"/>
-      <c r="AN23" s="199"/>
-      <c r="AO23" s="199"/>
-      <c r="AP23" s="199"/>
-      <c r="AQ23" s="199"/>
-      <c r="AR23" s="199"/>
-      <c r="AS23" s="199"/>
-      <c r="AT23" s="199"/>
-      <c r="AU23" s="199"/>
-      <c r="AV23" s="199"/>
-      <c r="AW23" s="199"/>
-      <c r="AX23" s="199"/>
+      <c r="A23" s="137"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="137"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="137"/>
+      <c r="R23" s="137"/>
+      <c r="S23" s="137"/>
+      <c r="T23" s="137"/>
+      <c r="U23" s="137"/>
+      <c r="V23" s="137"/>
+      <c r="W23" s="137"/>
+      <c r="X23" s="137"/>
+      <c r="Y23" s="137"/>
+      <c r="Z23" s="137"/>
+      <c r="AA23" s="137"/>
+      <c r="AB23" s="137"/>
+      <c r="AC23" s="137"/>
+      <c r="AD23" s="137"/>
+      <c r="AE23" s="137"/>
+      <c r="AF23" s="137"/>
+      <c r="AG23" s="137"/>
+      <c r="AH23" s="137"/>
+      <c r="AI23" s="137"/>
+      <c r="AJ23" s="137"/>
+      <c r="AK23" s="137"/>
+      <c r="AL23" s="137"/>
+      <c r="AM23" s="137"/>
+      <c r="AN23" s="137"/>
+      <c r="AO23" s="137"/>
+      <c r="AP23" s="137"/>
+      <c r="AQ23" s="137"/>
+      <c r="AR23" s="137"/>
+      <c r="AS23" s="137"/>
+      <c r="AT23" s="137"/>
+      <c r="AU23" s="137"/>
+      <c r="AV23" s="137"/>
+      <c r="AW23" s="137"/>
+      <c r="AX23" s="137"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" s="199"/>
-      <c r="B24" s="199"/>
-      <c r="C24" s="199"/>
-      <c r="D24" s="199"/>
-      <c r="E24" s="199"/>
-      <c r="F24" s="199"/>
-      <c r="G24" s="199"/>
-      <c r="H24" s="199"/>
-      <c r="I24" s="199"/>
-      <c r="J24" s="199"/>
-      <c r="K24" s="199"/>
-      <c r="L24" s="199"/>
-      <c r="M24" s="199"/>
-      <c r="N24" s="199"/>
-      <c r="O24" s="199"/>
-      <c r="P24" s="199"/>
-      <c r="Q24" s="199"/>
-      <c r="R24" s="199"/>
-      <c r="S24" s="199"/>
-      <c r="T24" s="199"/>
-      <c r="U24" s="199"/>
-      <c r="V24" s="199"/>
-      <c r="W24" s="199"/>
-      <c r="X24" s="199"/>
-      <c r="Y24" s="199"/>
-      <c r="Z24" s="199"/>
-      <c r="AA24" s="199"/>
-      <c r="AB24" s="199"/>
-      <c r="AC24" s="199"/>
-      <c r="AD24" s="199"/>
-      <c r="AE24" s="199"/>
-      <c r="AF24" s="199"/>
-      <c r="AG24" s="199"/>
-      <c r="AH24" s="199"/>
-      <c r="AI24" s="199"/>
-      <c r="AJ24" s="199"/>
-      <c r="AK24" s="199"/>
-      <c r="AL24" s="199"/>
-      <c r="AM24" s="199"/>
-      <c r="AN24" s="199"/>
-      <c r="AO24" s="199"/>
-      <c r="AP24" s="199"/>
-      <c r="AQ24" s="199"/>
-      <c r="AR24" s="199"/>
-      <c r="AS24" s="199"/>
-      <c r="AT24" s="199"/>
-      <c r="AU24" s="199"/>
-      <c r="AV24" s="199"/>
-      <c r="AW24" s="199"/>
-      <c r="AX24" s="199"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="137"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="137"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="137"/>
+      <c r="O24" s="137"/>
+      <c r="P24" s="137"/>
+      <c r="Q24" s="137"/>
+      <c r="R24" s="137"/>
+      <c r="S24" s="137"/>
+      <c r="T24" s="137"/>
+      <c r="U24" s="137"/>
+      <c r="V24" s="137"/>
+      <c r="W24" s="137"/>
+      <c r="X24" s="137"/>
+      <c r="Y24" s="137"/>
+      <c r="Z24" s="137"/>
+      <c r="AA24" s="137"/>
+      <c r="AB24" s="137"/>
+      <c r="AC24" s="137"/>
+      <c r="AD24" s="137"/>
+      <c r="AE24" s="137"/>
+      <c r="AF24" s="137"/>
+      <c r="AG24" s="137"/>
+      <c r="AH24" s="137"/>
+      <c r="AI24" s="137"/>
+      <c r="AJ24" s="137"/>
+      <c r="AK24" s="137"/>
+      <c r="AL24" s="137"/>
+      <c r="AM24" s="137"/>
+      <c r="AN24" s="137"/>
+      <c r="AO24" s="137"/>
+      <c r="AP24" s="137"/>
+      <c r="AQ24" s="137"/>
+      <c r="AR24" s="137"/>
+      <c r="AS24" s="137"/>
+      <c r="AT24" s="137"/>
+      <c r="AU24" s="137"/>
+      <c r="AV24" s="137"/>
+      <c r="AW24" s="137"/>
+      <c r="AX24" s="137"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" s="199"/>
-      <c r="B25" s="199"/>
-      <c r="C25" s="199"/>
-      <c r="D25" s="199"/>
-      <c r="E25" s="199"/>
-      <c r="F25" s="199"/>
-      <c r="G25" s="199"/>
-      <c r="H25" s="199"/>
-      <c r="I25" s="199"/>
-      <c r="J25" s="199"/>
-      <c r="K25" s="199"/>
-      <c r="L25" s="199"/>
-      <c r="M25" s="199"/>
-      <c r="N25" s="199"/>
-      <c r="O25" s="199"/>
-      <c r="P25" s="199"/>
-      <c r="Q25" s="199"/>
-      <c r="R25" s="199"/>
-      <c r="S25" s="199"/>
-      <c r="T25" s="199"/>
-      <c r="U25" s="199"/>
-      <c r="V25" s="199"/>
-      <c r="W25" s="199"/>
-      <c r="X25" s="199"/>
-      <c r="Y25" s="199"/>
-      <c r="Z25" s="199"/>
-      <c r="AA25" s="199"/>
-      <c r="AB25" s="199"/>
-      <c r="AC25" s="199"/>
-      <c r="AD25" s="199"/>
-      <c r="AE25" s="199"/>
-      <c r="AF25" s="199"/>
-      <c r="AG25" s="199"/>
-      <c r="AH25" s="199"/>
-      <c r="AI25" s="199"/>
-      <c r="AJ25" s="199"/>
-      <c r="AK25" s="199"/>
-      <c r="AL25" s="199"/>
-      <c r="AM25" s="199"/>
-      <c r="AN25" s="199"/>
-      <c r="AO25" s="199"/>
-      <c r="AP25" s="199"/>
-      <c r="AQ25" s="199"/>
-      <c r="AR25" s="199"/>
-      <c r="AS25" s="199"/>
-      <c r="AT25" s="199"/>
-      <c r="AU25" s="199"/>
-      <c r="AV25" s="199"/>
-      <c r="AW25" s="199"/>
-      <c r="AX25" s="199"/>
+      <c r="A25" s="137"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="137"/>
+      <c r="O25" s="137"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="137"/>
+      <c r="R25" s="137"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="137"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="137"/>
+      <c r="W25" s="137"/>
+      <c r="X25" s="137"/>
+      <c r="Y25" s="137"/>
+      <c r="Z25" s="137"/>
+      <c r="AA25" s="137"/>
+      <c r="AB25" s="137"/>
+      <c r="AC25" s="137"/>
+      <c r="AD25" s="137"/>
+      <c r="AE25" s="137"/>
+      <c r="AF25" s="137"/>
+      <c r="AG25" s="137"/>
+      <c r="AH25" s="137"/>
+      <c r="AI25" s="137"/>
+      <c r="AJ25" s="137"/>
+      <c r="AK25" s="137"/>
+      <c r="AL25" s="137"/>
+      <c r="AM25" s="137"/>
+      <c r="AN25" s="137"/>
+      <c r="AO25" s="137"/>
+      <c r="AP25" s="137"/>
+      <c r="AQ25" s="137"/>
+      <c r="AR25" s="137"/>
+      <c r="AS25" s="137"/>
+      <c r="AT25" s="137"/>
+      <c r="AU25" s="137"/>
+      <c r="AV25" s="137"/>
+      <c r="AW25" s="137"/>
+      <c r="AX25" s="137"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" s="199"/>
-      <c r="B26" s="199"/>
-      <c r="C26" s="199"/>
-      <c r="D26" s="199"/>
-      <c r="E26" s="199"/>
-      <c r="F26" s="199"/>
-      <c r="G26" s="199"/>
-      <c r="H26" s="199"/>
-      <c r="I26" s="199"/>
-      <c r="J26" s="199"/>
-      <c r="K26" s="199"/>
-      <c r="L26" s="199"/>
-      <c r="M26" s="199"/>
-      <c r="N26" s="199"/>
-      <c r="O26" s="199"/>
-      <c r="P26" s="199"/>
-      <c r="Q26" s="199"/>
-      <c r="R26" s="199"/>
-      <c r="S26" s="199"/>
-      <c r="T26" s="199"/>
-      <c r="U26" s="199"/>
-      <c r="V26" s="199"/>
-      <c r="W26" s="199"/>
-      <c r="X26" s="199"/>
-      <c r="Y26" s="199"/>
-      <c r="Z26" s="199"/>
-      <c r="AA26" s="199"/>
-      <c r="AB26" s="199"/>
-      <c r="AC26" s="199"/>
-      <c r="AD26" s="199"/>
-      <c r="AE26" s="199"/>
-      <c r="AF26" s="199"/>
-      <c r="AG26" s="199"/>
-      <c r="AH26" s="199"/>
-      <c r="AI26" s="199"/>
-      <c r="AJ26" s="199"/>
-      <c r="AK26" s="199"/>
-      <c r="AL26" s="199"/>
-      <c r="AM26" s="199"/>
-      <c r="AN26" s="199"/>
-      <c r="AO26" s="199"/>
-      <c r="AP26" s="199"/>
-      <c r="AQ26" s="199"/>
-      <c r="AR26" s="199"/>
-      <c r="AS26" s="199"/>
-      <c r="AT26" s="199"/>
-      <c r="AU26" s="199"/>
-      <c r="AV26" s="199"/>
-      <c r="AW26" s="199"/>
-      <c r="AX26" s="199"/>
+      <c r="A26" s="137"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="137"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="137"/>
+      <c r="R26" s="137"/>
+      <c r="S26" s="137"/>
+      <c r="T26" s="137"/>
+      <c r="U26" s="137"/>
+      <c r="V26" s="137"/>
+      <c r="W26" s="137"/>
+      <c r="X26" s="137"/>
+      <c r="Y26" s="137"/>
+      <c r="Z26" s="137"/>
+      <c r="AA26" s="137"/>
+      <c r="AB26" s="137"/>
+      <c r="AC26" s="137"/>
+      <c r="AD26" s="137"/>
+      <c r="AE26" s="137"/>
+      <c r="AF26" s="137"/>
+      <c r="AG26" s="137"/>
+      <c r="AH26" s="137"/>
+      <c r="AI26" s="137"/>
+      <c r="AJ26" s="137"/>
+      <c r="AK26" s="137"/>
+      <c r="AL26" s="137"/>
+      <c r="AM26" s="137"/>
+      <c r="AN26" s="137"/>
+      <c r="AO26" s="137"/>
+      <c r="AP26" s="137"/>
+      <c r="AQ26" s="137"/>
+      <c r="AR26" s="137"/>
+      <c r="AS26" s="137"/>
+      <c r="AT26" s="137"/>
+      <c r="AU26" s="137"/>
+      <c r="AV26" s="137"/>
+      <c r="AW26" s="137"/>
+      <c r="AX26" s="137"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A27" s="199"/>
-      <c r="B27" s="199"/>
-      <c r="C27" s="199"/>
-      <c r="D27" s="199"/>
-      <c r="E27" s="199"/>
-      <c r="F27" s="199"/>
-      <c r="G27" s="199"/>
-      <c r="H27" s="199"/>
-      <c r="I27" s="199"/>
-      <c r="J27" s="199"/>
-      <c r="K27" s="199"/>
-      <c r="L27" s="199"/>
-      <c r="M27" s="199"/>
-      <c r="N27" s="199"/>
-      <c r="O27" s="199"/>
-      <c r="P27" s="199"/>
-      <c r="Q27" s="199"/>
-      <c r="R27" s="199"/>
-      <c r="S27" s="199"/>
-      <c r="T27" s="199"/>
-      <c r="U27" s="199"/>
-      <c r="V27" s="199"/>
-      <c r="W27" s="199"/>
-      <c r="X27" s="199"/>
-      <c r="Y27" s="199"/>
-      <c r="Z27" s="199"/>
-      <c r="AA27" s="199"/>
-      <c r="AB27" s="199"/>
-      <c r="AC27" s="199"/>
-      <c r="AD27" s="199"/>
-      <c r="AE27" s="199"/>
-      <c r="AF27" s="199"/>
-      <c r="AG27" s="199"/>
-      <c r="AH27" s="199"/>
-      <c r="AI27" s="199"/>
-      <c r="AJ27" s="199"/>
-      <c r="AK27" s="199"/>
-      <c r="AL27" s="199"/>
-      <c r="AM27" s="199"/>
-      <c r="AN27" s="199"/>
-      <c r="AO27" s="199"/>
-      <c r="AP27" s="199"/>
-      <c r="AQ27" s="199"/>
-      <c r="AR27" s="199"/>
-      <c r="AS27" s="199"/>
-      <c r="AT27" s="199"/>
-      <c r="AU27" s="199"/>
-      <c r="AV27" s="199"/>
-      <c r="AW27" s="199"/>
-      <c r="AX27" s="199"/>
+      <c r="A27" s="137"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="137"/>
+      <c r="O27" s="137"/>
+      <c r="P27" s="137"/>
+      <c r="Q27" s="137"/>
+      <c r="R27" s="137"/>
+      <c r="S27" s="137"/>
+      <c r="T27" s="137"/>
+      <c r="U27" s="137"/>
+      <c r="V27" s="137"/>
+      <c r="W27" s="137"/>
+      <c r="X27" s="137"/>
+      <c r="Y27" s="137"/>
+      <c r="Z27" s="137"/>
+      <c r="AA27" s="137"/>
+      <c r="AB27" s="137"/>
+      <c r="AC27" s="137"/>
+      <c r="AD27" s="137"/>
+      <c r="AE27" s="137"/>
+      <c r="AF27" s="137"/>
+      <c r="AG27" s="137"/>
+      <c r="AH27" s="137"/>
+      <c r="AI27" s="137"/>
+      <c r="AJ27" s="137"/>
+      <c r="AK27" s="137"/>
+      <c r="AL27" s="137"/>
+      <c r="AM27" s="137"/>
+      <c r="AN27" s="137"/>
+      <c r="AO27" s="137"/>
+      <c r="AP27" s="137"/>
+      <c r="AQ27" s="137"/>
+      <c r="AR27" s="137"/>
+      <c r="AS27" s="137"/>
+      <c r="AT27" s="137"/>
+      <c r="AU27" s="137"/>
+      <c r="AV27" s="137"/>
+      <c r="AW27" s="137"/>
+      <c r="AX27" s="137"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A28" s="199"/>
-      <c r="B28" s="199"/>
-      <c r="C28" s="199"/>
-      <c r="D28" s="199"/>
-      <c r="E28" s="199"/>
-      <c r="F28" s="199"/>
-      <c r="G28" s="199"/>
-      <c r="H28" s="199"/>
-      <c r="I28" s="199"/>
-      <c r="J28" s="199"/>
-      <c r="K28" s="199"/>
-      <c r="L28" s="199"/>
-      <c r="M28" s="199"/>
-      <c r="N28" s="199"/>
-      <c r="O28" s="199"/>
-      <c r="P28" s="199"/>
-      <c r="Q28" s="199"/>
-      <c r="R28" s="199"/>
-      <c r="S28" s="199"/>
-      <c r="T28" s="199"/>
-      <c r="U28" s="199"/>
-      <c r="V28" s="199"/>
-      <c r="W28" s="199"/>
-      <c r="X28" s="199"/>
-      <c r="Y28" s="199"/>
-      <c r="Z28" s="199"/>
-      <c r="AA28" s="199"/>
-      <c r="AB28" s="199"/>
-      <c r="AC28" s="199"/>
-      <c r="AD28" s="199"/>
-      <c r="AE28" s="199"/>
-      <c r="AF28" s="199"/>
-      <c r="AG28" s="199"/>
-      <c r="AH28" s="199"/>
-      <c r="AI28" s="199"/>
-      <c r="AJ28" s="199"/>
-      <c r="AK28" s="199"/>
-      <c r="AL28" s="199"/>
-      <c r="AM28" s="199"/>
-      <c r="AN28" s="199"/>
-      <c r="AO28" s="199"/>
-      <c r="AP28" s="199"/>
-      <c r="AQ28" s="199"/>
-      <c r="AR28" s="199"/>
-      <c r="AS28" s="199"/>
-      <c r="AT28" s="199"/>
-      <c r="AU28" s="199"/>
-      <c r="AV28" s="199"/>
-      <c r="AW28" s="199"/>
-      <c r="AX28" s="199"/>
+      <c r="A28" s="137"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="137"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="137"/>
+      <c r="N28" s="137"/>
+      <c r="O28" s="137"/>
+      <c r="P28" s="137"/>
+      <c r="Q28" s="137"/>
+      <c r="R28" s="137"/>
+      <c r="S28" s="137"/>
+      <c r="T28" s="137"/>
+      <c r="U28" s="137"/>
+      <c r="V28" s="137"/>
+      <c r="W28" s="137"/>
+      <c r="X28" s="137"/>
+      <c r="Y28" s="137"/>
+      <c r="Z28" s="137"/>
+      <c r="AA28" s="137"/>
+      <c r="AB28" s="137"/>
+      <c r="AC28" s="137"/>
+      <c r="AD28" s="137"/>
+      <c r="AE28" s="137"/>
+      <c r="AF28" s="137"/>
+      <c r="AG28" s="137"/>
+      <c r="AH28" s="137"/>
+      <c r="AI28" s="137"/>
+      <c r="AJ28" s="137"/>
+      <c r="AK28" s="137"/>
+      <c r="AL28" s="137"/>
+      <c r="AM28" s="137"/>
+      <c r="AN28" s="137"/>
+      <c r="AO28" s="137"/>
+      <c r="AP28" s="137"/>
+      <c r="AQ28" s="137"/>
+      <c r="AR28" s="137"/>
+      <c r="AS28" s="137"/>
+      <c r="AT28" s="137"/>
+      <c r="AU28" s="137"/>
+      <c r="AV28" s="137"/>
+      <c r="AW28" s="137"/>
+      <c r="AX28" s="137"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A29" s="199"/>
-      <c r="B29" s="199"/>
-      <c r="C29" s="199"/>
-      <c r="D29" s="199"/>
-      <c r="E29" s="199"/>
-      <c r="F29" s="199"/>
-      <c r="G29" s="199"/>
-      <c r="H29" s="199"/>
-      <c r="I29" s="199"/>
-      <c r="J29" s="199"/>
-      <c r="K29" s="199"/>
-      <c r="L29" s="199"/>
-      <c r="M29" s="199"/>
-      <c r="N29" s="199"/>
-      <c r="O29" s="199"/>
-      <c r="P29" s="199"/>
-      <c r="Q29" s="199"/>
-      <c r="R29" s="199"/>
-      <c r="S29" s="199"/>
-      <c r="T29" s="199"/>
-      <c r="U29" s="199"/>
-      <c r="V29" s="199"/>
-      <c r="W29" s="199"/>
-      <c r="X29" s="199"/>
-      <c r="Y29" s="199"/>
-      <c r="Z29" s="199"/>
-      <c r="AA29" s="199"/>
-      <c r="AB29" s="199"/>
-      <c r="AC29" s="199"/>
-      <c r="AD29" s="199"/>
-      <c r="AE29" s="199"/>
-      <c r="AF29" s="199"/>
-      <c r="AG29" s="199"/>
-      <c r="AH29" s="199"/>
-      <c r="AI29" s="199"/>
-      <c r="AJ29" s="199"/>
-      <c r="AK29" s="199"/>
-      <c r="AL29" s="199"/>
-      <c r="AM29" s="199"/>
-      <c r="AN29" s="199"/>
-      <c r="AO29" s="199"/>
-      <c r="AP29" s="199"/>
-      <c r="AQ29" s="199"/>
-      <c r="AR29" s="199"/>
-      <c r="AS29" s="199"/>
-      <c r="AT29" s="199"/>
-      <c r="AU29" s="199"/>
-      <c r="AV29" s="199"/>
-      <c r="AW29" s="199"/>
-      <c r="AX29" s="199"/>
+      <c r="A29" s="137"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="137"/>
+      <c r="N29" s="137"/>
+      <c r="O29" s="137"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="137"/>
+      <c r="R29" s="137"/>
+      <c r="S29" s="137"/>
+      <c r="T29" s="137"/>
+      <c r="U29" s="137"/>
+      <c r="V29" s="137"/>
+      <c r="W29" s="137"/>
+      <c r="X29" s="137"/>
+      <c r="Y29" s="137"/>
+      <c r="Z29" s="137"/>
+      <c r="AA29" s="137"/>
+      <c r="AB29" s="137"/>
+      <c r="AC29" s="137"/>
+      <c r="AD29" s="137"/>
+      <c r="AE29" s="137"/>
+      <c r="AF29" s="137"/>
+      <c r="AG29" s="137"/>
+      <c r="AH29" s="137"/>
+      <c r="AI29" s="137"/>
+      <c r="AJ29" s="137"/>
+      <c r="AK29" s="137"/>
+      <c r="AL29" s="137"/>
+      <c r="AM29" s="137"/>
+      <c r="AN29" s="137"/>
+      <c r="AO29" s="137"/>
+      <c r="AP29" s="137"/>
+      <c r="AQ29" s="137"/>
+      <c r="AR29" s="137"/>
+      <c r="AS29" s="137"/>
+      <c r="AT29" s="137"/>
+      <c r="AU29" s="137"/>
+      <c r="AV29" s="137"/>
+      <c r="AW29" s="137"/>
+      <c r="AX29" s="137"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A30" s="199"/>
-      <c r="B30" s="199"/>
-      <c r="C30" s="199"/>
-      <c r="D30" s="199"/>
-      <c r="E30" s="199"/>
-      <c r="F30" s="199"/>
-      <c r="G30" s="199"/>
-      <c r="H30" s="199"/>
-      <c r="I30" s="199"/>
-      <c r="J30" s="199"/>
-      <c r="K30" s="199"/>
-      <c r="L30" s="199"/>
-      <c r="M30" s="199"/>
-      <c r="N30" s="199"/>
-      <c r="O30" s="199"/>
-      <c r="P30" s="199"/>
-      <c r="Q30" s="199"/>
-      <c r="R30" s="199"/>
-      <c r="S30" s="199"/>
-      <c r="T30" s="199"/>
-      <c r="U30" s="199"/>
-      <c r="V30" s="199"/>
-      <c r="W30" s="199"/>
-      <c r="X30" s="199"/>
-      <c r="Y30" s="199"/>
-      <c r="Z30" s="199"/>
-      <c r="AA30" s="199"/>
-      <c r="AB30" s="199"/>
-      <c r="AC30" s="199"/>
-      <c r="AD30" s="199"/>
-      <c r="AE30" s="199"/>
-      <c r="AF30" s="199"/>
-      <c r="AG30" s="199"/>
-      <c r="AH30" s="199"/>
-      <c r="AI30" s="199"/>
-      <c r="AJ30" s="199"/>
-      <c r="AK30" s="199"/>
-      <c r="AL30" s="199"/>
-      <c r="AM30" s="199"/>
-      <c r="AN30" s="199"/>
-      <c r="AO30" s="199"/>
-      <c r="AP30" s="199"/>
-      <c r="AQ30" s="199"/>
-      <c r="AR30" s="199"/>
-      <c r="AS30" s="199"/>
-      <c r="AT30" s="199"/>
-      <c r="AU30" s="199"/>
-      <c r="AV30" s="199"/>
-      <c r="AW30" s="199"/>
-      <c r="AX30" s="199"/>
+      <c r="A30" s="137"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="137"/>
+      <c r="L30" s="137"/>
+      <c r="M30" s="137"/>
+      <c r="N30" s="137"/>
+      <c r="O30" s="137"/>
+      <c r="P30" s="137"/>
+      <c r="Q30" s="137"/>
+      <c r="R30" s="137"/>
+      <c r="S30" s="137"/>
+      <c r="T30" s="137"/>
+      <c r="U30" s="137"/>
+      <c r="V30" s="137"/>
+      <c r="W30" s="137"/>
+      <c r="X30" s="137"/>
+      <c r="Y30" s="137"/>
+      <c r="Z30" s="137"/>
+      <c r="AA30" s="137"/>
+      <c r="AB30" s="137"/>
+      <c r="AC30" s="137"/>
+      <c r="AD30" s="137"/>
+      <c r="AE30" s="137"/>
+      <c r="AF30" s="137"/>
+      <c r="AG30" s="137"/>
+      <c r="AH30" s="137"/>
+      <c r="AI30" s="137"/>
+      <c r="AJ30" s="137"/>
+      <c r="AK30" s="137"/>
+      <c r="AL30" s="137"/>
+      <c r="AM30" s="137"/>
+      <c r="AN30" s="137"/>
+      <c r="AO30" s="137"/>
+      <c r="AP30" s="137"/>
+      <c r="AQ30" s="137"/>
+      <c r="AR30" s="137"/>
+      <c r="AS30" s="137"/>
+      <c r="AT30" s="137"/>
+      <c r="AU30" s="137"/>
+      <c r="AV30" s="137"/>
+      <c r="AW30" s="137"/>
+      <c r="AX30" s="137"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A31" s="199"/>
-      <c r="B31" s="199"/>
-      <c r="C31" s="199"/>
-      <c r="D31" s="199"/>
-      <c r="E31" s="199"/>
-      <c r="F31" s="199"/>
-      <c r="G31" s="199"/>
-      <c r="H31" s="199"/>
-      <c r="I31" s="199"/>
-      <c r="J31" s="199"/>
-      <c r="K31" s="199"/>
-      <c r="L31" s="199"/>
-      <c r="M31" s="199"/>
-      <c r="N31" s="199"/>
-      <c r="O31" s="199"/>
-      <c r="P31" s="199"/>
-      <c r="Q31" s="199"/>
-      <c r="R31" s="199"/>
-      <c r="S31" s="199"/>
-      <c r="T31" s="199"/>
-      <c r="U31" s="199"/>
-      <c r="V31" s="199"/>
-      <c r="W31" s="199"/>
-      <c r="X31" s="199"/>
-      <c r="Y31" s="199"/>
-      <c r="Z31" s="199"/>
-      <c r="AA31" s="199"/>
-      <c r="AB31" s="199"/>
-      <c r="AC31" s="199"/>
-      <c r="AD31" s="199"/>
-      <c r="AE31" s="199"/>
-      <c r="AF31" s="199"/>
-      <c r="AG31" s="199"/>
-      <c r="AH31" s="199"/>
-      <c r="AI31" s="199"/>
-      <c r="AJ31" s="199"/>
-      <c r="AK31" s="199"/>
-      <c r="AL31" s="199"/>
-      <c r="AM31" s="199"/>
-      <c r="AN31" s="199"/>
-      <c r="AO31" s="199"/>
-      <c r="AP31" s="199"/>
-      <c r="AQ31" s="199"/>
-      <c r="AR31" s="199"/>
-      <c r="AS31" s="199"/>
-      <c r="AT31" s="199"/>
-      <c r="AU31" s="199"/>
-      <c r="AV31" s="199"/>
-      <c r="AW31" s="199"/>
-      <c r="AX31" s="199"/>
+      <c r="A31" s="137"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="137"/>
+      <c r="L31" s="137"/>
+      <c r="M31" s="137"/>
+      <c r="N31" s="137"/>
+      <c r="O31" s="137"/>
+      <c r="P31" s="137"/>
+      <c r="Q31" s="137"/>
+      <c r="R31" s="137"/>
+      <c r="S31" s="137"/>
+      <c r="T31" s="137"/>
+      <c r="U31" s="137"/>
+      <c r="V31" s="137"/>
+      <c r="W31" s="137"/>
+      <c r="X31" s="137"/>
+      <c r="Y31" s="137"/>
+      <c r="Z31" s="137"/>
+      <c r="AA31" s="137"/>
+      <c r="AB31" s="137"/>
+      <c r="AC31" s="137"/>
+      <c r="AD31" s="137"/>
+      <c r="AE31" s="137"/>
+      <c r="AF31" s="137"/>
+      <c r="AG31" s="137"/>
+      <c r="AH31" s="137"/>
+      <c r="AI31" s="137"/>
+      <c r="AJ31" s="137"/>
+      <c r="AK31" s="137"/>
+      <c r="AL31" s="137"/>
+      <c r="AM31" s="137"/>
+      <c r="AN31" s="137"/>
+      <c r="AO31" s="137"/>
+      <c r="AP31" s="137"/>
+      <c r="AQ31" s="137"/>
+      <c r="AR31" s="137"/>
+      <c r="AS31" s="137"/>
+      <c r="AT31" s="137"/>
+      <c r="AU31" s="137"/>
+      <c r="AV31" s="137"/>
+      <c r="AW31" s="137"/>
+      <c r="AX31" s="137"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A32" s="199"/>
-      <c r="B32" s="199"/>
-      <c r="C32" s="199"/>
-      <c r="D32" s="199"/>
-      <c r="E32" s="199"/>
-      <c r="F32" s="199"/>
-      <c r="G32" s="199"/>
-      <c r="H32" s="199"/>
-      <c r="I32" s="199"/>
-      <c r="J32" s="199"/>
-      <c r="K32" s="199"/>
-      <c r="L32" s="199"/>
-      <c r="M32" s="199"/>
-      <c r="N32" s="199"/>
-      <c r="O32" s="199"/>
-      <c r="P32" s="199"/>
-      <c r="Q32" s="199"/>
-      <c r="R32" s="199"/>
-      <c r="S32" s="199"/>
-      <c r="T32" s="199"/>
-      <c r="U32" s="199"/>
-      <c r="V32" s="199"/>
-      <c r="W32" s="199"/>
-      <c r="X32" s="199"/>
-      <c r="Y32" s="199"/>
-      <c r="Z32" s="199"/>
-      <c r="AA32" s="199"/>
-      <c r="AB32" s="199"/>
-      <c r="AC32" s="199"/>
-      <c r="AD32" s="199"/>
-      <c r="AE32" s="199"/>
-      <c r="AF32" s="199"/>
-      <c r="AG32" s="199"/>
-      <c r="AH32" s="199"/>
-      <c r="AI32" s="199"/>
-      <c r="AJ32" s="199"/>
-      <c r="AK32" s="199"/>
-      <c r="AL32" s="199"/>
-      <c r="AM32" s="199"/>
-      <c r="AN32" s="199"/>
-      <c r="AO32" s="199"/>
-      <c r="AP32" s="199"/>
-      <c r="AQ32" s="199"/>
-      <c r="AR32" s="199"/>
-      <c r="AS32" s="199"/>
-      <c r="AT32" s="199"/>
-      <c r="AU32" s="199"/>
-      <c r="AV32" s="199"/>
-      <c r="AW32" s="199"/>
-      <c r="AX32" s="199"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="137"/>
+      <c r="L32" s="137"/>
+      <c r="M32" s="137"/>
+      <c r="N32" s="137"/>
+      <c r="O32" s="137"/>
+      <c r="P32" s="137"/>
+      <c r="Q32" s="137"/>
+      <c r="R32" s="137"/>
+      <c r="S32" s="137"/>
+      <c r="T32" s="137"/>
+      <c r="U32" s="137"/>
+      <c r="V32" s="137"/>
+      <c r="W32" s="137"/>
+      <c r="X32" s="137"/>
+      <c r="Y32" s="137"/>
+      <c r="Z32" s="137"/>
+      <c r="AA32" s="137"/>
+      <c r="AB32" s="137"/>
+      <c r="AC32" s="137"/>
+      <c r="AD32" s="137"/>
+      <c r="AE32" s="137"/>
+      <c r="AF32" s="137"/>
+      <c r="AG32" s="137"/>
+      <c r="AH32" s="137"/>
+      <c r="AI32" s="137"/>
+      <c r="AJ32" s="137"/>
+      <c r="AK32" s="137"/>
+      <c r="AL32" s="137"/>
+      <c r="AM32" s="137"/>
+      <c r="AN32" s="137"/>
+      <c r="AO32" s="137"/>
+      <c r="AP32" s="137"/>
+      <c r="AQ32" s="137"/>
+      <c r="AR32" s="137"/>
+      <c r="AS32" s="137"/>
+      <c r="AT32" s="137"/>
+      <c r="AU32" s="137"/>
+      <c r="AV32" s="137"/>
+      <c r="AW32" s="137"/>
+      <c r="AX32" s="137"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A33" s="199"/>
-      <c r="B33" s="199"/>
-      <c r="C33" s="199"/>
-      <c r="D33" s="199"/>
-      <c r="E33" s="199"/>
-      <c r="F33" s="199"/>
-      <c r="G33" s="199"/>
-      <c r="H33" s="199"/>
-      <c r="I33" s="199"/>
-      <c r="J33" s="199"/>
-      <c r="K33" s="199"/>
-      <c r="L33" s="199"/>
-      <c r="M33" s="199"/>
-      <c r="N33" s="199"/>
-      <c r="O33" s="199"/>
-      <c r="P33" s="199"/>
-      <c r="Q33" s="199"/>
-      <c r="R33" s="199"/>
-      <c r="S33" s="199"/>
-      <c r="T33" s="199"/>
-      <c r="U33" s="199"/>
-      <c r="V33" s="199"/>
-      <c r="W33" s="199"/>
-      <c r="X33" s="199"/>
-      <c r="Y33" s="199"/>
-      <c r="Z33" s="199"/>
-      <c r="AA33" s="199"/>
-      <c r="AB33" s="199"/>
-      <c r="AC33" s="199"/>
-      <c r="AD33" s="199"/>
-      <c r="AE33" s="199"/>
-      <c r="AF33" s="199"/>
-      <c r="AG33" s="199"/>
-      <c r="AH33" s="199"/>
-      <c r="AI33" s="199"/>
-      <c r="AJ33" s="199"/>
-      <c r="AK33" s="199"/>
-      <c r="AL33" s="199"/>
-      <c r="AM33" s="199"/>
-      <c r="AN33" s="199"/>
-      <c r="AO33" s="199"/>
-      <c r="AP33" s="199"/>
-      <c r="AQ33" s="199"/>
-      <c r="AR33" s="199"/>
-      <c r="AS33" s="199"/>
-      <c r="AT33" s="199"/>
-      <c r="AU33" s="199"/>
-      <c r="AV33" s="199"/>
-      <c r="AW33" s="199"/>
-      <c r="AX33" s="199"/>
+      <c r="A33" s="137"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="137"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="137"/>
+      <c r="L33" s="137"/>
+      <c r="M33" s="137"/>
+      <c r="N33" s="137"/>
+      <c r="O33" s="137"/>
+      <c r="P33" s="137"/>
+      <c r="Q33" s="137"/>
+      <c r="R33" s="137"/>
+      <c r="S33" s="137"/>
+      <c r="T33" s="137"/>
+      <c r="U33" s="137"/>
+      <c r="V33" s="137"/>
+      <c r="W33" s="137"/>
+      <c r="X33" s="137"/>
+      <c r="Y33" s="137"/>
+      <c r="Z33" s="137"/>
+      <c r="AA33" s="137"/>
+      <c r="AB33" s="137"/>
+      <c r="AC33" s="137"/>
+      <c r="AD33" s="137"/>
+      <c r="AE33" s="137"/>
+      <c r="AF33" s="137"/>
+      <c r="AG33" s="137"/>
+      <c r="AH33" s="137"/>
+      <c r="AI33" s="137"/>
+      <c r="AJ33" s="137"/>
+      <c r="AK33" s="137"/>
+      <c r="AL33" s="137"/>
+      <c r="AM33" s="137"/>
+      <c r="AN33" s="137"/>
+      <c r="AO33" s="137"/>
+      <c r="AP33" s="137"/>
+      <c r="AQ33" s="137"/>
+      <c r="AR33" s="137"/>
+      <c r="AS33" s="137"/>
+      <c r="AT33" s="137"/>
+      <c r="AU33" s="137"/>
+      <c r="AV33" s="137"/>
+      <c r="AW33" s="137"/>
+      <c r="AX33" s="137"/>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A34" s="199"/>
-      <c r="B34" s="199"/>
-      <c r="C34" s="199"/>
-      <c r="D34" s="199"/>
-      <c r="E34" s="199"/>
-      <c r="F34" s="199"/>
-      <c r="G34" s="199"/>
-      <c r="H34" s="199"/>
-      <c r="I34" s="199"/>
-      <c r="J34" s="199"/>
-      <c r="K34" s="199"/>
-      <c r="L34" s="199"/>
-      <c r="M34" s="199"/>
-      <c r="N34" s="199"/>
-      <c r="O34" s="199"/>
-      <c r="P34" s="199"/>
-      <c r="Q34" s="199"/>
-      <c r="R34" s="199"/>
-      <c r="S34" s="199"/>
-      <c r="T34" s="199"/>
-      <c r="U34" s="199"/>
-      <c r="V34" s="199"/>
-      <c r="W34" s="199"/>
-      <c r="X34" s="199"/>
-      <c r="Y34" s="199"/>
-      <c r="Z34" s="199"/>
-      <c r="AA34" s="199"/>
-      <c r="AB34" s="199"/>
-      <c r="AC34" s="199"/>
-      <c r="AD34" s="199"/>
-      <c r="AE34" s="199"/>
-      <c r="AF34" s="199"/>
-      <c r="AG34" s="199"/>
-      <c r="AH34" s="199"/>
-      <c r="AI34" s="199"/>
-      <c r="AJ34" s="199"/>
-      <c r="AK34" s="199"/>
-      <c r="AL34" s="199"/>
-      <c r="AM34" s="199"/>
-      <c r="AN34" s="199"/>
-      <c r="AO34" s="199"/>
-      <c r="AP34" s="199"/>
-      <c r="AQ34" s="199"/>
-      <c r="AR34" s="199"/>
-      <c r="AS34" s="199"/>
-      <c r="AT34" s="199"/>
-      <c r="AU34" s="199"/>
-      <c r="AV34" s="199"/>
-      <c r="AW34" s="199"/>
-      <c r="AX34" s="199"/>
+      <c r="A34" s="137"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="137"/>
+      <c r="H34" s="137"/>
+      <c r="I34" s="137"/>
+      <c r="J34" s="137"/>
+      <c r="K34" s="137"/>
+      <c r="L34" s="137"/>
+      <c r="M34" s="137"/>
+      <c r="N34" s="137"/>
+      <c r="O34" s="137"/>
+      <c r="P34" s="137"/>
+      <c r="Q34" s="137"/>
+      <c r="R34" s="137"/>
+      <c r="S34" s="137"/>
+      <c r="T34" s="137"/>
+      <c r="U34" s="137"/>
+      <c r="V34" s="137"/>
+      <c r="W34" s="137"/>
+      <c r="X34" s="137"/>
+      <c r="Y34" s="137"/>
+      <c r="Z34" s="137"/>
+      <c r="AA34" s="137"/>
+      <c r="AB34" s="137"/>
+      <c r="AC34" s="137"/>
+      <c r="AD34" s="137"/>
+      <c r="AE34" s="137"/>
+      <c r="AF34" s="137"/>
+      <c r="AG34" s="137"/>
+      <c r="AH34" s="137"/>
+      <c r="AI34" s="137"/>
+      <c r="AJ34" s="137"/>
+      <c r="AK34" s="137"/>
+      <c r="AL34" s="137"/>
+      <c r="AM34" s="137"/>
+      <c r="AN34" s="137"/>
+      <c r="AO34" s="137"/>
+      <c r="AP34" s="137"/>
+      <c r="AQ34" s="137"/>
+      <c r="AR34" s="137"/>
+      <c r="AS34" s="137"/>
+      <c r="AT34" s="137"/>
+      <c r="AU34" s="137"/>
+      <c r="AV34" s="137"/>
+      <c r="AW34" s="137"/>
+      <c r="AX34" s="137"/>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A35" s="199"/>
-      <c r="B35" s="199"/>
-      <c r="C35" s="199"/>
-      <c r="D35" s="199"/>
-      <c r="E35" s="199"/>
-      <c r="F35" s="199"/>
-      <c r="G35" s="199"/>
-      <c r="H35" s="199"/>
-      <c r="I35" s="199"/>
-      <c r="J35" s="199"/>
-      <c r="K35" s="199"/>
-      <c r="L35" s="199"/>
-      <c r="M35" s="199"/>
-      <c r="N35" s="199"/>
-      <c r="O35" s="199"/>
-      <c r="P35" s="199"/>
-      <c r="Q35" s="199"/>
-      <c r="R35" s="199"/>
-      <c r="S35" s="199"/>
-      <c r="T35" s="199"/>
-      <c r="U35" s="199"/>
-      <c r="V35" s="199"/>
-      <c r="W35" s="199"/>
-      <c r="X35" s="199"/>
-      <c r="Y35" s="199"/>
-      <c r="Z35" s="199"/>
-      <c r="AA35" s="199"/>
-      <c r="AB35" s="199"/>
-      <c r="AC35" s="199"/>
-      <c r="AD35" s="199"/>
-      <c r="AE35" s="199"/>
-      <c r="AF35" s="199"/>
-      <c r="AG35" s="199"/>
-      <c r="AH35" s="199"/>
-      <c r="AI35" s="199"/>
-      <c r="AJ35" s="199"/>
-      <c r="AK35" s="199"/>
-      <c r="AL35" s="199"/>
-      <c r="AM35" s="199"/>
-      <c r="AN35" s="199"/>
-      <c r="AO35" s="199"/>
-      <c r="AP35" s="199"/>
-      <c r="AQ35" s="199"/>
-      <c r="AR35" s="199"/>
-      <c r="AS35" s="199"/>
-      <c r="AT35" s="199"/>
-      <c r="AU35" s="199"/>
-      <c r="AV35" s="199"/>
-      <c r="AW35" s="199"/>
-      <c r="AX35" s="199"/>
+      <c r="A35" s="137"/>
+      <c r="B35" s="137"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="137"/>
+      <c r="J35" s="137"/>
+      <c r="K35" s="137"/>
+      <c r="L35" s="137"/>
+      <c r="M35" s="137"/>
+      <c r="N35" s="137"/>
+      <c r="O35" s="137"/>
+      <c r="P35" s="137"/>
+      <c r="Q35" s="137"/>
+      <c r="R35" s="137"/>
+      <c r="S35" s="137"/>
+      <c r="T35" s="137"/>
+      <c r="U35" s="137"/>
+      <c r="V35" s="137"/>
+      <c r="W35" s="137"/>
+      <c r="X35" s="137"/>
+      <c r="Y35" s="137"/>
+      <c r="Z35" s="137"/>
+      <c r="AA35" s="137"/>
+      <c r="AB35" s="137"/>
+      <c r="AC35" s="137"/>
+      <c r="AD35" s="137"/>
+      <c r="AE35" s="137"/>
+      <c r="AF35" s="137"/>
+      <c r="AG35" s="137"/>
+      <c r="AH35" s="137"/>
+      <c r="AI35" s="137"/>
+      <c r="AJ35" s="137"/>
+      <c r="AK35" s="137"/>
+      <c r="AL35" s="137"/>
+      <c r="AM35" s="137"/>
+      <c r="AN35" s="137"/>
+      <c r="AO35" s="137"/>
+      <c r="AP35" s="137"/>
+      <c r="AQ35" s="137"/>
+      <c r="AR35" s="137"/>
+      <c r="AS35" s="137"/>
+      <c r="AT35" s="137"/>
+      <c r="AU35" s="137"/>
+      <c r="AV35" s="137"/>
+      <c r="AW35" s="137"/>
+      <c r="AX35" s="137"/>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A36" s="199"/>
-      <c r="B36" s="199"/>
-      <c r="C36" s="199"/>
-      <c r="D36" s="199"/>
-      <c r="E36" s="199"/>
-      <c r="F36" s="199"/>
-      <c r="G36" s="199"/>
-      <c r="H36" s="199"/>
-      <c r="I36" s="199"/>
-      <c r="J36" s="199"/>
-      <c r="K36" s="199"/>
-      <c r="L36" s="199"/>
-      <c r="M36" s="199"/>
-      <c r="N36" s="199"/>
-      <c r="O36" s="199"/>
-      <c r="P36" s="199"/>
-      <c r="Q36" s="199"/>
-      <c r="R36" s="199"/>
-      <c r="S36" s="199"/>
-      <c r="T36" s="199"/>
-      <c r="U36" s="199"/>
-      <c r="V36" s="199"/>
-      <c r="W36" s="199"/>
-      <c r="X36" s="199"/>
-      <c r="Y36" s="199"/>
-      <c r="Z36" s="199"/>
-      <c r="AA36" s="199"/>
-      <c r="AB36" s="199"/>
-      <c r="AC36" s="199"/>
-      <c r="AD36" s="199"/>
-      <c r="AE36" s="199"/>
-      <c r="AF36" s="199"/>
-      <c r="AG36" s="199"/>
-      <c r="AH36" s="199"/>
-      <c r="AI36" s="199"/>
-      <c r="AJ36" s="199"/>
-      <c r="AK36" s="199"/>
-      <c r="AL36" s="199"/>
-      <c r="AM36" s="199"/>
-      <c r="AN36" s="199"/>
-      <c r="AO36" s="199"/>
-      <c r="AP36" s="199"/>
-      <c r="AQ36" s="199"/>
-      <c r="AR36" s="199"/>
-      <c r="AS36" s="199"/>
-      <c r="AT36" s="199"/>
-      <c r="AU36" s="199"/>
-      <c r="AV36" s="199"/>
-      <c r="AW36" s="199"/>
-      <c r="AX36" s="199"/>
+      <c r="A36" s="137"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="137"/>
+      <c r="K36" s="137"/>
+      <c r="L36" s="137"/>
+      <c r="M36" s="137"/>
+      <c r="N36" s="137"/>
+      <c r="O36" s="137"/>
+      <c r="P36" s="137"/>
+      <c r="Q36" s="137"/>
+      <c r="R36" s="137"/>
+      <c r="S36" s="137"/>
+      <c r="T36" s="137"/>
+      <c r="U36" s="137"/>
+      <c r="V36" s="137"/>
+      <c r="W36" s="137"/>
+      <c r="X36" s="137"/>
+      <c r="Y36" s="137"/>
+      <c r="Z36" s="137"/>
+      <c r="AA36" s="137"/>
+      <c r="AB36" s="137"/>
+      <c r="AC36" s="137"/>
+      <c r="AD36" s="137"/>
+      <c r="AE36" s="137"/>
+      <c r="AF36" s="137"/>
+      <c r="AG36" s="137"/>
+      <c r="AH36" s="137"/>
+      <c r="AI36" s="137"/>
+      <c r="AJ36" s="137"/>
+      <c r="AK36" s="137"/>
+      <c r="AL36" s="137"/>
+      <c r="AM36" s="137"/>
+      <c r="AN36" s="137"/>
+      <c r="AO36" s="137"/>
+      <c r="AP36" s="137"/>
+      <c r="AQ36" s="137"/>
+      <c r="AR36" s="137"/>
+      <c r="AS36" s="137"/>
+      <c r="AT36" s="137"/>
+      <c r="AU36" s="137"/>
+      <c r="AV36" s="137"/>
+      <c r="AW36" s="137"/>
+      <c r="AX36" s="137"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A37" s="199"/>
-      <c r="B37" s="199"/>
-      <c r="C37" s="199"/>
-      <c r="D37" s="199"/>
-      <c r="E37" s="199"/>
-      <c r="F37" s="199"/>
-      <c r="G37" s="199"/>
-      <c r="H37" s="199"/>
-      <c r="I37" s="199"/>
-      <c r="J37" s="199"/>
-      <c r="K37" s="199"/>
-      <c r="L37" s="199"/>
-      <c r="M37" s="199"/>
-      <c r="N37" s="199"/>
-      <c r="O37" s="199"/>
-      <c r="P37" s="199"/>
-      <c r="Q37" s="199"/>
-      <c r="R37" s="199"/>
-      <c r="S37" s="199"/>
-      <c r="T37" s="199"/>
-      <c r="U37" s="199"/>
-      <c r="V37" s="199"/>
-      <c r="W37" s="199"/>
-      <c r="X37" s="199"/>
-      <c r="Y37" s="199"/>
-      <c r="Z37" s="199"/>
-      <c r="AA37" s="199"/>
-      <c r="AB37" s="199"/>
-      <c r="AC37" s="199"/>
-      <c r="AD37" s="199"/>
-      <c r="AE37" s="199"/>
-      <c r="AF37" s="199"/>
-      <c r="AG37" s="199"/>
-      <c r="AH37" s="199"/>
-      <c r="AI37" s="199"/>
-      <c r="AJ37" s="199"/>
-      <c r="AK37" s="199"/>
-      <c r="AL37" s="199"/>
-      <c r="AM37" s="199"/>
-      <c r="AN37" s="199"/>
-      <c r="AO37" s="199"/>
-      <c r="AP37" s="199"/>
-      <c r="AQ37" s="199"/>
-      <c r="AR37" s="199"/>
-      <c r="AS37" s="199"/>
-      <c r="AT37" s="199"/>
-      <c r="AU37" s="199"/>
-      <c r="AV37" s="199"/>
-      <c r="AW37" s="199"/>
-      <c r="AX37" s="199"/>
+      <c r="A37" s="137"/>
+      <c r="B37" s="137"/>
+      <c r="C37" s="137"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="137"/>
+      <c r="J37" s="137"/>
+      <c r="K37" s="137"/>
+      <c r="L37" s="137"/>
+      <c r="M37" s="137"/>
+      <c r="N37" s="137"/>
+      <c r="O37" s="137"/>
+      <c r="P37" s="137"/>
+      <c r="Q37" s="137"/>
+      <c r="R37" s="137"/>
+      <c r="S37" s="137"/>
+      <c r="T37" s="137"/>
+      <c r="U37" s="137"/>
+      <c r="V37" s="137"/>
+      <c r="W37" s="137"/>
+      <c r="X37" s="137"/>
+      <c r="Y37" s="137"/>
+      <c r="Z37" s="137"/>
+      <c r="AA37" s="137"/>
+      <c r="AB37" s="137"/>
+      <c r="AC37" s="137"/>
+      <c r="AD37" s="137"/>
+      <c r="AE37" s="137"/>
+      <c r="AF37" s="137"/>
+      <c r="AG37" s="137"/>
+      <c r="AH37" s="137"/>
+      <c r="AI37" s="137"/>
+      <c r="AJ37" s="137"/>
+      <c r="AK37" s="137"/>
+      <c r="AL37" s="137"/>
+      <c r="AM37" s="137"/>
+      <c r="AN37" s="137"/>
+      <c r="AO37" s="137"/>
+      <c r="AP37" s="137"/>
+      <c r="AQ37" s="137"/>
+      <c r="AR37" s="137"/>
+      <c r="AS37" s="137"/>
+      <c r="AT37" s="137"/>
+      <c r="AU37" s="137"/>
+      <c r="AV37" s="137"/>
+      <c r="AW37" s="137"/>
+      <c r="AX37" s="137"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A38" s="199"/>
-      <c r="B38" s="199"/>
-      <c r="C38" s="199"/>
-      <c r="D38" s="199"/>
-      <c r="E38" s="199"/>
-      <c r="F38" s="199"/>
-      <c r="G38" s="199"/>
-      <c r="H38" s="199"/>
-      <c r="I38" s="199"/>
-      <c r="J38" s="199"/>
-      <c r="K38" s="199"/>
-      <c r="L38" s="199"/>
-      <c r="M38" s="199"/>
-      <c r="N38" s="199"/>
-      <c r="O38" s="199"/>
-      <c r="P38" s="199"/>
-      <c r="Q38" s="199"/>
-      <c r="R38" s="199"/>
-      <c r="S38" s="199"/>
-      <c r="T38" s="199"/>
-      <c r="U38" s="199"/>
-      <c r="V38" s="199"/>
-      <c r="W38" s="199"/>
-      <c r="X38" s="199"/>
-      <c r="Y38" s="199"/>
-      <c r="Z38" s="199"/>
-      <c r="AA38" s="199"/>
-      <c r="AB38" s="199"/>
-      <c r="AC38" s="199"/>
-      <c r="AD38" s="199"/>
-      <c r="AE38" s="199"/>
-      <c r="AF38" s="199"/>
-      <c r="AG38" s="199"/>
-      <c r="AH38" s="199"/>
-      <c r="AI38" s="199"/>
-      <c r="AJ38" s="199"/>
-      <c r="AK38" s="199"/>
-      <c r="AL38" s="199"/>
-      <c r="AM38" s="199"/>
-      <c r="AN38" s="199"/>
-      <c r="AO38" s="199"/>
-      <c r="AP38" s="199"/>
-      <c r="AQ38" s="199"/>
-      <c r="AR38" s="199"/>
-      <c r="AS38" s="199"/>
-      <c r="AT38" s="199"/>
-      <c r="AU38" s="199"/>
-      <c r="AV38" s="199"/>
-      <c r="AW38" s="199"/>
-      <c r="AX38" s="199"/>
+      <c r="A38" s="137"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="137"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="137"/>
+      <c r="J38" s="137"/>
+      <c r="K38" s="137"/>
+      <c r="L38" s="137"/>
+      <c r="M38" s="137"/>
+      <c r="N38" s="137"/>
+      <c r="O38" s="137"/>
+      <c r="P38" s="137"/>
+      <c r="Q38" s="137"/>
+      <c r="R38" s="137"/>
+      <c r="S38" s="137"/>
+      <c r="T38" s="137"/>
+      <c r="U38" s="137"/>
+      <c r="V38" s="137"/>
+      <c r="W38" s="137"/>
+      <c r="X38" s="137"/>
+      <c r="Y38" s="137"/>
+      <c r="Z38" s="137"/>
+      <c r="AA38" s="137"/>
+      <c r="AB38" s="137"/>
+      <c r="AC38" s="137"/>
+      <c r="AD38" s="137"/>
+      <c r="AE38" s="137"/>
+      <c r="AF38" s="137"/>
+      <c r="AG38" s="137"/>
+      <c r="AH38" s="137"/>
+      <c r="AI38" s="137"/>
+      <c r="AJ38" s="137"/>
+      <c r="AK38" s="137"/>
+      <c r="AL38" s="137"/>
+      <c r="AM38" s="137"/>
+      <c r="AN38" s="137"/>
+      <c r="AO38" s="137"/>
+      <c r="AP38" s="137"/>
+      <c r="AQ38" s="137"/>
+      <c r="AR38" s="137"/>
+      <c r="AS38" s="137"/>
+      <c r="AT38" s="137"/>
+      <c r="AU38" s="137"/>
+      <c r="AV38" s="137"/>
+      <c r="AW38" s="137"/>
+      <c r="AX38" s="137"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A39" s="199"/>
-      <c r="B39" s="199"/>
-      <c r="C39" s="199"/>
-      <c r="D39" s="199"/>
-      <c r="E39" s="199"/>
-      <c r="F39" s="199"/>
-      <c r="G39" s="199"/>
-      <c r="H39" s="199"/>
-      <c r="I39" s="199"/>
-      <c r="J39" s="199"/>
-      <c r="K39" s="199"/>
-      <c r="L39" s="199"/>
-      <c r="M39" s="199"/>
-      <c r="N39" s="199"/>
-      <c r="O39" s="199"/>
-      <c r="P39" s="199"/>
-      <c r="Q39" s="199"/>
-      <c r="R39" s="199"/>
-      <c r="S39" s="199"/>
-      <c r="T39" s="199"/>
-      <c r="U39" s="199"/>
-      <c r="V39" s="199"/>
-      <c r="W39" s="199"/>
-      <c r="X39" s="199"/>
-      <c r="Y39" s="199"/>
-      <c r="Z39" s="199"/>
-      <c r="AA39" s="199"/>
-      <c r="AB39" s="199"/>
-      <c r="AC39" s="199"/>
-      <c r="AD39" s="199"/>
-      <c r="AE39" s="199"/>
-      <c r="AF39" s="199"/>
-      <c r="AG39" s="199"/>
-      <c r="AH39" s="199"/>
-      <c r="AI39" s="199"/>
-      <c r="AJ39" s="199"/>
-      <c r="AK39" s="199"/>
-      <c r="AL39" s="199"/>
-      <c r="AM39" s="199"/>
-      <c r="AN39" s="199"/>
-      <c r="AO39" s="199"/>
-      <c r="AP39" s="199"/>
-      <c r="AQ39" s="199"/>
-      <c r="AR39" s="199"/>
-      <c r="AS39" s="199"/>
-      <c r="AT39" s="199"/>
-      <c r="AU39" s="199"/>
-      <c r="AV39" s="199"/>
-      <c r="AW39" s="199"/>
-      <c r="AX39" s="199"/>
+      <c r="A39" s="137"/>
+      <c r="B39" s="137"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="137"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="137"/>
+      <c r="J39" s="137"/>
+      <c r="K39" s="137"/>
+      <c r="L39" s="137"/>
+      <c r="M39" s="137"/>
+      <c r="N39" s="137"/>
+      <c r="O39" s="137"/>
+      <c r="P39" s="137"/>
+      <c r="Q39" s="137"/>
+      <c r="R39" s="137"/>
+      <c r="S39" s="137"/>
+      <c r="T39" s="137"/>
+      <c r="U39" s="137"/>
+      <c r="V39" s="137"/>
+      <c r="W39" s="137"/>
+      <c r="X39" s="137"/>
+      <c r="Y39" s="137"/>
+      <c r="Z39" s="137"/>
+      <c r="AA39" s="137"/>
+      <c r="AB39" s="137"/>
+      <c r="AC39" s="137"/>
+      <c r="AD39" s="137"/>
+      <c r="AE39" s="137"/>
+      <c r="AF39" s="137"/>
+      <c r="AG39" s="137"/>
+      <c r="AH39" s="137"/>
+      <c r="AI39" s="137"/>
+      <c r="AJ39" s="137"/>
+      <c r="AK39" s="137"/>
+      <c r="AL39" s="137"/>
+      <c r="AM39" s="137"/>
+      <c r="AN39" s="137"/>
+      <c r="AO39" s="137"/>
+      <c r="AP39" s="137"/>
+      <c r="AQ39" s="137"/>
+      <c r="AR39" s="137"/>
+      <c r="AS39" s="137"/>
+      <c r="AT39" s="137"/>
+      <c r="AU39" s="137"/>
+      <c r="AV39" s="137"/>
+      <c r="AW39" s="137"/>
+      <c r="AX39" s="137"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A40" s="199"/>
-      <c r="B40" s="199"/>
-      <c r="C40" s="199"/>
-      <c r="D40" s="199"/>
-      <c r="E40" s="199"/>
-      <c r="F40" s="199"/>
-      <c r="G40" s="199"/>
-      <c r="H40" s="199"/>
-      <c r="I40" s="199"/>
-      <c r="J40" s="199"/>
-      <c r="K40" s="199"/>
-      <c r="L40" s="199"/>
-      <c r="M40" s="199"/>
-      <c r="N40" s="199"/>
-      <c r="O40" s="199"/>
-      <c r="P40" s="199"/>
-      <c r="Q40" s="199"/>
-      <c r="R40" s="199"/>
-      <c r="S40" s="199"/>
-      <c r="T40" s="199"/>
-      <c r="U40" s="199"/>
-      <c r="V40" s="199"/>
-      <c r="W40" s="199"/>
-      <c r="X40" s="199"/>
-      <c r="Y40" s="199"/>
-      <c r="Z40" s="199"/>
-      <c r="AA40" s="199"/>
-      <c r="AB40" s="199"/>
-      <c r="AC40" s="199"/>
-      <c r="AD40" s="199"/>
-      <c r="AE40" s="199"/>
-      <c r="AF40" s="199"/>
-      <c r="AG40" s="199"/>
-      <c r="AH40" s="199"/>
-      <c r="AI40" s="199"/>
-      <c r="AJ40" s="199"/>
-      <c r="AK40" s="199"/>
-      <c r="AL40" s="199"/>
-      <c r="AM40" s="199"/>
-      <c r="AN40" s="199"/>
-      <c r="AO40" s="199"/>
-      <c r="AP40" s="199"/>
-      <c r="AQ40" s="199"/>
-      <c r="AR40" s="199"/>
-      <c r="AS40" s="199"/>
-      <c r="AT40" s="199"/>
-      <c r="AU40" s="199"/>
-      <c r="AV40" s="199"/>
-      <c r="AW40" s="199"/>
-      <c r="AX40" s="199"/>
+      <c r="A40" s="137"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="137"/>
+      <c r="F40" s="137"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137"/>
+      <c r="J40" s="137"/>
+      <c r="K40" s="137"/>
+      <c r="L40" s="137"/>
+      <c r="M40" s="137"/>
+      <c r="N40" s="137"/>
+      <c r="O40" s="137"/>
+      <c r="P40" s="137"/>
+      <c r="Q40" s="137"/>
+      <c r="R40" s="137"/>
+      <c r="S40" s="137"/>
+      <c r="T40" s="137"/>
+      <c r="U40" s="137"/>
+      <c r="V40" s="137"/>
+      <c r="W40" s="137"/>
+      <c r="X40" s="137"/>
+      <c r="Y40" s="137"/>
+      <c r="Z40" s="137"/>
+      <c r="AA40" s="137"/>
+      <c r="AB40" s="137"/>
+      <c r="AC40" s="137"/>
+      <c r="AD40" s="137"/>
+      <c r="AE40" s="137"/>
+      <c r="AF40" s="137"/>
+      <c r="AG40" s="137"/>
+      <c r="AH40" s="137"/>
+      <c r="AI40" s="137"/>
+      <c r="AJ40" s="137"/>
+      <c r="AK40" s="137"/>
+      <c r="AL40" s="137"/>
+      <c r="AM40" s="137"/>
+      <c r="AN40" s="137"/>
+      <c r="AO40" s="137"/>
+      <c r="AP40" s="137"/>
+      <c r="AQ40" s="137"/>
+      <c r="AR40" s="137"/>
+      <c r="AS40" s="137"/>
+      <c r="AT40" s="137"/>
+      <c r="AU40" s="137"/>
+      <c r="AV40" s="137"/>
+      <c r="AW40" s="137"/>
+      <c r="AX40" s="137"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A41" s="199"/>
-      <c r="B41" s="199"/>
-      <c r="C41" s="199"/>
-      <c r="D41" s="199"/>
-      <c r="E41" s="199"/>
-      <c r="F41" s="199"/>
-      <c r="G41" s="199"/>
-      <c r="H41" s="199"/>
-      <c r="I41" s="199"/>
-      <c r="J41" s="199"/>
-      <c r="K41" s="199"/>
-      <c r="L41" s="199"/>
-      <c r="M41" s="199"/>
-      <c r="N41" s="199"/>
-      <c r="O41" s="199"/>
-      <c r="P41" s="199"/>
-      <c r="Q41" s="199"/>
-      <c r="R41" s="199"/>
-      <c r="S41" s="199"/>
-      <c r="T41" s="199"/>
-      <c r="U41" s="199"/>
-      <c r="V41" s="199"/>
-      <c r="W41" s="199"/>
-      <c r="X41" s="199"/>
-      <c r="Y41" s="199"/>
-      <c r="Z41" s="199"/>
-      <c r="AA41" s="199"/>
-      <c r="AB41" s="199"/>
-      <c r="AC41" s="199"/>
-      <c r="AD41" s="199"/>
-      <c r="AE41" s="199"/>
-      <c r="AF41" s="199"/>
-      <c r="AG41" s="199"/>
-      <c r="AH41" s="199"/>
-      <c r="AI41" s="199"/>
-      <c r="AJ41" s="199"/>
-      <c r="AK41" s="199"/>
-      <c r="AL41" s="199"/>
-      <c r="AM41" s="199"/>
-      <c r="AN41" s="199"/>
-      <c r="AO41" s="199"/>
-      <c r="AP41" s="199"/>
-      <c r="AQ41" s="199"/>
-      <c r="AR41" s="199"/>
-      <c r="AS41" s="199"/>
-      <c r="AT41" s="199"/>
-      <c r="AU41" s="199"/>
-      <c r="AV41" s="199"/>
-      <c r="AW41" s="199"/>
-      <c r="AX41" s="199"/>
+      <c r="A41" s="137"/>
+      <c r="B41" s="137"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
+      <c r="J41" s="137"/>
+      <c r="K41" s="137"/>
+      <c r="L41" s="137"/>
+      <c r="M41" s="137"/>
+      <c r="N41" s="137"/>
+      <c r="O41" s="137"/>
+      <c r="P41" s="137"/>
+      <c r="Q41" s="137"/>
+      <c r="R41" s="137"/>
+      <c r="S41" s="137"/>
+      <c r="T41" s="137"/>
+      <c r="U41" s="137"/>
+      <c r="V41" s="137"/>
+      <c r="W41" s="137"/>
+      <c r="X41" s="137"/>
+      <c r="Y41" s="137"/>
+      <c r="Z41" s="137"/>
+      <c r="AA41" s="137"/>
+      <c r="AB41" s="137"/>
+      <c r="AC41" s="137"/>
+      <c r="AD41" s="137"/>
+      <c r="AE41" s="137"/>
+      <c r="AF41" s="137"/>
+      <c r="AG41" s="137"/>
+      <c r="AH41" s="137"/>
+      <c r="AI41" s="137"/>
+      <c r="AJ41" s="137"/>
+      <c r="AK41" s="137"/>
+      <c r="AL41" s="137"/>
+      <c r="AM41" s="137"/>
+      <c r="AN41" s="137"/>
+      <c r="AO41" s="137"/>
+      <c r="AP41" s="137"/>
+      <c r="AQ41" s="137"/>
+      <c r="AR41" s="137"/>
+      <c r="AS41" s="137"/>
+      <c r="AT41" s="137"/>
+      <c r="AU41" s="137"/>
+      <c r="AV41" s="137"/>
+      <c r="AW41" s="137"/>
+      <c r="AX41" s="137"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A42" s="199"/>
-      <c r="B42" s="199"/>
-      <c r="C42" s="199"/>
-      <c r="D42" s="199"/>
-      <c r="E42" s="199"/>
-      <c r="F42" s="199"/>
-      <c r="G42" s="199"/>
-      <c r="H42" s="199"/>
-      <c r="I42" s="199"/>
-      <c r="J42" s="199"/>
-      <c r="K42" s="199"/>
-      <c r="L42" s="199"/>
-      <c r="M42" s="199"/>
-      <c r="N42" s="199"/>
-      <c r="O42" s="199"/>
-      <c r="P42" s="199"/>
-      <c r="Q42" s="199"/>
-      <c r="R42" s="199"/>
-      <c r="S42" s="199"/>
-      <c r="T42" s="199"/>
-      <c r="U42" s="199"/>
-      <c r="V42" s="199"/>
-      <c r="W42" s="199"/>
-      <c r="X42" s="199"/>
-      <c r="Y42" s="199"/>
-      <c r="Z42" s="199"/>
-      <c r="AA42" s="199"/>
-      <c r="AB42" s="199"/>
-      <c r="AC42" s="199"/>
-      <c r="AD42" s="199"/>
-      <c r="AE42" s="199"/>
-      <c r="AF42" s="199"/>
-      <c r="AG42" s="199"/>
-      <c r="AH42" s="199"/>
-      <c r="AI42" s="199"/>
-      <c r="AJ42" s="199"/>
-      <c r="AK42" s="199"/>
-      <c r="AL42" s="199"/>
-      <c r="AM42" s="199"/>
-      <c r="AN42" s="199"/>
-      <c r="AO42" s="199"/>
-      <c r="AP42" s="199"/>
-      <c r="AQ42" s="199"/>
-      <c r="AR42" s="199"/>
-      <c r="AS42" s="199"/>
-      <c r="AT42" s="199"/>
-      <c r="AU42" s="199"/>
-      <c r="AV42" s="199"/>
-      <c r="AW42" s="199"/>
-      <c r="AX42" s="199"/>
+      <c r="A42" s="137"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
+      <c r="J42" s="137"/>
+      <c r="K42" s="137"/>
+      <c r="L42" s="137"/>
+      <c r="M42" s="137"/>
+      <c r="N42" s="137"/>
+      <c r="O42" s="137"/>
+      <c r="P42" s="137"/>
+      <c r="Q42" s="137"/>
+      <c r="R42" s="137"/>
+      <c r="S42" s="137"/>
+      <c r="T42" s="137"/>
+      <c r="U42" s="137"/>
+      <c r="V42" s="137"/>
+      <c r="W42" s="137"/>
+      <c r="X42" s="137"/>
+      <c r="Y42" s="137"/>
+      <c r="Z42" s="137"/>
+      <c r="AA42" s="137"/>
+      <c r="AB42" s="137"/>
+      <c r="AC42" s="137"/>
+      <c r="AD42" s="137"/>
+      <c r="AE42" s="137"/>
+      <c r="AF42" s="137"/>
+      <c r="AG42" s="137"/>
+      <c r="AH42" s="137"/>
+      <c r="AI42" s="137"/>
+      <c r="AJ42" s="137"/>
+      <c r="AK42" s="137"/>
+      <c r="AL42" s="137"/>
+      <c r="AM42" s="137"/>
+      <c r="AN42" s="137"/>
+      <c r="AO42" s="137"/>
+      <c r="AP42" s="137"/>
+      <c r="AQ42" s="137"/>
+      <c r="AR42" s="137"/>
+      <c r="AS42" s="137"/>
+      <c r="AT42" s="137"/>
+      <c r="AU42" s="137"/>
+      <c r="AV42" s="137"/>
+      <c r="AW42" s="137"/>
+      <c r="AX42" s="137"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A43" s="199"/>
-      <c r="B43" s="199"/>
-      <c r="C43" s="199"/>
-      <c r="D43" s="199"/>
-      <c r="E43" s="199"/>
-      <c r="F43" s="199"/>
-      <c r="G43" s="199"/>
-      <c r="H43" s="199"/>
-      <c r="I43" s="199"/>
-      <c r="J43" s="199"/>
-      <c r="K43" s="199"/>
-      <c r="L43" s="199"/>
-      <c r="M43" s="199"/>
-      <c r="N43" s="199"/>
-      <c r="O43" s="199"/>
-      <c r="P43" s="199"/>
-      <c r="Q43" s="199"/>
-      <c r="R43" s="199"/>
-      <c r="S43" s="199"/>
-      <c r="T43" s="199"/>
-      <c r="U43" s="199"/>
-      <c r="V43" s="199"/>
-      <c r="W43" s="199"/>
-      <c r="X43" s="199"/>
-      <c r="Y43" s="199"/>
-      <c r="Z43" s="199"/>
-      <c r="AA43" s="199"/>
-      <c r="AB43" s="199"/>
-      <c r="AC43" s="199"/>
-      <c r="AD43" s="199"/>
-      <c r="AE43" s="199"/>
-      <c r="AF43" s="199"/>
-      <c r="AG43" s="199"/>
-      <c r="AH43" s="199"/>
-      <c r="AI43" s="199"/>
-      <c r="AJ43" s="199"/>
-      <c r="AK43" s="199"/>
-      <c r="AL43" s="199"/>
-      <c r="AM43" s="199"/>
-      <c r="AN43" s="199"/>
-      <c r="AO43" s="199"/>
-      <c r="AP43" s="199"/>
-      <c r="AQ43" s="199"/>
-      <c r="AR43" s="199"/>
-      <c r="AS43" s="199"/>
-      <c r="AT43" s="199"/>
-      <c r="AU43" s="199"/>
-      <c r="AV43" s="199"/>
-      <c r="AW43" s="199"/>
-      <c r="AX43" s="199"/>
+      <c r="A43" s="137"/>
+      <c r="B43" s="137"/>
+      <c r="C43" s="137"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="137"/>
+      <c r="F43" s="137"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="137"/>
+      <c r="J43" s="137"/>
+      <c r="K43" s="137"/>
+      <c r="L43" s="137"/>
+      <c r="M43" s="137"/>
+      <c r="N43" s="137"/>
+      <c r="O43" s="137"/>
+      <c r="P43" s="137"/>
+      <c r="Q43" s="137"/>
+      <c r="R43" s="137"/>
+      <c r="S43" s="137"/>
+      <c r="T43" s="137"/>
+      <c r="U43" s="137"/>
+      <c r="V43" s="137"/>
+      <c r="W43" s="137"/>
+      <c r="X43" s="137"/>
+      <c r="Y43" s="137"/>
+      <c r="Z43" s="137"/>
+      <c r="AA43" s="137"/>
+      <c r="AB43" s="137"/>
+      <c r="AC43" s="137"/>
+      <c r="AD43" s="137"/>
+      <c r="AE43" s="137"/>
+      <c r="AF43" s="137"/>
+      <c r="AG43" s="137"/>
+      <c r="AH43" s="137"/>
+      <c r="AI43" s="137"/>
+      <c r="AJ43" s="137"/>
+      <c r="AK43" s="137"/>
+      <c r="AL43" s="137"/>
+      <c r="AM43" s="137"/>
+      <c r="AN43" s="137"/>
+      <c r="AO43" s="137"/>
+      <c r="AP43" s="137"/>
+      <c r="AQ43" s="137"/>
+      <c r="AR43" s="137"/>
+      <c r="AS43" s="137"/>
+      <c r="AT43" s="137"/>
+      <c r="AU43" s="137"/>
+      <c r="AV43" s="137"/>
+      <c r="AW43" s="137"/>
+      <c r="AX43" s="137"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" s="199"/>
-      <c r="B44" s="199"/>
-      <c r="C44" s="199"/>
-      <c r="D44" s="199"/>
-      <c r="E44" s="199"/>
-      <c r="F44" s="199"/>
-      <c r="G44" s="199"/>
-      <c r="H44" s="199"/>
-      <c r="I44" s="199"/>
-      <c r="J44" s="199"/>
-      <c r="K44" s="199"/>
-      <c r="L44" s="199"/>
-      <c r="M44" s="199"/>
-      <c r="N44" s="199"/>
-      <c r="O44" s="199"/>
-      <c r="P44" s="199"/>
-      <c r="Q44" s="199"/>
-      <c r="R44" s="199"/>
-      <c r="S44" s="199"/>
-      <c r="T44" s="199"/>
-      <c r="U44" s="199"/>
-      <c r="V44" s="199"/>
-      <c r="W44" s="199"/>
-      <c r="X44" s="199"/>
-      <c r="Y44" s="199"/>
-      <c r="Z44" s="199"/>
-      <c r="AA44" s="199"/>
-      <c r="AB44" s="199"/>
-      <c r="AC44" s="199"/>
-      <c r="AD44" s="199"/>
-      <c r="AE44" s="199"/>
-      <c r="AF44" s="199"/>
-      <c r="AG44" s="199"/>
-      <c r="AH44" s="199"/>
-      <c r="AI44" s="199"/>
-      <c r="AJ44" s="199"/>
-      <c r="AK44" s="199"/>
-      <c r="AL44" s="199"/>
-      <c r="AM44" s="199"/>
-      <c r="AN44" s="199"/>
-      <c r="AO44" s="199"/>
-      <c r="AP44" s="199"/>
-      <c r="AQ44" s="199"/>
-      <c r="AR44" s="199"/>
-      <c r="AS44" s="199"/>
-      <c r="AT44" s="199"/>
-      <c r="AU44" s="199"/>
-      <c r="AV44" s="199"/>
-      <c r="AW44" s="199"/>
-      <c r="AX44" s="199"/>
+      <c r="A44" s="137"/>
+      <c r="B44" s="137"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="137"/>
+      <c r="F44" s="137"/>
+      <c r="G44" s="137"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="137"/>
+      <c r="J44" s="137"/>
+      <c r="K44" s="137"/>
+      <c r="L44" s="137"/>
+      <c r="M44" s="137"/>
+      <c r="N44" s="137"/>
+      <c r="O44" s="137"/>
+      <c r="P44" s="137"/>
+      <c r="Q44" s="137"/>
+      <c r="R44" s="137"/>
+      <c r="S44" s="137"/>
+      <c r="T44" s="137"/>
+      <c r="U44" s="137"/>
+      <c r="V44" s="137"/>
+      <c r="W44" s="137"/>
+      <c r="X44" s="137"/>
+      <c r="Y44" s="137"/>
+      <c r="Z44" s="137"/>
+      <c r="AA44" s="137"/>
+      <c r="AB44" s="137"/>
+      <c r="AC44" s="137"/>
+      <c r="AD44" s="137"/>
+      <c r="AE44" s="137"/>
+      <c r="AF44" s="137"/>
+      <c r="AG44" s="137"/>
+      <c r="AH44" s="137"/>
+      <c r="AI44" s="137"/>
+      <c r="AJ44" s="137"/>
+      <c r="AK44" s="137"/>
+      <c r="AL44" s="137"/>
+      <c r="AM44" s="137"/>
+      <c r="AN44" s="137"/>
+      <c r="AO44" s="137"/>
+      <c r="AP44" s="137"/>
+      <c r="AQ44" s="137"/>
+      <c r="AR44" s="137"/>
+      <c r="AS44" s="137"/>
+      <c r="AT44" s="137"/>
+      <c r="AU44" s="137"/>
+      <c r="AV44" s="137"/>
+      <c r="AW44" s="137"/>
+      <c r="AX44" s="137"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A45" s="199"/>
-      <c r="B45" s="199"/>
-      <c r="C45" s="199"/>
-      <c r="D45" s="199"/>
-      <c r="E45" s="199"/>
-      <c r="F45" s="199"/>
-      <c r="G45" s="199"/>
-      <c r="H45" s="199"/>
-      <c r="I45" s="199"/>
-      <c r="J45" s="199"/>
-      <c r="K45" s="199"/>
-      <c r="L45" s="199"/>
-      <c r="M45" s="199"/>
-      <c r="N45" s="199"/>
-      <c r="O45" s="199"/>
-      <c r="P45" s="199"/>
-      <c r="Q45" s="199"/>
-      <c r="R45" s="199"/>
-      <c r="S45" s="199"/>
-      <c r="T45" s="199"/>
-      <c r="U45" s="199"/>
-      <c r="V45" s="199"/>
-      <c r="W45" s="199"/>
-      <c r="X45" s="199"/>
-      <c r="Y45" s="199"/>
-      <c r="Z45" s="199"/>
-      <c r="AA45" s="199"/>
-      <c r="AB45" s="199"/>
-      <c r="AC45" s="199"/>
-      <c r="AD45" s="199"/>
-      <c r="AE45" s="199"/>
-      <c r="AF45" s="199"/>
-      <c r="AG45" s="199"/>
-      <c r="AH45" s="199"/>
-      <c r="AI45" s="199"/>
-      <c r="AJ45" s="199"/>
-      <c r="AK45" s="199"/>
-      <c r="AL45" s="199"/>
-      <c r="AM45" s="199"/>
-      <c r="AN45" s="199"/>
-      <c r="AO45" s="199"/>
-      <c r="AP45" s="199"/>
-      <c r="AQ45" s="199"/>
-      <c r="AR45" s="199"/>
-      <c r="AS45" s="199"/>
-      <c r="AT45" s="199"/>
-      <c r="AU45" s="199"/>
-      <c r="AV45" s="199"/>
-      <c r="AW45" s="199"/>
-      <c r="AX45" s="199"/>
+      <c r="A45" s="137"/>
+      <c r="B45" s="137"/>
+      <c r="C45" s="137"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="137"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="137"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="137"/>
+      <c r="J45" s="137"/>
+      <c r="K45" s="137"/>
+      <c r="L45" s="137"/>
+      <c r="M45" s="137"/>
+      <c r="N45" s="137"/>
+      <c r="O45" s="137"/>
+      <c r="P45" s="137"/>
+      <c r="Q45" s="137"/>
+      <c r="R45" s="137"/>
+      <c r="S45" s="137"/>
+      <c r="T45" s="137"/>
+      <c r="U45" s="137"/>
+      <c r="V45" s="137"/>
+      <c r="W45" s="137"/>
+      <c r="X45" s="137"/>
+      <c r="Y45" s="137"/>
+      <c r="Z45" s="137"/>
+      <c r="AA45" s="137"/>
+      <c r="AB45" s="137"/>
+      <c r="AC45" s="137"/>
+      <c r="AD45" s="137"/>
+      <c r="AE45" s="137"/>
+      <c r="AF45" s="137"/>
+      <c r="AG45" s="137"/>
+      <c r="AH45" s="137"/>
+      <c r="AI45" s="137"/>
+      <c r="AJ45" s="137"/>
+      <c r="AK45" s="137"/>
+      <c r="AL45" s="137"/>
+      <c r="AM45" s="137"/>
+      <c r="AN45" s="137"/>
+      <c r="AO45" s="137"/>
+      <c r="AP45" s="137"/>
+      <c r="AQ45" s="137"/>
+      <c r="AR45" s="137"/>
+      <c r="AS45" s="137"/>
+      <c r="AT45" s="137"/>
+      <c r="AU45" s="137"/>
+      <c r="AV45" s="137"/>
+      <c r="AW45" s="137"/>
+      <c r="AX45" s="137"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A46" s="199"/>
-      <c r="B46" s="199"/>
-      <c r="C46" s="199"/>
-      <c r="D46" s="199"/>
-      <c r="E46" s="199"/>
-      <c r="F46" s="199"/>
-      <c r="G46" s="199"/>
-      <c r="H46" s="199"/>
-      <c r="I46" s="199"/>
-      <c r="J46" s="199"/>
-      <c r="K46" s="199"/>
-      <c r="L46" s="199"/>
-      <c r="M46" s="199"/>
-      <c r="N46" s="199"/>
-      <c r="O46" s="199"/>
-      <c r="P46" s="199"/>
-      <c r="Q46" s="199"/>
-      <c r="R46" s="199"/>
-      <c r="S46" s="199"/>
-      <c r="T46" s="199"/>
-      <c r="U46" s="199"/>
-      <c r="V46" s="199"/>
-      <c r="W46" s="199"/>
-      <c r="X46" s="199"/>
-      <c r="Y46" s="199"/>
-      <c r="Z46" s="199"/>
-      <c r="AA46" s="199"/>
-      <c r="AB46" s="199"/>
-      <c r="AC46" s="199"/>
-      <c r="AD46" s="199"/>
-      <c r="AE46" s="199"/>
-      <c r="AF46" s="199"/>
-      <c r="AG46" s="199"/>
-      <c r="AH46" s="199"/>
-      <c r="AI46" s="199"/>
-      <c r="AJ46" s="199"/>
-      <c r="AK46" s="199"/>
-      <c r="AL46" s="199"/>
-      <c r="AM46" s="199"/>
-      <c r="AN46" s="199"/>
-      <c r="AO46" s="199"/>
-      <c r="AP46" s="199"/>
-      <c r="AQ46" s="199"/>
-      <c r="AR46" s="199"/>
-      <c r="AS46" s="199"/>
-      <c r="AT46" s="199"/>
-      <c r="AU46" s="199"/>
-      <c r="AV46" s="199"/>
-      <c r="AW46" s="199"/>
-      <c r="AX46" s="199"/>
+      <c r="A46" s="137"/>
+      <c r="B46" s="137"/>
+      <c r="C46" s="137"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="137"/>
+      <c r="F46" s="137"/>
+      <c r="G46" s="137"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="137"/>
+      <c r="J46" s="137"/>
+      <c r="K46" s="137"/>
+      <c r="L46" s="137"/>
+      <c r="M46" s="137"/>
+      <c r="N46" s="137"/>
+      <c r="O46" s="137"/>
+      <c r="P46" s="137"/>
+      <c r="Q46" s="137"/>
+      <c r="R46" s="137"/>
+      <c r="S46" s="137"/>
+      <c r="T46" s="137"/>
+      <c r="U46" s="137"/>
+      <c r="V46" s="137"/>
+      <c r="W46" s="137"/>
+      <c r="X46" s="137"/>
+      <c r="Y46" s="137"/>
+      <c r="Z46" s="137"/>
+      <c r="AA46" s="137"/>
+      <c r="AB46" s="137"/>
+      <c r="AC46" s="137"/>
+      <c r="AD46" s="137"/>
+      <c r="AE46" s="137"/>
+      <c r="AF46" s="137"/>
+      <c r="AG46" s="137"/>
+      <c r="AH46" s="137"/>
+      <c r="AI46" s="137"/>
+      <c r="AJ46" s="137"/>
+      <c r="AK46" s="137"/>
+      <c r="AL46" s="137"/>
+      <c r="AM46" s="137"/>
+      <c r="AN46" s="137"/>
+      <c r="AO46" s="137"/>
+      <c r="AP46" s="137"/>
+      <c r="AQ46" s="137"/>
+      <c r="AR46" s="137"/>
+      <c r="AS46" s="137"/>
+      <c r="AT46" s="137"/>
+      <c r="AU46" s="137"/>
+      <c r="AV46" s="137"/>
+      <c r="AW46" s="137"/>
+      <c r="AX46" s="137"/>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A47" s="199"/>
-      <c r="B47" s="199"/>
-      <c r="C47" s="199"/>
-      <c r="D47" s="199"/>
-      <c r="E47" s="199"/>
-      <c r="F47" s="199"/>
-      <c r="G47" s="199"/>
-      <c r="H47" s="199"/>
-      <c r="I47" s="199"/>
-      <c r="J47" s="199"/>
-      <c r="K47" s="199"/>
-      <c r="L47" s="199"/>
-      <c r="M47" s="199"/>
-      <c r="N47" s="199"/>
-      <c r="O47" s="199"/>
-      <c r="P47" s="199"/>
-      <c r="Q47" s="199"/>
-      <c r="R47" s="199"/>
-      <c r="S47" s="199"/>
-      <c r="T47" s="199"/>
-      <c r="U47" s="199"/>
-      <c r="V47" s="199"/>
-      <c r="W47" s="199"/>
-      <c r="X47" s="199"/>
-      <c r="Y47" s="199"/>
-      <c r="Z47" s="199"/>
-      <c r="AA47" s="199"/>
-      <c r="AB47" s="199"/>
-      <c r="AC47" s="199"/>
-      <c r="AD47" s="199"/>
-      <c r="AE47" s="199"/>
-      <c r="AF47" s="199"/>
-      <c r="AG47" s="199"/>
-      <c r="AH47" s="199"/>
-      <c r="AI47" s="199"/>
-      <c r="AJ47" s="199"/>
-      <c r="AK47" s="199"/>
-      <c r="AL47" s="199"/>
-      <c r="AM47" s="199"/>
-      <c r="AN47" s="199"/>
-      <c r="AO47" s="199"/>
-      <c r="AP47" s="199"/>
-      <c r="AQ47" s="199"/>
-      <c r="AR47" s="199"/>
-      <c r="AS47" s="199"/>
-      <c r="AT47" s="199"/>
-      <c r="AU47" s="199"/>
-      <c r="AV47" s="199"/>
-      <c r="AW47" s="199"/>
-      <c r="AX47" s="199"/>
+      <c r="A47" s="137"/>
+      <c r="B47" s="137"/>
+      <c r="C47" s="137"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="137"/>
+      <c r="J47" s="137"/>
+      <c r="K47" s="137"/>
+      <c r="L47" s="137"/>
+      <c r="M47" s="137"/>
+      <c r="N47" s="137"/>
+      <c r="O47" s="137"/>
+      <c r="P47" s="137"/>
+      <c r="Q47" s="137"/>
+      <c r="R47" s="137"/>
+      <c r="S47" s="137"/>
+      <c r="T47" s="137"/>
+      <c r="U47" s="137"/>
+      <c r="V47" s="137"/>
+      <c r="W47" s="137"/>
+      <c r="X47" s="137"/>
+      <c r="Y47" s="137"/>
+      <c r="Z47" s="137"/>
+      <c r="AA47" s="137"/>
+      <c r="AB47" s="137"/>
+      <c r="AC47" s="137"/>
+      <c r="AD47" s="137"/>
+      <c r="AE47" s="137"/>
+      <c r="AF47" s="137"/>
+      <c r="AG47" s="137"/>
+      <c r="AH47" s="137"/>
+      <c r="AI47" s="137"/>
+      <c r="AJ47" s="137"/>
+      <c r="AK47" s="137"/>
+      <c r="AL47" s="137"/>
+      <c r="AM47" s="137"/>
+      <c r="AN47" s="137"/>
+      <c r="AO47" s="137"/>
+      <c r="AP47" s="137"/>
+      <c r="AQ47" s="137"/>
+      <c r="AR47" s="137"/>
+      <c r="AS47" s="137"/>
+      <c r="AT47" s="137"/>
+      <c r="AU47" s="137"/>
+      <c r="AV47" s="137"/>
+      <c r="AW47" s="137"/>
+      <c r="AX47" s="137"/>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A48" s="199"/>
-      <c r="B48" s="199"/>
-      <c r="C48" s="199"/>
-      <c r="D48" s="199"/>
-      <c r="E48" s="199"/>
-      <c r="F48" s="199"/>
-      <c r="G48" s="199"/>
-      <c r="H48" s="199"/>
-      <c r="I48" s="199"/>
-      <c r="J48" s="199"/>
-      <c r="K48" s="199"/>
-      <c r="L48" s="199"/>
-      <c r="M48" s="199"/>
-      <c r="N48" s="199"/>
-      <c r="O48" s="199"/>
-      <c r="P48" s="199"/>
-      <c r="Q48" s="199"/>
-      <c r="R48" s="199"/>
-      <c r="S48" s="199"/>
-      <c r="T48" s="199"/>
-      <c r="U48" s="199"/>
-      <c r="V48" s="199"/>
-      <c r="W48" s="199"/>
-      <c r="X48" s="199"/>
-      <c r="Y48" s="199"/>
-      <c r="Z48" s="199"/>
-      <c r="AA48" s="199"/>
-      <c r="AB48" s="199"/>
-      <c r="AC48" s="199"/>
-      <c r="AD48" s="199"/>
-      <c r="AE48" s="199"/>
-      <c r="AF48" s="199"/>
-      <c r="AG48" s="199"/>
-      <c r="AH48" s="199"/>
-      <c r="AI48" s="199"/>
-      <c r="AJ48" s="199"/>
-      <c r="AK48" s="199"/>
-      <c r="AL48" s="199"/>
-      <c r="AM48" s="199"/>
-      <c r="AN48" s="199"/>
-      <c r="AO48" s="199"/>
-      <c r="AP48" s="199"/>
-      <c r="AQ48" s="199"/>
-      <c r="AR48" s="199"/>
-      <c r="AS48" s="199"/>
-      <c r="AT48" s="199"/>
-      <c r="AU48" s="199"/>
-      <c r="AV48" s="199"/>
-      <c r="AW48" s="199"/>
-      <c r="AX48" s="199"/>
+      <c r="A48" s="137"/>
+      <c r="B48" s="137"/>
+      <c r="C48" s="137"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="137"/>
+      <c r="F48" s="137"/>
+      <c r="G48" s="137"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="137"/>
+      <c r="J48" s="137"/>
+      <c r="K48" s="137"/>
+      <c r="L48" s="137"/>
+      <c r="M48" s="137"/>
+      <c r="N48" s="137"/>
+      <c r="O48" s="137"/>
+      <c r="P48" s="137"/>
+      <c r="Q48" s="137"/>
+      <c r="R48" s="137"/>
+      <c r="S48" s="137"/>
+      <c r="T48" s="137"/>
+      <c r="U48" s="137"/>
+      <c r="V48" s="137"/>
+      <c r="W48" s="137"/>
+      <c r="X48" s="137"/>
+      <c r="Y48" s="137"/>
+      <c r="Z48" s="137"/>
+      <c r="AA48" s="137"/>
+      <c r="AB48" s="137"/>
+      <c r="AC48" s="137"/>
+      <c r="AD48" s="137"/>
+      <c r="AE48" s="137"/>
+      <c r="AF48" s="137"/>
+      <c r="AG48" s="137"/>
+      <c r="AH48" s="137"/>
+      <c r="AI48" s="137"/>
+      <c r="AJ48" s="137"/>
+      <c r="AK48" s="137"/>
+      <c r="AL48" s="137"/>
+      <c r="AM48" s="137"/>
+      <c r="AN48" s="137"/>
+      <c r="AO48" s="137"/>
+      <c r="AP48" s="137"/>
+      <c r="AQ48" s="137"/>
+      <c r="AR48" s="137"/>
+      <c r="AS48" s="137"/>
+      <c r="AT48" s="137"/>
+      <c r="AU48" s="137"/>
+      <c r="AV48" s="137"/>
+      <c r="AW48" s="137"/>
+      <c r="AX48" s="137"/>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A49" s="199"/>
-      <c r="B49" s="199"/>
-      <c r="C49" s="199"/>
-      <c r="D49" s="199"/>
-      <c r="E49" s="199"/>
-      <c r="F49" s="199"/>
-      <c r="G49" s="199"/>
-      <c r="H49" s="199"/>
-      <c r="I49" s="199"/>
-      <c r="J49" s="199"/>
-      <c r="K49" s="199"/>
-      <c r="L49" s="199"/>
-      <c r="M49" s="199"/>
-      <c r="N49" s="199"/>
-      <c r="O49" s="199"/>
-      <c r="P49" s="199"/>
-      <c r="Q49" s="199"/>
-      <c r="R49" s="199"/>
-      <c r="S49" s="199"/>
-      <c r="T49" s="199"/>
-      <c r="U49" s="199"/>
-      <c r="V49" s="199"/>
-      <c r="W49" s="199"/>
-      <c r="X49" s="199"/>
-      <c r="Y49" s="199"/>
-      <c r="Z49" s="199"/>
-      <c r="AA49" s="199"/>
-      <c r="AB49" s="199"/>
-      <c r="AC49" s="199"/>
-      <c r="AD49" s="199"/>
-      <c r="AE49" s="199"/>
-      <c r="AF49" s="199"/>
-      <c r="AG49" s="199"/>
-      <c r="AH49" s="199"/>
-      <c r="AI49" s="199"/>
-      <c r="AJ49" s="199"/>
-      <c r="AK49" s="199"/>
-      <c r="AL49" s="199"/>
-      <c r="AM49" s="199"/>
-      <c r="AN49" s="199"/>
-      <c r="AO49" s="199"/>
-      <c r="AP49" s="199"/>
-      <c r="AQ49" s="199"/>
-      <c r="AR49" s="199"/>
-      <c r="AS49" s="199"/>
-      <c r="AT49" s="199"/>
-      <c r="AU49" s="199"/>
-      <c r="AV49" s="199"/>
-      <c r="AW49" s="199"/>
-      <c r="AX49" s="199"/>
+      <c r="A49" s="137"/>
+      <c r="B49" s="137"/>
+      <c r="C49" s="137"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="137"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="137"/>
+      <c r="J49" s="137"/>
+      <c r="K49" s="137"/>
+      <c r="L49" s="137"/>
+      <c r="M49" s="137"/>
+      <c r="N49" s="137"/>
+      <c r="O49" s="137"/>
+      <c r="P49" s="137"/>
+      <c r="Q49" s="137"/>
+      <c r="R49" s="137"/>
+      <c r="S49" s="137"/>
+      <c r="T49" s="137"/>
+      <c r="U49" s="137"/>
+      <c r="V49" s="137"/>
+      <c r="W49" s="137"/>
+      <c r="X49" s="137"/>
+      <c r="Y49" s="137"/>
+      <c r="Z49" s="137"/>
+      <c r="AA49" s="137"/>
+      <c r="AB49" s="137"/>
+      <c r="AC49" s="137"/>
+      <c r="AD49" s="137"/>
+      <c r="AE49" s="137"/>
+      <c r="AF49" s="137"/>
+      <c r="AG49" s="137"/>
+      <c r="AH49" s="137"/>
+      <c r="AI49" s="137"/>
+      <c r="AJ49" s="137"/>
+      <c r="AK49" s="137"/>
+      <c r="AL49" s="137"/>
+      <c r="AM49" s="137"/>
+      <c r="AN49" s="137"/>
+      <c r="AO49" s="137"/>
+      <c r="AP49" s="137"/>
+      <c r="AQ49" s="137"/>
+      <c r="AR49" s="137"/>
+      <c r="AS49" s="137"/>
+      <c r="AT49" s="137"/>
+      <c r="AU49" s="137"/>
+      <c r="AV49" s="137"/>
+      <c r="AW49" s="137"/>
+      <c r="AX49" s="137"/>
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A50" s="199"/>
-      <c r="B50" s="199"/>
-      <c r="C50" s="199"/>
-      <c r="D50" s="199"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="199"/>
-      <c r="G50" s="199"/>
-      <c r="H50" s="199"/>
-      <c r="I50" s="199"/>
-      <c r="J50" s="199"/>
-      <c r="K50" s="199"/>
-      <c r="L50" s="199"/>
-      <c r="M50" s="199"/>
-      <c r="N50" s="199"/>
-      <c r="O50" s="199"/>
-      <c r="P50" s="199"/>
-      <c r="Q50" s="199"/>
-      <c r="R50" s="199"/>
-      <c r="S50" s="199"/>
-      <c r="T50" s="199"/>
-      <c r="U50" s="199"/>
-      <c r="V50" s="199"/>
-      <c r="W50" s="199"/>
-      <c r="X50" s="199"/>
-      <c r="Y50" s="199"/>
-      <c r="Z50" s="199"/>
-      <c r="AA50" s="199"/>
-      <c r="AB50" s="199"/>
-      <c r="AC50" s="199"/>
-      <c r="AD50" s="199"/>
-      <c r="AE50" s="199"/>
-      <c r="AF50" s="199"/>
-      <c r="AG50" s="199"/>
-      <c r="AH50" s="199"/>
-      <c r="AI50" s="199"/>
-      <c r="AJ50" s="199"/>
-      <c r="AK50" s="199"/>
-      <c r="AL50" s="199"/>
-      <c r="AM50" s="199"/>
-      <c r="AN50" s="199"/>
-      <c r="AO50" s="199"/>
-      <c r="AP50" s="199"/>
-      <c r="AQ50" s="199"/>
-      <c r="AR50" s="199"/>
-      <c r="AS50" s="199"/>
-      <c r="AT50" s="199"/>
-      <c r="AU50" s="199"/>
-      <c r="AV50" s="199"/>
-      <c r="AW50" s="199"/>
-      <c r="AX50" s="199"/>
+      <c r="A50" s="137"/>
+      <c r="B50" s="137"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
+      <c r="J50" s="137"/>
+      <c r="K50" s="137"/>
+      <c r="L50" s="137"/>
+      <c r="M50" s="137"/>
+      <c r="N50" s="137"/>
+      <c r="O50" s="137"/>
+      <c r="P50" s="137"/>
+      <c r="Q50" s="137"/>
+      <c r="R50" s="137"/>
+      <c r="S50" s="137"/>
+      <c r="T50" s="137"/>
+      <c r="U50" s="137"/>
+      <c r="V50" s="137"/>
+      <c r="W50" s="137"/>
+      <c r="X50" s="137"/>
+      <c r="Y50" s="137"/>
+      <c r="Z50" s="137"/>
+      <c r="AA50" s="137"/>
+      <c r="AB50" s="137"/>
+      <c r="AC50" s="137"/>
+      <c r="AD50" s="137"/>
+      <c r="AE50" s="137"/>
+      <c r="AF50" s="137"/>
+      <c r="AG50" s="137"/>
+      <c r="AH50" s="137"/>
+      <c r="AI50" s="137"/>
+      <c r="AJ50" s="137"/>
+      <c r="AK50" s="137"/>
+      <c r="AL50" s="137"/>
+      <c r="AM50" s="137"/>
+      <c r="AN50" s="137"/>
+      <c r="AO50" s="137"/>
+      <c r="AP50" s="137"/>
+      <c r="AQ50" s="137"/>
+      <c r="AR50" s="137"/>
+      <c r="AS50" s="137"/>
+      <c r="AT50" s="137"/>
+      <c r="AU50" s="137"/>
+      <c r="AV50" s="137"/>
+      <c r="AW50" s="137"/>
+      <c r="AX50" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -6698,9 +6805,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6723,24 +6828,24 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="149"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="204"/>
     </row>
     <row r="3" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="205" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -6770,7 +6875,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="151"/>
+      <c r="B4" s="206"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -6784,7 +6889,7 @@
       <c r="A5" s="17">
         <v>5</v>
       </c>
-      <c r="B5" s="152" t="s">
+      <c r="B5" s="207" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -6793,20 +6898,20 @@
       <c r="D5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="154"/>
-      <c r="F5" s="143">
+      <c r="E5" s="209"/>
+      <c r="F5" s="198">
         <v>1</v>
       </c>
-      <c r="G5" s="152" t="s">
+      <c r="G5" s="207" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="152">
+      <c r="H5" s="207">
         <v>128</v>
       </c>
-      <c r="I5" s="152" t="s">
+      <c r="I5" s="207" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="152">
+      <c r="J5" s="207">
         <v>128</v>
       </c>
     </row>
@@ -6814,55 +6919,55 @@
       <c r="A6" s="17">
         <v>70</v>
       </c>
-      <c r="B6" s="153"/>
+      <c r="B6" s="208"/>
       <c r="C6" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="155"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
+      <c r="E6" s="210"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="208"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>20</v>
       </c>
-      <c r="B7" s="153"/>
+      <c r="B7" s="208"/>
       <c r="C7" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="155"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
+      <c r="E7" s="210"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>20</v>
       </c>
-      <c r="B8" s="153"/>
+      <c r="B8" s="208"/>
       <c r="C8" s="18" t="s">
         <v>90</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="156"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="157"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="212"/>
+      <c r="H8" s="212"/>
+      <c r="I8" s="212"/>
+      <c r="J8" s="212"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
@@ -6877,78 +6982,78 @@
       <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="144">
+      <c r="A10" s="199">
         <v>128</v>
       </c>
-      <c r="B10" s="143" t="s">
+      <c r="B10" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="145" t="s">
+      <c r="C10" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="147" t="s">
+      <c r="D10" s="202" t="s">
         <v>93</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="143">
+      <c r="F10" s="198">
         <v>1</v>
       </c>
-      <c r="G10" s="143" t="s">
+      <c r="G10" s="198" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="143">
+      <c r="H10" s="198">
         <v>128</v>
       </c>
-      <c r="I10" s="143" t="s">
+      <c r="I10" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="143">
+      <c r="J10" s="198">
         <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="144"/>
-      <c r="B11" s="143"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="147"/>
+      <c r="A11" s="199"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="202"/>
       <c r="E11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="198"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="198"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="144"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="147"/>
+      <c r="A12" s="199"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="202"/>
       <c r="E12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
+      <c r="F12" s="198"/>
+      <c r="G12" s="198"/>
+      <c r="H12" s="198"/>
+      <c r="I12" s="198"/>
+      <c r="J12" s="198"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="144"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="147"/>
+      <c r="A13" s="199"/>
+      <c r="B13" s="198"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="202"/>
       <c r="E13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="143"/>
+      <c r="F13" s="198"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="198"/>
+      <c r="I13" s="198"/>
+      <c r="J13" s="198"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
@@ -7054,11 +7159,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB18759-5163-44F8-BBC4-77EBDA1B6551}">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7084,53 +7187,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="203" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
+      <c r="A1" s="138" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
     </row>
     <row r="2" spans="1:23" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="222" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="206"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="223"/>
+      <c r="N2" s="224"/>
     </row>
     <row r="3" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="225" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="210"/>
-      <c r="P3" s="210"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="226"/>
+      <c r="I3" s="226"/>
+      <c r="J3" s="226"/>
+      <c r="K3" s="226"/>
+      <c r="L3" s="226"/>
+      <c r="M3" s="226"/>
+      <c r="N3" s="227"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="139"/>
     </row>
     <row r="4" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="211"/>
-      <c r="B4" s="212" t="s">
+      <c r="A4" s="140"/>
+      <c r="B4" s="141" t="s">
         <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -7142,32 +7245,32 @@
       <c r="E4" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="213" t="s">
+      <c r="F4" s="142" t="s">
         <v>185</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="212" t="s">
+      <c r="H4" s="141" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="212" t="s">
+      <c r="I4" s="141" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="215" t="s">
+      <c r="K4" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="216" t="s">
+      <c r="L4" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="217"/>
-      <c r="P4" s="217"/>
-      <c r="Q4" s="217"/>
-      <c r="R4" s="217"/>
-      <c r="S4" s="217"/>
+      <c r="O4" s="146"/>
+      <c r="P4" s="146"/>
+      <c r="Q4" s="146"/>
+      <c r="R4" s="146"/>
+      <c r="S4" s="146"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
@@ -7179,23 +7282,23 @@
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
       <c r="I5" s="39"/>
-      <c r="J5" s="218"/>
-      <c r="K5" s="218"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
       <c r="L5" s="39"/>
-      <c r="M5" s="219"/>
-      <c r="P5" s="220"/>
-      <c r="Q5" s="221"/>
-      <c r="R5" s="221"/>
-      <c r="S5" s="221"/>
-      <c r="T5" s="221"/>
-      <c r="U5" s="221"/>
+      <c r="M5" s="148"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="150"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="150"/>
+      <c r="T5" s="150"/>
+      <c r="U5" s="150"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
-      <c r="B6" s="222">
+      <c r="B6" s="151">
         <v>5</v>
       </c>
-      <c r="C6" s="223" t="s">
+      <c r="C6" s="228" t="s">
         <v>106</v>
       </c>
       <c r="D6" s="18" t="s">
@@ -7204,152 +7307,152 @@
       <c r="E6" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="F6" s="224" t="s">
+      <c r="F6" s="229" t="s">
         <v>187</v>
       </c>
-      <c r="G6" s="146">
+      <c r="G6" s="201">
         <v>1</v>
       </c>
-      <c r="H6" s="146" t="s">
+      <c r="H6" s="201" t="s">
         <v>188</v>
       </c>
-      <c r="I6" s="146" t="s">
+      <c r="I6" s="201" t="s">
         <v>189</v>
       </c>
-      <c r="J6" s="225">
+      <c r="J6" s="230">
         <v>32</v>
       </c>
-      <c r="K6" s="225" t="s">
+      <c r="K6" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="146">
+      <c r="L6" s="201">
         <f>G6*J6</f>
         <v>32</v>
       </c>
       <c r="O6" s="32"/>
-      <c r="R6" s="221"/>
+      <c r="R6" s="150"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="226">
+      <c r="B7" s="152">
         <v>10</v>
       </c>
-      <c r="C7" s="223"/>
+      <c r="C7" s="228"/>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="224"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="225"/>
-      <c r="K7" s="225"/>
-      <c r="L7" s="146"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="201"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="230"/>
+      <c r="K7" s="230"/>
+      <c r="L7" s="201"/>
       <c r="O7" s="32"/>
-      <c r="R7" s="221"/>
+      <c r="R7" s="150"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
-      <c r="B8" s="226">
+      <c r="B8" s="152">
         <v>10</v>
       </c>
-      <c r="C8" s="223"/>
+      <c r="C8" s="228"/>
       <c r="D8" s="18" t="s">
         <v>89</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="224"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="225"/>
-      <c r="K8" s="225"/>
-      <c r="L8" s="146"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="201"/>
+      <c r="H8" s="201"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="230"/>
+      <c r="K8" s="230"/>
+      <c r="L8" s="201"/>
       <c r="O8" s="32"/>
-      <c r="R8" s="221"/>
+      <c r="R8" s="150"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="227" t="s">
+      <c r="A9" s="153" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="228">
+      <c r="B9" s="154">
         <f>SUM(B6:B8)</f>
         <v>25</v>
       </c>
-      <c r="C9" s="229"/>
-      <c r="D9" s="230"/>
-      <c r="E9" s="230"/>
-      <c r="F9" s="230"/>
-      <c r="G9" s="231"/>
-      <c r="H9" s="231"/>
-      <c r="I9" s="231"/>
-      <c r="J9" s="231"/>
-      <c r="K9" s="231"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
-      <c r="S9" s="232"/>
-      <c r="T9" s="221"/>
+      <c r="S9" s="158"/>
+      <c r="T9" s="150"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="233"/>
-      <c r="B10" s="234"/>
-      <c r="C10" s="235"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="236"/>
-      <c r="G10" s="237"/>
-      <c r="H10" s="237"/>
-      <c r="I10" s="237"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
-      <c r="S10" s="232"/>
-      <c r="T10" s="221"/>
+      <c r="A10" s="159"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="S10" s="158"/>
+      <c r="T10" s="150"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="239"/>
-      <c r="C11" s="240"/>
+      <c r="A11" s="165"/>
+      <c r="C11" s="166"/>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
-      <c r="K11" s="241"/>
-      <c r="L11" s="242"/>
-      <c r="M11" s="242"/>
-      <c r="O11" s="219"/>
-      <c r="R11" s="220"/>
-      <c r="S11" s="221"/>
-      <c r="T11" s="221"/>
-      <c r="U11" s="221"/>
-      <c r="V11" s="221"/>
-      <c r="W11" s="221"/>
+      <c r="K11" s="167"/>
+      <c r="L11" s="168"/>
+      <c r="M11" s="168"/>
+      <c r="O11" s="148"/>
+      <c r="R11" s="149"/>
+      <c r="S11" s="150"/>
+      <c r="T11" s="150"/>
+      <c r="U11" s="150"/>
+      <c r="V11" s="150"/>
+      <c r="W11" s="150"/>
     </row>
     <row r="12" spans="1:23" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="244"/>
-      <c r="B12" s="245"/>
-      <c r="C12" s="246"/>
-      <c r="D12" s="236"/>
-      <c r="E12" s="236"/>
-      <c r="F12" s="236"/>
-      <c r="G12" s="237"/>
-      <c r="H12" s="237"/>
-      <c r="I12" s="237"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="Q12" s="217"/>
-      <c r="R12" s="217"/>
-      <c r="S12" s="217"/>
-      <c r="T12" s="221"/>
-      <c r="U12" s="217"/>
+      <c r="A12" s="170"/>
+      <c r="B12" s="171"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="Q12" s="146"/>
+      <c r="R12" s="146"/>
+      <c r="S12" s="146"/>
+      <c r="T12" s="150"/>
+      <c r="U12" s="146"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="236"/>
-      <c r="B13" s="236"/>
-      <c r="C13" s="247"/>
+      <c r="A13" s="162"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="173"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="48"/>
@@ -7358,76 +7461,76 @@
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
-      <c r="L13" s="210"/>
-      <c r="M13" s="210"/>
-      <c r="P13" s="248"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="139"/>
+      <c r="P13" s="174"/>
       <c r="Q13" s="32"/>
-      <c r="R13" s="248"/>
+      <c r="R13" s="174"/>
       <c r="S13" s="32"/>
       <c r="T13" s="32"/>
       <c r="U13" s="32"/>
       <c r="V13" s="32"/>
     </row>
     <row r="14" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="249" t="s">
+      <c r="A14" s="231" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="250"/>
-      <c r="C14" s="250"/>
-      <c r="D14" s="250"/>
-      <c r="E14" s="250"/>
-      <c r="F14" s="250"/>
-      <c r="G14" s="250"/>
-      <c r="H14" s="250"/>
-      <c r="I14" s="250"/>
-      <c r="J14" s="250"/>
-      <c r="K14" s="250"/>
-      <c r="L14" s="250"/>
-      <c r="M14" s="250"/>
-      <c r="N14" s="251"/>
-      <c r="O14" s="210"/>
-      <c r="P14" s="210"/>
+      <c r="B14" s="232"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="232"/>
+      <c r="E14" s="232"/>
+      <c r="F14" s="232"/>
+      <c r="G14" s="232"/>
+      <c r="H14" s="232"/>
+      <c r="I14" s="232"/>
+      <c r="J14" s="232"/>
+      <c r="K14" s="232"/>
+      <c r="L14" s="232"/>
+      <c r="M14" s="232"/>
+      <c r="N14" s="233"/>
+      <c r="O14" s="139"/>
+      <c r="P14" s="139"/>
     </row>
     <row r="15" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="252"/>
-      <c r="B15" s="253" t="s">
+      <c r="A15" s="175"/>
+      <c r="B15" s="176" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="253" t="s">
+      <c r="C15" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="252" t="s">
+      <c r="D15" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="252" t="s">
+      <c r="E15" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="254" t="s">
+      <c r="F15" s="177" t="s">
         <v>185</v>
       </c>
-      <c r="G15" s="252" t="s">
+      <c r="G15" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="253" t="s">
+      <c r="H15" s="176" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="253" t="s">
+      <c r="I15" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="253" t="s">
+      <c r="J15" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="253" t="s">
+      <c r="K15" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="255" t="s">
+      <c r="L15" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="217"/>
-      <c r="P15" s="217"/>
-      <c r="Q15" s="217"/>
-      <c r="R15" s="217"/>
-      <c r="S15" s="217"/>
+      <c r="O15" s="146"/>
+      <c r="P15" s="146"/>
+      <c r="Q15" s="146"/>
+      <c r="R15" s="146"/>
+      <c r="S15" s="146"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
@@ -7439,23 +7542,23 @@
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
-      <c r="J16" s="218"/>
-      <c r="K16" s="218"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
       <c r="L16" s="39"/>
-      <c r="M16" s="219"/>
-      <c r="P16" s="220"/>
-      <c r="Q16" s="221"/>
-      <c r="R16" s="221"/>
-      <c r="S16" s="221"/>
-      <c r="T16" s="221"/>
-      <c r="U16" s="221"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M16" s="148"/>
+      <c r="P16" s="149"/>
+      <c r="Q16" s="150"/>
+      <c r="R16" s="150"/>
+      <c r="S16" s="150"/>
+      <c r="T16" s="150"/>
+      <c r="U16" s="150"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
-      <c r="B17" s="222">
+      <c r="B17" s="151">
         <v>5</v>
       </c>
-      <c r="C17" s="223" t="s">
+      <c r="C17" s="228" t="s">
         <v>106</v>
       </c>
       <c r="D17" s="18" t="s">
@@ -7464,110 +7567,457 @@
       <c r="E17" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="F17" s="224" t="s">
+      <c r="F17" s="229" t="s">
         <v>187</v>
       </c>
-      <c r="G17" s="146">
+      <c r="G17" s="201">
         <v>1</v>
       </c>
-      <c r="H17" s="146" t="s">
+      <c r="H17" s="201" t="s">
         <v>188</v>
       </c>
-      <c r="I17" s="146" t="s">
+      <c r="I17" s="201" t="s">
         <v>189</v>
       </c>
-      <c r="J17" s="225">
+      <c r="J17" s="230">
         <v>32</v>
       </c>
-      <c r="K17" s="225" t="s">
+      <c r="K17" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="146">
+      <c r="L17" s="201">
         <f>G17*J17</f>
         <v>32</v>
       </c>
       <c r="O17" s="32"/>
-      <c r="R17" s="221"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R17" s="150"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
-      <c r="B18" s="226">
+      <c r="B18" s="152">
         <v>10</v>
       </c>
-      <c r="C18" s="223"/>
+      <c r="C18" s="228"/>
       <c r="D18" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="224"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="225"/>
-      <c r="K18" s="225"/>
-      <c r="L18" s="146"/>
+      <c r="F18" s="229"/>
+      <c r="G18" s="201"/>
+      <c r="H18" s="201"/>
+      <c r="I18" s="201"/>
+      <c r="J18" s="230"/>
+      <c r="K18" s="230"/>
+      <c r="L18" s="201"/>
       <c r="O18" s="32"/>
-      <c r="R18" s="221"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R18" s="150"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="226">
+      <c r="B19" s="152">
         <v>10</v>
       </c>
-      <c r="C19" s="223"/>
+      <c r="C19" s="228"/>
       <c r="D19" s="18" t="s">
         <v>89</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="224"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="225"/>
-      <c r="K19" s="225"/>
-      <c r="L19" s="146"/>
+      <c r="F19" s="229"/>
+      <c r="G19" s="201"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="201"/>
+      <c r="J19" s="230"/>
+      <c r="K19" s="230"/>
+      <c r="L19" s="201"/>
       <c r="O19" s="32"/>
-      <c r="R19" s="221"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="227" t="s">
+      <c r="R19" s="150"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="153" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="228">
+      <c r="B20" s="154">
         <f>SUM(B17:B19)</f>
         <v>25</v>
       </c>
-      <c r="C20" s="229"/>
-      <c r="D20" s="230"/>
-      <c r="E20" s="230"/>
-      <c r="F20" s="230"/>
-      <c r="G20" s="231"/>
-      <c r="H20" s="231"/>
-      <c r="I20" s="231"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="157"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
-      <c r="Q20" s="232"/>
-      <c r="R20" s="221"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="239"/>
-      <c r="C21" s="240"/>
+      <c r="Q20" s="158"/>
+      <c r="R20" s="150"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="165"/>
+      <c r="C21" s="166"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
-      <c r="K21" s="241"/>
-      <c r="L21" s="242"/>
-      <c r="M21" s="242"/>
-      <c r="R21" s="232"/>
-      <c r="S21" s="221"/>
+      <c r="K21" s="167"/>
+      <c r="L21" s="168"/>
+      <c r="M21" s="168"/>
+      <c r="R21" s="158"/>
+      <c r="S21" s="150"/>
+    </row>
+    <row r="24" spans="1:22" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="219" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="220"/>
+      <c r="C24" s="220"/>
+      <c r="D24" s="220"/>
+      <c r="E24" s="220"/>
+      <c r="F24" s="220"/>
+      <c r="G24" s="220"/>
+      <c r="H24" s="220"/>
+      <c r="I24" s="220"/>
+      <c r="J24" s="220"/>
+      <c r="K24" s="220"/>
+      <c r="L24" s="220"/>
+      <c r="M24" s="220"/>
+      <c r="N24" s="221"/>
+      <c r="Q24" s="146"/>
+      <c r="R24" s="146"/>
+      <c r="S24" s="146"/>
+      <c r="T24" s="150"/>
+      <c r="U24" s="146"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="213" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" s="214"/>
+      <c r="C25" s="214"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="163"/>
+      <c r="K25" s="163"/>
+      <c r="P25" s="174"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="174"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="136" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="188" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="188" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" s="188" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="188" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="188" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="215" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" s="200" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="188" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="200" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27" s="215"/>
+      <c r="F27" s="215"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="212"/>
+      <c r="B28" s="200"/>
+      <c r="C28" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="200"/>
+      <c r="E28" s="212"/>
+      <c r="F28" s="212"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="212"/>
+      <c r="B29" s="200"/>
+      <c r="C29" s="188" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="200"/>
+      <c r="E29" s="212"/>
+      <c r="F29" s="212"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="212"/>
+      <c r="B30" s="200"/>
+      <c r="C30" s="188" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" s="200"/>
+      <c r="E30" s="212"/>
+      <c r="F30" s="212"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="212"/>
+      <c r="B31" s="200"/>
+      <c r="C31" s="188" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" s="200"/>
+      <c r="E31" s="212"/>
+      <c r="F31" s="212"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="212"/>
+      <c r="B32" s="200" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="217" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="200" t="s">
+        <v>201</v>
+      </c>
+      <c r="E32" s="212"/>
+      <c r="F32" s="212"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="216"/>
+      <c r="B33" s="200"/>
+      <c r="C33" s="218"/>
+      <c r="D33" s="200"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="216"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="189"/>
+      <c r="B34" s="190"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="189"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="189"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="213" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="214"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="214"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="214"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="136" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" s="188" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" s="188" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" s="188" t="s">
+        <v>197</v>
+      </c>
+      <c r="E36" s="188" t="s">
+        <v>198</v>
+      </c>
+      <c r="F36" s="188" t="s">
+        <v>199</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="215" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" s="200" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="188" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" s="200" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" s="215"/>
+      <c r="F37" s="215"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="212"/>
+      <c r="B38" s="200"/>
+      <c r="C38" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="200"/>
+      <c r="E38" s="212"/>
+      <c r="F38" s="212"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="212"/>
+      <c r="B39" s="200"/>
+      <c r="C39" s="188" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="200"/>
+      <c r="E39" s="212"/>
+      <c r="F39" s="212"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="212"/>
+      <c r="B40" s="200"/>
+      <c r="C40" s="188"/>
+      <c r="D40" s="200"/>
+      <c r="E40" s="212"/>
+      <c r="F40" s="212"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="212"/>
+      <c r="B41" s="200"/>
+      <c r="C41" s="188" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" s="200"/>
+      <c r="E41" s="212"/>
+      <c r="F41" s="212"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="212"/>
+      <c r="B42" s="200" t="s">
+        <v>207</v>
+      </c>
+      <c r="C42" s="217" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="200" t="s">
+        <v>201</v>
+      </c>
+      <c r="E42" s="212"/>
+      <c r="F42" s="212"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="216"/>
+      <c r="B43" s="200"/>
+      <c r="C43" s="218"/>
+      <c r="D43" s="200"/>
+      <c r="E43" s="216"/>
+      <c r="F43" s="216"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="42">
     <mergeCell ref="A14:N14"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="F17:F19"/>
@@ -7587,6 +8037,29 @@
     <mergeCell ref="J6:J8"/>
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="L6:L8"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7595,11 +8068,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C344AA2B-AA16-45F6-9BD9-D596E441BC49}">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7625,53 +8096,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="203" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
+      <c r="A1" s="138" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
     </row>
     <row r="2" spans="1:23" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="222" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="206"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="223"/>
+      <c r="N2" s="224"/>
     </row>
     <row r="3" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="225" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="210"/>
-      <c r="P3" s="210"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="226"/>
+      <c r="I3" s="226"/>
+      <c r="J3" s="226"/>
+      <c r="K3" s="226"/>
+      <c r="L3" s="226"/>
+      <c r="M3" s="226"/>
+      <c r="N3" s="227"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="139"/>
     </row>
     <row r="4" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="211"/>
-      <c r="B4" s="212" t="s">
+      <c r="A4" s="140"/>
+      <c r="B4" s="141" t="s">
         <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -7683,32 +8154,32 @@
       <c r="E4" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="213" t="s">
+      <c r="F4" s="142" t="s">
         <v>185</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="212" t="s">
+      <c r="H4" s="141" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="212" t="s">
+      <c r="I4" s="141" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="215" t="s">
+      <c r="K4" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="216" t="s">
+      <c r="L4" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="217"/>
-      <c r="P4" s="217"/>
-      <c r="Q4" s="217"/>
-      <c r="R4" s="217"/>
-      <c r="S4" s="217"/>
+      <c r="O4" s="146"/>
+      <c r="P4" s="146"/>
+      <c r="Q4" s="146"/>
+      <c r="R4" s="146"/>
+      <c r="S4" s="146"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
@@ -7720,23 +8191,23 @@
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
       <c r="I5" s="39"/>
-      <c r="J5" s="218"/>
-      <c r="K5" s="218"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
       <c r="L5" s="39"/>
-      <c r="M5" s="219"/>
-      <c r="P5" s="220"/>
-      <c r="Q5" s="221"/>
-      <c r="R5" s="221"/>
-      <c r="S5" s="221"/>
-      <c r="T5" s="221"/>
-      <c r="U5" s="221"/>
+      <c r="M5" s="148"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="150"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="150"/>
+      <c r="T5" s="150"/>
+      <c r="U5" s="150"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
-      <c r="B6" s="222">
+      <c r="B6" s="151">
         <v>5</v>
       </c>
-      <c r="C6" s="223" t="s">
+      <c r="C6" s="228" t="s">
         <v>106</v>
       </c>
       <c r="D6" s="18" t="s">
@@ -7745,175 +8216,332 @@
       <c r="E6" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="F6" s="224" t="s">
+      <c r="F6" s="229" t="s">
         <v>187</v>
       </c>
-      <c r="G6" s="146">
+      <c r="G6" s="201">
         <v>1</v>
       </c>
-      <c r="H6" s="146" t="s">
+      <c r="H6" s="201" t="s">
         <v>188</v>
       </c>
-      <c r="I6" s="146" t="s">
+      <c r="I6" s="201" t="s">
         <v>189</v>
       </c>
-      <c r="J6" s="225">
+      <c r="J6" s="230">
         <v>32</v>
       </c>
-      <c r="K6" s="225" t="s">
+      <c r="K6" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="146">
+      <c r="L6" s="201">
         <f>G6*J6</f>
         <v>32</v>
       </c>
       <c r="O6" s="32"/>
-      <c r="R6" s="221"/>
+      <c r="R6" s="150"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="226">
+      <c r="B7" s="152">
         <v>10</v>
       </c>
-      <c r="C7" s="223"/>
+      <c r="C7" s="228"/>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="224"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="225"/>
-      <c r="K7" s="225"/>
-      <c r="L7" s="146"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="201"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="230"/>
+      <c r="K7" s="230"/>
+      <c r="L7" s="201"/>
       <c r="O7" s="32"/>
-      <c r="R7" s="221"/>
+      <c r="R7" s="150"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
-      <c r="B8" s="226">
+      <c r="B8" s="152">
         <v>10</v>
       </c>
-      <c r="C8" s="223"/>
+      <c r="C8" s="228"/>
       <c r="D8" s="18" t="s">
         <v>89</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="224"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="225"/>
-      <c r="K8" s="225"/>
-      <c r="L8" s="146"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="201"/>
+      <c r="H8" s="201"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="230"/>
+      <c r="K8" s="230"/>
+      <c r="L8" s="201"/>
       <c r="O8" s="32"/>
-      <c r="R8" s="221"/>
+      <c r="R8" s="150"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="227" t="s">
+      <c r="A9" s="153" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="228">
+      <c r="B9" s="154">
         <f>SUM(B6:B8)</f>
         <v>25</v>
       </c>
-      <c r="C9" s="229"/>
-      <c r="D9" s="230"/>
-      <c r="E9" s="230"/>
-      <c r="F9" s="230"/>
-      <c r="G9" s="231"/>
-      <c r="H9" s="231"/>
-      <c r="I9" s="231"/>
-      <c r="J9" s="231"/>
-      <c r="K9" s="231"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
-      <c r="S9" s="232"/>
-      <c r="T9" s="221"/>
+      <c r="S9" s="158"/>
+      <c r="T9" s="150"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="233"/>
-      <c r="B10" s="234"/>
-      <c r="C10" s="235"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="236"/>
-      <c r="G10" s="237"/>
-      <c r="H10" s="237"/>
-      <c r="I10" s="237"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
+      <c r="A10" s="159"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
       <c r="N10" s="1"/>
-      <c r="S10" s="232"/>
-      <c r="T10" s="221"/>
+      <c r="S10" s="158"/>
+      <c r="T10" s="150"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="239"/>
-      <c r="C11" s="240"/>
+      <c r="A11" s="165"/>
+      <c r="C11" s="166"/>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
-      <c r="K11" s="241"/>
-      <c r="L11" s="242"/>
-      <c r="M11" s="242"/>
+      <c r="K11" s="167"/>
+      <c r="L11" s="168"/>
+      <c r="M11" s="168"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="219"/>
-      <c r="R11" s="220"/>
-      <c r="S11" s="221"/>
-      <c r="T11" s="221"/>
-      <c r="U11" s="221"/>
-      <c r="V11" s="221"/>
-      <c r="W11" s="221"/>
-    </row>
-    <row r="12" spans="1:23" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="244"/>
-      <c r="B12" s="245"/>
-      <c r="C12" s="246"/>
-      <c r="D12" s="236"/>
-      <c r="E12" s="236"/>
-      <c r="F12" s="236"/>
-      <c r="G12" s="237"/>
-      <c r="H12" s="237"/>
-      <c r="I12" s="237"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="N12" s="1"/>
-      <c r="Q12" s="217"/>
-      <c r="R12" s="217"/>
-      <c r="S12" s="217"/>
-      <c r="T12" s="221"/>
-      <c r="U12" s="217"/>
+      <c r="O11" s="148"/>
+      <c r="R11" s="149"/>
+      <c r="S11" s="150"/>
+      <c r="T11" s="150"/>
+      <c r="U11" s="150"/>
+      <c r="V11" s="150"/>
+      <c r="W11" s="150"/>
+    </row>
+    <row r="12" spans="1:23" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="219" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="220"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="220"/>
+      <c r="E12" s="220"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="220"/>
+      <c r="H12" s="220"/>
+      <c r="I12" s="220"/>
+      <c r="J12" s="220"/>
+      <c r="K12" s="220"/>
+      <c r="L12" s="220"/>
+      <c r="M12" s="220"/>
+      <c r="N12" s="221"/>
+      <c r="Q12" s="146"/>
+      <c r="R12" s="146"/>
+      <c r="S12" s="146"/>
+      <c r="T12" s="150"/>
+      <c r="U12" s="146"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="236"/>
-      <c r="B13" s="236"/>
-      <c r="C13" s="247"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="210"/>
-      <c r="M13" s="210"/>
-      <c r="P13" s="248"/>
+      <c r="A13" s="213" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="214"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
+      <c r="P13" s="174"/>
       <c r="Q13" s="32"/>
-      <c r="R13" s="248"/>
+      <c r="R13" s="174"/>
       <c r="S13" s="32"/>
       <c r="T13" s="32"/>
       <c r="U13" s="32"/>
       <c r="V13" s="32"/>
     </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="136" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="188" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="188" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="188" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="188" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="188" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="215" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="200" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="188" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="200" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="215"/>
+      <c r="F15" s="215"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="212"/>
+      <c r="B16" s="200"/>
+      <c r="C16" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="200"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="212"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="212"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="188" t="s">
+        <v>204</v>
+      </c>
+      <c r="D17" s="200"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="212"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="212"/>
+      <c r="B18" s="200"/>
+      <c r="C18" s="188" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="200"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="212"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="188" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" s="200"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="212"/>
+      <c r="B20" s="200" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="217" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="200" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="212"/>
+      <c r="F20" s="212"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="216"/>
+      <c r="B21" s="200"/>
+      <c r="C21" s="218"/>
+      <c r="D21" s="200"/>
+      <c r="E21" s="216"/>
+      <c r="F21" s="216"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="189"/>
+      <c r="B22" s="190"/>
+      <c r="D22" s="189"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="189"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D25"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="22">
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="C6:C8"/>
@@ -7924,6 +8552,18 @@
     <mergeCell ref="J6:J8"/>
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="L6:L8"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7934,9 +8574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6326A54D-ADC6-4060-8767-672C9B07B154}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7962,149 +8600,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="203" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
+      <c r="A1" s="138" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
     </row>
     <row r="2" spans="1:21" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="222" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="206"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="223"/>
+      <c r="N2" s="224"/>
     </row>
     <row r="3" spans="1:21" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="256" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="210"/>
-      <c r="P3" s="210"/>
+      <c r="A3" s="234" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="223"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="224"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="139"/>
     </row>
     <row r="4" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="257"/>
-      <c r="B4" s="258" t="s">
+      <c r="A4" s="179"/>
+      <c r="B4" s="180" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="259" t="s">
+      <c r="C4" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="260" t="s">
+      <c r="D4" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="261" t="s">
+      <c r="E4" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="262" t="s">
+      <c r="F4" s="184" t="s">
         <v>185</v>
       </c>
-      <c r="G4" s="263" t="s">
+      <c r="G4" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="258" t="s">
+      <c r="H4" s="180" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="258" t="s">
+      <c r="I4" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="259" t="s">
+      <c r="J4" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="264" t="s">
+      <c r="K4" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="265" t="s">
+      <c r="L4" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="217"/>
-      <c r="P4" s="217"/>
-      <c r="Q4" s="217"/>
-      <c r="R4" s="217"/>
-      <c r="S4" s="217"/>
+      <c r="O4" s="146"/>
+      <c r="P4" s="146"/>
+      <c r="Q4" s="146"/>
+      <c r="R4" s="146"/>
+      <c r="S4" s="146"/>
     </row>
     <row r="5" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="239"/>
-      <c r="B5" s="240"/>
-      <c r="C5" s="240"/>
+      <c r="A5" s="165"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="243"/>
-      <c r="M5" s="219"/>
-      <c r="P5" s="220"/>
-      <c r="Q5" s="221"/>
-      <c r="R5" s="221"/>
-      <c r="S5" s="221"/>
-      <c r="T5" s="221"/>
-      <c r="U5" s="221"/>
+      <c r="J5" s="168"/>
+      <c r="K5" s="168"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="148"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="150"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="150"/>
+      <c r="T5" s="150"/>
+      <c r="U5" s="150"/>
     </row>
     <row r="6" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="239"/>
-      <c r="C6" s="240"/>
+      <c r="A6" s="165"/>
+      <c r="C6" s="166"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="242"/>
-      <c r="L6" s="243"/>
-      <c r="M6" s="219"/>
-      <c r="P6" s="220"/>
-      <c r="Q6" s="221"/>
-      <c r="R6" s="221"/>
-      <c r="S6" s="221"/>
-      <c r="T6" s="221"/>
-      <c r="U6" s="221"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="148"/>
+      <c r="P6" s="149"/>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="150"/>
+      <c r="S6" s="150"/>
+      <c r="T6" s="150"/>
+      <c r="U6" s="150"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="239"/>
-      <c r="C7" s="240"/>
+      <c r="A7" s="165"/>
+      <c r="C7" s="166"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="243"/>
-      <c r="M7" s="219"/>
-      <c r="P7" s="220"/>
-      <c r="Q7" s="221"/>
-      <c r="R7" s="221"/>
-      <c r="S7" s="221"/>
-      <c r="T7" s="221"/>
-      <c r="U7" s="221"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="148"/>
+      <c r="P7" s="149"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
-      <c r="B8" s="226">
+      <c r="B8" s="152">
         <v>5</v>
       </c>
-      <c r="C8" s="223" t="s">
+      <c r="C8" s="228" t="s">
         <v>106</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -8113,114 +8751,115 @@
       <c r="E8" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="F8" s="224" t="s">
+      <c r="F8" s="229" t="s">
         <v>187</v>
       </c>
-      <c r="G8" s="146">
+      <c r="G8" s="201">
         <v>1</v>
       </c>
-      <c r="H8" s="146" t="s">
+      <c r="H8" s="201" t="s">
         <v>188</v>
       </c>
-      <c r="I8" s="146" t="s">
-        <v>192</v>
-      </c>
-      <c r="J8" s="225">
+      <c r="I8" s="201" t="s">
+        <v>191</v>
+      </c>
+      <c r="J8" s="230">
         <v>64</v>
       </c>
-      <c r="K8" s="225" t="s">
+      <c r="K8" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="266">
+      <c r="L8" s="235">
         <f>G8*J8</f>
         <v>64</v>
       </c>
       <c r="O8" s="32"/>
-      <c r="R8" s="221"/>
+      <c r="R8" s="150"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
-      <c r="B9" s="226">
+      <c r="B9" s="152">
         <v>10</v>
       </c>
-      <c r="C9" s="223"/>
+      <c r="C9" s="228"/>
       <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="224"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="225"/>
-      <c r="K9" s="225"/>
-      <c r="L9" s="267"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="201"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="230"/>
+      <c r="K9" s="230"/>
+      <c r="L9" s="236"/>
       <c r="O9" s="32"/>
-      <c r="R9" s="221"/>
+      <c r="R9" s="150"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="226">
+      <c r="B10" s="152">
         <v>40</v>
       </c>
-      <c r="C10" s="223"/>
+      <c r="C10" s="228"/>
       <c r="D10" s="18" t="s">
         <v>89</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="224"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="225"/>
-      <c r="K10" s="225"/>
-      <c r="L10" s="268"/>
+      <c r="F10" s="229"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="230"/>
+      <c r="K10" s="230"/>
+      <c r="L10" s="237"/>
       <c r="O10" s="32"/>
-      <c r="R10" s="221"/>
+      <c r="R10" s="150"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="227" t="s">
+      <c r="A11" s="153" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="228">
+      <c r="B11" s="154">
         <f>SUM(B8:B10)</f>
         <v>55</v>
       </c>
-      <c r="C11" s="229"/>
-      <c r="D11" s="230"/>
-      <c r="E11" s="230"/>
-      <c r="F11" s="230"/>
-      <c r="G11" s="231"/>
-      <c r="H11" s="231"/>
-      <c r="I11" s="231"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
-      <c r="L11" s="238"/>
-      <c r="Q11" s="232"/>
-      <c r="R11" s="221"/>
+      <c r="L11" s="164"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="150"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="227"/>
-      <c r="B12" s="228"/>
-      <c r="C12" s="229"/>
-      <c r="D12" s="230"/>
-      <c r="E12" s="230"/>
-      <c r="F12" s="230"/>
-      <c r="G12" s="231"/>
-      <c r="H12" s="231"/>
-      <c r="I12" s="231"/>
+      <c r="A12" s="153"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="157"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
-      <c r="Q12" s="232"/>
-      <c r="R12" s="221"/>
+      <c r="Q12" s="158"/>
+      <c r="R12" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:N2"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="F8:F10"/>
@@ -8230,7 +8869,6 @@
     <mergeCell ref="J8:J10"/>
     <mergeCell ref="K8:K10"/>
     <mergeCell ref="L8:L10"/>
-    <mergeCell ref="A2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8243,7 +8881,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8258,12 +8896,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="249" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -8306,74 +8944,74 @@
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="250" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="168"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="168"/>
-      <c r="L4" s="169"/>
+      <c r="B4" s="251"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="251"/>
+      <c r="G4" s="251"/>
+      <c r="H4" s="251"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="251"/>
+      <c r="L4" s="252"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="170"/>
+      <c r="A5" s="253"/>
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="170" t="s">
+      <c r="D5" s="253" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="170" t="s">
+      <c r="E5" s="253" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="170" t="s">
+      <c r="F5" s="253" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="150" t="s">
+      <c r="H5" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="150" t="s">
+      <c r="I5" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="150" t="s">
+      <c r="J5" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="150" t="s">
+      <c r="K5" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="172" t="s">
+      <c r="L5" s="255" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="171"/>
+      <c r="A6" s="254"/>
       <c r="B6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="151"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="254"/>
+      <c r="E6" s="254"/>
+      <c r="F6" s="254"/>
       <c r="G6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="173"/>
+      <c r="H6" s="206"/>
+      <c r="I6" s="206"/>
+      <c r="J6" s="206"/>
+      <c r="K6" s="206"/>
+      <c r="L6" s="256"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
@@ -8392,7 +9030,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="40"/>
-      <c r="C8" s="200" t="s">
+      <c r="C8" s="244" t="s">
         <v>106</v>
       </c>
       <c r="D8" s="38" t="s">
@@ -8401,63 +9039,63 @@
       <c r="E8" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="158">
+      <c r="F8" s="238">
         <v>1</v>
       </c>
-      <c r="G8" s="158" t="s">
+      <c r="G8" s="238" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="158" t="s">
+      <c r="H8" s="238" t="s">
         <v>114</v>
       </c>
-      <c r="I8" s="158">
+      <c r="I8" s="238">
         <v>64</v>
       </c>
-      <c r="J8" s="158" t="s">
+      <c r="J8" s="238" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="158" t="s">
+      <c r="K8" s="238" t="s">
         <v>115</v>
       </c>
-      <c r="L8" s="161">
+      <c r="L8" s="241">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="40"/>
-      <c r="C9" s="201"/>
+      <c r="C9" s="245"/>
       <c r="D9" s="38" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="159"/>
-      <c r="J9" s="159"/>
-      <c r="K9" s="159"/>
-      <c r="L9" s="162"/>
+      <c r="F9" s="239"/>
+      <c r="G9" s="239"/>
+      <c r="H9" s="239"/>
+      <c r="I9" s="239"/>
+      <c r="J9" s="239"/>
+      <c r="K9" s="239"/>
+      <c r="L9" s="242"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="41"/>
       <c r="B10" s="40"/>
-      <c r="C10" s="202"/>
+      <c r="C10" s="246"/>
       <c r="D10" s="38" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="160"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="160"/>
-      <c r="K10" s="160"/>
-      <c r="L10" s="163"/>
+      <c r="F10" s="240"/>
+      <c r="G10" s="239"/>
+      <c r="H10" s="240"/>
+      <c r="I10" s="240"/>
+      <c r="J10" s="240"/>
+      <c r="K10" s="240"/>
+      <c r="L10" s="243"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
@@ -8474,7 +9112,7 @@
       <c r="F11" s="43">
         <v>1</v>
       </c>
-      <c r="G11" s="164"/>
+      <c r="G11" s="247"/>
       <c r="H11" s="43" t="s">
         <v>116</v>
       </c>
@@ -8506,7 +9144,7 @@
       <c r="F12" s="43">
         <v>1</v>
       </c>
-      <c r="G12" s="164"/>
+      <c r="G12" s="247"/>
       <c r="H12" s="43" t="s">
         <v>12</v>
       </c>
@@ -8538,7 +9176,7 @@
       <c r="F13" s="43">
         <v>1</v>
       </c>
-      <c r="G13" s="165"/>
+      <c r="G13" s="248"/>
       <c r="H13" s="43" t="s">
         <v>116</v>
       </c>
@@ -8662,7 +9300,7 @@
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8890,7 +9528,7 @@
       <c r="C9" s="100">
         <v>1</v>
       </c>
-      <c r="D9" s="191" t="s">
+      <c r="D9" s="274" t="s">
         <v>106</v>
       </c>
       <c r="E9" s="101" t="s">
@@ -8899,29 +9537,29 @@
       <c r="F9" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="186">
+      <c r="G9" s="269">
         <v>1</v>
       </c>
-      <c r="H9" s="174" t="s">
+      <c r="H9" s="257" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="174" t="s">
+      <c r="I9" s="257" t="s">
         <v>127</v>
       </c>
-      <c r="J9" s="174">
+      <c r="J9" s="257">
         <v>120</v>
       </c>
-      <c r="K9" s="174">
+      <c r="K9" s="257">
         <v>25</v>
       </c>
-      <c r="L9" s="174">
+      <c r="L9" s="257">
         <v>32</v>
       </c>
-      <c r="M9" s="177" t="s">
+      <c r="M9" s="260" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="177"/>
-      <c r="O9" s="195">
+      <c r="N9" s="260"/>
+      <c r="O9" s="278">
         <v>32</v>
       </c>
       <c r="P9" s="62"/>
@@ -8935,22 +9573,22 @@
       <c r="C10" s="100">
         <v>10</v>
       </c>
-      <c r="D10" s="193"/>
+      <c r="D10" s="276"/>
       <c r="E10" s="101" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="188"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="175"/>
-      <c r="L10" s="175"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="179"/>
-      <c r="O10" s="196"/>
+      <c r="G10" s="271"/>
+      <c r="H10" s="258"/>
+      <c r="I10" s="258"/>
+      <c r="J10" s="258"/>
+      <c r="K10" s="258"/>
+      <c r="L10" s="258"/>
+      <c r="M10" s="262"/>
+      <c r="N10" s="262"/>
+      <c r="O10" s="279"/>
       <c r="P10" s="62"/>
       <c r="Q10" s="62"/>
     </row>
@@ -9008,7 +9646,7 @@
       <c r="C13" s="100">
         <v>2045</v>
       </c>
-      <c r="D13" s="197" t="s">
+      <c r="D13" s="280" t="s">
         <v>135</v>
       </c>
       <c r="E13" s="101" t="s">
@@ -9017,29 +9655,29 @@
       <c r="F13" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="G13" s="174">
+      <c r="G13" s="257">
         <v>2</v>
       </c>
-      <c r="H13" s="174" t="s">
+      <c r="H13" s="257" t="s">
         <v>113</v>
       </c>
-      <c r="I13" s="174" t="s">
+      <c r="I13" s="257" t="s">
         <v>129</v>
       </c>
-      <c r="J13" s="174">
+      <c r="J13" s="257">
         <v>5000</v>
       </c>
-      <c r="K13" s="174">
+      <c r="K13" s="257">
         <v>200</v>
       </c>
-      <c r="L13" s="174">
+      <c r="L13" s="257">
         <v>1024</v>
       </c>
-      <c r="M13" s="177" t="s">
+      <c r="M13" s="260" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="177"/>
-      <c r="O13" s="189">
+      <c r="N13" s="260"/>
+      <c r="O13" s="272">
         <v>2048</v>
       </c>
       <c r="P13" s="62"/>
@@ -9053,22 +9691,22 @@
       <c r="C14" s="100">
         <v>2</v>
       </c>
-      <c r="D14" s="198"/>
+      <c r="D14" s="281"/>
       <c r="E14" s="101" t="s">
         <v>137</v>
       </c>
       <c r="F14" s="101" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="175"/>
-      <c r="H14" s="175"/>
-      <c r="I14" s="175"/>
-      <c r="J14" s="175"/>
-      <c r="K14" s="175"/>
-      <c r="L14" s="175"/>
-      <c r="M14" s="179"/>
-      <c r="N14" s="179"/>
-      <c r="O14" s="190"/>
+      <c r="G14" s="258"/>
+      <c r="H14" s="258"/>
+      <c r="I14" s="258"/>
+      <c r="J14" s="258"/>
+      <c r="K14" s="258"/>
+      <c r="L14" s="258"/>
+      <c r="M14" s="262"/>
+      <c r="N14" s="262"/>
+      <c r="O14" s="273"/>
       <c r="P14" s="62"/>
       <c r="Q14" s="62"/>
     </row>
@@ -9147,7 +9785,7 @@
       <c r="C18" s="100">
         <v>267</v>
       </c>
-      <c r="D18" s="191" t="s">
+      <c r="D18" s="274" t="s">
         <v>139</v>
       </c>
       <c r="E18" s="101" t="s">
@@ -9156,29 +9794,29 @@
       <c r="F18" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="G18" s="174">
+      <c r="G18" s="257">
         <v>1</v>
       </c>
-      <c r="H18" s="174" t="s">
+      <c r="H18" s="257" t="s">
         <v>113</v>
       </c>
-      <c r="I18" s="174" t="s">
+      <c r="I18" s="257" t="s">
         <v>129</v>
       </c>
-      <c r="J18" s="174">
+      <c r="J18" s="257">
         <v>5000</v>
       </c>
-      <c r="K18" s="174">
+      <c r="K18" s="257">
         <v>200</v>
       </c>
-      <c r="L18" s="174">
+      <c r="L18" s="257">
         <v>1024</v>
       </c>
-      <c r="M18" s="177" t="s">
+      <c r="M18" s="260" t="s">
         <v>13</v>
       </c>
-      <c r="N18" s="174"/>
-      <c r="O18" s="189">
+      <c r="N18" s="257"/>
+      <c r="O18" s="272">
         <v>1024</v>
       </c>
       <c r="P18" s="62"/>
@@ -9192,22 +9830,22 @@
       <c r="C19" s="100">
         <v>267</v>
       </c>
-      <c r="D19" s="192"/>
+      <c r="D19" s="275"/>
       <c r="E19" s="101" t="s">
         <v>142</v>
       </c>
       <c r="F19" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="176"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="176"/>
-      <c r="K19" s="176"/>
-      <c r="L19" s="176"/>
-      <c r="M19" s="178"/>
-      <c r="N19" s="176"/>
-      <c r="O19" s="194"/>
+      <c r="G19" s="259"/>
+      <c r="H19" s="259"/>
+      <c r="I19" s="259"/>
+      <c r="J19" s="259"/>
+      <c r="K19" s="259"/>
+      <c r="L19" s="259"/>
+      <c r="M19" s="261"/>
+      <c r="N19" s="259"/>
+      <c r="O19" s="277"/>
       <c r="P19" s="62"/>
       <c r="Q19" s="62"/>
     </row>
@@ -9219,22 +9857,22 @@
       <c r="C20" s="100">
         <v>50</v>
       </c>
-      <c r="D20" s="192"/>
+      <c r="D20" s="275"/>
       <c r="E20" s="101" t="s">
         <v>144</v>
       </c>
       <c r="F20" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="176"/>
-      <c r="H20" s="176"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="176"/>
-      <c r="K20" s="176"/>
-      <c r="L20" s="176"/>
-      <c r="M20" s="178"/>
-      <c r="N20" s="176"/>
-      <c r="O20" s="194"/>
+      <c r="G20" s="259"/>
+      <c r="H20" s="259"/>
+      <c r="I20" s="259"/>
+      <c r="J20" s="259"/>
+      <c r="K20" s="259"/>
+      <c r="L20" s="259"/>
+      <c r="M20" s="261"/>
+      <c r="N20" s="259"/>
+      <c r="O20" s="277"/>
       <c r="P20" s="62"/>
       <c r="Q20" s="62"/>
     </row>
@@ -9246,22 +9884,22 @@
       <c r="C21" s="100">
         <v>50</v>
       </c>
-      <c r="D21" s="192"/>
+      <c r="D21" s="275"/>
       <c r="E21" s="101" t="s">
         <v>145</v>
       </c>
       <c r="F21" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="G21" s="176"/>
-      <c r="H21" s="176"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="176"/>
-      <c r="K21" s="176"/>
-      <c r="L21" s="176"/>
-      <c r="M21" s="178"/>
-      <c r="N21" s="176"/>
-      <c r="O21" s="194"/>
+      <c r="G21" s="259"/>
+      <c r="H21" s="259"/>
+      <c r="I21" s="259"/>
+      <c r="J21" s="259"/>
+      <c r="K21" s="259"/>
+      <c r="L21" s="259"/>
+      <c r="M21" s="261"/>
+      <c r="N21" s="259"/>
+      <c r="O21" s="277"/>
       <c r="P21" s="62"/>
       <c r="Q21" s="62"/>
     </row>
@@ -9273,22 +9911,22 @@
       <c r="C22" s="100">
         <v>50</v>
       </c>
-      <c r="D22" s="193"/>
+      <c r="D22" s="276"/>
       <c r="E22" s="101" t="s">
         <v>147</v>
       </c>
       <c r="F22" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="G22" s="175"/>
-      <c r="H22" s="175"/>
-      <c r="I22" s="175"/>
-      <c r="J22" s="175"/>
-      <c r="K22" s="175"/>
-      <c r="L22" s="175"/>
-      <c r="M22" s="179"/>
-      <c r="N22" s="175"/>
-      <c r="O22" s="190"/>
+      <c r="G22" s="258"/>
+      <c r="H22" s="258"/>
+      <c r="I22" s="258"/>
+      <c r="J22" s="258"/>
+      <c r="K22" s="258"/>
+      <c r="L22" s="258"/>
+      <c r="M22" s="262"/>
+      <c r="N22" s="258"/>
+      <c r="O22" s="273"/>
       <c r="P22" s="62"/>
       <c r="Q22" s="62"/>
     </row>
@@ -9348,7 +9986,7 @@
       <c r="C25" s="110">
         <v>2560</v>
       </c>
-      <c r="D25" s="183" t="s">
+      <c r="D25" s="266" t="s">
         <v>149</v>
       </c>
       <c r="E25" s="101" t="s">
@@ -9357,31 +9995,31 @@
       <c r="F25" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="G25" s="174">
+      <c r="G25" s="257">
         <v>10</v>
       </c>
-      <c r="H25" s="174" t="s">
+      <c r="H25" s="257" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="186" t="s">
+      <c r="I25" s="269" t="s">
         <v>131</v>
       </c>
-      <c r="J25" s="174">
+      <c r="J25" s="257">
         <v>60000</v>
       </c>
-      <c r="K25" s="174">
+      <c r="K25" s="257">
         <v>2000</v>
       </c>
-      <c r="L25" s="174">
+      <c r="L25" s="257">
         <v>4096</v>
       </c>
-      <c r="M25" s="177" t="s">
+      <c r="M25" s="260" t="s">
         <v>13</v>
       </c>
-      <c r="N25" s="174" t="s">
+      <c r="N25" s="257" t="s">
         <v>132</v>
       </c>
-      <c r="O25" s="180">
+      <c r="O25" s="263">
         <f>G25*L25</f>
         <v>40960</v>
       </c>
@@ -9398,22 +10036,22 @@
       <c r="C26" s="110">
         <v>2560</v>
       </c>
-      <c r="D26" s="184"/>
+      <c r="D26" s="267"/>
       <c r="E26" s="101" t="s">
         <v>152</v>
       </c>
       <c r="F26" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="G26" s="176"/>
-      <c r="H26" s="176"/>
-      <c r="I26" s="187"/>
-      <c r="J26" s="176"/>
-      <c r="K26" s="176"/>
-      <c r="L26" s="176"/>
-      <c r="M26" s="178"/>
-      <c r="N26" s="176"/>
-      <c r="O26" s="181"/>
+      <c r="G26" s="259"/>
+      <c r="H26" s="259"/>
+      <c r="I26" s="270"/>
+      <c r="J26" s="259"/>
+      <c r="K26" s="259"/>
+      <c r="L26" s="259"/>
+      <c r="M26" s="261"/>
+      <c r="N26" s="259"/>
+      <c r="O26" s="264"/>
       <c r="P26" s="62"/>
       <c r="Q26" s="62"/>
     </row>
@@ -9427,22 +10065,22 @@
       <c r="C27" s="110">
         <v>2560</v>
       </c>
-      <c r="D27" s="184"/>
+      <c r="D27" s="267"/>
       <c r="E27" s="101" t="s">
         <v>154</v>
       </c>
       <c r="F27" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="G27" s="176"/>
-      <c r="H27" s="176"/>
-      <c r="I27" s="187"/>
-      <c r="J27" s="176"/>
-      <c r="K27" s="176"/>
-      <c r="L27" s="176"/>
-      <c r="M27" s="178"/>
-      <c r="N27" s="176"/>
-      <c r="O27" s="181"/>
+      <c r="G27" s="259"/>
+      <c r="H27" s="259"/>
+      <c r="I27" s="270"/>
+      <c r="J27" s="259"/>
+      <c r="K27" s="259"/>
+      <c r="L27" s="259"/>
+      <c r="M27" s="261"/>
+      <c r="N27" s="259"/>
+      <c r="O27" s="264"/>
       <c r="P27" s="62"/>
       <c r="Q27" s="62"/>
     </row>
@@ -9456,22 +10094,22 @@
       <c r="C28" s="110">
         <v>2560</v>
       </c>
-      <c r="D28" s="184"/>
+      <c r="D28" s="267"/>
       <c r="E28" s="101" t="s">
         <v>156</v>
       </c>
       <c r="F28" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="G28" s="176"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="187"/>
-      <c r="J28" s="176"/>
-      <c r="K28" s="176"/>
-      <c r="L28" s="176"/>
-      <c r="M28" s="178"/>
-      <c r="N28" s="176"/>
-      <c r="O28" s="181"/>
+      <c r="G28" s="259"/>
+      <c r="H28" s="259"/>
+      <c r="I28" s="270"/>
+      <c r="J28" s="259"/>
+      <c r="K28" s="259"/>
+      <c r="L28" s="259"/>
+      <c r="M28" s="261"/>
+      <c r="N28" s="259"/>
+      <c r="O28" s="264"/>
       <c r="P28" s="62"/>
       <c r="Q28" s="62"/>
     </row>
@@ -9485,22 +10123,22 @@
       <c r="C29" s="110">
         <v>2560</v>
       </c>
-      <c r="D29" s="184"/>
+      <c r="D29" s="267"/>
       <c r="E29" s="101" t="s">
         <v>158</v>
       </c>
       <c r="F29" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="G29" s="176"/>
-      <c r="H29" s="176"/>
-      <c r="I29" s="187"/>
-      <c r="J29" s="176"/>
-      <c r="K29" s="176"/>
-      <c r="L29" s="176"/>
-      <c r="M29" s="178"/>
-      <c r="N29" s="176"/>
-      <c r="O29" s="181"/>
+      <c r="G29" s="259"/>
+      <c r="H29" s="259"/>
+      <c r="I29" s="270"/>
+      <c r="J29" s="259"/>
+      <c r="K29" s="259"/>
+      <c r="L29" s="259"/>
+      <c r="M29" s="261"/>
+      <c r="N29" s="259"/>
+      <c r="O29" s="264"/>
       <c r="P29" s="62"/>
       <c r="Q29" s="62"/>
     </row>
@@ -9514,22 +10152,22 @@
       <c r="C30" s="110">
         <v>2560</v>
       </c>
-      <c r="D30" s="184"/>
+      <c r="D30" s="267"/>
       <c r="E30" s="101" t="s">
         <v>160</v>
       </c>
       <c r="F30" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="G30" s="176"/>
-      <c r="H30" s="176"/>
-      <c r="I30" s="187"/>
-      <c r="J30" s="176"/>
-      <c r="K30" s="176"/>
-      <c r="L30" s="176"/>
-      <c r="M30" s="178"/>
-      <c r="N30" s="176"/>
-      <c r="O30" s="181"/>
+      <c r="G30" s="259"/>
+      <c r="H30" s="259"/>
+      <c r="I30" s="270"/>
+      <c r="J30" s="259"/>
+      <c r="K30" s="259"/>
+      <c r="L30" s="259"/>
+      <c r="M30" s="261"/>
+      <c r="N30" s="259"/>
+      <c r="O30" s="264"/>
       <c r="P30" s="62"/>
       <c r="Q30" s="62"/>
     </row>
@@ -9543,22 +10181,22 @@
       <c r="C31" s="110">
         <v>2560</v>
       </c>
-      <c r="D31" s="184"/>
+      <c r="D31" s="267"/>
       <c r="E31" s="101" t="s">
         <v>162</v>
       </c>
       <c r="F31" s="101" t="s">
         <v>163</v>
       </c>
-      <c r="G31" s="176"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="187"/>
-      <c r="J31" s="176"/>
-      <c r="K31" s="176"/>
-      <c r="L31" s="176"/>
-      <c r="M31" s="178"/>
-      <c r="N31" s="176"/>
-      <c r="O31" s="181"/>
+      <c r="G31" s="259"/>
+      <c r="H31" s="259"/>
+      <c r="I31" s="270"/>
+      <c r="J31" s="259"/>
+      <c r="K31" s="259"/>
+      <c r="L31" s="259"/>
+      <c r="M31" s="261"/>
+      <c r="N31" s="259"/>
+      <c r="O31" s="264"/>
       <c r="P31" s="62"/>
       <c r="Q31" s="62"/>
     </row>
@@ -9572,22 +10210,22 @@
       <c r="C32" s="110">
         <v>2560</v>
       </c>
-      <c r="D32" s="184"/>
+      <c r="D32" s="267"/>
       <c r="E32" s="101" t="s">
         <v>164</v>
       </c>
       <c r="F32" s="101" t="s">
         <v>165</v>
       </c>
-      <c r="G32" s="176"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="187"/>
-      <c r="J32" s="176"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="176"/>
-      <c r="M32" s="178"/>
-      <c r="N32" s="176"/>
-      <c r="O32" s="181"/>
+      <c r="G32" s="259"/>
+      <c r="H32" s="259"/>
+      <c r="I32" s="270"/>
+      <c r="J32" s="259"/>
+      <c r="K32" s="259"/>
+      <c r="L32" s="259"/>
+      <c r="M32" s="261"/>
+      <c r="N32" s="259"/>
+      <c r="O32" s="264"/>
       <c r="P32" s="62"/>
       <c r="Q32" s="62"/>
     </row>
@@ -9601,22 +10239,22 @@
       <c r="C33" s="110">
         <v>2560</v>
       </c>
-      <c r="D33" s="184"/>
+      <c r="D33" s="267"/>
       <c r="E33" s="101" t="s">
         <v>166</v>
       </c>
       <c r="F33" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="G33" s="176"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="176"/>
-      <c r="K33" s="176"/>
-      <c r="L33" s="176"/>
-      <c r="M33" s="178"/>
-      <c r="N33" s="176"/>
-      <c r="O33" s="181"/>
+      <c r="G33" s="259"/>
+      <c r="H33" s="259"/>
+      <c r="I33" s="270"/>
+      <c r="J33" s="259"/>
+      <c r="K33" s="259"/>
+      <c r="L33" s="259"/>
+      <c r="M33" s="261"/>
+      <c r="N33" s="259"/>
+      <c r="O33" s="264"/>
       <c r="P33" s="62"/>
       <c r="Q33" s="62"/>
     </row>
@@ -9630,22 +10268,22 @@
       <c r="C34" s="110">
         <v>2560</v>
       </c>
-      <c r="D34" s="184"/>
+      <c r="D34" s="267"/>
       <c r="E34" s="101" t="s">
         <v>168</v>
       </c>
       <c r="F34" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="G34" s="176"/>
-      <c r="H34" s="176"/>
-      <c r="I34" s="187"/>
-      <c r="J34" s="176"/>
-      <c r="K34" s="176"/>
-      <c r="L34" s="176"/>
-      <c r="M34" s="178"/>
-      <c r="N34" s="176"/>
-      <c r="O34" s="181"/>
+      <c r="G34" s="259"/>
+      <c r="H34" s="259"/>
+      <c r="I34" s="270"/>
+      <c r="J34" s="259"/>
+      <c r="K34" s="259"/>
+      <c r="L34" s="259"/>
+      <c r="M34" s="261"/>
+      <c r="N34" s="259"/>
+      <c r="O34" s="264"/>
       <c r="P34" s="62"/>
       <c r="Q34" s="62"/>
     </row>
@@ -9659,22 +10297,22 @@
       <c r="C35" s="110">
         <v>2560</v>
       </c>
-      <c r="D35" s="184"/>
+      <c r="D35" s="267"/>
       <c r="E35" s="101" t="s">
         <v>170</v>
       </c>
       <c r="F35" s="101" t="s">
         <v>171</v>
       </c>
-      <c r="G35" s="176"/>
-      <c r="H35" s="176"/>
-      <c r="I35" s="187"/>
-      <c r="J35" s="176"/>
-      <c r="K35" s="176"/>
-      <c r="L35" s="176"/>
-      <c r="M35" s="178"/>
-      <c r="N35" s="176"/>
-      <c r="O35" s="181"/>
+      <c r="G35" s="259"/>
+      <c r="H35" s="259"/>
+      <c r="I35" s="270"/>
+      <c r="J35" s="259"/>
+      <c r="K35" s="259"/>
+      <c r="L35" s="259"/>
+      <c r="M35" s="261"/>
+      <c r="N35" s="259"/>
+      <c r="O35" s="264"/>
       <c r="P35" s="62"/>
       <c r="Q35" s="62"/>
     </row>
@@ -9688,22 +10326,22 @@
       <c r="C36" s="110">
         <v>2560</v>
       </c>
-      <c r="D36" s="184"/>
+      <c r="D36" s="267"/>
       <c r="E36" s="101" t="s">
         <v>172</v>
       </c>
       <c r="F36" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="G36" s="176"/>
-      <c r="H36" s="176"/>
-      <c r="I36" s="187"/>
-      <c r="J36" s="176"/>
-      <c r="K36" s="176"/>
-      <c r="L36" s="176"/>
-      <c r="M36" s="178"/>
-      <c r="N36" s="176"/>
-      <c r="O36" s="181"/>
+      <c r="G36" s="259"/>
+      <c r="H36" s="259"/>
+      <c r="I36" s="270"/>
+      <c r="J36" s="259"/>
+      <c r="K36" s="259"/>
+      <c r="L36" s="259"/>
+      <c r="M36" s="261"/>
+      <c r="N36" s="259"/>
+      <c r="O36" s="264"/>
       <c r="P36" s="62"/>
       <c r="Q36" s="62"/>
     </row>
@@ -9717,22 +10355,22 @@
       <c r="C37" s="110">
         <v>2560</v>
       </c>
-      <c r="D37" s="184"/>
+      <c r="D37" s="267"/>
       <c r="E37" s="101" t="s">
         <v>174</v>
       </c>
       <c r="F37" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="G37" s="176"/>
-      <c r="H37" s="176"/>
-      <c r="I37" s="187"/>
-      <c r="J37" s="176"/>
-      <c r="K37" s="176"/>
-      <c r="L37" s="176"/>
-      <c r="M37" s="178"/>
-      <c r="N37" s="176"/>
-      <c r="O37" s="181"/>
+      <c r="G37" s="259"/>
+      <c r="H37" s="259"/>
+      <c r="I37" s="270"/>
+      <c r="J37" s="259"/>
+      <c r="K37" s="259"/>
+      <c r="L37" s="259"/>
+      <c r="M37" s="261"/>
+      <c r="N37" s="259"/>
+      <c r="O37" s="264"/>
       <c r="P37" s="62"/>
       <c r="Q37" s="62"/>
     </row>
@@ -9746,22 +10384,22 @@
       <c r="C38" s="110">
         <v>2560</v>
       </c>
-      <c r="D38" s="184"/>
+      <c r="D38" s="267"/>
       <c r="E38" s="101" t="s">
         <v>176</v>
       </c>
       <c r="F38" s="101" t="s">
         <v>177</v>
       </c>
-      <c r="G38" s="176"/>
-      <c r="H38" s="176"/>
-      <c r="I38" s="187"/>
-      <c r="J38" s="176"/>
-      <c r="K38" s="176"/>
-      <c r="L38" s="176"/>
-      <c r="M38" s="178"/>
-      <c r="N38" s="176"/>
-      <c r="O38" s="181"/>
+      <c r="G38" s="259"/>
+      <c r="H38" s="259"/>
+      <c r="I38" s="270"/>
+      <c r="J38" s="259"/>
+      <c r="K38" s="259"/>
+      <c r="L38" s="259"/>
+      <c r="M38" s="261"/>
+      <c r="N38" s="259"/>
+      <c r="O38" s="264"/>
       <c r="P38" s="62"/>
       <c r="Q38" s="62"/>
     </row>
@@ -9775,22 +10413,22 @@
       <c r="C39" s="110">
         <v>2560</v>
       </c>
-      <c r="D39" s="184"/>
+      <c r="D39" s="267"/>
       <c r="E39" s="101" t="s">
         <v>178</v>
       </c>
       <c r="F39" s="101" t="s">
         <v>179</v>
       </c>
-      <c r="G39" s="176"/>
-      <c r="H39" s="176"/>
-      <c r="I39" s="187"/>
-      <c r="J39" s="176"/>
-      <c r="K39" s="176"/>
-      <c r="L39" s="176"/>
-      <c r="M39" s="178"/>
-      <c r="N39" s="176"/>
-      <c r="O39" s="181"/>
+      <c r="G39" s="259"/>
+      <c r="H39" s="259"/>
+      <c r="I39" s="270"/>
+      <c r="J39" s="259"/>
+      <c r="K39" s="259"/>
+      <c r="L39" s="259"/>
+      <c r="M39" s="261"/>
+      <c r="N39" s="259"/>
+      <c r="O39" s="264"/>
       <c r="P39" s="62"/>
       <c r="Q39" s="62"/>
     </row>
@@ -9804,22 +10442,22 @@
       <c r="C40" s="110">
         <v>2560</v>
       </c>
-      <c r="D40" s="185"/>
+      <c r="D40" s="268"/>
       <c r="E40" s="101" t="s">
         <v>180</v>
       </c>
       <c r="F40" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="G40" s="175"/>
-      <c r="H40" s="175"/>
-      <c r="I40" s="188"/>
-      <c r="J40" s="175"/>
-      <c r="K40" s="175"/>
-      <c r="L40" s="175"/>
-      <c r="M40" s="179"/>
-      <c r="N40" s="175"/>
-      <c r="O40" s="182"/>
+      <c r="G40" s="258"/>
+      <c r="H40" s="258"/>
+      <c r="I40" s="271"/>
+      <c r="J40" s="258"/>
+      <c r="K40" s="258"/>
+      <c r="L40" s="258"/>
+      <c r="M40" s="262"/>
+      <c r="N40" s="258"/>
+      <c r="O40" s="265"/>
       <c r="P40" s="62"/>
       <c r="Q40" s="62"/>
     </row>
@@ -9880,7 +10518,7 @@
       <c r="E43" s="101"/>
       <c r="F43" s="112"/>
       <c r="G43" s="113"/>
-      <c r="H43" s="174"/>
+      <c r="H43" s="257"/>
       <c r="I43" s="114"/>
       <c r="J43" s="114"/>
       <c r="K43" s="114"/>
@@ -9903,7 +10541,7 @@
       <c r="E44" s="117"/>
       <c r="F44" s="105"/>
       <c r="G44" s="106"/>
-      <c r="H44" s="175"/>
+      <c r="H44" s="258"/>
       <c r="I44" s="106"/>
       <c r="J44" s="106"/>
       <c r="K44" s="106"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\suji\SourceCode\Local\buildsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B65C2C-B9C2-414A-A1B3-D695F054F04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEC64B6-9435-46CC-9DCB-4C6EF2DC6074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E86B7F64-D4B2-42B2-BB21-CEFB44C19956}"/>
   </bookViews>
@@ -2499,14 +2499,44 @@
     <xf numFmtId="0" fontId="22" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2515,35 +2545,50 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2563,51 +2608,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2620,6 +2620,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2652,30 +2676,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2685,19 +2685,67 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2725,55 +2773,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -6828,24 +6828,24 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="198" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="204"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="199"/>
     </row>
     <row r="3" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="205" t="s">
+      <c r="B3" s="200" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -6875,7 +6875,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="206"/>
+      <c r="B4" s="201"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -6889,7 +6889,7 @@
       <c r="A5" s="17">
         <v>5</v>
       </c>
-      <c r="B5" s="207" t="s">
+      <c r="B5" s="202" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -6898,20 +6898,20 @@
       <c r="D5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="209"/>
-      <c r="F5" s="198">
+      <c r="E5" s="204"/>
+      <c r="F5" s="207">
         <v>1</v>
       </c>
-      <c r="G5" s="207" t="s">
+      <c r="G5" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="207">
+      <c r="H5" s="202">
         <v>128</v>
       </c>
-      <c r="I5" s="207" t="s">
+      <c r="I5" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="207">
+      <c r="J5" s="202">
         <v>128</v>
       </c>
     </row>
@@ -6919,55 +6919,55 @@
       <c r="A6" s="17">
         <v>70</v>
       </c>
-      <c r="B6" s="208"/>
+      <c r="B6" s="203"/>
       <c r="C6" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="210"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="208"/>
-      <c r="J6" s="208"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="207"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="203"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="203"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>20</v>
       </c>
-      <c r="B7" s="208"/>
+      <c r="B7" s="203"/>
       <c r="C7" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="210"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="212"/>
-      <c r="H7" s="212"/>
-      <c r="I7" s="212"/>
-      <c r="J7" s="212"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="209"/>
+      <c r="H7" s="209"/>
+      <c r="I7" s="209"/>
+      <c r="J7" s="209"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>20</v>
       </c>
-      <c r="B8" s="208"/>
+      <c r="B8" s="203"/>
       <c r="C8" s="18" t="s">
         <v>90</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="211"/>
-      <c r="F8" s="200"/>
-      <c r="G8" s="212"/>
-      <c r="H8" s="212"/>
-      <c r="I8" s="212"/>
-      <c r="J8" s="212"/>
+      <c r="E8" s="206"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="209"/>
+      <c r="H8" s="209"/>
+      <c r="I8" s="209"/>
+      <c r="J8" s="209"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
@@ -6982,78 +6982,78 @@
       <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="199">
+      <c r="A10" s="210">
         <v>128</v>
       </c>
-      <c r="B10" s="198" t="s">
+      <c r="B10" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="200" t="s">
+      <c r="C10" s="208" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="202" t="s">
+      <c r="D10" s="212" t="s">
         <v>93</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="198">
+      <c r="F10" s="207">
         <v>1</v>
       </c>
-      <c r="G10" s="198" t="s">
+      <c r="G10" s="207" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="198">
+      <c r="H10" s="207">
         <v>128</v>
       </c>
-      <c r="I10" s="198" t="s">
+      <c r="I10" s="207" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="198">
+      <c r="J10" s="207">
         <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="199"/>
-      <c r="B11" s="198"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="202"/>
+      <c r="A11" s="210"/>
+      <c r="B11" s="207"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="212"/>
       <c r="E11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="198"/>
+      <c r="F11" s="207"/>
+      <c r="G11" s="207"/>
+      <c r="H11" s="207"/>
+      <c r="I11" s="207"/>
+      <c r="J11" s="207"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="199"/>
-      <c r="B12" s="198"/>
-      <c r="C12" s="201"/>
-      <c r="D12" s="202"/>
+      <c r="A12" s="210"/>
+      <c r="B12" s="207"/>
+      <c r="C12" s="211"/>
+      <c r="D12" s="212"/>
       <c r="E12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="198"/>
-      <c r="G12" s="198"/>
-      <c r="H12" s="198"/>
-      <c r="I12" s="198"/>
-      <c r="J12" s="198"/>
+      <c r="F12" s="207"/>
+      <c r="G12" s="207"/>
+      <c r="H12" s="207"/>
+      <c r="I12" s="207"/>
+      <c r="J12" s="207"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="199"/>
-      <c r="B13" s="198"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="202"/>
+      <c r="A13" s="210"/>
+      <c r="B13" s="207"/>
+      <c r="C13" s="211"/>
+      <c r="D13" s="212"/>
       <c r="E13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="198"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="198"/>
-      <c r="I13" s="198"/>
-      <c r="J13" s="198"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="207"/>
+      <c r="H13" s="207"/>
+      <c r="I13" s="207"/>
+      <c r="J13" s="207"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
@@ -7133,6 +7133,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B8"/>
@@ -7142,15 +7151,6 @@
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="I5:I8"/>
     <mergeCell ref="J5:J8"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -7194,40 +7194,40 @@
       <c r="F1" s="138"/>
     </row>
     <row r="2" spans="1:23" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="222" t="s">
+      <c r="A2" s="219" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="223"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="223"/>
-      <c r="N2" s="224"/>
+      <c r="B2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="221"/>
     </row>
     <row r="3" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="225" t="s">
+      <c r="A3" s="222" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="226"/>
-      <c r="J3" s="226"/>
-      <c r="K3" s="226"/>
-      <c r="L3" s="226"/>
-      <c r="M3" s="226"/>
-      <c r="N3" s="227"/>
+      <c r="B3" s="223"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="224"/>
       <c r="O3" s="139"/>
       <c r="P3" s="139"/>
     </row>
@@ -7298,7 +7298,7 @@
       <c r="B6" s="151">
         <v>5</v>
       </c>
-      <c r="C6" s="228" t="s">
+      <c r="C6" s="216" t="s">
         <v>106</v>
       </c>
       <c r="D6" s="18" t="s">
@@ -7307,25 +7307,25 @@
       <c r="E6" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="F6" s="229" t="s">
+      <c r="F6" s="217" t="s">
         <v>187</v>
       </c>
-      <c r="G6" s="201">
+      <c r="G6" s="211">
         <v>1</v>
       </c>
-      <c r="H6" s="201" t="s">
+      <c r="H6" s="211" t="s">
         <v>188</v>
       </c>
-      <c r="I6" s="201" t="s">
+      <c r="I6" s="211" t="s">
         <v>189</v>
       </c>
-      <c r="J6" s="230">
+      <c r="J6" s="218">
         <v>32</v>
       </c>
-      <c r="K6" s="230" t="s">
+      <c r="K6" s="218" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="201">
+      <c r="L6" s="211">
         <f>G6*J6</f>
         <v>32</v>
       </c>
@@ -7337,20 +7337,20 @@
       <c r="B7" s="152">
         <v>10</v>
       </c>
-      <c r="C7" s="228"/>
+      <c r="C7" s="216"/>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="229"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="201"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="230"/>
-      <c r="K7" s="230"/>
-      <c r="L7" s="201"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="218"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="211"/>
       <c r="O7" s="32"/>
       <c r="R7" s="150"/>
     </row>
@@ -7359,20 +7359,20 @@
       <c r="B8" s="152">
         <v>10</v>
       </c>
-      <c r="C8" s="228"/>
+      <c r="C8" s="216"/>
       <c r="D8" s="18" t="s">
         <v>89</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="229"/>
-      <c r="G8" s="201"/>
-      <c r="H8" s="201"/>
-      <c r="I8" s="201"/>
-      <c r="J8" s="230"/>
-      <c r="K8" s="230"/>
-      <c r="L8" s="201"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="218"/>
+      <c r="K8" s="218"/>
+      <c r="L8" s="211"/>
       <c r="O8" s="32"/>
       <c r="R8" s="150"/>
     </row>
@@ -7472,22 +7472,22 @@
       <c r="V13" s="32"/>
     </row>
     <row r="14" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="231" t="s">
+      <c r="A14" s="213" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="232"/>
-      <c r="C14" s="232"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="232"/>
-      <c r="F14" s="232"/>
-      <c r="G14" s="232"/>
-      <c r="H14" s="232"/>
-      <c r="I14" s="232"/>
-      <c r="J14" s="232"/>
-      <c r="K14" s="232"/>
-      <c r="L14" s="232"/>
-      <c r="M14" s="232"/>
-      <c r="N14" s="233"/>
+      <c r="B14" s="214"/>
+      <c r="C14" s="214"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="214"/>
+      <c r="F14" s="214"/>
+      <c r="G14" s="214"/>
+      <c r="H14" s="214"/>
+      <c r="I14" s="214"/>
+      <c r="J14" s="214"/>
+      <c r="K14" s="214"/>
+      <c r="L14" s="214"/>
+      <c r="M14" s="214"/>
+      <c r="N14" s="215"/>
       <c r="O14" s="139"/>
       <c r="P14" s="139"/>
     </row>
@@ -7558,7 +7558,7 @@
       <c r="B17" s="151">
         <v>5</v>
       </c>
-      <c r="C17" s="228" t="s">
+      <c r="C17" s="216" t="s">
         <v>106</v>
       </c>
       <c r="D17" s="18" t="s">
@@ -7567,25 +7567,25 @@
       <c r="E17" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="F17" s="229" t="s">
+      <c r="F17" s="217" t="s">
         <v>187</v>
       </c>
-      <c r="G17" s="201">
+      <c r="G17" s="211">
         <v>1</v>
       </c>
-      <c r="H17" s="201" t="s">
+      <c r="H17" s="211" t="s">
         <v>188</v>
       </c>
-      <c r="I17" s="201" t="s">
+      <c r="I17" s="211" t="s">
         <v>189</v>
       </c>
-      <c r="J17" s="230">
+      <c r="J17" s="218">
         <v>32</v>
       </c>
-      <c r="K17" s="230" t="s">
+      <c r="K17" s="218" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="201">
+      <c r="L17" s="211">
         <f>G17*J17</f>
         <v>32</v>
       </c>
@@ -7597,20 +7597,20 @@
       <c r="B18" s="152">
         <v>10</v>
       </c>
-      <c r="C18" s="228"/>
+      <c r="C18" s="216"/>
       <c r="D18" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="229"/>
-      <c r="G18" s="201"/>
-      <c r="H18" s="201"/>
-      <c r="I18" s="201"/>
-      <c r="J18" s="230"/>
-      <c r="K18" s="230"/>
-      <c r="L18" s="201"/>
+      <c r="F18" s="217"/>
+      <c r="G18" s="211"/>
+      <c r="H18" s="211"/>
+      <c r="I18" s="211"/>
+      <c r="J18" s="218"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="211"/>
       <c r="O18" s="32"/>
       <c r="R18" s="150"/>
     </row>
@@ -7619,20 +7619,20 @@
       <c r="B19" s="152">
         <v>10</v>
       </c>
-      <c r="C19" s="228"/>
+      <c r="C19" s="216"/>
       <c r="D19" s="18" t="s">
         <v>89</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="229"/>
-      <c r="G19" s="201"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="201"/>
-      <c r="J19" s="230"/>
-      <c r="K19" s="230"/>
-      <c r="L19" s="201"/>
+      <c r="F19" s="217"/>
+      <c r="G19" s="211"/>
+      <c r="H19" s="211"/>
+      <c r="I19" s="211"/>
+      <c r="J19" s="218"/>
+      <c r="K19" s="218"/>
+      <c r="L19" s="211"/>
       <c r="O19" s="32"/>
       <c r="R19" s="150"/>
     </row>
@@ -7670,22 +7670,22 @@
       <c r="S21" s="150"/>
     </row>
     <row r="24" spans="1:22" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="219" t="s">
+      <c r="A24" s="225" t="s">
         <v>193</v>
       </c>
-      <c r="B24" s="220"/>
-      <c r="C24" s="220"/>
-      <c r="D24" s="220"/>
-      <c r="E24" s="220"/>
-      <c r="F24" s="220"/>
-      <c r="G24" s="220"/>
-      <c r="H24" s="220"/>
-      <c r="I24" s="220"/>
-      <c r="J24" s="220"/>
-      <c r="K24" s="220"/>
-      <c r="L24" s="220"/>
-      <c r="M24" s="220"/>
-      <c r="N24" s="221"/>
+      <c r="B24" s="226"/>
+      <c r="C24" s="226"/>
+      <c r="D24" s="226"/>
+      <c r="E24" s="226"/>
+      <c r="F24" s="226"/>
+      <c r="G24" s="226"/>
+      <c r="H24" s="226"/>
+      <c r="I24" s="226"/>
+      <c r="J24" s="226"/>
+      <c r="K24" s="226"/>
+      <c r="L24" s="226"/>
+      <c r="M24" s="226"/>
+      <c r="N24" s="227"/>
       <c r="Q24" s="146"/>
       <c r="R24" s="146"/>
       <c r="S24" s="146"/>
@@ -7693,14 +7693,14 @@
       <c r="U24" s="146"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="213" t="s">
+      <c r="A25" s="228" t="s">
         <v>212</v>
       </c>
-      <c r="B25" s="214"/>
-      <c r="C25" s="214"/>
-      <c r="D25" s="214"/>
-      <c r="E25" s="214"/>
-      <c r="F25" s="214"/>
+      <c r="B25" s="229"/>
+      <c r="C25" s="229"/>
+      <c r="D25" s="229"/>
+      <c r="E25" s="229"/>
+      <c r="F25" s="229"/>
       <c r="G25" s="163"/>
       <c r="H25" s="163"/>
       <c r="I25" s="163"/>
@@ -7740,20 +7740,20 @@
       <c r="K26"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="215" t="s">
+      <c r="A27" s="230" t="s">
         <v>208</v>
       </c>
-      <c r="B27" s="200" t="s">
+      <c r="B27" s="208" t="s">
         <v>202</v>
       </c>
       <c r="C27" s="188" t="s">
         <v>203</v>
       </c>
-      <c r="D27" s="200" t="s">
+      <c r="D27" s="208" t="s">
         <v>200</v>
       </c>
-      <c r="E27" s="215"/>
-      <c r="F27" s="215"/>
+      <c r="E27" s="230"/>
+      <c r="F27" s="230"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
@@ -7761,14 +7761,14 @@
       <c r="K27"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="212"/>
-      <c r="B28" s="200"/>
+      <c r="A28" s="209"/>
+      <c r="B28" s="208"/>
       <c r="C28" s="188" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="200"/>
-      <c r="E28" s="212"/>
-      <c r="F28" s="212"/>
+      <c r="D28" s="208"/>
+      <c r="E28" s="209"/>
+      <c r="F28" s="209"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
@@ -7776,14 +7776,14 @@
       <c r="K28"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="212"/>
-      <c r="B29" s="200"/>
+      <c r="A29" s="209"/>
+      <c r="B29" s="208"/>
       <c r="C29" s="188" t="s">
         <v>204</v>
       </c>
-      <c r="D29" s="200"/>
-      <c r="E29" s="212"/>
-      <c r="F29" s="212"/>
+      <c r="D29" s="208"/>
+      <c r="E29" s="209"/>
+      <c r="F29" s="209"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
@@ -7791,14 +7791,14 @@
       <c r="K29"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="212"/>
-      <c r="B30" s="200"/>
+      <c r="A30" s="209"/>
+      <c r="B30" s="208"/>
       <c r="C30" s="188" t="s">
         <v>205</v>
       </c>
-      <c r="D30" s="200"/>
-      <c r="E30" s="212"/>
-      <c r="F30" s="212"/>
+      <c r="D30" s="208"/>
+      <c r="E30" s="209"/>
+      <c r="F30" s="209"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
@@ -7806,14 +7806,14 @@
       <c r="K30"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="212"/>
-      <c r="B31" s="200"/>
+      <c r="A31" s="209"/>
+      <c r="B31" s="208"/>
       <c r="C31" s="188" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="200"/>
-      <c r="E31" s="212"/>
-      <c r="F31" s="212"/>
+      <c r="D31" s="208"/>
+      <c r="E31" s="209"/>
+      <c r="F31" s="209"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
@@ -7821,18 +7821,18 @@
       <c r="K31"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="212"/>
-      <c r="B32" s="200" t="s">
+      <c r="A32" s="209"/>
+      <c r="B32" s="208" t="s">
         <v>207</v>
       </c>
-      <c r="C32" s="217" t="s">
+      <c r="C32" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="200" t="s">
+      <c r="D32" s="208" t="s">
         <v>201</v>
       </c>
-      <c r="E32" s="212"/>
-      <c r="F32" s="212"/>
+      <c r="E32" s="209"/>
+      <c r="F32" s="209"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
@@ -7840,12 +7840,12 @@
       <c r="K32"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="216"/>
-      <c r="B33" s="200"/>
-      <c r="C33" s="218"/>
-      <c r="D33" s="200"/>
-      <c r="E33" s="216"/>
-      <c r="F33" s="216"/>
+      <c r="A33" s="231"/>
+      <c r="B33" s="208"/>
+      <c r="C33" s="233"/>
+      <c r="D33" s="208"/>
+      <c r="E33" s="231"/>
+      <c r="F33" s="231"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
@@ -7866,14 +7866,14 @@
       <c r="K34"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="213" t="s">
+      <c r="A35" s="228" t="s">
         <v>211</v>
       </c>
-      <c r="B35" s="214"/>
-      <c r="C35" s="214"/>
-      <c r="D35" s="214"/>
-      <c r="E35" s="214"/>
-      <c r="F35" s="214"/>
+      <c r="B35" s="229"/>
+      <c r="C35" s="229"/>
+      <c r="D35" s="229"/>
+      <c r="E35" s="229"/>
+      <c r="F35" s="229"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
@@ -7906,20 +7906,20 @@
       <c r="K36"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="215" t="s">
+      <c r="A37" s="230" t="s">
         <v>209</v>
       </c>
-      <c r="B37" s="200" t="s">
+      <c r="B37" s="208" t="s">
         <v>202</v>
       </c>
       <c r="C37" s="188" t="s">
         <v>203</v>
       </c>
-      <c r="D37" s="200" t="s">
+      <c r="D37" s="208" t="s">
         <v>200</v>
       </c>
-      <c r="E37" s="215"/>
-      <c r="F37" s="215"/>
+      <c r="E37" s="230"/>
+      <c r="F37" s="230"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
@@ -7927,14 +7927,14 @@
       <c r="K37"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="212"/>
-      <c r="B38" s="200"/>
+      <c r="A38" s="209"/>
+      <c r="B38" s="208"/>
       <c r="C38" s="188" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="200"/>
-      <c r="E38" s="212"/>
-      <c r="F38" s="212"/>
+      <c r="D38" s="208"/>
+      <c r="E38" s="209"/>
+      <c r="F38" s="209"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
@@ -7942,14 +7942,14 @@
       <c r="K38"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="212"/>
-      <c r="B39" s="200"/>
+      <c r="A39" s="209"/>
+      <c r="B39" s="208"/>
       <c r="C39" s="188" t="s">
         <v>204</v>
       </c>
-      <c r="D39" s="200"/>
-      <c r="E39" s="212"/>
-      <c r="F39" s="212"/>
+      <c r="D39" s="208"/>
+      <c r="E39" s="209"/>
+      <c r="F39" s="209"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
@@ -7957,12 +7957,12 @@
       <c r="K39"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="212"/>
-      <c r="B40" s="200"/>
+      <c r="A40" s="209"/>
+      <c r="B40" s="208"/>
       <c r="C40" s="188"/>
-      <c r="D40" s="200"/>
-      <c r="E40" s="212"/>
-      <c r="F40" s="212"/>
+      <c r="D40" s="208"/>
+      <c r="E40" s="209"/>
+      <c r="F40" s="209"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
@@ -7970,14 +7970,14 @@
       <c r="K40"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="212"/>
-      <c r="B41" s="200"/>
+      <c r="A41" s="209"/>
+      <c r="B41" s="208"/>
       <c r="C41" s="188" t="s">
         <v>206</v>
       </c>
-      <c r="D41" s="200"/>
-      <c r="E41" s="212"/>
-      <c r="F41" s="212"/>
+      <c r="D41" s="208"/>
+      <c r="E41" s="209"/>
+      <c r="F41" s="209"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
@@ -7985,18 +7985,18 @@
       <c r="K41"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="212"/>
-      <c r="B42" s="200" t="s">
+      <c r="A42" s="209"/>
+      <c r="B42" s="208" t="s">
         <v>207</v>
       </c>
-      <c r="C42" s="217" t="s">
+      <c r="C42" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="200" t="s">
+      <c r="D42" s="208" t="s">
         <v>201</v>
       </c>
-      <c r="E42" s="212"/>
-      <c r="F42" s="212"/>
+      <c r="E42" s="209"/>
+      <c r="F42" s="209"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
@@ -8004,12 +8004,12 @@
       <c r="K42"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="216"/>
-      <c r="B43" s="200"/>
-      <c r="C43" s="218"/>
-      <c r="D43" s="200"/>
-      <c r="E43" s="216"/>
-      <c r="F43" s="216"/>
+      <c r="A43" s="231"/>
+      <c r="B43" s="208"/>
+      <c r="C43" s="233"/>
+      <c r="D43" s="208"/>
+      <c r="E43" s="231"/>
+      <c r="F43" s="231"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
@@ -8018,25 +8018,17 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A14:N14"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
     <mergeCell ref="A24:N24"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A27:A33"/>
@@ -8049,17 +8041,25 @@
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8103,40 +8103,40 @@
       <c r="F1" s="138"/>
     </row>
     <row r="2" spans="1:23" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="222" t="s">
+      <c r="A2" s="219" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="223"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="223"/>
-      <c r="N2" s="224"/>
+      <c r="B2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="221"/>
     </row>
     <row r="3" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="225" t="s">
+      <c r="A3" s="222" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="226"/>
-      <c r="J3" s="226"/>
-      <c r="K3" s="226"/>
-      <c r="L3" s="226"/>
-      <c r="M3" s="226"/>
-      <c r="N3" s="227"/>
+      <c r="B3" s="223"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="224"/>
       <c r="O3" s="139"/>
       <c r="P3" s="139"/>
     </row>
@@ -8207,7 +8207,7 @@
       <c r="B6" s="151">
         <v>5</v>
       </c>
-      <c r="C6" s="228" t="s">
+      <c r="C6" s="216" t="s">
         <v>106</v>
       </c>
       <c r="D6" s="18" t="s">
@@ -8216,25 +8216,25 @@
       <c r="E6" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="F6" s="229" t="s">
+      <c r="F6" s="217" t="s">
         <v>187</v>
       </c>
-      <c r="G6" s="201">
+      <c r="G6" s="211">
         <v>1</v>
       </c>
-      <c r="H6" s="201" t="s">
+      <c r="H6" s="211" t="s">
         <v>188</v>
       </c>
-      <c r="I6" s="201" t="s">
+      <c r="I6" s="211" t="s">
         <v>189</v>
       </c>
-      <c r="J6" s="230">
+      <c r="J6" s="218">
         <v>32</v>
       </c>
-      <c r="K6" s="230" t="s">
+      <c r="K6" s="218" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="201">
+      <c r="L6" s="211">
         <f>G6*J6</f>
         <v>32</v>
       </c>
@@ -8246,20 +8246,20 @@
       <c r="B7" s="152">
         <v>10</v>
       </c>
-      <c r="C7" s="228"/>
+      <c r="C7" s="216"/>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="229"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="201"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="230"/>
-      <c r="K7" s="230"/>
-      <c r="L7" s="201"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="218"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="211"/>
       <c r="O7" s="32"/>
       <c r="R7" s="150"/>
     </row>
@@ -8268,20 +8268,20 @@
       <c r="B8" s="152">
         <v>10</v>
       </c>
-      <c r="C8" s="228"/>
+      <c r="C8" s="216"/>
       <c r="D8" s="18" t="s">
         <v>89</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="229"/>
-      <c r="G8" s="201"/>
-      <c r="H8" s="201"/>
-      <c r="I8" s="201"/>
-      <c r="J8" s="230"/>
-      <c r="K8" s="230"/>
-      <c r="L8" s="201"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="218"/>
+      <c r="K8" s="218"/>
+      <c r="L8" s="211"/>
       <c r="O8" s="32"/>
       <c r="R8" s="150"/>
     </row>
@@ -8343,22 +8343,22 @@
       <c r="W11" s="150"/>
     </row>
     <row r="12" spans="1:23" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="219" t="s">
+      <c r="A12" s="225" t="s">
         <v>193</v>
       </c>
-      <c r="B12" s="220"/>
-      <c r="C12" s="220"/>
-      <c r="D12" s="220"/>
-      <c r="E12" s="220"/>
-      <c r="F12" s="220"/>
-      <c r="G12" s="220"/>
-      <c r="H12" s="220"/>
-      <c r="I12" s="220"/>
-      <c r="J12" s="220"/>
-      <c r="K12" s="220"/>
-      <c r="L12" s="220"/>
-      <c r="M12" s="220"/>
-      <c r="N12" s="221"/>
+      <c r="B12" s="226"/>
+      <c r="C12" s="226"/>
+      <c r="D12" s="226"/>
+      <c r="E12" s="226"/>
+      <c r="F12" s="226"/>
+      <c r="G12" s="226"/>
+      <c r="H12" s="226"/>
+      <c r="I12" s="226"/>
+      <c r="J12" s="226"/>
+      <c r="K12" s="226"/>
+      <c r="L12" s="226"/>
+      <c r="M12" s="226"/>
+      <c r="N12" s="227"/>
       <c r="Q12" s="146"/>
       <c r="R12" s="146"/>
       <c r="S12" s="146"/>
@@ -8366,14 +8366,14 @@
       <c r="U12" s="146"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="213" t="s">
+      <c r="A13" s="228" t="s">
         <v>212</v>
       </c>
-      <c r="B13" s="214"/>
-      <c r="C13" s="214"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="214"/>
-      <c r="F13" s="214"/>
+      <c r="B13" s="229"/>
+      <c r="C13" s="229"/>
+      <c r="D13" s="229"/>
+      <c r="E13" s="229"/>
+      <c r="F13" s="229"/>
       <c r="G13" s="163"/>
       <c r="H13" s="163"/>
       <c r="I13" s="163"/>
@@ -8413,20 +8413,20 @@
       <c r="K14"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="215" t="s">
+      <c r="A15" s="230" t="s">
         <v>208</v>
       </c>
-      <c r="B15" s="200" t="s">
+      <c r="B15" s="208" t="s">
         <v>202</v>
       </c>
       <c r="C15" s="188" t="s">
         <v>203</v>
       </c>
-      <c r="D15" s="200" t="s">
+      <c r="D15" s="208" t="s">
         <v>200</v>
       </c>
-      <c r="E15" s="215"/>
-      <c r="F15" s="215"/>
+      <c r="E15" s="230"/>
+      <c r="F15" s="230"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -8434,14 +8434,14 @@
       <c r="K15"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="212"/>
-      <c r="B16" s="200"/>
+      <c r="A16" s="209"/>
+      <c r="B16" s="208"/>
       <c r="C16" s="188" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="200"/>
-      <c r="E16" s="212"/>
-      <c r="F16" s="212"/>
+      <c r="D16" s="208"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="209"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
@@ -8449,14 +8449,14 @@
       <c r="K16"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="212"/>
-      <c r="B17" s="200"/>
+      <c r="A17" s="209"/>
+      <c r="B17" s="208"/>
       <c r="C17" s="188" t="s">
         <v>204</v>
       </c>
-      <c r="D17" s="200"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
+      <c r="D17" s="208"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="209"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
@@ -8464,14 +8464,14 @@
       <c r="K17"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="212"/>
-      <c r="B18" s="200"/>
+      <c r="A18" s="209"/>
+      <c r="B18" s="208"/>
       <c r="C18" s="188" t="s">
         <v>205</v>
       </c>
-      <c r="D18" s="200"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
+      <c r="D18" s="208"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
@@ -8479,14 +8479,14 @@
       <c r="K18"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="212"/>
-      <c r="B19" s="200"/>
+      <c r="A19" s="209"/>
+      <c r="B19" s="208"/>
       <c r="C19" s="188" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="200"/>
-      <c r="E19" s="212"/>
-      <c r="F19" s="212"/>
+      <c r="D19" s="208"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="209"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
@@ -8494,18 +8494,18 @@
       <c r="K19"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="212"/>
-      <c r="B20" s="200" t="s">
+      <c r="A20" s="209"/>
+      <c r="B20" s="208" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="217" t="s">
+      <c r="C20" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="200" t="s">
+      <c r="D20" s="208" t="s">
         <v>201</v>
       </c>
-      <c r="E20" s="212"/>
-      <c r="F20" s="212"/>
+      <c r="E20" s="209"/>
+      <c r="F20" s="209"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
@@ -8513,12 +8513,12 @@
       <c r="K20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="216"/>
-      <c r="B21" s="200"/>
-      <c r="C21" s="218"/>
-      <c r="D21" s="200"/>
-      <c r="E21" s="216"/>
-      <c r="F21" s="216"/>
+      <c r="A21" s="231"/>
+      <c r="B21" s="208"/>
+      <c r="C21" s="233"/>
+      <c r="D21" s="208"/>
+      <c r="E21" s="231"/>
+      <c r="F21" s="231"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
@@ -8542,16 +8542,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
     <mergeCell ref="A12:N12"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A15:A21"/>
@@ -8564,6 +8554,16 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8574,7 +8574,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6326A54D-ADC6-4060-8767-672C9B07B154}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8607,40 +8609,40 @@
       <c r="F1" s="138"/>
     </row>
     <row r="2" spans="1:21" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="222" t="s">
+      <c r="A2" s="219" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="223"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="223"/>
-      <c r="N2" s="224"/>
+      <c r="B2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="221"/>
     </row>
     <row r="3" spans="1:21" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="234" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="223"/>
-      <c r="C3" s="223"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223"/>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="224"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="221"/>
       <c r="O3" s="139"/>
       <c r="P3" s="139"/>
     </row>
@@ -8742,7 +8744,7 @@
       <c r="B8" s="152">
         <v>5</v>
       </c>
-      <c r="C8" s="228" t="s">
+      <c r="C8" s="216" t="s">
         <v>106</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -8751,22 +8753,22 @@
       <c r="E8" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="F8" s="229" t="s">
+      <c r="F8" s="217" t="s">
         <v>187</v>
       </c>
-      <c r="G8" s="201">
+      <c r="G8" s="211">
         <v>1</v>
       </c>
-      <c r="H8" s="201" t="s">
+      <c r="H8" s="211" t="s">
         <v>188</v>
       </c>
-      <c r="I8" s="201" t="s">
+      <c r="I8" s="211" t="s">
         <v>191</v>
       </c>
-      <c r="J8" s="230">
+      <c r="J8" s="218">
         <v>64</v>
       </c>
-      <c r="K8" s="230" t="s">
+      <c r="K8" s="218" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="235">
@@ -8781,19 +8783,19 @@
       <c r="B9" s="152">
         <v>10</v>
       </c>
-      <c r="C9" s="228"/>
+      <c r="C9" s="216"/>
       <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="229"/>
-      <c r="G9" s="201"/>
-      <c r="H9" s="201"/>
-      <c r="I9" s="201"/>
-      <c r="J9" s="230"/>
-      <c r="K9" s="230"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="218"/>
+      <c r="K9" s="218"/>
       <c r="L9" s="236"/>
       <c r="O9" s="32"/>
       <c r="R9" s="150"/>
@@ -8803,19 +8805,19 @@
       <c r="B10" s="152">
         <v>40</v>
       </c>
-      <c r="C10" s="228"/>
+      <c r="C10" s="216"/>
       <c r="D10" s="18" t="s">
         <v>89</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="229"/>
-      <c r="G10" s="201"/>
-      <c r="H10" s="201"/>
-      <c r="I10" s="201"/>
-      <c r="J10" s="230"/>
-      <c r="K10" s="230"/>
+      <c r="F10" s="217"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="218"/>
+      <c r="K10" s="218"/>
       <c r="L10" s="237"/>
       <c r="O10" s="32"/>
       <c r="R10" s="150"/>
@@ -8881,7 +8883,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8896,12 +8898,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="249" t="s">
+      <c r="A1" s="238" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="249"/>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -8944,74 +8946,74 @@
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="250" t="s">
+      <c r="A4" s="239" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="251"/>
-      <c r="C4" s="251"/>
-      <c r="D4" s="251"/>
-      <c r="E4" s="251"/>
-      <c r="F4" s="251"/>
-      <c r="G4" s="251"/>
-      <c r="H4" s="251"/>
-      <c r="I4" s="251"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="251"/>
-      <c r="L4" s="252"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="240"/>
+      <c r="G4" s="240"/>
+      <c r="H4" s="240"/>
+      <c r="I4" s="240"/>
+      <c r="J4" s="240"/>
+      <c r="K4" s="240"/>
+      <c r="L4" s="241"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="253"/>
+      <c r="A5" s="242"/>
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="205" t="s">
+      <c r="C5" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="253" t="s">
+      <c r="D5" s="242" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="253" t="s">
+      <c r="E5" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="253" t="s">
+      <c r="F5" s="242" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="205" t="s">
+      <c r="H5" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="205" t="s">
+      <c r="I5" s="200" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="205" t="s">
+      <c r="J5" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="205" t="s">
+      <c r="K5" s="200" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="255" t="s">
+      <c r="L5" s="244" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="254"/>
+      <c r="A6" s="243"/>
       <c r="B6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="206"/>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="254"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
       <c r="G6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="206"/>
-      <c r="I6" s="206"/>
-      <c r="J6" s="206"/>
-      <c r="K6" s="206"/>
-      <c r="L6" s="256"/>
+      <c r="H6" s="201"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="201"/>
+      <c r="K6" s="201"/>
+      <c r="L6" s="245"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
@@ -9029,8 +9031,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="244" t="s">
+      <c r="B8" s="40">
+        <v>1</v>
+      </c>
+      <c r="C8" s="252" t="s">
         <v>106</v>
       </c>
       <c r="D8" s="38" t="s">
@@ -9039,67 +9043,73 @@
       <c r="E8" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="238">
+      <c r="F8" s="246">
         <v>1</v>
       </c>
-      <c r="G8" s="238" t="s">
+      <c r="G8" s="246" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="238" t="s">
+      <c r="H8" s="246" t="s">
         <v>114</v>
       </c>
-      <c r="I8" s="238">
+      <c r="I8" s="246">
         <v>64</v>
       </c>
-      <c r="J8" s="238" t="s">
+      <c r="J8" s="246" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="238" t="s">
+      <c r="K8" s="246" t="s">
         <v>115</v>
       </c>
-      <c r="L8" s="241">
+      <c r="L8" s="249">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="245"/>
+      <c r="B9" s="40">
+        <v>50</v>
+      </c>
+      <c r="C9" s="253"/>
       <c r="D9" s="38" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="239"/>
-      <c r="G9" s="239"/>
-      <c r="H9" s="239"/>
-      <c r="I9" s="239"/>
-      <c r="J9" s="239"/>
-      <c r="K9" s="239"/>
-      <c r="L9" s="242"/>
+      <c r="F9" s="247"/>
+      <c r="G9" s="247"/>
+      <c r="H9" s="247"/>
+      <c r="I9" s="247"/>
+      <c r="J9" s="247"/>
+      <c r="K9" s="247"/>
+      <c r="L9" s="250"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="41"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="246"/>
+      <c r="B10" s="40">
+        <v>10</v>
+      </c>
+      <c r="C10" s="254"/>
       <c r="D10" s="38" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="240"/>
-      <c r="G10" s="239"/>
-      <c r="H10" s="240"/>
-      <c r="I10" s="240"/>
-      <c r="J10" s="240"/>
-      <c r="K10" s="240"/>
-      <c r="L10" s="243"/>
+      <c r="F10" s="248"/>
+      <c r="G10" s="247"/>
+      <c r="H10" s="248"/>
+      <c r="I10" s="248"/>
+      <c r="J10" s="248"/>
+      <c r="K10" s="248"/>
+      <c r="L10" s="251"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
-      <c r="B11" s="40"/>
+      <c r="B11" s="40">
+        <v>230</v>
+      </c>
       <c r="C11" s="42" t="s">
         <v>107</v>
       </c>
@@ -9112,7 +9122,7 @@
       <c r="F11" s="43">
         <v>1</v>
       </c>
-      <c r="G11" s="247"/>
+      <c r="G11" s="255"/>
       <c r="H11" s="43" t="s">
         <v>116</v>
       </c>
@@ -9131,7 +9141,9 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
-      <c r="B12" s="40"/>
+      <c r="B12" s="40">
+        <v>127</v>
+      </c>
       <c r="C12" s="45" t="s">
         <v>109</v>
       </c>
@@ -9144,7 +9156,7 @@
       <c r="F12" s="43">
         <v>1</v>
       </c>
-      <c r="G12" s="247"/>
+      <c r="G12" s="255"/>
       <c r="H12" s="43" t="s">
         <v>12</v>
       </c>
@@ -9163,7 +9175,9 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
-      <c r="B13" s="40"/>
+      <c r="B13" s="40">
+        <v>256</v>
+      </c>
       <c r="C13" s="45" t="s">
         <v>111</v>
       </c>
@@ -9176,7 +9190,7 @@
       <c r="F13" s="43">
         <v>1</v>
       </c>
-      <c r="G13" s="248"/>
+      <c r="G13" s="256"/>
       <c r="H13" s="43" t="s">
         <v>116</v>
       </c>
@@ -9269,6 +9283,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A5:A6"/>
@@ -9281,14 +9303,6 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9528,7 +9542,7 @@
       <c r="C9" s="100">
         <v>1</v>
       </c>
-      <c r="D9" s="274" t="s">
+      <c r="D9" s="265" t="s">
         <v>106</v>
       </c>
       <c r="E9" s="101" t="s">
@@ -9537,7 +9551,7 @@
       <c r="F9" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="269">
+      <c r="G9" s="267">
         <v>1</v>
       </c>
       <c r="H9" s="257" t="s">
@@ -9555,11 +9569,11 @@
       <c r="L9" s="257">
         <v>32</v>
       </c>
-      <c r="M9" s="260" t="s">
+      <c r="M9" s="259" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="260"/>
-      <c r="O9" s="278">
+      <c r="N9" s="259"/>
+      <c r="O9" s="261">
         <v>32</v>
       </c>
       <c r="P9" s="62"/>
@@ -9573,22 +9587,22 @@
       <c r="C10" s="100">
         <v>10</v>
       </c>
-      <c r="D10" s="276"/>
+      <c r="D10" s="266"/>
       <c r="E10" s="101" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="271"/>
+      <c r="G10" s="268"/>
       <c r="H10" s="258"/>
       <c r="I10" s="258"/>
       <c r="J10" s="258"/>
       <c r="K10" s="258"/>
       <c r="L10" s="258"/>
-      <c r="M10" s="262"/>
-      <c r="N10" s="262"/>
-      <c r="O10" s="279"/>
+      <c r="M10" s="260"/>
+      <c r="N10" s="260"/>
+      <c r="O10" s="262"/>
       <c r="P10" s="62"/>
       <c r="Q10" s="62"/>
     </row>
@@ -9646,7 +9660,7 @@
       <c r="C13" s="100">
         <v>2045</v>
       </c>
-      <c r="D13" s="280" t="s">
+      <c r="D13" s="263" t="s">
         <v>135</v>
       </c>
       <c r="E13" s="101" t="s">
@@ -9673,11 +9687,11 @@
       <c r="L13" s="257">
         <v>1024</v>
       </c>
-      <c r="M13" s="260" t="s">
+      <c r="M13" s="259" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="260"/>
-      <c r="O13" s="272">
+      <c r="N13" s="259"/>
+      <c r="O13" s="269">
         <v>2048</v>
       </c>
       <c r="P13" s="62"/>
@@ -9691,7 +9705,7 @@
       <c r="C14" s="100">
         <v>2</v>
       </c>
-      <c r="D14" s="281"/>
+      <c r="D14" s="264"/>
       <c r="E14" s="101" t="s">
         <v>137</v>
       </c>
@@ -9704,9 +9718,9 @@
       <c r="J14" s="258"/>
       <c r="K14" s="258"/>
       <c r="L14" s="258"/>
-      <c r="M14" s="262"/>
-      <c r="N14" s="262"/>
-      <c r="O14" s="273"/>
+      <c r="M14" s="260"/>
+      <c r="N14" s="260"/>
+      <c r="O14" s="270"/>
       <c r="P14" s="62"/>
       <c r="Q14" s="62"/>
     </row>
@@ -9785,7 +9799,7 @@
       <c r="C18" s="100">
         <v>267</v>
       </c>
-      <c r="D18" s="274" t="s">
+      <c r="D18" s="265" t="s">
         <v>139</v>
       </c>
       <c r="E18" s="101" t="s">
@@ -9812,11 +9826,11 @@
       <c r="L18" s="257">
         <v>1024</v>
       </c>
-      <c r="M18" s="260" t="s">
+      <c r="M18" s="259" t="s">
         <v>13</v>
       </c>
       <c r="N18" s="257"/>
-      <c r="O18" s="272">
+      <c r="O18" s="269">
         <v>1024</v>
       </c>
       <c r="P18" s="62"/>
@@ -9830,22 +9844,22 @@
       <c r="C19" s="100">
         <v>267</v>
       </c>
-      <c r="D19" s="275"/>
+      <c r="D19" s="271"/>
       <c r="E19" s="101" t="s">
         <v>142</v>
       </c>
       <c r="F19" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="259"/>
-      <c r="H19" s="259"/>
-      <c r="I19" s="259"/>
-      <c r="J19" s="259"/>
-      <c r="K19" s="259"/>
-      <c r="L19" s="259"/>
-      <c r="M19" s="261"/>
-      <c r="N19" s="259"/>
-      <c r="O19" s="277"/>
+      <c r="G19" s="272"/>
+      <c r="H19" s="272"/>
+      <c r="I19" s="272"/>
+      <c r="J19" s="272"/>
+      <c r="K19" s="272"/>
+      <c r="L19" s="272"/>
+      <c r="M19" s="273"/>
+      <c r="N19" s="272"/>
+      <c r="O19" s="274"/>
       <c r="P19" s="62"/>
       <c r="Q19" s="62"/>
     </row>
@@ -9857,22 +9871,22 @@
       <c r="C20" s="100">
         <v>50</v>
       </c>
-      <c r="D20" s="275"/>
+      <c r="D20" s="271"/>
       <c r="E20" s="101" t="s">
         <v>144</v>
       </c>
       <c r="F20" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="259"/>
-      <c r="H20" s="259"/>
-      <c r="I20" s="259"/>
-      <c r="J20" s="259"/>
-      <c r="K20" s="259"/>
-      <c r="L20" s="259"/>
-      <c r="M20" s="261"/>
-      <c r="N20" s="259"/>
-      <c r="O20" s="277"/>
+      <c r="G20" s="272"/>
+      <c r="H20" s="272"/>
+      <c r="I20" s="272"/>
+      <c r="J20" s="272"/>
+      <c r="K20" s="272"/>
+      <c r="L20" s="272"/>
+      <c r="M20" s="273"/>
+      <c r="N20" s="272"/>
+      <c r="O20" s="274"/>
       <c r="P20" s="62"/>
       <c r="Q20" s="62"/>
     </row>
@@ -9884,22 +9898,22 @@
       <c r="C21" s="100">
         <v>50</v>
       </c>
-      <c r="D21" s="275"/>
+      <c r="D21" s="271"/>
       <c r="E21" s="101" t="s">
         <v>145</v>
       </c>
       <c r="F21" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="G21" s="259"/>
-      <c r="H21" s="259"/>
-      <c r="I21" s="259"/>
-      <c r="J21" s="259"/>
-      <c r="K21" s="259"/>
-      <c r="L21" s="259"/>
-      <c r="M21" s="261"/>
-      <c r="N21" s="259"/>
-      <c r="O21" s="277"/>
+      <c r="G21" s="272"/>
+      <c r="H21" s="272"/>
+      <c r="I21" s="272"/>
+      <c r="J21" s="272"/>
+      <c r="K21" s="272"/>
+      <c r="L21" s="272"/>
+      <c r="M21" s="273"/>
+      <c r="N21" s="272"/>
+      <c r="O21" s="274"/>
       <c r="P21" s="62"/>
       <c r="Q21" s="62"/>
     </row>
@@ -9911,7 +9925,7 @@
       <c r="C22" s="100">
         <v>50</v>
       </c>
-      <c r="D22" s="276"/>
+      <c r="D22" s="266"/>
       <c r="E22" s="101" t="s">
         <v>147</v>
       </c>
@@ -9924,9 +9938,9 @@
       <c r="J22" s="258"/>
       <c r="K22" s="258"/>
       <c r="L22" s="258"/>
-      <c r="M22" s="262"/>
+      <c r="M22" s="260"/>
       <c r="N22" s="258"/>
-      <c r="O22" s="273"/>
+      <c r="O22" s="270"/>
       <c r="P22" s="62"/>
       <c r="Q22" s="62"/>
     </row>
@@ -9986,7 +10000,7 @@
       <c r="C25" s="110">
         <v>2560</v>
       </c>
-      <c r="D25" s="266" t="s">
+      <c r="D25" s="278" t="s">
         <v>149</v>
       </c>
       <c r="E25" s="101" t="s">
@@ -10001,7 +10015,7 @@
       <c r="H25" s="257" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="269" t="s">
+      <c r="I25" s="267" t="s">
         <v>131</v>
       </c>
       <c r="J25" s="257">
@@ -10013,13 +10027,13 @@
       <c r="L25" s="257">
         <v>4096</v>
       </c>
-      <c r="M25" s="260" t="s">
+      <c r="M25" s="259" t="s">
         <v>13</v>
       </c>
       <c r="N25" s="257" t="s">
         <v>132</v>
       </c>
-      <c r="O25" s="263">
+      <c r="O25" s="275">
         <f>G25*L25</f>
         <v>40960</v>
       </c>
@@ -10036,22 +10050,22 @@
       <c r="C26" s="110">
         <v>2560</v>
       </c>
-      <c r="D26" s="267"/>
+      <c r="D26" s="279"/>
       <c r="E26" s="101" t="s">
         <v>152</v>
       </c>
       <c r="F26" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="G26" s="259"/>
-      <c r="H26" s="259"/>
-      <c r="I26" s="270"/>
-      <c r="J26" s="259"/>
-      <c r="K26" s="259"/>
-      <c r="L26" s="259"/>
-      <c r="M26" s="261"/>
-      <c r="N26" s="259"/>
-      <c r="O26" s="264"/>
+      <c r="G26" s="272"/>
+      <c r="H26" s="272"/>
+      <c r="I26" s="281"/>
+      <c r="J26" s="272"/>
+      <c r="K26" s="272"/>
+      <c r="L26" s="272"/>
+      <c r="M26" s="273"/>
+      <c r="N26" s="272"/>
+      <c r="O26" s="276"/>
       <c r="P26" s="62"/>
       <c r="Q26" s="62"/>
     </row>
@@ -10065,22 +10079,22 @@
       <c r="C27" s="110">
         <v>2560</v>
       </c>
-      <c r="D27" s="267"/>
+      <c r="D27" s="279"/>
       <c r="E27" s="101" t="s">
         <v>154</v>
       </c>
       <c r="F27" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="G27" s="259"/>
-      <c r="H27" s="259"/>
-      <c r="I27" s="270"/>
-      <c r="J27" s="259"/>
-      <c r="K27" s="259"/>
-      <c r="L27" s="259"/>
-      <c r="M27" s="261"/>
-      <c r="N27" s="259"/>
-      <c r="O27" s="264"/>
+      <c r="G27" s="272"/>
+      <c r="H27" s="272"/>
+      <c r="I27" s="281"/>
+      <c r="J27" s="272"/>
+      <c r="K27" s="272"/>
+      <c r="L27" s="272"/>
+      <c r="M27" s="273"/>
+      <c r="N27" s="272"/>
+      <c r="O27" s="276"/>
       <c r="P27" s="62"/>
       <c r="Q27" s="62"/>
     </row>
@@ -10094,22 +10108,22 @@
       <c r="C28" s="110">
         <v>2560</v>
       </c>
-      <c r="D28" s="267"/>
+      <c r="D28" s="279"/>
       <c r="E28" s="101" t="s">
         <v>156</v>
       </c>
       <c r="F28" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="G28" s="259"/>
-      <c r="H28" s="259"/>
-      <c r="I28" s="270"/>
-      <c r="J28" s="259"/>
-      <c r="K28" s="259"/>
-      <c r="L28" s="259"/>
-      <c r="M28" s="261"/>
-      <c r="N28" s="259"/>
-      <c r="O28" s="264"/>
+      <c r="G28" s="272"/>
+      <c r="H28" s="272"/>
+      <c r="I28" s="281"/>
+      <c r="J28" s="272"/>
+      <c r="K28" s="272"/>
+      <c r="L28" s="272"/>
+      <c r="M28" s="273"/>
+      <c r="N28" s="272"/>
+      <c r="O28" s="276"/>
       <c r="P28" s="62"/>
       <c r="Q28" s="62"/>
     </row>
@@ -10123,22 +10137,22 @@
       <c r="C29" s="110">
         <v>2560</v>
       </c>
-      <c r="D29" s="267"/>
+      <c r="D29" s="279"/>
       <c r="E29" s="101" t="s">
         <v>158</v>
       </c>
       <c r="F29" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="G29" s="259"/>
-      <c r="H29" s="259"/>
-      <c r="I29" s="270"/>
-      <c r="J29" s="259"/>
-      <c r="K29" s="259"/>
-      <c r="L29" s="259"/>
-      <c r="M29" s="261"/>
-      <c r="N29" s="259"/>
-      <c r="O29" s="264"/>
+      <c r="G29" s="272"/>
+      <c r="H29" s="272"/>
+      <c r="I29" s="281"/>
+      <c r="J29" s="272"/>
+      <c r="K29" s="272"/>
+      <c r="L29" s="272"/>
+      <c r="M29" s="273"/>
+      <c r="N29" s="272"/>
+      <c r="O29" s="276"/>
       <c r="P29" s="62"/>
       <c r="Q29" s="62"/>
     </row>
@@ -10152,22 +10166,22 @@
       <c r="C30" s="110">
         <v>2560</v>
       </c>
-      <c r="D30" s="267"/>
+      <c r="D30" s="279"/>
       <c r="E30" s="101" t="s">
         <v>160</v>
       </c>
       <c r="F30" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="G30" s="259"/>
-      <c r="H30" s="259"/>
-      <c r="I30" s="270"/>
-      <c r="J30" s="259"/>
-      <c r="K30" s="259"/>
-      <c r="L30" s="259"/>
-      <c r="M30" s="261"/>
-      <c r="N30" s="259"/>
-      <c r="O30" s="264"/>
+      <c r="G30" s="272"/>
+      <c r="H30" s="272"/>
+      <c r="I30" s="281"/>
+      <c r="J30" s="272"/>
+      <c r="K30" s="272"/>
+      <c r="L30" s="272"/>
+      <c r="M30" s="273"/>
+      <c r="N30" s="272"/>
+      <c r="O30" s="276"/>
       <c r="P30" s="62"/>
       <c r="Q30" s="62"/>
     </row>
@@ -10181,22 +10195,22 @@
       <c r="C31" s="110">
         <v>2560</v>
       </c>
-      <c r="D31" s="267"/>
+      <c r="D31" s="279"/>
       <c r="E31" s="101" t="s">
         <v>162</v>
       </c>
       <c r="F31" s="101" t="s">
         <v>163</v>
       </c>
-      <c r="G31" s="259"/>
-      <c r="H31" s="259"/>
-      <c r="I31" s="270"/>
-      <c r="J31" s="259"/>
-      <c r="K31" s="259"/>
-      <c r="L31" s="259"/>
-      <c r="M31" s="261"/>
-      <c r="N31" s="259"/>
-      <c r="O31" s="264"/>
+      <c r="G31" s="272"/>
+      <c r="H31" s="272"/>
+      <c r="I31" s="281"/>
+      <c r="J31" s="272"/>
+      <c r="K31" s="272"/>
+      <c r="L31" s="272"/>
+      <c r="M31" s="273"/>
+      <c r="N31" s="272"/>
+      <c r="O31" s="276"/>
       <c r="P31" s="62"/>
       <c r="Q31" s="62"/>
     </row>
@@ -10210,22 +10224,22 @@
       <c r="C32" s="110">
         <v>2560</v>
       </c>
-      <c r="D32" s="267"/>
+      <c r="D32" s="279"/>
       <c r="E32" s="101" t="s">
         <v>164</v>
       </c>
       <c r="F32" s="101" t="s">
         <v>165</v>
       </c>
-      <c r="G32" s="259"/>
-      <c r="H32" s="259"/>
-      <c r="I32" s="270"/>
-      <c r="J32" s="259"/>
-      <c r="K32" s="259"/>
-      <c r="L32" s="259"/>
-      <c r="M32" s="261"/>
-      <c r="N32" s="259"/>
-      <c r="O32" s="264"/>
+      <c r="G32" s="272"/>
+      <c r="H32" s="272"/>
+      <c r="I32" s="281"/>
+      <c r="J32" s="272"/>
+      <c r="K32" s="272"/>
+      <c r="L32" s="272"/>
+      <c r="M32" s="273"/>
+      <c r="N32" s="272"/>
+      <c r="O32" s="276"/>
       <c r="P32" s="62"/>
       <c r="Q32" s="62"/>
     </row>
@@ -10239,22 +10253,22 @@
       <c r="C33" s="110">
         <v>2560</v>
       </c>
-      <c r="D33" s="267"/>
+      <c r="D33" s="279"/>
       <c r="E33" s="101" t="s">
         <v>166</v>
       </c>
       <c r="F33" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="G33" s="259"/>
-      <c r="H33" s="259"/>
-      <c r="I33" s="270"/>
-      <c r="J33" s="259"/>
-      <c r="K33" s="259"/>
-      <c r="L33" s="259"/>
-      <c r="M33" s="261"/>
-      <c r="N33" s="259"/>
-      <c r="O33" s="264"/>
+      <c r="G33" s="272"/>
+      <c r="H33" s="272"/>
+      <c r="I33" s="281"/>
+      <c r="J33" s="272"/>
+      <c r="K33" s="272"/>
+      <c r="L33" s="272"/>
+      <c r="M33" s="273"/>
+      <c r="N33" s="272"/>
+      <c r="O33" s="276"/>
       <c r="P33" s="62"/>
       <c r="Q33" s="62"/>
     </row>
@@ -10268,22 +10282,22 @@
       <c r="C34" s="110">
         <v>2560</v>
       </c>
-      <c r="D34" s="267"/>
+      <c r="D34" s="279"/>
       <c r="E34" s="101" t="s">
         <v>168</v>
       </c>
       <c r="F34" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="G34" s="259"/>
-      <c r="H34" s="259"/>
-      <c r="I34" s="270"/>
-      <c r="J34" s="259"/>
-      <c r="K34" s="259"/>
-      <c r="L34" s="259"/>
-      <c r="M34" s="261"/>
-      <c r="N34" s="259"/>
-      <c r="O34" s="264"/>
+      <c r="G34" s="272"/>
+      <c r="H34" s="272"/>
+      <c r="I34" s="281"/>
+      <c r="J34" s="272"/>
+      <c r="K34" s="272"/>
+      <c r="L34" s="272"/>
+      <c r="M34" s="273"/>
+      <c r="N34" s="272"/>
+      <c r="O34" s="276"/>
       <c r="P34" s="62"/>
       <c r="Q34" s="62"/>
     </row>
@@ -10297,22 +10311,22 @@
       <c r="C35" s="110">
         <v>2560</v>
       </c>
-      <c r="D35" s="267"/>
+      <c r="D35" s="279"/>
       <c r="E35" s="101" t="s">
         <v>170</v>
       </c>
       <c r="F35" s="101" t="s">
         <v>171</v>
       </c>
-      <c r="G35" s="259"/>
-      <c r="H35" s="259"/>
-      <c r="I35" s="270"/>
-      <c r="J35" s="259"/>
-      <c r="K35" s="259"/>
-      <c r="L35" s="259"/>
-      <c r="M35" s="261"/>
-      <c r="N35" s="259"/>
-      <c r="O35" s="264"/>
+      <c r="G35" s="272"/>
+      <c r="H35" s="272"/>
+      <c r="I35" s="281"/>
+      <c r="J35" s="272"/>
+      <c r="K35" s="272"/>
+      <c r="L35" s="272"/>
+      <c r="M35" s="273"/>
+      <c r="N35" s="272"/>
+      <c r="O35" s="276"/>
       <c r="P35" s="62"/>
       <c r="Q35" s="62"/>
     </row>
@@ -10326,22 +10340,22 @@
       <c r="C36" s="110">
         <v>2560</v>
       </c>
-      <c r="D36" s="267"/>
+      <c r="D36" s="279"/>
       <c r="E36" s="101" t="s">
         <v>172</v>
       </c>
       <c r="F36" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="G36" s="259"/>
-      <c r="H36" s="259"/>
-      <c r="I36" s="270"/>
-      <c r="J36" s="259"/>
-      <c r="K36" s="259"/>
-      <c r="L36" s="259"/>
-      <c r="M36" s="261"/>
-      <c r="N36" s="259"/>
-      <c r="O36" s="264"/>
+      <c r="G36" s="272"/>
+      <c r="H36" s="272"/>
+      <c r="I36" s="281"/>
+      <c r="J36" s="272"/>
+      <c r="K36" s="272"/>
+      <c r="L36" s="272"/>
+      <c r="M36" s="273"/>
+      <c r="N36" s="272"/>
+      <c r="O36" s="276"/>
       <c r="P36" s="62"/>
       <c r="Q36" s="62"/>
     </row>
@@ -10355,22 +10369,22 @@
       <c r="C37" s="110">
         <v>2560</v>
       </c>
-      <c r="D37" s="267"/>
+      <c r="D37" s="279"/>
       <c r="E37" s="101" t="s">
         <v>174</v>
       </c>
       <c r="F37" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="G37" s="259"/>
-      <c r="H37" s="259"/>
-      <c r="I37" s="270"/>
-      <c r="J37" s="259"/>
-      <c r="K37" s="259"/>
-      <c r="L37" s="259"/>
-      <c r="M37" s="261"/>
-      <c r="N37" s="259"/>
-      <c r="O37" s="264"/>
+      <c r="G37" s="272"/>
+      <c r="H37" s="272"/>
+      <c r="I37" s="281"/>
+      <c r="J37" s="272"/>
+      <c r="K37" s="272"/>
+      <c r="L37" s="272"/>
+      <c r="M37" s="273"/>
+      <c r="N37" s="272"/>
+      <c r="O37" s="276"/>
       <c r="P37" s="62"/>
       <c r="Q37" s="62"/>
     </row>
@@ -10384,22 +10398,22 @@
       <c r="C38" s="110">
         <v>2560</v>
       </c>
-      <c r="D38" s="267"/>
+      <c r="D38" s="279"/>
       <c r="E38" s="101" t="s">
         <v>176</v>
       </c>
       <c r="F38" s="101" t="s">
         <v>177</v>
       </c>
-      <c r="G38" s="259"/>
-      <c r="H38" s="259"/>
-      <c r="I38" s="270"/>
-      <c r="J38" s="259"/>
-      <c r="K38" s="259"/>
-      <c r="L38" s="259"/>
-      <c r="M38" s="261"/>
-      <c r="N38" s="259"/>
-      <c r="O38" s="264"/>
+      <c r="G38" s="272"/>
+      <c r="H38" s="272"/>
+      <c r="I38" s="281"/>
+      <c r="J38" s="272"/>
+      <c r="K38" s="272"/>
+      <c r="L38" s="272"/>
+      <c r="M38" s="273"/>
+      <c r="N38" s="272"/>
+      <c r="O38" s="276"/>
       <c r="P38" s="62"/>
       <c r="Q38" s="62"/>
     </row>
@@ -10413,22 +10427,22 @@
       <c r="C39" s="110">
         <v>2560</v>
       </c>
-      <c r="D39" s="267"/>
+      <c r="D39" s="279"/>
       <c r="E39" s="101" t="s">
         <v>178</v>
       </c>
       <c r="F39" s="101" t="s">
         <v>179</v>
       </c>
-      <c r="G39" s="259"/>
-      <c r="H39" s="259"/>
-      <c r="I39" s="270"/>
-      <c r="J39" s="259"/>
-      <c r="K39" s="259"/>
-      <c r="L39" s="259"/>
-      <c r="M39" s="261"/>
-      <c r="N39" s="259"/>
-      <c r="O39" s="264"/>
+      <c r="G39" s="272"/>
+      <c r="H39" s="272"/>
+      <c r="I39" s="281"/>
+      <c r="J39" s="272"/>
+      <c r="K39" s="272"/>
+      <c r="L39" s="272"/>
+      <c r="M39" s="273"/>
+      <c r="N39" s="272"/>
+      <c r="O39" s="276"/>
       <c r="P39" s="62"/>
       <c r="Q39" s="62"/>
     </row>
@@ -10442,7 +10456,7 @@
       <c r="C40" s="110">
         <v>2560</v>
       </c>
-      <c r="D40" s="268"/>
+      <c r="D40" s="280"/>
       <c r="E40" s="101" t="s">
         <v>180</v>
       </c>
@@ -10451,13 +10465,13 @@
       </c>
       <c r="G40" s="258"/>
       <c r="H40" s="258"/>
-      <c r="I40" s="271"/>
+      <c r="I40" s="268"/>
       <c r="J40" s="258"/>
       <c r="K40" s="258"/>
       <c r="L40" s="258"/>
-      <c r="M40" s="262"/>
+      <c r="M40" s="260"/>
       <c r="N40" s="258"/>
-      <c r="O40" s="265"/>
+      <c r="O40" s="277"/>
       <c r="P40" s="62"/>
       <c r="Q40" s="62"/>
     </row>
@@ -10699,6 +10713,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="K25:K40"/>
+    <mergeCell ref="L25:L40"/>
+    <mergeCell ref="M25:M40"/>
+    <mergeCell ref="N25:N40"/>
+    <mergeCell ref="O25:O40"/>
+    <mergeCell ref="D25:D40"/>
+    <mergeCell ref="G25:G40"/>
+    <mergeCell ref="H25:H40"/>
+    <mergeCell ref="I25:I40"/>
+    <mergeCell ref="J25:J40"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="I18:I22"/>
+    <mergeCell ref="J18:J22"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="L18:L22"/>
+    <mergeCell ref="M18:M22"/>
+    <mergeCell ref="N18:N22"/>
+    <mergeCell ref="O18:O22"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="N9:N10"/>
@@ -10715,31 +10754,6 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="H18:H22"/>
-    <mergeCell ref="I18:I22"/>
-    <mergeCell ref="J18:J22"/>
-    <mergeCell ref="K18:K22"/>
-    <mergeCell ref="L18:L22"/>
-    <mergeCell ref="M18:M22"/>
-    <mergeCell ref="N18:N22"/>
-    <mergeCell ref="O18:O22"/>
-    <mergeCell ref="O25:O40"/>
-    <mergeCell ref="D25:D40"/>
-    <mergeCell ref="G25:G40"/>
-    <mergeCell ref="H25:H40"/>
-    <mergeCell ref="I25:I40"/>
-    <mergeCell ref="J25:J40"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="K25:K40"/>
-    <mergeCell ref="L25:L40"/>
-    <mergeCell ref="M25:M40"/>
-    <mergeCell ref="N25:N40"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:O49">
     <cfRule type="expression" dxfId="4" priority="1">

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\suji\SourceCode\Local\buildsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEC64B6-9435-46CC-9DCB-4C6EF2DC6074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F6FF3E-AA09-4353-AD96-E6DCF22B3A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E86B7F64-D4B2-42B2-BB21-CEFB44C19956}"/>
   </bookViews>
   <sheets>
     <sheet name="SAP" sheetId="3" r:id="rId1"/>
     <sheet name="SID_FS ASCS+PAS+NFS" sheetId="1" r:id="rId2"/>
-    <sheet name="SID_FS ASCS DR" sheetId="6" r:id="rId3"/>
-    <sheet name="SID_FS ASCS" sheetId="5" r:id="rId4"/>
-    <sheet name="SID_FS PAS DR" sheetId="7" r:id="rId5"/>
+    <sheet name="SID_FS ASCS Prod" sheetId="6" r:id="rId3"/>
+    <sheet name="SID_FS ASCS Non_Prod" sheetId="5" r:id="rId4"/>
+    <sheet name="SID_FS PAS" sheetId="7" r:id="rId5"/>
     <sheet name="SID_FS layout HANA" sheetId="2" r:id="rId6"/>
     <sheet name="SID_FS Layout DB2" sheetId="4" r:id="rId7"/>
   </sheets>
@@ -2499,44 +2499,14 @@
     <xf numFmtId="0" fontId="22" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2545,6 +2515,90 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2554,60 +2608,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2620,6 +2620,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2643,39 +2676,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2685,14 +2685,82 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -2706,74 +2774,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="3" fontId="32" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -6805,7 +6805,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6828,24 +6830,24 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="199"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="204"/>
     </row>
     <row r="3" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="205" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -6875,7 +6877,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="201"/>
+      <c r="B4" s="206"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -6889,7 +6891,7 @@
       <c r="A5" s="17">
         <v>5</v>
       </c>
-      <c r="B5" s="202" t="s">
+      <c r="B5" s="207" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -6898,20 +6900,20 @@
       <c r="D5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="204"/>
-      <c r="F5" s="207">
+      <c r="E5" s="209"/>
+      <c r="F5" s="198">
         <v>1</v>
       </c>
-      <c r="G5" s="202" t="s">
+      <c r="G5" s="207" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="202">
+      <c r="H5" s="207">
         <v>128</v>
       </c>
-      <c r="I5" s="202" t="s">
+      <c r="I5" s="207" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="202">
+      <c r="J5" s="207">
         <v>128</v>
       </c>
     </row>
@@ -6919,55 +6921,55 @@
       <c r="A6" s="17">
         <v>70</v>
       </c>
-      <c r="B6" s="203"/>
+      <c r="B6" s="208"/>
       <c r="C6" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="205"/>
-      <c r="F6" s="207"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="203"/>
-      <c r="I6" s="203"/>
-      <c r="J6" s="203"/>
+      <c r="E6" s="210"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="208"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>20</v>
       </c>
-      <c r="B7" s="203"/>
+      <c r="B7" s="208"/>
       <c r="C7" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="205"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="209"/>
-      <c r="H7" s="209"/>
-      <c r="I7" s="209"/>
-      <c r="J7" s="209"/>
+      <c r="E7" s="210"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>20</v>
       </c>
-      <c r="B8" s="203"/>
+      <c r="B8" s="208"/>
       <c r="C8" s="18" t="s">
         <v>90</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="206"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="209"/>
-      <c r="H8" s="209"/>
-      <c r="I8" s="209"/>
-      <c r="J8" s="209"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="212"/>
+      <c r="H8" s="212"/>
+      <c r="I8" s="212"/>
+      <c r="J8" s="212"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
@@ -6982,78 +6984,78 @@
       <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="210">
+      <c r="A10" s="199">
         <v>128</v>
       </c>
-      <c r="B10" s="207" t="s">
+      <c r="B10" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="208" t="s">
+      <c r="C10" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="212" t="s">
+      <c r="D10" s="202" t="s">
         <v>93</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="207">
+      <c r="F10" s="198">
         <v>1</v>
       </c>
-      <c r="G10" s="207" t="s">
+      <c r="G10" s="198" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="207">
+      <c r="H10" s="198">
         <v>128</v>
       </c>
-      <c r="I10" s="207" t="s">
+      <c r="I10" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="207">
+      <c r="J10" s="198">
         <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="210"/>
-      <c r="B11" s="207"/>
-      <c r="C11" s="211"/>
-      <c r="D11" s="212"/>
+      <c r="A11" s="199"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="202"/>
       <c r="E11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="207"/>
-      <c r="G11" s="207"/>
-      <c r="H11" s="207"/>
-      <c r="I11" s="207"/>
-      <c r="J11" s="207"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="198"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="198"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="210"/>
-      <c r="B12" s="207"/>
-      <c r="C12" s="211"/>
-      <c r="D12" s="212"/>
+      <c r="A12" s="199"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="202"/>
       <c r="E12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="207"/>
-      <c r="G12" s="207"/>
-      <c r="H12" s="207"/>
-      <c r="I12" s="207"/>
-      <c r="J12" s="207"/>
+      <c r="F12" s="198"/>
+      <c r="G12" s="198"/>
+      <c r="H12" s="198"/>
+      <c r="I12" s="198"/>
+      <c r="J12" s="198"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="210"/>
-      <c r="B13" s="207"/>
-      <c r="C13" s="211"/>
-      <c r="D13" s="212"/>
+      <c r="A13" s="199"/>
+      <c r="B13" s="198"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="202"/>
       <c r="E13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="207"/>
-      <c r="G13" s="207"/>
-      <c r="H13" s="207"/>
-      <c r="I13" s="207"/>
-      <c r="J13" s="207"/>
+      <c r="F13" s="198"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="198"/>
+      <c r="I13" s="198"/>
+      <c r="J13" s="198"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
@@ -7133,6 +7135,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="J5:J8"/>
     <mergeCell ref="H10:H13"/>
     <mergeCell ref="I10:I13"/>
     <mergeCell ref="J10:J13"/>
@@ -7142,15 +7153,6 @@
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="G10:G13"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="J5:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -7161,7 +7163,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB18759-5163-44F8-BBC4-77EBDA1B6551}">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7194,40 +7198,40 @@
       <c r="F1" s="138"/>
     </row>
     <row r="2" spans="1:23" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="222" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="221"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="223"/>
+      <c r="N2" s="224"/>
     </row>
     <row r="3" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="222" t="s">
+      <c r="A3" s="225" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="223"/>
-      <c r="C3" s="223"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223"/>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="224"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="226"/>
+      <c r="I3" s="226"/>
+      <c r="J3" s="226"/>
+      <c r="K3" s="226"/>
+      <c r="L3" s="226"/>
+      <c r="M3" s="226"/>
+      <c r="N3" s="227"/>
       <c r="O3" s="139"/>
       <c r="P3" s="139"/>
     </row>
@@ -7298,7 +7302,7 @@
       <c r="B6" s="151">
         <v>5</v>
       </c>
-      <c r="C6" s="216" t="s">
+      <c r="C6" s="228" t="s">
         <v>106</v>
       </c>
       <c r="D6" s="18" t="s">
@@ -7307,25 +7311,25 @@
       <c r="E6" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="F6" s="217" t="s">
+      <c r="F6" s="229" t="s">
         <v>187</v>
       </c>
-      <c r="G6" s="211">
+      <c r="G6" s="201">
         <v>1</v>
       </c>
-      <c r="H6" s="211" t="s">
+      <c r="H6" s="201" t="s">
         <v>188</v>
       </c>
-      <c r="I6" s="211" t="s">
+      <c r="I6" s="201" t="s">
         <v>189</v>
       </c>
-      <c r="J6" s="218">
+      <c r="J6" s="230">
         <v>32</v>
       </c>
-      <c r="K6" s="218" t="s">
+      <c r="K6" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="211">
+      <c r="L6" s="201">
         <f>G6*J6</f>
         <v>32</v>
       </c>
@@ -7337,20 +7341,20 @@
       <c r="B7" s="152">
         <v>10</v>
       </c>
-      <c r="C7" s="216"/>
+      <c r="C7" s="228"/>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="217"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="211"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="218"/>
-      <c r="K7" s="218"/>
-      <c r="L7" s="211"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="201"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="230"/>
+      <c r="K7" s="230"/>
+      <c r="L7" s="201"/>
       <c r="O7" s="32"/>
       <c r="R7" s="150"/>
     </row>
@@ -7359,20 +7363,20 @@
       <c r="B8" s="152">
         <v>10</v>
       </c>
-      <c r="C8" s="216"/>
+      <c r="C8" s="228"/>
       <c r="D8" s="18" t="s">
         <v>89</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="217"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="211"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="218"/>
-      <c r="K8" s="218"/>
-      <c r="L8" s="211"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="201"/>
+      <c r="H8" s="201"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="230"/>
+      <c r="K8" s="230"/>
+      <c r="L8" s="201"/>
       <c r="O8" s="32"/>
       <c r="R8" s="150"/>
     </row>
@@ -7472,22 +7476,22 @@
       <c r="V13" s="32"/>
     </row>
     <row r="14" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="213" t="s">
+      <c r="A14" s="231" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="214"/>
-      <c r="C14" s="214"/>
-      <c r="D14" s="214"/>
-      <c r="E14" s="214"/>
-      <c r="F14" s="214"/>
-      <c r="G14" s="214"/>
-      <c r="H14" s="214"/>
-      <c r="I14" s="214"/>
-      <c r="J14" s="214"/>
-      <c r="K14" s="214"/>
-      <c r="L14" s="214"/>
-      <c r="M14" s="214"/>
-      <c r="N14" s="215"/>
+      <c r="B14" s="232"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="232"/>
+      <c r="E14" s="232"/>
+      <c r="F14" s="232"/>
+      <c r="G14" s="232"/>
+      <c r="H14" s="232"/>
+      <c r="I14" s="232"/>
+      <c r="J14" s="232"/>
+      <c r="K14" s="232"/>
+      <c r="L14" s="232"/>
+      <c r="M14" s="232"/>
+      <c r="N14" s="233"/>
       <c r="O14" s="139"/>
       <c r="P14" s="139"/>
     </row>
@@ -7558,7 +7562,7 @@
       <c r="B17" s="151">
         <v>5</v>
       </c>
-      <c r="C17" s="216" t="s">
+      <c r="C17" s="228" t="s">
         <v>106</v>
       </c>
       <c r="D17" s="18" t="s">
@@ -7567,25 +7571,25 @@
       <c r="E17" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="F17" s="217" t="s">
+      <c r="F17" s="229" t="s">
         <v>187</v>
       </c>
-      <c r="G17" s="211">
+      <c r="G17" s="201">
         <v>1</v>
       </c>
-      <c r="H17" s="211" t="s">
+      <c r="H17" s="201" t="s">
         <v>188</v>
       </c>
-      <c r="I17" s="211" t="s">
+      <c r="I17" s="201" t="s">
         <v>189</v>
       </c>
-      <c r="J17" s="218">
+      <c r="J17" s="230">
         <v>32</v>
       </c>
-      <c r="K17" s="218" t="s">
+      <c r="K17" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="211">
+      <c r="L17" s="201">
         <f>G17*J17</f>
         <v>32</v>
       </c>
@@ -7597,20 +7601,20 @@
       <c r="B18" s="152">
         <v>10</v>
       </c>
-      <c r="C18" s="216"/>
+      <c r="C18" s="228"/>
       <c r="D18" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="217"/>
-      <c r="G18" s="211"/>
-      <c r="H18" s="211"/>
-      <c r="I18" s="211"/>
-      <c r="J18" s="218"/>
-      <c r="K18" s="218"/>
-      <c r="L18" s="211"/>
+      <c r="F18" s="229"/>
+      <c r="G18" s="201"/>
+      <c r="H18" s="201"/>
+      <c r="I18" s="201"/>
+      <c r="J18" s="230"/>
+      <c r="K18" s="230"/>
+      <c r="L18" s="201"/>
       <c r="O18" s="32"/>
       <c r="R18" s="150"/>
     </row>
@@ -7619,20 +7623,20 @@
       <c r="B19" s="152">
         <v>10</v>
       </c>
-      <c r="C19" s="216"/>
+      <c r="C19" s="228"/>
       <c r="D19" s="18" t="s">
         <v>89</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="217"/>
-      <c r="G19" s="211"/>
-      <c r="H19" s="211"/>
-      <c r="I19" s="211"/>
-      <c r="J19" s="218"/>
-      <c r="K19" s="218"/>
-      <c r="L19" s="211"/>
+      <c r="F19" s="229"/>
+      <c r="G19" s="201"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="201"/>
+      <c r="J19" s="230"/>
+      <c r="K19" s="230"/>
+      <c r="L19" s="201"/>
       <c r="O19" s="32"/>
       <c r="R19" s="150"/>
     </row>
@@ -7670,22 +7674,22 @@
       <c r="S21" s="150"/>
     </row>
     <row r="24" spans="1:22" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="225" t="s">
+      <c r="A24" s="219" t="s">
         <v>193</v>
       </c>
-      <c r="B24" s="226"/>
-      <c r="C24" s="226"/>
-      <c r="D24" s="226"/>
-      <c r="E24" s="226"/>
-      <c r="F24" s="226"/>
-      <c r="G24" s="226"/>
-      <c r="H24" s="226"/>
-      <c r="I24" s="226"/>
-      <c r="J24" s="226"/>
-      <c r="K24" s="226"/>
-      <c r="L24" s="226"/>
-      <c r="M24" s="226"/>
-      <c r="N24" s="227"/>
+      <c r="B24" s="220"/>
+      <c r="C24" s="220"/>
+      <c r="D24" s="220"/>
+      <c r="E24" s="220"/>
+      <c r="F24" s="220"/>
+      <c r="G24" s="220"/>
+      <c r="H24" s="220"/>
+      <c r="I24" s="220"/>
+      <c r="J24" s="220"/>
+      <c r="K24" s="220"/>
+      <c r="L24" s="220"/>
+      <c r="M24" s="220"/>
+      <c r="N24" s="221"/>
       <c r="Q24" s="146"/>
       <c r="R24" s="146"/>
       <c r="S24" s="146"/>
@@ -7693,14 +7697,14 @@
       <c r="U24" s="146"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="228" t="s">
+      <c r="A25" s="213" t="s">
         <v>212</v>
       </c>
-      <c r="B25" s="229"/>
-      <c r="C25" s="229"/>
-      <c r="D25" s="229"/>
-      <c r="E25" s="229"/>
-      <c r="F25" s="229"/>
+      <c r="B25" s="214"/>
+      <c r="C25" s="214"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="214"/>
       <c r="G25" s="163"/>
       <c r="H25" s="163"/>
       <c r="I25" s="163"/>
@@ -7740,20 +7744,20 @@
       <c r="K26"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="230" t="s">
+      <c r="A27" s="215" t="s">
         <v>208</v>
       </c>
-      <c r="B27" s="208" t="s">
+      <c r="B27" s="200" t="s">
         <v>202</v>
       </c>
       <c r="C27" s="188" t="s">
         <v>203</v>
       </c>
-      <c r="D27" s="208" t="s">
+      <c r="D27" s="200" t="s">
         <v>200</v>
       </c>
-      <c r="E27" s="230"/>
-      <c r="F27" s="230"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="215"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
@@ -7761,14 +7765,14 @@
       <c r="K27"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="209"/>
-      <c r="B28" s="208"/>
+      <c r="A28" s="212"/>
+      <c r="B28" s="200"/>
       <c r="C28" s="188" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="208"/>
-      <c r="E28" s="209"/>
-      <c r="F28" s="209"/>
+      <c r="D28" s="200"/>
+      <c r="E28" s="212"/>
+      <c r="F28" s="212"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
@@ -7776,14 +7780,14 @@
       <c r="K28"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="209"/>
-      <c r="B29" s="208"/>
+      <c r="A29" s="212"/>
+      <c r="B29" s="200"/>
       <c r="C29" s="188" t="s">
         <v>204</v>
       </c>
-      <c r="D29" s="208"/>
-      <c r="E29" s="209"/>
-      <c r="F29" s="209"/>
+      <c r="D29" s="200"/>
+      <c r="E29" s="212"/>
+      <c r="F29" s="212"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
@@ -7791,14 +7795,14 @@
       <c r="K29"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="209"/>
-      <c r="B30" s="208"/>
+      <c r="A30" s="212"/>
+      <c r="B30" s="200"/>
       <c r="C30" s="188" t="s">
         <v>205</v>
       </c>
-      <c r="D30" s="208"/>
-      <c r="E30" s="209"/>
-      <c r="F30" s="209"/>
+      <c r="D30" s="200"/>
+      <c r="E30" s="212"/>
+      <c r="F30" s="212"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
@@ -7806,14 +7810,14 @@
       <c r="K30"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="209"/>
-      <c r="B31" s="208"/>
+      <c r="A31" s="212"/>
+      <c r="B31" s="200"/>
       <c r="C31" s="188" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="208"/>
-      <c r="E31" s="209"/>
-      <c r="F31" s="209"/>
+      <c r="D31" s="200"/>
+      <c r="E31" s="212"/>
+      <c r="F31" s="212"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
@@ -7821,18 +7825,18 @@
       <c r="K31"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="209"/>
-      <c r="B32" s="208" t="s">
+      <c r="A32" s="212"/>
+      <c r="B32" s="200" t="s">
         <v>207</v>
       </c>
-      <c r="C32" s="232" t="s">
+      <c r="C32" s="217" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="208" t="s">
+      <c r="D32" s="200" t="s">
         <v>201</v>
       </c>
-      <c r="E32" s="209"/>
-      <c r="F32" s="209"/>
+      <c r="E32" s="212"/>
+      <c r="F32" s="212"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
@@ -7840,12 +7844,12 @@
       <c r="K32"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="231"/>
-      <c r="B33" s="208"/>
-      <c r="C33" s="233"/>
-      <c r="D33" s="208"/>
-      <c r="E33" s="231"/>
-      <c r="F33" s="231"/>
+      <c r="A33" s="216"/>
+      <c r="B33" s="200"/>
+      <c r="C33" s="218"/>
+      <c r="D33" s="200"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="216"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
@@ -7866,14 +7870,14 @@
       <c r="K34"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="228" t="s">
+      <c r="A35" s="213" t="s">
         <v>211</v>
       </c>
-      <c r="B35" s="229"/>
-      <c r="C35" s="229"/>
-      <c r="D35" s="229"/>
-      <c r="E35" s="229"/>
-      <c r="F35" s="229"/>
+      <c r="B35" s="214"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="214"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="214"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
@@ -7906,20 +7910,20 @@
       <c r="K36"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="230" t="s">
+      <c r="A37" s="215" t="s">
         <v>209</v>
       </c>
-      <c r="B37" s="208" t="s">
+      <c r="B37" s="200" t="s">
         <v>202</v>
       </c>
       <c r="C37" s="188" t="s">
         <v>203</v>
       </c>
-      <c r="D37" s="208" t="s">
+      <c r="D37" s="200" t="s">
         <v>200</v>
       </c>
-      <c r="E37" s="230"/>
-      <c r="F37" s="230"/>
+      <c r="E37" s="215"/>
+      <c r="F37" s="215"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
@@ -7927,14 +7931,14 @@
       <c r="K37"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="209"/>
-      <c r="B38" s="208"/>
+      <c r="A38" s="212"/>
+      <c r="B38" s="200"/>
       <c r="C38" s="188" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="208"/>
-      <c r="E38" s="209"/>
-      <c r="F38" s="209"/>
+      <c r="D38" s="200"/>
+      <c r="E38" s="212"/>
+      <c r="F38" s="212"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
@@ -7942,14 +7946,14 @@
       <c r="K38"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="209"/>
-      <c r="B39" s="208"/>
+      <c r="A39" s="212"/>
+      <c r="B39" s="200"/>
       <c r="C39" s="188" t="s">
         <v>204</v>
       </c>
-      <c r="D39" s="208"/>
-      <c r="E39" s="209"/>
-      <c r="F39" s="209"/>
+      <c r="D39" s="200"/>
+      <c r="E39" s="212"/>
+      <c r="F39" s="212"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
@@ -7957,12 +7961,12 @@
       <c r="K39"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="209"/>
-      <c r="B40" s="208"/>
+      <c r="A40" s="212"/>
+      <c r="B40" s="200"/>
       <c r="C40" s="188"/>
-      <c r="D40" s="208"/>
-      <c r="E40" s="209"/>
-      <c r="F40" s="209"/>
+      <c r="D40" s="200"/>
+      <c r="E40" s="212"/>
+      <c r="F40" s="212"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
@@ -7970,14 +7974,14 @@
       <c r="K40"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="209"/>
-      <c r="B41" s="208"/>
+      <c r="A41" s="212"/>
+      <c r="B41" s="200"/>
       <c r="C41" s="188" t="s">
         <v>206</v>
       </c>
-      <c r="D41" s="208"/>
-      <c r="E41" s="209"/>
-      <c r="F41" s="209"/>
+      <c r="D41" s="200"/>
+      <c r="E41" s="212"/>
+      <c r="F41" s="212"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
@@ -7985,18 +7989,18 @@
       <c r="K41"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="209"/>
-      <c r="B42" s="208" t="s">
+      <c r="A42" s="212"/>
+      <c r="B42" s="200" t="s">
         <v>207</v>
       </c>
-      <c r="C42" s="232" t="s">
+      <c r="C42" s="217" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="208" t="s">
+      <c r="D42" s="200" t="s">
         <v>201</v>
       </c>
-      <c r="E42" s="209"/>
-      <c r="F42" s="209"/>
+      <c r="E42" s="212"/>
+      <c r="F42" s="212"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
@@ -8004,12 +8008,12 @@
       <c r="K42"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="231"/>
-      <c r="B43" s="208"/>
-      <c r="C43" s="233"/>
-      <c r="D43" s="208"/>
-      <c r="E43" s="231"/>
-      <c r="F43" s="231"/>
+      <c r="A43" s="216"/>
+      <c r="B43" s="200"/>
+      <c r="C43" s="218"/>
+      <c r="D43" s="200"/>
+      <c r="E43" s="216"/>
+      <c r="F43" s="216"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
@@ -8018,17 +8022,25 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
     <mergeCell ref="A24:N24"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A27:A33"/>
@@ -8041,25 +8053,17 @@
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="A14:N14"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8070,7 +8074,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C344AA2B-AA16-45F6-9BD9-D596E441BC49}">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8103,40 +8109,40 @@
       <c r="F1" s="138"/>
     </row>
     <row r="2" spans="1:23" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="222" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="221"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="223"/>
+      <c r="N2" s="224"/>
     </row>
     <row r="3" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="222" t="s">
+      <c r="A3" s="225" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="223"/>
-      <c r="C3" s="223"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223"/>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="224"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="226"/>
+      <c r="I3" s="226"/>
+      <c r="J3" s="226"/>
+      <c r="K3" s="226"/>
+      <c r="L3" s="226"/>
+      <c r="M3" s="226"/>
+      <c r="N3" s="227"/>
       <c r="O3" s="139"/>
       <c r="P3" s="139"/>
     </row>
@@ -8207,7 +8213,7 @@
       <c r="B6" s="151">
         <v>5</v>
       </c>
-      <c r="C6" s="216" t="s">
+      <c r="C6" s="228" t="s">
         <v>106</v>
       </c>
       <c r="D6" s="18" t="s">
@@ -8216,25 +8222,25 @@
       <c r="E6" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="F6" s="217" t="s">
+      <c r="F6" s="229" t="s">
         <v>187</v>
       </c>
-      <c r="G6" s="211">
+      <c r="G6" s="201">
         <v>1</v>
       </c>
-      <c r="H6" s="211" t="s">
+      <c r="H6" s="201" t="s">
         <v>188</v>
       </c>
-      <c r="I6" s="211" t="s">
+      <c r="I6" s="201" t="s">
         <v>189</v>
       </c>
-      <c r="J6" s="218">
+      <c r="J6" s="230">
         <v>32</v>
       </c>
-      <c r="K6" s="218" t="s">
+      <c r="K6" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="211">
+      <c r="L6" s="201">
         <f>G6*J6</f>
         <v>32</v>
       </c>
@@ -8246,20 +8252,20 @@
       <c r="B7" s="152">
         <v>10</v>
       </c>
-      <c r="C7" s="216"/>
+      <c r="C7" s="228"/>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="217"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="211"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="218"/>
-      <c r="K7" s="218"/>
-      <c r="L7" s="211"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="201"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="230"/>
+      <c r="K7" s="230"/>
+      <c r="L7" s="201"/>
       <c r="O7" s="32"/>
       <c r="R7" s="150"/>
     </row>
@@ -8268,20 +8274,20 @@
       <c r="B8" s="152">
         <v>10</v>
       </c>
-      <c r="C8" s="216"/>
+      <c r="C8" s="228"/>
       <c r="D8" s="18" t="s">
         <v>89</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="217"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="211"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="218"/>
-      <c r="K8" s="218"/>
-      <c r="L8" s="211"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="201"/>
+      <c r="H8" s="201"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="230"/>
+      <c r="K8" s="230"/>
+      <c r="L8" s="201"/>
       <c r="O8" s="32"/>
       <c r="R8" s="150"/>
     </row>
@@ -8343,22 +8349,22 @@
       <c r="W11" s="150"/>
     </row>
     <row r="12" spans="1:23" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="225" t="s">
+      <c r="A12" s="219" t="s">
         <v>193</v>
       </c>
-      <c r="B12" s="226"/>
-      <c r="C12" s="226"/>
-      <c r="D12" s="226"/>
-      <c r="E12" s="226"/>
-      <c r="F12" s="226"/>
-      <c r="G12" s="226"/>
-      <c r="H12" s="226"/>
-      <c r="I12" s="226"/>
-      <c r="J12" s="226"/>
-      <c r="K12" s="226"/>
-      <c r="L12" s="226"/>
-      <c r="M12" s="226"/>
-      <c r="N12" s="227"/>
+      <c r="B12" s="220"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="220"/>
+      <c r="E12" s="220"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="220"/>
+      <c r="H12" s="220"/>
+      <c r="I12" s="220"/>
+      <c r="J12" s="220"/>
+      <c r="K12" s="220"/>
+      <c r="L12" s="220"/>
+      <c r="M12" s="220"/>
+      <c r="N12" s="221"/>
       <c r="Q12" s="146"/>
       <c r="R12" s="146"/>
       <c r="S12" s="146"/>
@@ -8366,14 +8372,14 @@
       <c r="U12" s="146"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="228" t="s">
+      <c r="A13" s="213" t="s">
         <v>212</v>
       </c>
-      <c r="B13" s="229"/>
-      <c r="C13" s="229"/>
-      <c r="D13" s="229"/>
-      <c r="E13" s="229"/>
-      <c r="F13" s="229"/>
+      <c r="B13" s="214"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
       <c r="G13" s="163"/>
       <c r="H13" s="163"/>
       <c r="I13" s="163"/>
@@ -8413,20 +8419,20 @@
       <c r="K14"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="230" t="s">
+      <c r="A15" s="215" t="s">
         <v>208</v>
       </c>
-      <c r="B15" s="208" t="s">
+      <c r="B15" s="200" t="s">
         <v>202</v>
       </c>
       <c r="C15" s="188" t="s">
         <v>203</v>
       </c>
-      <c r="D15" s="208" t="s">
+      <c r="D15" s="200" t="s">
         <v>200</v>
       </c>
-      <c r="E15" s="230"/>
-      <c r="F15" s="230"/>
+      <c r="E15" s="215"/>
+      <c r="F15" s="215"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -8434,14 +8440,14 @@
       <c r="K15"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="209"/>
-      <c r="B16" s="208"/>
+      <c r="A16" s="212"/>
+      <c r="B16" s="200"/>
       <c r="C16" s="188" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="208"/>
-      <c r="E16" s="209"/>
-      <c r="F16" s="209"/>
+      <c r="D16" s="200"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="212"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
@@ -8449,14 +8455,14 @@
       <c r="K16"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="209"/>
-      <c r="B17" s="208"/>
+      <c r="A17" s="212"/>
+      <c r="B17" s="200"/>
       <c r="C17" s="188" t="s">
         <v>204</v>
       </c>
-      <c r="D17" s="208"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="209"/>
+      <c r="D17" s="200"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="212"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
@@ -8464,14 +8470,14 @@
       <c r="K17"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="209"/>
-      <c r="B18" s="208"/>
+      <c r="A18" s="212"/>
+      <c r="B18" s="200"/>
       <c r="C18" s="188" t="s">
         <v>205</v>
       </c>
-      <c r="D18" s="208"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
+      <c r="D18" s="200"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
@@ -8479,14 +8485,14 @@
       <c r="K18"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="209"/>
-      <c r="B19" s="208"/>
+      <c r="A19" s="212"/>
+      <c r="B19" s="200"/>
       <c r="C19" s="188" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="208"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
@@ -8494,18 +8500,18 @@
       <c r="K19"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="209"/>
-      <c r="B20" s="208" t="s">
+      <c r="A20" s="212"/>
+      <c r="B20" s="200" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="232" t="s">
+      <c r="C20" s="217" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="208" t="s">
+      <c r="D20" s="200" t="s">
         <v>201</v>
       </c>
-      <c r="E20" s="209"/>
-      <c r="F20" s="209"/>
+      <c r="E20" s="212"/>
+      <c r="F20" s="212"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
@@ -8513,12 +8519,12 @@
       <c r="K20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="231"/>
-      <c r="B21" s="208"/>
-      <c r="C21" s="233"/>
-      <c r="D21" s="208"/>
-      <c r="E21" s="231"/>
-      <c r="F21" s="231"/>
+      <c r="A21" s="216"/>
+      <c r="B21" s="200"/>
+      <c r="C21" s="218"/>
+      <c r="D21" s="200"/>
+      <c r="E21" s="216"/>
+      <c r="F21" s="216"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
@@ -8542,6 +8548,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
     <mergeCell ref="A12:N12"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A15:A21"/>
@@ -8554,16 +8570,6 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8575,7 +8581,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8609,40 +8615,40 @@
       <c r="F1" s="138"/>
     </row>
     <row r="2" spans="1:21" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="222" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="221"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="223"/>
+      <c r="N2" s="224"/>
     </row>
     <row r="3" spans="1:21" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="234" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
-      <c r="L3" s="220"/>
-      <c r="M3" s="220"/>
-      <c r="N3" s="221"/>
+      <c r="B3" s="223"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="224"/>
       <c r="O3" s="139"/>
       <c r="P3" s="139"/>
     </row>
@@ -8744,7 +8750,7 @@
       <c r="B8" s="152">
         <v>5</v>
       </c>
-      <c r="C8" s="216" t="s">
+      <c r="C8" s="228" t="s">
         <v>106</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -8753,22 +8759,22 @@
       <c r="E8" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="F8" s="217" t="s">
+      <c r="F8" s="229" t="s">
         <v>187</v>
       </c>
-      <c r="G8" s="211">
+      <c r="G8" s="201">
         <v>1</v>
       </c>
-      <c r="H8" s="211" t="s">
+      <c r="H8" s="201" t="s">
         <v>188</v>
       </c>
-      <c r="I8" s="211" t="s">
+      <c r="I8" s="201" t="s">
         <v>191</v>
       </c>
-      <c r="J8" s="218">
+      <c r="J8" s="230">
         <v>64</v>
       </c>
-      <c r="K8" s="218" t="s">
+      <c r="K8" s="230" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="235">
@@ -8783,19 +8789,19 @@
       <c r="B9" s="152">
         <v>10</v>
       </c>
-      <c r="C9" s="216"/>
+      <c r="C9" s="228"/>
       <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="217"/>
-      <c r="G9" s="211"/>
-      <c r="H9" s="211"/>
-      <c r="I9" s="211"/>
-      <c r="J9" s="218"/>
-      <c r="K9" s="218"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="201"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="230"/>
+      <c r="K9" s="230"/>
       <c r="L9" s="236"/>
       <c r="O9" s="32"/>
       <c r="R9" s="150"/>
@@ -8805,19 +8811,19 @@
       <c r="B10" s="152">
         <v>40</v>
       </c>
-      <c r="C10" s="216"/>
+      <c r="C10" s="228"/>
       <c r="D10" s="18" t="s">
         <v>89</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="217"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="218"/>
-      <c r="K10" s="218"/>
+      <c r="F10" s="229"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="230"/>
+      <c r="K10" s="230"/>
       <c r="L10" s="237"/>
       <c r="O10" s="32"/>
       <c r="R10" s="150"/>
@@ -8883,7 +8889,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8898,12 +8904,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="249" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -8946,74 +8952,74 @@
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="239" t="s">
+      <c r="A4" s="250" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="240"/>
-      <c r="C4" s="240"/>
-      <c r="D4" s="240"/>
-      <c r="E4" s="240"/>
-      <c r="F4" s="240"/>
-      <c r="G4" s="240"/>
-      <c r="H4" s="240"/>
-      <c r="I4" s="240"/>
-      <c r="J4" s="240"/>
-      <c r="K4" s="240"/>
-      <c r="L4" s="241"/>
+      <c r="B4" s="251"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="251"/>
+      <c r="G4" s="251"/>
+      <c r="H4" s="251"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="251"/>
+      <c r="L4" s="252"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="242"/>
+      <c r="A5" s="253"/>
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="200" t="s">
+      <c r="C5" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="242" t="s">
+      <c r="D5" s="253" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="242" t="s">
+      <c r="E5" s="253" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="242" t="s">
+      <c r="F5" s="253" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="200" t="s">
+      <c r="H5" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="200" t="s">
+      <c r="I5" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="200" t="s">
+      <c r="J5" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="200" t="s">
+      <c r="K5" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="244" t="s">
+      <c r="L5" s="255" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="243"/>
+      <c r="A6" s="254"/>
       <c r="B6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="201"/>
-      <c r="D6" s="243"/>
-      <c r="E6" s="243"/>
-      <c r="F6" s="243"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="254"/>
+      <c r="E6" s="254"/>
+      <c r="F6" s="254"/>
       <c r="G6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="201"/>
-      <c r="I6" s="201"/>
-      <c r="J6" s="201"/>
-      <c r="K6" s="201"/>
-      <c r="L6" s="245"/>
+      <c r="H6" s="206"/>
+      <c r="I6" s="206"/>
+      <c r="J6" s="206"/>
+      <c r="K6" s="206"/>
+      <c r="L6" s="256"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
@@ -9034,7 +9040,7 @@
       <c r="B8" s="40">
         <v>1</v>
       </c>
-      <c r="C8" s="252" t="s">
+      <c r="C8" s="244" t="s">
         <v>106</v>
       </c>
       <c r="D8" s="38" t="s">
@@ -9043,25 +9049,25 @@
       <c r="E8" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="246">
+      <c r="F8" s="238">
         <v>1</v>
       </c>
-      <c r="G8" s="246" t="s">
+      <c r="G8" s="238" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="246" t="s">
+      <c r="H8" s="238" t="s">
         <v>114</v>
       </c>
-      <c r="I8" s="246">
+      <c r="I8" s="238">
         <v>64</v>
       </c>
-      <c r="J8" s="246" t="s">
+      <c r="J8" s="238" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="246" t="s">
+      <c r="K8" s="238" t="s">
         <v>115</v>
       </c>
-      <c r="L8" s="249">
+      <c r="L8" s="241">
         <v>64</v>
       </c>
     </row>
@@ -9070,40 +9076,40 @@
       <c r="B9" s="40">
         <v>50</v>
       </c>
-      <c r="C9" s="253"/>
+      <c r="C9" s="245"/>
       <c r="D9" s="38" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="247"/>
-      <c r="G9" s="247"/>
-      <c r="H9" s="247"/>
-      <c r="I9" s="247"/>
-      <c r="J9" s="247"/>
-      <c r="K9" s="247"/>
-      <c r="L9" s="250"/>
+      <c r="F9" s="239"/>
+      <c r="G9" s="239"/>
+      <c r="H9" s="239"/>
+      <c r="I9" s="239"/>
+      <c r="J9" s="239"/>
+      <c r="K9" s="239"/>
+      <c r="L9" s="242"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="41"/>
       <c r="B10" s="40">
         <v>10</v>
       </c>
-      <c r="C10" s="254"/>
+      <c r="C10" s="246"/>
       <c r="D10" s="38" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="248"/>
-      <c r="G10" s="247"/>
-      <c r="H10" s="248"/>
-      <c r="I10" s="248"/>
-      <c r="J10" s="248"/>
-      <c r="K10" s="248"/>
-      <c r="L10" s="251"/>
+      <c r="F10" s="240"/>
+      <c r="G10" s="239"/>
+      <c r="H10" s="240"/>
+      <c r="I10" s="240"/>
+      <c r="J10" s="240"/>
+      <c r="K10" s="240"/>
+      <c r="L10" s="243"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
@@ -9122,7 +9128,7 @@
       <c r="F11" s="43">
         <v>1</v>
       </c>
-      <c r="G11" s="255"/>
+      <c r="G11" s="247"/>
       <c r="H11" s="43" t="s">
         <v>116</v>
       </c>
@@ -9156,7 +9162,7 @@
       <c r="F12" s="43">
         <v>1</v>
       </c>
-      <c r="G12" s="255"/>
+      <c r="G12" s="247"/>
       <c r="H12" s="43" t="s">
         <v>12</v>
       </c>
@@ -9190,7 +9196,7 @@
       <c r="F13" s="43">
         <v>1</v>
       </c>
-      <c r="G13" s="256"/>
+      <c r="G13" s="248"/>
       <c r="H13" s="43" t="s">
         <v>116</v>
       </c>
@@ -9283,14 +9289,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A5:A6"/>
@@ -9303,6 +9301,14 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9313,9 +9319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AA1110-C737-425D-9585-DABC7B4C00D8}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9542,7 +9546,7 @@
       <c r="C9" s="100">
         <v>1</v>
       </c>
-      <c r="D9" s="265" t="s">
+      <c r="D9" s="274" t="s">
         <v>106</v>
       </c>
       <c r="E9" s="101" t="s">
@@ -9551,7 +9555,7 @@
       <c r="F9" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="267">
+      <c r="G9" s="269">
         <v>1</v>
       </c>
       <c r="H9" s="257" t="s">
@@ -9569,11 +9573,11 @@
       <c r="L9" s="257">
         <v>32</v>
       </c>
-      <c r="M9" s="259" t="s">
+      <c r="M9" s="260" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="259"/>
-      <c r="O9" s="261">
+      <c r="N9" s="260"/>
+      <c r="O9" s="278">
         <v>32</v>
       </c>
       <c r="P9" s="62"/>
@@ -9587,22 +9591,22 @@
       <c r="C10" s="100">
         <v>10</v>
       </c>
-      <c r="D10" s="266"/>
+      <c r="D10" s="276"/>
       <c r="E10" s="101" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="268"/>
+      <c r="G10" s="271"/>
       <c r="H10" s="258"/>
       <c r="I10" s="258"/>
       <c r="J10" s="258"/>
       <c r="K10" s="258"/>
       <c r="L10" s="258"/>
-      <c r="M10" s="260"/>
-      <c r="N10" s="260"/>
-      <c r="O10" s="262"/>
+      <c r="M10" s="262"/>
+      <c r="N10" s="262"/>
+      <c r="O10" s="279"/>
       <c r="P10" s="62"/>
       <c r="Q10" s="62"/>
     </row>
@@ -9660,7 +9664,7 @@
       <c r="C13" s="100">
         <v>2045</v>
       </c>
-      <c r="D13" s="263" t="s">
+      <c r="D13" s="280" t="s">
         <v>135</v>
       </c>
       <c r="E13" s="101" t="s">
@@ -9687,11 +9691,11 @@
       <c r="L13" s="257">
         <v>1024</v>
       </c>
-      <c r="M13" s="259" t="s">
+      <c r="M13" s="260" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="259"/>
-      <c r="O13" s="269">
+      <c r="N13" s="260"/>
+      <c r="O13" s="272">
         <v>2048</v>
       </c>
       <c r="P13" s="62"/>
@@ -9705,7 +9709,7 @@
       <c r="C14" s="100">
         <v>2</v>
       </c>
-      <c r="D14" s="264"/>
+      <c r="D14" s="281"/>
       <c r="E14" s="101" t="s">
         <v>137</v>
       </c>
@@ -9718,9 +9722,9 @@
       <c r="J14" s="258"/>
       <c r="K14" s="258"/>
       <c r="L14" s="258"/>
-      <c r="M14" s="260"/>
-      <c r="N14" s="260"/>
-      <c r="O14" s="270"/>
+      <c r="M14" s="262"/>
+      <c r="N14" s="262"/>
+      <c r="O14" s="273"/>
       <c r="P14" s="62"/>
       <c r="Q14" s="62"/>
     </row>
@@ -9799,7 +9803,7 @@
       <c r="C18" s="100">
         <v>267</v>
       </c>
-      <c r="D18" s="265" t="s">
+      <c r="D18" s="274" t="s">
         <v>139</v>
       </c>
       <c r="E18" s="101" t="s">
@@ -9826,11 +9830,11 @@
       <c r="L18" s="257">
         <v>1024</v>
       </c>
-      <c r="M18" s="259" t="s">
+      <c r="M18" s="260" t="s">
         <v>13</v>
       </c>
       <c r="N18" s="257"/>
-      <c r="O18" s="269">
+      <c r="O18" s="272">
         <v>1024</v>
       </c>
       <c r="P18" s="62"/>
@@ -9844,22 +9848,22 @@
       <c r="C19" s="100">
         <v>267</v>
       </c>
-      <c r="D19" s="271"/>
+      <c r="D19" s="275"/>
       <c r="E19" s="101" t="s">
         <v>142</v>
       </c>
       <c r="F19" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="272"/>
-      <c r="H19" s="272"/>
-      <c r="I19" s="272"/>
-      <c r="J19" s="272"/>
-      <c r="K19" s="272"/>
-      <c r="L19" s="272"/>
-      <c r="M19" s="273"/>
-      <c r="N19" s="272"/>
-      <c r="O19" s="274"/>
+      <c r="G19" s="259"/>
+      <c r="H19" s="259"/>
+      <c r="I19" s="259"/>
+      <c r="J19" s="259"/>
+      <c r="K19" s="259"/>
+      <c r="L19" s="259"/>
+      <c r="M19" s="261"/>
+      <c r="N19" s="259"/>
+      <c r="O19" s="277"/>
       <c r="P19" s="62"/>
       <c r="Q19" s="62"/>
     </row>
@@ -9871,22 +9875,22 @@
       <c r="C20" s="100">
         <v>50</v>
       </c>
-      <c r="D20" s="271"/>
+      <c r="D20" s="275"/>
       <c r="E20" s="101" t="s">
         <v>144</v>
       </c>
       <c r="F20" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="272"/>
-      <c r="H20" s="272"/>
-      <c r="I20" s="272"/>
-      <c r="J20" s="272"/>
-      <c r="K20" s="272"/>
-      <c r="L20" s="272"/>
-      <c r="M20" s="273"/>
-      <c r="N20" s="272"/>
-      <c r="O20" s="274"/>
+      <c r="G20" s="259"/>
+      <c r="H20" s="259"/>
+      <c r="I20" s="259"/>
+      <c r="J20" s="259"/>
+      <c r="K20" s="259"/>
+      <c r="L20" s="259"/>
+      <c r="M20" s="261"/>
+      <c r="N20" s="259"/>
+      <c r="O20" s="277"/>
       <c r="P20" s="62"/>
       <c r="Q20" s="62"/>
     </row>
@@ -9898,22 +9902,22 @@
       <c r="C21" s="100">
         <v>50</v>
       </c>
-      <c r="D21" s="271"/>
+      <c r="D21" s="275"/>
       <c r="E21" s="101" t="s">
         <v>145</v>
       </c>
       <c r="F21" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="G21" s="272"/>
-      <c r="H21" s="272"/>
-      <c r="I21" s="272"/>
-      <c r="J21" s="272"/>
-      <c r="K21" s="272"/>
-      <c r="L21" s="272"/>
-      <c r="M21" s="273"/>
-      <c r="N21" s="272"/>
-      <c r="O21" s="274"/>
+      <c r="G21" s="259"/>
+      <c r="H21" s="259"/>
+      <c r="I21" s="259"/>
+      <c r="J21" s="259"/>
+      <c r="K21" s="259"/>
+      <c r="L21" s="259"/>
+      <c r="M21" s="261"/>
+      <c r="N21" s="259"/>
+      <c r="O21" s="277"/>
       <c r="P21" s="62"/>
       <c r="Q21" s="62"/>
     </row>
@@ -9925,7 +9929,7 @@
       <c r="C22" s="100">
         <v>50</v>
       </c>
-      <c r="D22" s="266"/>
+      <c r="D22" s="276"/>
       <c r="E22" s="101" t="s">
         <v>147</v>
       </c>
@@ -9938,9 +9942,9 @@
       <c r="J22" s="258"/>
       <c r="K22" s="258"/>
       <c r="L22" s="258"/>
-      <c r="M22" s="260"/>
+      <c r="M22" s="262"/>
       <c r="N22" s="258"/>
-      <c r="O22" s="270"/>
+      <c r="O22" s="273"/>
       <c r="P22" s="62"/>
       <c r="Q22" s="62"/>
     </row>
@@ -10000,7 +10004,7 @@
       <c r="C25" s="110">
         <v>2560</v>
       </c>
-      <c r="D25" s="278" t="s">
+      <c r="D25" s="266" t="s">
         <v>149</v>
       </c>
       <c r="E25" s="101" t="s">
@@ -10015,7 +10019,7 @@
       <c r="H25" s="257" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="267" t="s">
+      <c r="I25" s="269" t="s">
         <v>131</v>
       </c>
       <c r="J25" s="257">
@@ -10027,13 +10031,13 @@
       <c r="L25" s="257">
         <v>4096</v>
       </c>
-      <c r="M25" s="259" t="s">
+      <c r="M25" s="260" t="s">
         <v>13</v>
       </c>
       <c r="N25" s="257" t="s">
         <v>132</v>
       </c>
-      <c r="O25" s="275">
+      <c r="O25" s="263">
         <f>G25*L25</f>
         <v>40960</v>
       </c>
@@ -10050,22 +10054,22 @@
       <c r="C26" s="110">
         <v>2560</v>
       </c>
-      <c r="D26" s="279"/>
+      <c r="D26" s="267"/>
       <c r="E26" s="101" t="s">
         <v>152</v>
       </c>
       <c r="F26" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="G26" s="272"/>
-      <c r="H26" s="272"/>
-      <c r="I26" s="281"/>
-      <c r="J26" s="272"/>
-      <c r="K26" s="272"/>
-      <c r="L26" s="272"/>
-      <c r="M26" s="273"/>
-      <c r="N26" s="272"/>
-      <c r="O26" s="276"/>
+      <c r="G26" s="259"/>
+      <c r="H26" s="259"/>
+      <c r="I26" s="270"/>
+      <c r="J26" s="259"/>
+      <c r="K26" s="259"/>
+      <c r="L26" s="259"/>
+      <c r="M26" s="261"/>
+      <c r="N26" s="259"/>
+      <c r="O26" s="264"/>
       <c r="P26" s="62"/>
       <c r="Q26" s="62"/>
     </row>
@@ -10079,22 +10083,22 @@
       <c r="C27" s="110">
         <v>2560</v>
       </c>
-      <c r="D27" s="279"/>
+      <c r="D27" s="267"/>
       <c r="E27" s="101" t="s">
         <v>154</v>
       </c>
       <c r="F27" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="G27" s="272"/>
-      <c r="H27" s="272"/>
-      <c r="I27" s="281"/>
-      <c r="J27" s="272"/>
-      <c r="K27" s="272"/>
-      <c r="L27" s="272"/>
-      <c r="M27" s="273"/>
-      <c r="N27" s="272"/>
-      <c r="O27" s="276"/>
+      <c r="G27" s="259"/>
+      <c r="H27" s="259"/>
+      <c r="I27" s="270"/>
+      <c r="J27" s="259"/>
+      <c r="K27" s="259"/>
+      <c r="L27" s="259"/>
+      <c r="M27" s="261"/>
+      <c r="N27" s="259"/>
+      <c r="O27" s="264"/>
       <c r="P27" s="62"/>
       <c r="Q27" s="62"/>
     </row>
@@ -10108,22 +10112,22 @@
       <c r="C28" s="110">
         <v>2560</v>
       </c>
-      <c r="D28" s="279"/>
+      <c r="D28" s="267"/>
       <c r="E28" s="101" t="s">
         <v>156</v>
       </c>
       <c r="F28" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="G28" s="272"/>
-      <c r="H28" s="272"/>
-      <c r="I28" s="281"/>
-      <c r="J28" s="272"/>
-      <c r="K28" s="272"/>
-      <c r="L28" s="272"/>
-      <c r="M28" s="273"/>
-      <c r="N28" s="272"/>
-      <c r="O28" s="276"/>
+      <c r="G28" s="259"/>
+      <c r="H28" s="259"/>
+      <c r="I28" s="270"/>
+      <c r="J28" s="259"/>
+      <c r="K28" s="259"/>
+      <c r="L28" s="259"/>
+      <c r="M28" s="261"/>
+      <c r="N28" s="259"/>
+      <c r="O28" s="264"/>
       <c r="P28" s="62"/>
       <c r="Q28" s="62"/>
     </row>
@@ -10137,22 +10141,22 @@
       <c r="C29" s="110">
         <v>2560</v>
       </c>
-      <c r="D29" s="279"/>
+      <c r="D29" s="267"/>
       <c r="E29" s="101" t="s">
         <v>158</v>
       </c>
       <c r="F29" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="G29" s="272"/>
-      <c r="H29" s="272"/>
-      <c r="I29" s="281"/>
-      <c r="J29" s="272"/>
-      <c r="K29" s="272"/>
-      <c r="L29" s="272"/>
-      <c r="M29" s="273"/>
-      <c r="N29" s="272"/>
-      <c r="O29" s="276"/>
+      <c r="G29" s="259"/>
+      <c r="H29" s="259"/>
+      <c r="I29" s="270"/>
+      <c r="J29" s="259"/>
+      <c r="K29" s="259"/>
+      <c r="L29" s="259"/>
+      <c r="M29" s="261"/>
+      <c r="N29" s="259"/>
+      <c r="O29" s="264"/>
       <c r="P29" s="62"/>
       <c r="Q29" s="62"/>
     </row>
@@ -10166,22 +10170,22 @@
       <c r="C30" s="110">
         <v>2560</v>
       </c>
-      <c r="D30" s="279"/>
+      <c r="D30" s="267"/>
       <c r="E30" s="101" t="s">
         <v>160</v>
       </c>
       <c r="F30" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="G30" s="272"/>
-      <c r="H30" s="272"/>
-      <c r="I30" s="281"/>
-      <c r="J30" s="272"/>
-      <c r="K30" s="272"/>
-      <c r="L30" s="272"/>
-      <c r="M30" s="273"/>
-      <c r="N30" s="272"/>
-      <c r="O30" s="276"/>
+      <c r="G30" s="259"/>
+      <c r="H30" s="259"/>
+      <c r="I30" s="270"/>
+      <c r="J30" s="259"/>
+      <c r="K30" s="259"/>
+      <c r="L30" s="259"/>
+      <c r="M30" s="261"/>
+      <c r="N30" s="259"/>
+      <c r="O30" s="264"/>
       <c r="P30" s="62"/>
       <c r="Q30" s="62"/>
     </row>
@@ -10195,22 +10199,22 @@
       <c r="C31" s="110">
         <v>2560</v>
       </c>
-      <c r="D31" s="279"/>
+      <c r="D31" s="267"/>
       <c r="E31" s="101" t="s">
         <v>162</v>
       </c>
       <c r="F31" s="101" t="s">
         <v>163</v>
       </c>
-      <c r="G31" s="272"/>
-      <c r="H31" s="272"/>
-      <c r="I31" s="281"/>
-      <c r="J31" s="272"/>
-      <c r="K31" s="272"/>
-      <c r="L31" s="272"/>
-      <c r="M31" s="273"/>
-      <c r="N31" s="272"/>
-      <c r="O31" s="276"/>
+      <c r="G31" s="259"/>
+      <c r="H31" s="259"/>
+      <c r="I31" s="270"/>
+      <c r="J31" s="259"/>
+      <c r="K31" s="259"/>
+      <c r="L31" s="259"/>
+      <c r="M31" s="261"/>
+      <c r="N31" s="259"/>
+      <c r="O31" s="264"/>
       <c r="P31" s="62"/>
       <c r="Q31" s="62"/>
     </row>
@@ -10224,22 +10228,22 @@
       <c r="C32" s="110">
         <v>2560</v>
       </c>
-      <c r="D32" s="279"/>
+      <c r="D32" s="267"/>
       <c r="E32" s="101" t="s">
         <v>164</v>
       </c>
       <c r="F32" s="101" t="s">
         <v>165</v>
       </c>
-      <c r="G32" s="272"/>
-      <c r="H32" s="272"/>
-      <c r="I32" s="281"/>
-      <c r="J32" s="272"/>
-      <c r="K32" s="272"/>
-      <c r="L32" s="272"/>
-      <c r="M32" s="273"/>
-      <c r="N32" s="272"/>
-      <c r="O32" s="276"/>
+      <c r="G32" s="259"/>
+      <c r="H32" s="259"/>
+      <c r="I32" s="270"/>
+      <c r="J32" s="259"/>
+      <c r="K32" s="259"/>
+      <c r="L32" s="259"/>
+      <c r="M32" s="261"/>
+      <c r="N32" s="259"/>
+      <c r="O32" s="264"/>
       <c r="P32" s="62"/>
       <c r="Q32" s="62"/>
     </row>
@@ -10253,22 +10257,22 @@
       <c r="C33" s="110">
         <v>2560</v>
       </c>
-      <c r="D33" s="279"/>
+      <c r="D33" s="267"/>
       <c r="E33" s="101" t="s">
         <v>166</v>
       </c>
       <c r="F33" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="G33" s="272"/>
-      <c r="H33" s="272"/>
-      <c r="I33" s="281"/>
-      <c r="J33" s="272"/>
-      <c r="K33" s="272"/>
-      <c r="L33" s="272"/>
-      <c r="M33" s="273"/>
-      <c r="N33" s="272"/>
-      <c r="O33" s="276"/>
+      <c r="G33" s="259"/>
+      <c r="H33" s="259"/>
+      <c r="I33" s="270"/>
+      <c r="J33" s="259"/>
+      <c r="K33" s="259"/>
+      <c r="L33" s="259"/>
+      <c r="M33" s="261"/>
+      <c r="N33" s="259"/>
+      <c r="O33" s="264"/>
       <c r="P33" s="62"/>
       <c r="Q33" s="62"/>
     </row>
@@ -10282,22 +10286,22 @@
       <c r="C34" s="110">
         <v>2560</v>
       </c>
-      <c r="D34" s="279"/>
+      <c r="D34" s="267"/>
       <c r="E34" s="101" t="s">
         <v>168</v>
       </c>
       <c r="F34" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="G34" s="272"/>
-      <c r="H34" s="272"/>
-      <c r="I34" s="281"/>
-      <c r="J34" s="272"/>
-      <c r="K34" s="272"/>
-      <c r="L34" s="272"/>
-      <c r="M34" s="273"/>
-      <c r="N34" s="272"/>
-      <c r="O34" s="276"/>
+      <c r="G34" s="259"/>
+      <c r="H34" s="259"/>
+      <c r="I34" s="270"/>
+      <c r="J34" s="259"/>
+      <c r="K34" s="259"/>
+      <c r="L34" s="259"/>
+      <c r="M34" s="261"/>
+      <c r="N34" s="259"/>
+      <c r="O34" s="264"/>
       <c r="P34" s="62"/>
       <c r="Q34" s="62"/>
     </row>
@@ -10311,22 +10315,22 @@
       <c r="C35" s="110">
         <v>2560</v>
       </c>
-      <c r="D35" s="279"/>
+      <c r="D35" s="267"/>
       <c r="E35" s="101" t="s">
         <v>170</v>
       </c>
       <c r="F35" s="101" t="s">
         <v>171</v>
       </c>
-      <c r="G35" s="272"/>
-      <c r="H35" s="272"/>
-      <c r="I35" s="281"/>
-      <c r="J35" s="272"/>
-      <c r="K35" s="272"/>
-      <c r="L35" s="272"/>
-      <c r="M35" s="273"/>
-      <c r="N35" s="272"/>
-      <c r="O35" s="276"/>
+      <c r="G35" s="259"/>
+      <c r="H35" s="259"/>
+      <c r="I35" s="270"/>
+      <c r="J35" s="259"/>
+      <c r="K35" s="259"/>
+      <c r="L35" s="259"/>
+      <c r="M35" s="261"/>
+      <c r="N35" s="259"/>
+      <c r="O35" s="264"/>
       <c r="P35" s="62"/>
       <c r="Q35" s="62"/>
     </row>
@@ -10340,22 +10344,22 @@
       <c r="C36" s="110">
         <v>2560</v>
       </c>
-      <c r="D36" s="279"/>
+      <c r="D36" s="267"/>
       <c r="E36" s="101" t="s">
         <v>172</v>
       </c>
       <c r="F36" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="G36" s="272"/>
-      <c r="H36" s="272"/>
-      <c r="I36" s="281"/>
-      <c r="J36" s="272"/>
-      <c r="K36" s="272"/>
-      <c r="L36" s="272"/>
-      <c r="M36" s="273"/>
-      <c r="N36" s="272"/>
-      <c r="O36" s="276"/>
+      <c r="G36" s="259"/>
+      <c r="H36" s="259"/>
+      <c r="I36" s="270"/>
+      <c r="J36" s="259"/>
+      <c r="K36" s="259"/>
+      <c r="L36" s="259"/>
+      <c r="M36" s="261"/>
+      <c r="N36" s="259"/>
+      <c r="O36" s="264"/>
       <c r="P36" s="62"/>
       <c r="Q36" s="62"/>
     </row>
@@ -10369,22 +10373,22 @@
       <c r="C37" s="110">
         <v>2560</v>
       </c>
-      <c r="D37" s="279"/>
+      <c r="D37" s="267"/>
       <c r="E37" s="101" t="s">
         <v>174</v>
       </c>
       <c r="F37" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="G37" s="272"/>
-      <c r="H37" s="272"/>
-      <c r="I37" s="281"/>
-      <c r="J37" s="272"/>
-      <c r="K37" s="272"/>
-      <c r="L37" s="272"/>
-      <c r="M37" s="273"/>
-      <c r="N37" s="272"/>
-      <c r="O37" s="276"/>
+      <c r="G37" s="259"/>
+      <c r="H37" s="259"/>
+      <c r="I37" s="270"/>
+      <c r="J37" s="259"/>
+      <c r="K37" s="259"/>
+      <c r="L37" s="259"/>
+      <c r="M37" s="261"/>
+      <c r="N37" s="259"/>
+      <c r="O37" s="264"/>
       <c r="P37" s="62"/>
       <c r="Q37" s="62"/>
     </row>
@@ -10398,22 +10402,22 @@
       <c r="C38" s="110">
         <v>2560</v>
       </c>
-      <c r="D38" s="279"/>
+      <c r="D38" s="267"/>
       <c r="E38" s="101" t="s">
         <v>176</v>
       </c>
       <c r="F38" s="101" t="s">
         <v>177</v>
       </c>
-      <c r="G38" s="272"/>
-      <c r="H38" s="272"/>
-      <c r="I38" s="281"/>
-      <c r="J38" s="272"/>
-      <c r="K38" s="272"/>
-      <c r="L38" s="272"/>
-      <c r="M38" s="273"/>
-      <c r="N38" s="272"/>
-      <c r="O38" s="276"/>
+      <c r="G38" s="259"/>
+      <c r="H38" s="259"/>
+      <c r="I38" s="270"/>
+      <c r="J38" s="259"/>
+      <c r="K38" s="259"/>
+      <c r="L38" s="259"/>
+      <c r="M38" s="261"/>
+      <c r="N38" s="259"/>
+      <c r="O38" s="264"/>
       <c r="P38" s="62"/>
       <c r="Q38" s="62"/>
     </row>
@@ -10427,22 +10431,22 @@
       <c r="C39" s="110">
         <v>2560</v>
       </c>
-      <c r="D39" s="279"/>
+      <c r="D39" s="267"/>
       <c r="E39" s="101" t="s">
         <v>178</v>
       </c>
       <c r="F39" s="101" t="s">
         <v>179</v>
       </c>
-      <c r="G39" s="272"/>
-      <c r="H39" s="272"/>
-      <c r="I39" s="281"/>
-      <c r="J39" s="272"/>
-      <c r="K39" s="272"/>
-      <c r="L39" s="272"/>
-      <c r="M39" s="273"/>
-      <c r="N39" s="272"/>
-      <c r="O39" s="276"/>
+      <c r="G39" s="259"/>
+      <c r="H39" s="259"/>
+      <c r="I39" s="270"/>
+      <c r="J39" s="259"/>
+      <c r="K39" s="259"/>
+      <c r="L39" s="259"/>
+      <c r="M39" s="261"/>
+      <c r="N39" s="259"/>
+      <c r="O39" s="264"/>
       <c r="P39" s="62"/>
       <c r="Q39" s="62"/>
     </row>
@@ -10456,7 +10460,7 @@
       <c r="C40" s="110">
         <v>2560</v>
       </c>
-      <c r="D40" s="280"/>
+      <c r="D40" s="268"/>
       <c r="E40" s="101" t="s">
         <v>180</v>
       </c>
@@ -10465,13 +10469,13 @@
       </c>
       <c r="G40" s="258"/>
       <c r="H40" s="258"/>
-      <c r="I40" s="268"/>
+      <c r="I40" s="271"/>
       <c r="J40" s="258"/>
       <c r="K40" s="258"/>
       <c r="L40" s="258"/>
-      <c r="M40" s="260"/>
+      <c r="M40" s="262"/>
       <c r="N40" s="258"/>
-      <c r="O40" s="277"/>
+      <c r="O40" s="265"/>
       <c r="P40" s="62"/>
       <c r="Q40" s="62"/>
     </row>
@@ -10713,31 +10717,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="K25:K40"/>
-    <mergeCell ref="L25:L40"/>
-    <mergeCell ref="M25:M40"/>
-    <mergeCell ref="N25:N40"/>
-    <mergeCell ref="O25:O40"/>
-    <mergeCell ref="D25:D40"/>
-    <mergeCell ref="G25:G40"/>
-    <mergeCell ref="H25:H40"/>
-    <mergeCell ref="I25:I40"/>
-    <mergeCell ref="J25:J40"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="H18:H22"/>
-    <mergeCell ref="I18:I22"/>
-    <mergeCell ref="J18:J22"/>
-    <mergeCell ref="K18:K22"/>
-    <mergeCell ref="L18:L22"/>
-    <mergeCell ref="M18:M22"/>
-    <mergeCell ref="N18:N22"/>
-    <mergeCell ref="O18:O22"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="N9:N10"/>
@@ -10754,6 +10733,31 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="I18:I22"/>
+    <mergeCell ref="J18:J22"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="L18:L22"/>
+    <mergeCell ref="M18:M22"/>
+    <mergeCell ref="N18:N22"/>
+    <mergeCell ref="O18:O22"/>
+    <mergeCell ref="O25:O40"/>
+    <mergeCell ref="D25:D40"/>
+    <mergeCell ref="G25:G40"/>
+    <mergeCell ref="H25:H40"/>
+    <mergeCell ref="I25:I40"/>
+    <mergeCell ref="J25:J40"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="K25:K40"/>
+    <mergeCell ref="L25:L40"/>
+    <mergeCell ref="M25:M40"/>
+    <mergeCell ref="N25:N40"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:O49">
     <cfRule type="expression" dxfId="4" priority="1">
